--- a/France National/France National.xlsx
+++ b/France National/France National.xlsx
@@ -199,10 +199,10 @@
     <t>Nimes</t>
   </si>
   <si>
-    <t>GOAL FC</t>
+    <t>Rouen</t>
   </si>
   <si>
-    <t>Rouen</t>
+    <t>GOAL FC</t>
   </si>
   <si>
     <t>Sochaux</t>
@@ -45529,7 +45529,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>5337870</v>
+        <v>5337872</v>
       </c>
       <c r="C506" t="s">
         <v>28</v>
@@ -45541,13 +45541,13 @@
         <v>44820.60416666666</v>
       </c>
       <c r="F506" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G506" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H506">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I506">
         <v>0</v>
@@ -45556,43 +45556,43 @@
         <v>65</v>
       </c>
       <c r="K506">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L506">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M506">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="N506">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O506">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="P506">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="Q506">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R506">
+        <v>1.825</v>
+      </c>
+      <c r="S506">
+        <v>1.975</v>
+      </c>
+      <c r="T506">
+        <v>2.5</v>
+      </c>
+      <c r="U506">
         <v>1.8</v>
       </c>
-      <c r="S506">
-        <v>2</v>
-      </c>
-      <c r="T506">
-        <v>2</v>
-      </c>
-      <c r="U506">
-        <v>1.85</v>
-      </c>
       <c r="V506">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W506">
-        <v>1.1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X506">
         <v>-1</v>
@@ -45601,16 +45601,16 @@
         <v>-1</v>
       </c>
       <c r="Z506">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA506">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB506">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC506">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:29">
@@ -45618,7 +45618,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>5337869</v>
+        <v>5337871</v>
       </c>
       <c r="C507" t="s">
         <v>28</v>
@@ -45630,76 +45630,76 @@
         <v>44820.60416666666</v>
       </c>
       <c r="F507" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G507" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H507">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I507">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J507" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K507">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L507">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M507">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="N507">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O507">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P507">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q507">
         <v>-0.5</v>
       </c>
       <c r="R507">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S507">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T507">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U507">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V507">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W507">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X507">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y507">
         <v>-1</v>
       </c>
       <c r="Z507">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA507">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB507">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC507">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="508" spans="1:29">
@@ -45707,7 +45707,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>5337871</v>
+        <v>5337869</v>
       </c>
       <c r="C508" t="s">
         <v>28</v>
@@ -45719,76 +45719,76 @@
         <v>44820.60416666666</v>
       </c>
       <c r="F508" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G508" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I508">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J508" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K508">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L508">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M508">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="N508">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O508">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P508">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q508">
         <v>-0.5</v>
       </c>
       <c r="R508">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S508">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T508">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U508">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V508">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W508">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X508">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y508">
         <v>-1</v>
       </c>
       <c r="Z508">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA508">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB508">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC508">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="509" spans="1:29">
@@ -45796,7 +45796,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>5337872</v>
+        <v>5337870</v>
       </c>
       <c r="C509" t="s">
         <v>28</v>
@@ -45808,13 +45808,13 @@
         <v>44820.60416666666</v>
       </c>
       <c r="F509" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G509" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I509">
         <v>0</v>
@@ -45823,43 +45823,43 @@
         <v>65</v>
       </c>
       <c r="K509">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L509">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M509">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="N509">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O509">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P509">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="Q509">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R509">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S509">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T509">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U509">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V509">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W509">
-        <v>0.3999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X509">
         <v>-1</v>
@@ -45868,16 +45868,16 @@
         <v>-1</v>
       </c>
       <c r="Z509">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA509">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB509">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC509">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="510" spans="1:29">
@@ -45974,7 +45974,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>5337866</v>
+        <v>5337873</v>
       </c>
       <c r="C511" t="s">
         <v>28</v>
@@ -45986,10 +45986,10 @@
         <v>44820.60416666666</v>
       </c>
       <c r="F511" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G511" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H511">
         <v>1</v>
@@ -46001,25 +46001,25 @@
         <v>66</v>
       </c>
       <c r="K511">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L511">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M511">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="N511">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="O511">
         <v>3.2</v>
       </c>
       <c r="P511">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q511">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R511">
         <v>1.775</v>
@@ -46031,10 +46031,10 @@
         <v>2.25</v>
       </c>
       <c r="U511">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V511">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W511">
         <v>-1</v>
@@ -46046,16 +46046,16 @@
         <v>-1</v>
       </c>
       <c r="Z511">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA511">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB511">
         <v>-0.5</v>
       </c>
       <c r="AC511">
-        <v>0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="512" spans="1:29">
@@ -46063,7 +46063,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>5337873</v>
+        <v>5337866</v>
       </c>
       <c r="C512" t="s">
         <v>28</v>
@@ -46075,10 +46075,10 @@
         <v>44820.60416666666</v>
       </c>
       <c r="F512" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G512" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H512">
         <v>1</v>
@@ -46090,25 +46090,25 @@
         <v>66</v>
       </c>
       <c r="K512">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L512">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M512">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="N512">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="O512">
         <v>3.2</v>
       </c>
       <c r="P512">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q512">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R512">
         <v>1.775</v>
@@ -46120,10 +46120,10 @@
         <v>2.25</v>
       </c>
       <c r="U512">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V512">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W512">
         <v>-1</v>
@@ -46135,16 +46135,16 @@
         <v>-1</v>
       </c>
       <c r="Z512">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA512">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB512">
         <v>-0.5</v>
       </c>
       <c r="AC512">
-        <v>0.4125</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="513" spans="1:29">
@@ -52026,7 +52026,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>5337935</v>
+        <v>5337934</v>
       </c>
       <c r="C579" t="s">
         <v>28</v>
@@ -52038,76 +52038,76 @@
         <v>44897.64583333334</v>
       </c>
       <c r="F579" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G579" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="H579">
         <v>1</v>
       </c>
       <c r="I579">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J579" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K579">
+        <v>2.2</v>
+      </c>
+      <c r="L579">
+        <v>3.2</v>
+      </c>
+      <c r="M579">
+        <v>2.875</v>
+      </c>
+      <c r="N579">
         <v>1.909</v>
       </c>
-      <c r="L579">
-        <v>3.1</v>
-      </c>
-      <c r="M579">
-        <v>3.75</v>
-      </c>
-      <c r="N579">
-        <v>1.95</v>
-      </c>
       <c r="O579">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P579">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q579">
         <v>-0.5</v>
       </c>
       <c r="R579">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S579">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T579">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U579">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V579">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W579">
+        <v>-1</v>
+      </c>
+      <c r="X579">
+        <v>2.4</v>
+      </c>
+      <c r="Y579">
+        <v>-1</v>
+      </c>
+      <c r="Z579">
+        <v>-1</v>
+      </c>
+      <c r="AA579">
+        <v>0.825</v>
+      </c>
+      <c r="AB579">
+        <v>-1</v>
+      </c>
+      <c r="AC579">
         <v>0.95</v>
-      </c>
-      <c r="X579">
-        <v>-1</v>
-      </c>
-      <c r="Y579">
-        <v>-1</v>
-      </c>
-      <c r="Z579">
-        <v>1.025</v>
-      </c>
-      <c r="AA579">
-        <v>-1</v>
-      </c>
-      <c r="AB579">
-        <v>-1</v>
-      </c>
-      <c r="AC579">
-        <v>0.825</v>
       </c>
     </row>
     <row r="580" spans="1:29">
@@ -52115,7 +52115,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>5337936</v>
+        <v>5337935</v>
       </c>
       <c r="C580" t="s">
         <v>28</v>
@@ -52127,76 +52127,76 @@
         <v>44897.64583333334</v>
       </c>
       <c r="F580" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G580" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H580">
         <v>1</v>
       </c>
       <c r="I580">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J580" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K580">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L580">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M580">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N580">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="O580">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P580">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q580">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R580">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S580">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T580">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U580">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V580">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W580">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X580">
         <v>-1</v>
       </c>
       <c r="Y580">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z580">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA580">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB580">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC580">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="581" spans="1:29">
@@ -52204,7 +52204,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>5337934</v>
+        <v>5337936</v>
       </c>
       <c r="C581" t="s">
         <v>28</v>
@@ -52216,76 +52216,76 @@
         <v>44897.64583333334</v>
       </c>
       <c r="F581" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G581" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="H581">
         <v>1</v>
       </c>
       <c r="I581">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J581" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K581">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L581">
+        <v>3</v>
+      </c>
+      <c r="M581">
+        <v>4.333</v>
+      </c>
+      <c r="N581">
+        <v>1.615</v>
+      </c>
+      <c r="O581">
         <v>3.2</v>
       </c>
-      <c r="M581">
-        <v>2.875</v>
-      </c>
-      <c r="N581">
-        <v>1.909</v>
-      </c>
-      <c r="O581">
-        <v>3.4</v>
-      </c>
       <c r="P581">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q581">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R581">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S581">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T581">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U581">
+        <v>1.95</v>
+      </c>
+      <c r="V581">
         <v>1.85</v>
       </c>
-      <c r="V581">
-        <v>1.95</v>
-      </c>
       <c r="W581">
         <v>-1</v>
       </c>
       <c r="X581">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y581">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z581">
         <v>-1</v>
       </c>
       <c r="AA581">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB581">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC581">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="582" spans="1:29">
@@ -52738,7 +52738,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>5337938</v>
+        <v>5337944</v>
       </c>
       <c r="C587" t="s">
         <v>28</v>
@@ -52750,58 +52750,58 @@
         <v>44904.64583333334</v>
       </c>
       <c r="F587" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G587" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H587">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I587">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J587" t="s">
         <v>65</v>
       </c>
       <c r="K587">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L587">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M587">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N587">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="O587">
         <v>3.4</v>
       </c>
       <c r="P587">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q587">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R587">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S587">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T587">
         <v>2.25</v>
       </c>
       <c r="U587">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V587">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W587">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="X587">
         <v>-1</v>
@@ -52810,16 +52810,16 @@
         <v>-1</v>
       </c>
       <c r="Z587">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA587">
         <v>-1</v>
       </c>
       <c r="AB587">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC587">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="588" spans="1:29">
@@ -52827,7 +52827,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>5337944</v>
+        <v>5337938</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52839,58 +52839,58 @@
         <v>44904.64583333334</v>
       </c>
       <c r="F588" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G588" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I588">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J588" t="s">
         <v>65</v>
       </c>
       <c r="K588">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L588">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M588">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N588">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="O588">
         <v>3.4</v>
       </c>
       <c r="P588">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q588">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R588">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S588">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T588">
         <v>2.25</v>
       </c>
       <c r="U588">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V588">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W588">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="X588">
         <v>-1</v>
@@ -52899,16 +52899,16 @@
         <v>-1</v>
       </c>
       <c r="Z588">
+        <v>0.75</v>
+      </c>
+      <c r="AA588">
+        <v>-1</v>
+      </c>
+      <c r="AB588">
+        <v>-1</v>
+      </c>
+      <c r="AC588">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA588">
-        <v>-1</v>
-      </c>
-      <c r="AB588">
-        <v>0.8</v>
-      </c>
-      <c r="AC588">
-        <v>-1</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -52916,7 +52916,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>5337940</v>
+        <v>5409108</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52928,76 +52928,76 @@
         <v>44904.64583333334</v>
       </c>
       <c r="F589" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="G589" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I589">
         <v>1</v>
       </c>
       <c r="J589" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K589">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L589">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M589">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N589">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="O589">
         <v>3.2</v>
       </c>
       <c r="P589">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q589">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R589">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S589">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T589">
         <v>2.25</v>
       </c>
       <c r="U589">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V589">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="W589">
         <v>-1</v>
       </c>
       <c r="X589">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y589">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z589">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA589">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
       <c r="AB589">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC589">
-        <v>0.7250000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="590" spans="1:29">
@@ -53094,7 +53094,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>5409108</v>
+        <v>5337943</v>
       </c>
       <c r="C591" t="s">
         <v>28</v>
@@ -53106,76 +53106,76 @@
         <v>44904.64583333334</v>
       </c>
       <c r="F591" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G591" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H591">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I591">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J591" t="s">
         <v>66</v>
       </c>
       <c r="K591">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="L591">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M591">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N591">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="O591">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P591">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q591">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R591">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S591">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T591">
         <v>2.25</v>
       </c>
       <c r="U591">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V591">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W591">
         <v>-1</v>
       </c>
       <c r="X591">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y591">
         <v>-1</v>
       </c>
       <c r="Z591">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA591">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB591">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC591">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="592" spans="1:29">
@@ -53183,7 +53183,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>5337943</v>
+        <v>5337940</v>
       </c>
       <c r="C592" t="s">
         <v>28</v>
@@ -53195,76 +53195,76 @@
         <v>44904.64583333334</v>
       </c>
       <c r="F592" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G592" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H592">
         <v>0</v>
       </c>
       <c r="I592">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J592" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K592">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="L592">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M592">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="N592">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="O592">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P592">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Q592">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R592">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S592">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T592">
         <v>2.25</v>
       </c>
       <c r="U592">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V592">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="W592">
         <v>-1</v>
       </c>
       <c r="X592">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y592">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z592">
         <v>-1</v>
       </c>
       <c r="AA592">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB592">
         <v>-1</v>
       </c>
       <c r="AC592">
-        <v>0.925</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="593" spans="1:29">
@@ -53539,7 +53539,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>5337946</v>
+        <v>5337953</v>
       </c>
       <c r="C596" t="s">
         <v>28</v>
@@ -53551,76 +53551,76 @@
         <v>44910.64583333334</v>
       </c>
       <c r="F596" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G596" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I596">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J596" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K596">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L596">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M596">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N596">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O596">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P596">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="Q596">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R596">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S596">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T596">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U596">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V596">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W596">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X596">
         <v>-1</v>
       </c>
       <c r="Y596">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z596">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA596">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB596">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC596">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="597" spans="1:29">
@@ -53628,7 +53628,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>5337953</v>
+        <v>5337946</v>
       </c>
       <c r="C597" t="s">
         <v>28</v>
@@ -53640,76 +53640,76 @@
         <v>44910.64583333334</v>
       </c>
       <c r="F597" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G597" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H597">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I597">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J597" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K597">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L597">
+        <v>3.1</v>
+      </c>
+      <c r="M597">
         <v>3.3</v>
       </c>
-      <c r="M597">
-        <v>4</v>
-      </c>
       <c r="N597">
+        <v>2.15</v>
+      </c>
+      <c r="O597">
+        <v>3.4</v>
+      </c>
+      <c r="P597">
+        <v>2.875</v>
+      </c>
+      <c r="Q597">
+        <v>-0.25</v>
+      </c>
+      <c r="R597">
         <v>1.95</v>
       </c>
-      <c r="O597">
-        <v>3.2</v>
-      </c>
-      <c r="P597">
-        <v>3.75</v>
-      </c>
-      <c r="Q597">
-        <v>-0.5</v>
-      </c>
-      <c r="R597">
-        <v>2</v>
-      </c>
       <c r="S597">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T597">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U597">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V597">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W597">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X597">
         <v>-1</v>
       </c>
       <c r="Y597">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z597">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA597">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB597">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC597">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="598" spans="1:29">
@@ -53717,7 +53717,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>5409109</v>
+        <v>5337951</v>
       </c>
       <c r="C598" t="s">
         <v>28</v>
@@ -53729,13 +53729,13 @@
         <v>44911.70833333334</v>
       </c>
       <c r="F598" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G598" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H598">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I598">
         <v>0</v>
@@ -53744,43 +53744,43 @@
         <v>65</v>
       </c>
       <c r="K598">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="L598">
         <v>3.2</v>
       </c>
       <c r="M598">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="N598">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O598">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P598">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="Q598">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R598">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S598">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T598">
         <v>2.25</v>
       </c>
       <c r="U598">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V598">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W598">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="X598">
         <v>-1</v>
@@ -53789,16 +53789,16 @@
         <v>-1</v>
       </c>
       <c r="Z598">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AA598">
         <v>-1</v>
       </c>
       <c r="AB598">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC598">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="599" spans="1:29">
@@ -53806,7 +53806,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>5337949</v>
+        <v>5409109</v>
       </c>
       <c r="C599" t="s">
         <v>28</v>
@@ -53818,76 +53818,76 @@
         <v>44911.70833333334</v>
       </c>
       <c r="F599" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G599" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I599">
         <v>0</v>
       </c>
       <c r="J599" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K599">
-        <v>1.4</v>
+        <v>2.875</v>
       </c>
       <c r="L599">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M599">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="N599">
-        <v>1.45</v>
+        <v>2.7</v>
       </c>
       <c r="O599">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P599">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q599">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R599">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S599">
+        <v>1.775</v>
+      </c>
+      <c r="T599">
+        <v>2.25</v>
+      </c>
+      <c r="U599">
         <v>1.8</v>
       </c>
-      <c r="T599">
-        <v>2.5</v>
-      </c>
-      <c r="U599">
-        <v>1.975</v>
-      </c>
       <c r="V599">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W599">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X599">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y599">
         <v>-1</v>
       </c>
       <c r="Z599">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA599">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB599">
         <v>-1</v>
       </c>
       <c r="AC599">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:29">
@@ -53895,7 +53895,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>5337951</v>
+        <v>5337949</v>
       </c>
       <c r="C600" t="s">
         <v>28</v>
@@ -53907,76 +53907,76 @@
         <v>44911.70833333334</v>
       </c>
       <c r="F600" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G600" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600">
         <v>0</v>
       </c>
       <c r="J600" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K600">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="L600">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M600">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N600">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="O600">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P600">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q600">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R600">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S600">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T600">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U600">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V600">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W600">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X600">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y600">
         <v>-1</v>
       </c>
       <c r="Z600">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA600">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB600">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC600">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="601" spans="1:29">
@@ -54073,7 +54073,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>6094368</v>
+        <v>6043893</v>
       </c>
       <c r="C602" t="s">
         <v>28</v>
@@ -54085,55 +54085,55 @@
         <v>44932.64583333334</v>
       </c>
       <c r="F602" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G602" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H602">
         <v>1</v>
       </c>
       <c r="I602">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J602" t="s">
         <v>64</v>
       </c>
       <c r="K602">
+        <v>3.2</v>
+      </c>
+      <c r="L602">
+        <v>3</v>
+      </c>
+      <c r="M602">
+        <v>2.25</v>
+      </c>
+      <c r="N602">
+        <v>3.75</v>
+      </c>
+      <c r="O602">
+        <v>3.1</v>
+      </c>
+      <c r="P602">
+        <v>2</v>
+      </c>
+      <c r="Q602">
+        <v>0.5</v>
+      </c>
+      <c r="R602">
+        <v>1.85</v>
+      </c>
+      <c r="S602">
+        <v>1.95</v>
+      </c>
+      <c r="T602">
         <v>2.5</v>
-      </c>
-      <c r="L602">
-        <v>2.9</v>
-      </c>
-      <c r="M602">
-        <v>2.875</v>
-      </c>
-      <c r="N602">
-        <v>2.55</v>
-      </c>
-      <c r="O602">
-        <v>2.875</v>
-      </c>
-      <c r="P602">
-        <v>2.875</v>
-      </c>
-      <c r="Q602">
-        <v>0</v>
-      </c>
-      <c r="R602">
-        <v>1.825</v>
-      </c>
-      <c r="S602">
-        <v>1.975</v>
-      </c>
-      <c r="T602">
-        <v>2.25</v>
       </c>
       <c r="U602">
         <v>1.975</v>
       </c>
       <c r="V602">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="W602">
         <v>-1</v>
@@ -54142,13 +54142,13 @@
         <v>-1</v>
       </c>
       <c r="Y602">
-        <v>1.875</v>
+        <v>1</v>
       </c>
       <c r="Z602">
         <v>-1</v>
       </c>
       <c r="AA602">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB602">
         <v>0.9750000000000001</v>
@@ -54162,7 +54162,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>6043893</v>
+        <v>6094368</v>
       </c>
       <c r="C603" t="s">
         <v>28</v>
@@ -54174,55 +54174,55 @@
         <v>44932.64583333334</v>
       </c>
       <c r="F603" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G603" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="H603">
         <v>1</v>
       </c>
       <c r="I603">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J603" t="s">
         <v>64</v>
       </c>
       <c r="K603">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="L603">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M603">
+        <v>2.875</v>
+      </c>
+      <c r="N603">
+        <v>2.55</v>
+      </c>
+      <c r="O603">
+        <v>2.875</v>
+      </c>
+      <c r="P603">
+        <v>2.875</v>
+      </c>
+      <c r="Q603">
+        <v>0</v>
+      </c>
+      <c r="R603">
+        <v>1.825</v>
+      </c>
+      <c r="S603">
+        <v>1.975</v>
+      </c>
+      <c r="T603">
         <v>2.25</v>
-      </c>
-      <c r="N603">
-        <v>3.75</v>
-      </c>
-      <c r="O603">
-        <v>3.1</v>
-      </c>
-      <c r="P603">
-        <v>2</v>
-      </c>
-      <c r="Q603">
-        <v>0.5</v>
-      </c>
-      <c r="R603">
-        <v>1.85</v>
-      </c>
-      <c r="S603">
-        <v>1.95</v>
-      </c>
-      <c r="T603">
-        <v>2.5</v>
       </c>
       <c r="U603">
         <v>1.975</v>
       </c>
       <c r="V603">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="W603">
         <v>-1</v>
@@ -54231,13 +54231,13 @@
         <v>-1</v>
       </c>
       <c r="Y603">
-        <v>1</v>
+        <v>1.875</v>
       </c>
       <c r="Z603">
         <v>-1</v>
       </c>
       <c r="AA603">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB603">
         <v>0.9750000000000001</v>
@@ -54251,7 +54251,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>5337958</v>
+        <v>5337956</v>
       </c>
       <c r="C604" t="s">
         <v>28</v>
@@ -54263,40 +54263,40 @@
         <v>44939.64583333334</v>
       </c>
       <c r="F604" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G604" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I604">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J604" t="s">
         <v>66</v>
       </c>
       <c r="K604">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L604">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M604">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N604">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="O604">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P604">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="Q604">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R604">
         <v>1.9</v>
@@ -54305,34 +54305,34 @@
         <v>1.9</v>
       </c>
       <c r="T604">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U604">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V604">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="W604">
         <v>-1</v>
       </c>
       <c r="X604">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y604">
         <v>-1</v>
       </c>
       <c r="Z604">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA604">
+        <v>-0.5</v>
+      </c>
+      <c r="AB604">
+        <v>0</v>
+      </c>
+      <c r="AC604">
         <v>-0</v>
-      </c>
-      <c r="AB604">
-        <v>-1</v>
-      </c>
-      <c r="AC604">
-        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="605" spans="1:29">
@@ -54340,7 +54340,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>5337959</v>
+        <v>5409110</v>
       </c>
       <c r="C605" t="s">
         <v>28</v>
@@ -54352,28 +54352,28 @@
         <v>44939.64583333334</v>
       </c>
       <c r="F605" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G605" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H605">
         <v>1</v>
       </c>
       <c r="I605">
+        <v>1</v>
+      </c>
+      <c r="J605" t="s">
+        <v>66</v>
+      </c>
+      <c r="K605">
+        <v>2.15</v>
+      </c>
+      <c r="L605">
+        <v>3.25</v>
+      </c>
+      <c r="M605">
         <v>3</v>
-      </c>
-      <c r="J605" t="s">
-        <v>64</v>
-      </c>
-      <c r="K605">
-        <v>2.3</v>
-      </c>
-      <c r="L605">
-        <v>3.2</v>
-      </c>
-      <c r="M605">
-        <v>2.8</v>
       </c>
       <c r="N605">
         <v>2</v>
@@ -54394,7 +54394,7 @@
         <v>1.975</v>
       </c>
       <c r="T605">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U605">
         <v>1.85</v>
@@ -54406,22 +54406,22 @@
         <v>-1</v>
       </c>
       <c r="X605">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y605">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z605">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA605">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB605">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC605">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="606" spans="1:29">
@@ -54607,7 +54607,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>5409110</v>
+        <v>5337958</v>
       </c>
       <c r="C608" t="s">
         <v>28</v>
@@ -54619,55 +54619,55 @@
         <v>44939.64583333334</v>
       </c>
       <c r="F608" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G608" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I608">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J608" t="s">
         <v>66</v>
       </c>
       <c r="K608">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="L608">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M608">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N608">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="O608">
         <v>3.2</v>
       </c>
       <c r="P608">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q608">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R608">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S608">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T608">
         <v>2.25</v>
       </c>
       <c r="U608">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V608">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W608">
         <v>-1</v>
@@ -54679,16 +54679,16 @@
         <v>-1</v>
       </c>
       <c r="Z608">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA608">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB608">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC608">
-        <v>0.475</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="609" spans="1:29">
@@ -54696,7 +54696,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>5337956</v>
+        <v>5337954</v>
       </c>
       <c r="C609" t="s">
         <v>28</v>
@@ -54708,76 +54708,76 @@
         <v>44939.64583333334</v>
       </c>
       <c r="F609" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G609" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H609">
         <v>1</v>
       </c>
       <c r="I609">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J609" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K609">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L609">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M609">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="N609">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O609">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P609">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="Q609">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R609">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S609">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T609">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U609">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V609">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W609">
         <v>-1</v>
       </c>
       <c r="X609">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y609">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z609">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA609">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB609">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC609">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="610" spans="1:29">
@@ -54785,7 +54785,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>5337954</v>
+        <v>5337959</v>
       </c>
       <c r="C610" t="s">
         <v>28</v>
@@ -54797,10 +54797,10 @@
         <v>44939.64583333334</v>
       </c>
       <c r="F610" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G610" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H610">
         <v>1</v>
@@ -54812,40 +54812,40 @@
         <v>64</v>
       </c>
       <c r="K610">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="L610">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M610">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="N610">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="O610">
         <v>3.2</v>
       </c>
       <c r="P610">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="Q610">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R610">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S610">
         <v>1.975</v>
       </c>
       <c r="T610">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U610">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V610">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W610">
         <v>-1</v>
@@ -54854,7 +54854,7 @@
         <v>-1</v>
       </c>
       <c r="Y610">
-        <v>0.909</v>
+        <v>2.5</v>
       </c>
       <c r="Z610">
         <v>-1</v>
@@ -54863,7 +54863,7 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB610">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC610">
         <v>-1</v>
@@ -55052,7 +55052,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>5409111</v>
+        <v>5337962</v>
       </c>
       <c r="C613" t="s">
         <v>28</v>
@@ -55064,58 +55064,58 @@
         <v>44946.64583333334</v>
       </c>
       <c r="F613" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G613" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H613">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I613">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J613" t="s">
         <v>65</v>
       </c>
       <c r="K613">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L613">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M613">
+        <v>1.65</v>
+      </c>
+      <c r="N613">
+        <v>4.333</v>
+      </c>
+      <c r="O613">
+        <v>3.6</v>
+      </c>
+      <c r="P613">
+        <v>1.666</v>
+      </c>
+      <c r="Q613">
+        <v>0.75</v>
+      </c>
+      <c r="R613">
+        <v>1.9</v>
+      </c>
+      <c r="S613">
+        <v>1.9</v>
+      </c>
+      <c r="T613">
         <v>2.5</v>
       </c>
-      <c r="N613">
-        <v>3</v>
-      </c>
-      <c r="O613">
-        <v>3.1</v>
-      </c>
-      <c r="P613">
-        <v>2.2</v>
-      </c>
-      <c r="Q613">
-        <v>0.25</v>
-      </c>
-      <c r="R613">
-        <v>1.875</v>
-      </c>
-      <c r="S613">
-        <v>1.925</v>
-      </c>
-      <c r="T613">
-        <v>2.25</v>
-      </c>
       <c r="U613">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V613">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W613">
-        <v>2</v>
+        <v>3.333</v>
       </c>
       <c r="X613">
         <v>-1</v>
@@ -55124,16 +55124,16 @@
         <v>-1</v>
       </c>
       <c r="Z613">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA613">
         <v>-1</v>
       </c>
       <c r="AB613">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC613">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="614" spans="1:29">
@@ -55141,7 +55141,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>5337962</v>
+        <v>5409111</v>
       </c>
       <c r="C614" t="s">
         <v>28</v>
@@ -55153,58 +55153,58 @@
         <v>44946.64583333334</v>
       </c>
       <c r="F614" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G614" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I614">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J614" t="s">
         <v>65</v>
       </c>
       <c r="K614">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L614">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M614">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="N614">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O614">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P614">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="Q614">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R614">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S614">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T614">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U614">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V614">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W614">
-        <v>3.333</v>
+        <v>2</v>
       </c>
       <c r="X614">
         <v>-1</v>
@@ -55213,16 +55213,16 @@
         <v>-1</v>
       </c>
       <c r="Z614">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA614">
         <v>-1</v>
       </c>
       <c r="AB614">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC614">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="615" spans="1:29">
@@ -55230,7 +55230,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>5337968</v>
+        <v>5337965</v>
       </c>
       <c r="C615" t="s">
         <v>28</v>
@@ -55242,76 +55242,76 @@
         <v>44946.64583333334</v>
       </c>
       <c r="F615" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G615" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H615">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I615">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J615" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K615">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="L615">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M615">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N615">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="O615">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P615">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q615">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R615">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S615">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T615">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U615">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V615">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W615">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X615">
         <v>-1</v>
       </c>
       <c r="Y615">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z615">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA615">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB615">
         <v>-1</v>
       </c>
       <c r="AC615">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="616" spans="1:29">
@@ -55319,7 +55319,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>5337965</v>
+        <v>5337966</v>
       </c>
       <c r="C616" t="s">
         <v>28</v>
@@ -55331,10 +55331,10 @@
         <v>44946.64583333334</v>
       </c>
       <c r="F616" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G616" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H616">
         <v>0</v>
@@ -55346,25 +55346,25 @@
         <v>64</v>
       </c>
       <c r="K616">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="L616">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M616">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N616">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="O616">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P616">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q616">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R616">
         <v>1.8</v>
@@ -55373,13 +55373,13 @@
         <v>2</v>
       </c>
       <c r="T616">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U616">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V616">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W616">
         <v>-1</v>
@@ -55388,7 +55388,7 @@
         <v>-1</v>
       </c>
       <c r="Y616">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="Z616">
         <v>-1</v>
@@ -55400,7 +55400,7 @@
         <v>-1</v>
       </c>
       <c r="AC616">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="617" spans="1:29">
@@ -55408,7 +55408,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>5337966</v>
+        <v>5337968</v>
       </c>
       <c r="C617" t="s">
         <v>28</v>
@@ -55420,76 +55420,76 @@
         <v>44946.64583333334</v>
       </c>
       <c r="F617" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G617" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I617">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J617" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K617">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="L617">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M617">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="N617">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O617">
         <v>3</v>
       </c>
       <c r="P617">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q617">
         <v>-0.25</v>
       </c>
       <c r="R617">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S617">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T617">
         <v>2</v>
       </c>
       <c r="U617">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V617">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W617">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X617">
         <v>-1</v>
       </c>
       <c r="Y617">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z617">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA617">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB617">
         <v>-1</v>
       </c>
       <c r="AC617">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="618" spans="1:29">
@@ -55586,7 +55586,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>6118221</v>
+        <v>6149674</v>
       </c>
       <c r="C619" t="s">
         <v>28</v>
@@ -55598,10 +55598,10 @@
         <v>44953.64583333334</v>
       </c>
       <c r="F619" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G619" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H619">
         <v>1</v>
@@ -55613,61 +55613,61 @@
         <v>66</v>
       </c>
       <c r="K619">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L619">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M619">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N619">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="O619">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P619">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="Q619">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R619">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S619">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T619">
         <v>2.25</v>
       </c>
       <c r="U619">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V619">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W619">
         <v>-1</v>
       </c>
       <c r="X619">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Y619">
         <v>-1</v>
       </c>
       <c r="Z619">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA619">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB619">
         <v>-0.5</v>
       </c>
       <c r="AC619">
-        <v>0.425</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="620" spans="1:29">
@@ -55675,7 +55675,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>6149674</v>
+        <v>6118221</v>
       </c>
       <c r="C620" t="s">
         <v>28</v>
@@ -55687,10 +55687,10 @@
         <v>44953.64583333334</v>
       </c>
       <c r="F620" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G620" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="H620">
         <v>1</v>
@@ -55702,61 +55702,61 @@
         <v>66</v>
       </c>
       <c r="K620">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L620">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M620">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N620">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="O620">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P620">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="Q620">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R620">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S620">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T620">
         <v>2.25</v>
       </c>
       <c r="U620">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V620">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W620">
         <v>-1</v>
       </c>
       <c r="X620">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Y620">
         <v>-1</v>
       </c>
       <c r="Z620">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA620">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB620">
         <v>-0.5</v>
       </c>
       <c r="AC620">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="621" spans="1:29">
@@ -55942,7 +55942,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>5337974</v>
+        <v>5337975</v>
       </c>
       <c r="C623" t="s">
         <v>28</v>
@@ -55954,76 +55954,76 @@
         <v>44960.64583333334</v>
       </c>
       <c r="F623" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G623" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H623">
         <v>1</v>
       </c>
       <c r="I623">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J623" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K623">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L623">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M623">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N623">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="O623">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P623">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q623">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R623">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S623">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T623">
         <v>2.25</v>
       </c>
       <c r="U623">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V623">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="W623">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X623">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y623">
         <v>-1</v>
       </c>
       <c r="Z623">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA623">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB623">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC623">
-        <v>0.425</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="624" spans="1:29">
@@ -56031,7 +56031,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>5337975</v>
+        <v>5337974</v>
       </c>
       <c r="C624" t="s">
         <v>28</v>
@@ -56043,76 +56043,76 @@
         <v>44960.64583333334</v>
       </c>
       <c r="F624" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G624" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H624">
         <v>1</v>
       </c>
       <c r="I624">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J624" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K624">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L624">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M624">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N624">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="O624">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P624">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="Q624">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R624">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S624">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T624">
         <v>2.25</v>
       </c>
       <c r="U624">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V624">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="W624">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X624">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y624">
         <v>-1</v>
       </c>
       <c r="Z624">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="AA624">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB624">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC624">
-        <v>0.7250000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="625" spans="1:29">
@@ -62261,7 +62261,7 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>5338035</v>
+        <v>5338034</v>
       </c>
       <c r="C694" t="s">
         <v>28</v>
@@ -62273,46 +62273,46 @@
         <v>45016.60416666666</v>
       </c>
       <c r="F694" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G694" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H694">
         <v>2</v>
       </c>
       <c r="I694">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J694" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K694">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="L694">
         <v>3.1</v>
       </c>
       <c r="M694">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N694">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="O694">
         <v>3.1</v>
       </c>
       <c r="P694">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="Q694">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R694">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S694">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T694">
         <v>2.25</v>
@@ -62324,19 +62324,19 @@
         <v>1.85</v>
       </c>
       <c r="W694">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X694">
         <v>-1</v>
       </c>
       <c r="Y694">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z694">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA694">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB694">
         <v>0.95</v>
@@ -62350,7 +62350,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>5338034</v>
+        <v>5338035</v>
       </c>
       <c r="C695" t="s">
         <v>28</v>
@@ -62362,46 +62362,46 @@
         <v>45016.60416666666</v>
       </c>
       <c r="F695" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G695" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H695">
         <v>2</v>
       </c>
       <c r="I695">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J695" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K695">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="L695">
         <v>3.1</v>
       </c>
       <c r="M695">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N695">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="O695">
         <v>3.1</v>
       </c>
       <c r="P695">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="Q695">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R695">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S695">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T695">
         <v>2.25</v>
@@ -62413,19 +62413,19 @@
         <v>1.85</v>
       </c>
       <c r="W695">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X695">
         <v>-1</v>
       </c>
       <c r="Y695">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z695">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA695">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB695">
         <v>0.95</v>
@@ -63062,7 +63062,7 @@
         <v>701</v>
       </c>
       <c r="B703">
-        <v>5338042</v>
+        <v>5338049</v>
       </c>
       <c r="C703" t="s">
         <v>28</v>
@@ -63074,49 +63074,49 @@
         <v>45023.60416666666</v>
       </c>
       <c r="F703" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G703" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H703">
         <v>1</v>
       </c>
       <c r="I703">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J703" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K703">
         <v>2.55</v>
       </c>
       <c r="L703">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M703">
         <v>2.55</v>
       </c>
       <c r="N703">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="O703">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P703">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q703">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R703">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S703">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T703">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U703">
         <v>1.8</v>
@@ -63128,22 +63128,22 @@
         <v>-1</v>
       </c>
       <c r="X703">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y703">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z703">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA703">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB703">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC703">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="704" spans="1:29">
@@ -63151,7 +63151,7 @@
         <v>702</v>
       </c>
       <c r="B704">
-        <v>5409118</v>
+        <v>5338042</v>
       </c>
       <c r="C704" t="s">
         <v>28</v>
@@ -63163,76 +63163,76 @@
         <v>45023.60416666666</v>
       </c>
       <c r="F704" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G704" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I704">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J704" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K704">
-        <v>1.533</v>
+        <v>2.55</v>
       </c>
       <c r="L704">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M704">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N704">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="O704">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P704">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="Q704">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R704">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S704">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T704">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U704">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V704">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W704">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X704">
         <v>-1</v>
       </c>
       <c r="Y704">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z704">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA704">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB704">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC704">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="705" spans="1:29">
@@ -63507,7 +63507,7 @@
         <v>706</v>
       </c>
       <c r="B708">
-        <v>5338049</v>
+        <v>5409118</v>
       </c>
       <c r="C708" t="s">
         <v>28</v>
@@ -63519,76 +63519,76 @@
         <v>45023.60416666666</v>
       </c>
       <c r="F708" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G708" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H708">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I708">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J708" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K708">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="L708">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M708">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N708">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="O708">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P708">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="Q708">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R708">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S708">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T708">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U708">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V708">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W708">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X708">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y708">
         <v>-1</v>
       </c>
       <c r="Z708">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA708">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB708">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC708">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="709" spans="1:29">
@@ -63774,7 +63774,7 @@
         <v>709</v>
       </c>
       <c r="B711">
-        <v>5338052</v>
+        <v>5338051</v>
       </c>
       <c r="C711" t="s">
         <v>28</v>
@@ -63786,76 +63786,76 @@
         <v>45030.60416666666</v>
       </c>
       <c r="F711" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G711" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J711" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K711">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L711">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M711">
+        <v>3.5</v>
+      </c>
+      <c r="N711">
+        <v>2.2</v>
+      </c>
+      <c r="O711">
         <v>3.1</v>
       </c>
-      <c r="N711">
-        <v>2.375</v>
-      </c>
-      <c r="O711">
-        <v>3.2</v>
-      </c>
       <c r="P711">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q711">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R711">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S711">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T711">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U711">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V711">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W711">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X711">
         <v>-1</v>
       </c>
       <c r="Y711">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z711">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA711">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB711">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC711">
-        <v>1.025</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="712" spans="1:29">
@@ -63863,7 +63863,7 @@
         <v>710</v>
       </c>
       <c r="B712">
-        <v>5338053</v>
+        <v>5338052</v>
       </c>
       <c r="C712" t="s">
         <v>28</v>
@@ -63875,76 +63875,76 @@
         <v>45030.60416666666</v>
       </c>
       <c r="F712" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G712" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H712">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I712">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J712" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K712">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="L712">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M712">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="N712">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="O712">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P712">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="Q712">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R712">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S712">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T712">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U712">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V712">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W712">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X712">
         <v>-1</v>
       </c>
       <c r="Y712">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z712">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA712">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB712">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC712">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="713" spans="1:29">
@@ -63952,7 +63952,7 @@
         <v>711</v>
       </c>
       <c r="B713">
-        <v>5338051</v>
+        <v>5338053</v>
       </c>
       <c r="C713" t="s">
         <v>28</v>
@@ -63964,13 +63964,13 @@
         <v>45030.60416666666</v>
       </c>
       <c r="F713" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G713" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I713">
         <v>0</v>
@@ -63979,43 +63979,43 @@
         <v>65</v>
       </c>
       <c r="K713">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L713">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M713">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="N713">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O713">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P713">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q713">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R713">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S713">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T713">
         <v>2.25</v>
       </c>
       <c r="U713">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V713">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W713">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="X713">
         <v>-1</v>
@@ -64024,16 +64024,16 @@
         <v>-1</v>
       </c>
       <c r="Z713">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA713">
         <v>-1</v>
       </c>
       <c r="AB713">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC713">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="714" spans="1:29">
@@ -65554,7 +65554,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>5462907</v>
+        <v>5338072</v>
       </c>
       <c r="C731" t="s">
         <v>28</v>
@@ -65566,31 +65566,31 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F731" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G731" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H731">
         <v>1</v>
       </c>
       <c r="I731">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J731" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K731">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L731">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M731">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N731">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O731">
         <v>3</v>
@@ -65608,34 +65608,34 @@
         <v>2.025</v>
       </c>
       <c r="T731">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U731">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V731">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W731">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X731">
         <v>-1</v>
       </c>
       <c r="Y731">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z731">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA731">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB731">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC731">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="732" spans="1:29">
@@ -65643,7 +65643,7 @@
         <v>730</v>
       </c>
       <c r="B732">
-        <v>5338072</v>
+        <v>5338069</v>
       </c>
       <c r="C732" t="s">
         <v>28</v>
@@ -65655,10 +65655,10 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F732" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G732" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="H732">
         <v>1</v>
@@ -65670,43 +65670,43 @@
         <v>65</v>
       </c>
       <c r="K732">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L732">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M732">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="N732">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O732">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P732">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q732">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R732">
+        <v>1.925</v>
+      </c>
+      <c r="S732">
+        <v>1.875</v>
+      </c>
+      <c r="T732">
+        <v>2.75</v>
+      </c>
+      <c r="U732">
+        <v>1.925</v>
+      </c>
+      <c r="V732">
         <v>1.775</v>
       </c>
-      <c r="S732">
-        <v>2.025</v>
-      </c>
-      <c r="T732">
-        <v>2.25</v>
-      </c>
-      <c r="U732">
-        <v>2</v>
-      </c>
-      <c r="V732">
-        <v>1.8</v>
-      </c>
       <c r="W732">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X732">
         <v>-1</v>
@@ -65715,16 +65715,16 @@
         <v>-1</v>
       </c>
       <c r="Z732">
+        <v>0</v>
+      </c>
+      <c r="AA732">
+        <v>-0</v>
+      </c>
+      <c r="AB732">
+        <v>-1</v>
+      </c>
+      <c r="AC732">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AA732">
-        <v>-1</v>
-      </c>
-      <c r="AB732">
-        <v>-1</v>
-      </c>
-      <c r="AC732">
-        <v>0.8</v>
       </c>
     </row>
     <row r="733" spans="1:29">
@@ -65732,7 +65732,7 @@
         <v>731</v>
       </c>
       <c r="B733">
-        <v>5338069</v>
+        <v>5462907</v>
       </c>
       <c r="C733" t="s">
         <v>28</v>
@@ -65744,76 +65744,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F733" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G733" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="H733">
         <v>1</v>
       </c>
       <c r="I733">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J733" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K733">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L733">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M733">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N733">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="O733">
+        <v>3</v>
+      </c>
+      <c r="P733">
         <v>3.6</v>
       </c>
-      <c r="P733">
-        <v>5.25</v>
-      </c>
       <c r="Q733">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R733">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S733">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T733">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U733">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V733">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="W733">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X733">
         <v>-1</v>
       </c>
       <c r="Y733">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z733">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA733">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB733">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC733">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="734" spans="1:29">
@@ -66533,7 +66533,7 @@
         <v>740</v>
       </c>
       <c r="B742">
-        <v>5338076</v>
+        <v>5338075</v>
       </c>
       <c r="C742" t="s">
         <v>28</v>
@@ -66545,76 +66545,76 @@
         <v>45058.60416666666</v>
       </c>
       <c r="F742" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G742" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I742">
         <v>1</v>
       </c>
       <c r="J742" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K742">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L742">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M742">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="N742">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="O742">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P742">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q742">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R742">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="S742">
+        <v>1.75</v>
+      </c>
+      <c r="T742">
+        <v>2.25</v>
+      </c>
+      <c r="U742">
+        <v>1.825</v>
+      </c>
+      <c r="V742">
         <v>1.975</v>
       </c>
-      <c r="T742">
-        <v>2.5</v>
-      </c>
-      <c r="U742">
-        <v>2</v>
-      </c>
-      <c r="V742">
-        <v>1.8</v>
-      </c>
       <c r="W742">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X742">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y742">
         <v>-1</v>
       </c>
       <c r="Z742">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA742">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB742">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC742">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="743" spans="1:29">
@@ -66622,7 +66622,7 @@
         <v>741</v>
       </c>
       <c r="B743">
-        <v>5338075</v>
+        <v>5338080</v>
       </c>
       <c r="C743" t="s">
         <v>28</v>
@@ -66634,76 +66634,76 @@
         <v>45058.60416666666</v>
       </c>
       <c r="F743" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G743" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H743">
         <v>1</v>
       </c>
       <c r="I743">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J743" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K743">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="L743">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M743">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N743">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="O743">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P743">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q743">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R743">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S743">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T743">
         <v>2.25</v>
       </c>
       <c r="U743">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V743">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W743">
         <v>-1</v>
       </c>
       <c r="X743">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y743">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z743">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA743">
-        <v>0.375</v>
+        <v>1.025</v>
       </c>
       <c r="AB743">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC743">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="744" spans="1:29">
@@ -66711,7 +66711,7 @@
         <v>742</v>
       </c>
       <c r="B744">
-        <v>5338080</v>
+        <v>5338076</v>
       </c>
       <c r="C744" t="s">
         <v>28</v>
@@ -66723,73 +66723,73 @@
         <v>45058.60416666666</v>
       </c>
       <c r="F744" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G744" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I744">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J744" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K744">
-        <v>1.571</v>
+        <v>4.333</v>
       </c>
       <c r="L744">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M744">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="N744">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="O744">
+        <v>3.8</v>
+      </c>
+      <c r="P744">
+        <v>1.6</v>
+      </c>
+      <c r="Q744">
+        <v>1</v>
+      </c>
+      <c r="R744">
+        <v>1.725</v>
+      </c>
+      <c r="S744">
+        <v>1.975</v>
+      </c>
+      <c r="T744">
+        <v>2.5</v>
+      </c>
+      <c r="U744">
+        <v>2</v>
+      </c>
+      <c r="V744">
+        <v>1.8</v>
+      </c>
+      <c r="W744">
         <v>3.75</v>
       </c>
-      <c r="P744">
-        <v>5.25</v>
-      </c>
-      <c r="Q744">
-        <v>-0.75</v>
-      </c>
-      <c r="R744">
-        <v>1.775</v>
-      </c>
-      <c r="S744">
-        <v>2.025</v>
-      </c>
-      <c r="T744">
-        <v>2.25</v>
-      </c>
-      <c r="U744">
-        <v>1.75</v>
-      </c>
-      <c r="V744">
-        <v>1.95</v>
-      </c>
-      <c r="W744">
-        <v>-1</v>
-      </c>
       <c r="X744">
         <v>-1</v>
       </c>
       <c r="Y744">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z744">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA744">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB744">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC744">
         <v>-1</v>
@@ -67067,7 +67067,7 @@
         <v>746</v>
       </c>
       <c r="B748">
-        <v>5534099</v>
+        <v>5534104</v>
       </c>
       <c r="C748" t="s">
         <v>28</v>
@@ -67079,49 +67079,49 @@
         <v>45065.66666666666</v>
       </c>
       <c r="F748" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G748" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H748">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I748">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J748" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K748">
-        <v>5</v>
+        <v>1.615</v>
       </c>
       <c r="L748">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M748">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="N748">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="O748">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P748">
-        <v>1.222</v>
+        <v>5.75</v>
       </c>
       <c r="Q748">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="R748">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="S748">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T748">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U748">
         <v>1.925</v>
@@ -67130,25 +67130,25 @@
         <v>1.875</v>
       </c>
       <c r="W748">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="X748">
         <v>-1</v>
       </c>
       <c r="Y748">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z748">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA748">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB748">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AC748">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="749" spans="1:29">
@@ -67245,7 +67245,7 @@
         <v>748</v>
       </c>
       <c r="B750">
-        <v>5534104</v>
+        <v>5534099</v>
       </c>
       <c r="C750" t="s">
         <v>28</v>
@@ -67257,49 +67257,49 @@
         <v>45065.66666666666</v>
       </c>
       <c r="F750" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G750" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I750">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J750" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K750">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="L750">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M750">
-        <v>4.75</v>
+        <v>1.55</v>
       </c>
       <c r="N750">
+        <v>10</v>
+      </c>
+      <c r="O750">
+        <v>5.25</v>
+      </c>
+      <c r="P750">
+        <v>1.222</v>
+      </c>
+      <c r="Q750">
         <v>1.5</v>
       </c>
-      <c r="O750">
-        <v>3.8</v>
-      </c>
-      <c r="P750">
-        <v>5.75</v>
-      </c>
-      <c r="Q750">
-        <v>-1</v>
-      </c>
       <c r="R750">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="S750">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T750">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U750">
         <v>1.925</v>
@@ -67308,25 +67308,25 @@
         <v>1.875</v>
       </c>
       <c r="W750">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X750">
         <v>-1</v>
       </c>
       <c r="Y750">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z750">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA750">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB750">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AC750">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="751" spans="1:29">
@@ -68224,7 +68224,7 @@
         <v>759</v>
       </c>
       <c r="B761">
-        <v>5569461</v>
+        <v>5569465</v>
       </c>
       <c r="C761" t="s">
         <v>28</v>
@@ -68236,73 +68236,73 @@
         <v>45072.66666666666</v>
       </c>
       <c r="F761" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G761" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H761">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I761">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J761" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K761">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="L761">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M761">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="N761">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="O761">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P761">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="Q761">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R761">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S761">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T761">
         <v>2.5</v>
       </c>
       <c r="U761">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V761">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W761">
         <v>-1</v>
       </c>
       <c r="X761">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y761">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z761">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA761">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB761">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC761">
         <v>-1</v>
@@ -68313,7 +68313,7 @@
         <v>760</v>
       </c>
       <c r="B762">
-        <v>5569462</v>
+        <v>5569461</v>
       </c>
       <c r="C762" t="s">
         <v>28</v>
@@ -68325,73 +68325,73 @@
         <v>45072.66666666666</v>
       </c>
       <c r="F762" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G762" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I762">
         <v>3</v>
       </c>
       <c r="J762" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K762">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L762">
         <v>3.2</v>
       </c>
       <c r="M762">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="N762">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="O762">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P762">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="Q762">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R762">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S762">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T762">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U762">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V762">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W762">
         <v>-1</v>
       </c>
       <c r="X762">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y762">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z762">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA762">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB762">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC762">
         <v>-1</v>
@@ -68402,7 +68402,7 @@
         <v>761</v>
       </c>
       <c r="B763">
-        <v>5570441</v>
+        <v>5569462</v>
       </c>
       <c r="C763" t="s">
         <v>28</v>
@@ -68414,10 +68414,10 @@
         <v>45072.66666666666</v>
       </c>
       <c r="F763" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G763" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H763">
         <v>2</v>
@@ -68429,40 +68429,40 @@
         <v>64</v>
       </c>
       <c r="K763">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="L763">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M763">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="N763">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="O763">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P763">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="Q763">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R763">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S763">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T763">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U763">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V763">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W763">
         <v>-1</v>
@@ -68471,16 +68471,16 @@
         <v>-1</v>
       </c>
       <c r="Y763">
-        <v>0.571</v>
+        <v>1.05</v>
       </c>
       <c r="Z763">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA763">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB763">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC763">
         <v>-1</v>
@@ -68491,7 +68491,7 @@
         <v>762</v>
       </c>
       <c r="B764">
-        <v>5569463</v>
+        <v>5570441</v>
       </c>
       <c r="C764" t="s">
         <v>28</v>
@@ -68503,73 +68503,73 @@
         <v>45072.66666666666</v>
       </c>
       <c r="F764" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G764" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H764">
         <v>2</v>
       </c>
       <c r="I764">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J764" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K764">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="L764">
         <v>3.4</v>
       </c>
       <c r="M764">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="N764">
-        <v>1.533</v>
+        <v>4.75</v>
       </c>
       <c r="O764">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P764">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="Q764">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R764">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S764">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T764">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U764">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V764">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W764">
         <v>-1</v>
       </c>
       <c r="X764">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y764">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z764">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA764">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB764">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC764">
         <v>-1</v>
@@ -68580,7 +68580,7 @@
         <v>763</v>
       </c>
       <c r="B765">
-        <v>5569465</v>
+        <v>5569463</v>
       </c>
       <c r="C765" t="s">
         <v>28</v>
@@ -68592,73 +68592,73 @@
         <v>45072.66666666666</v>
       </c>
       <c r="F765" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G765" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I765">
         <v>2</v>
       </c>
       <c r="J765" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K765">
-        <v>3.6</v>
+        <v>1.666</v>
       </c>
       <c r="L765">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M765">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="N765">
-        <v>5.75</v>
+        <v>1.533</v>
       </c>
       <c r="O765">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P765">
-        <v>1.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q765">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R765">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S765">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T765">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U765">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V765">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W765">
         <v>-1</v>
       </c>
       <c r="X765">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y765">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z765">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA765">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB765">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC765">
         <v>-1</v>
@@ -68951,7 +68951,7 @@
         <v>58</v>
       </c>
       <c r="G769" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H769">
         <v>0</v>
@@ -69218,7 +69218,7 @@
         <v>44</v>
       </c>
       <c r="G772" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H772">
         <v>1</v>
@@ -69381,7 +69381,7 @@
         <v>772</v>
       </c>
       <c r="B774">
-        <v>6927293</v>
+        <v>6927294</v>
       </c>
       <c r="C774" t="s">
         <v>28</v>
@@ -69393,13 +69393,13 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F774" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G774" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H774">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I774">
         <v>1</v>
@@ -69408,43 +69408,43 @@
         <v>65</v>
       </c>
       <c r="K774">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="L774">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M774">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="N774">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="O774">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P774">
+        <v>2.875</v>
+      </c>
+      <c r="Q774">
+        <v>-0.25</v>
+      </c>
+      <c r="R774">
+        <v>1.95</v>
+      </c>
+      <c r="S774">
         <v>1.85</v>
       </c>
-      <c r="Q774">
-        <v>0.5</v>
-      </c>
-      <c r="R774">
-        <v>1.875</v>
-      </c>
-      <c r="S774">
-        <v>1.925</v>
-      </c>
       <c r="T774">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U774">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V774">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W774">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="X774">
         <v>-1</v>
@@ -69453,13 +69453,13 @@
         <v>-1</v>
       </c>
       <c r="Z774">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA774">
         <v>-1</v>
       </c>
       <c r="AB774">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC774">
         <v>-1</v>
@@ -69571,7 +69571,7 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F776" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G776" t="s">
         <v>60</v>
@@ -69737,7 +69737,7 @@
         <v>776</v>
       </c>
       <c r="B778">
-        <v>6927294</v>
+        <v>6927293</v>
       </c>
       <c r="C778" t="s">
         <v>28</v>
@@ -69749,13 +69749,13 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F778" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="G778" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I778">
         <v>1</v>
@@ -69764,43 +69764,43 @@
         <v>65</v>
       </c>
       <c r="K778">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="L778">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M778">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="N778">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="O778">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P778">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="Q778">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R778">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S778">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T778">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U778">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V778">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W778">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="X778">
         <v>-1</v>
@@ -69809,13 +69809,13 @@
         <v>-1</v>
       </c>
       <c r="Z778">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA778">
         <v>-1</v>
       </c>
       <c r="AB778">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC778">
         <v>-1</v>
@@ -70731,7 +70731,7 @@
         <v>56</v>
       </c>
       <c r="G789" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H789">
         <v>0</v>
@@ -70820,7 +70820,7 @@
         <v>50</v>
       </c>
       <c r="G790" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H790">
         <v>2</v>
@@ -71084,7 +71084,7 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F793" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G793" t="s">
         <v>44</v>
@@ -71443,7 +71443,7 @@
         <v>63</v>
       </c>
       <c r="G797" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H797">
         <v>0</v>
@@ -72152,7 +72152,7 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F805" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G805" t="s">
         <v>54</v>
@@ -72333,7 +72333,7 @@
         <v>39</v>
       </c>
       <c r="G807" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H807">
         <v>3</v>
@@ -73042,10 +73042,10 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F815" t="s">
+        <v>61</v>
+      </c>
+      <c r="G815" t="s">
         <v>62</v>
-      </c>
-      <c r="G815" t="s">
-        <v>61</v>
       </c>
       <c r="H815">
         <v>2</v>
@@ -73297,7 +73297,7 @@
         <v>816</v>
       </c>
       <c r="B818">
-        <v>6927306</v>
+        <v>6927886</v>
       </c>
       <c r="C818" t="s">
         <v>28</v>
@@ -73309,13 +73309,13 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F818" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="G818" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H818">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I818">
         <v>0</v>
@@ -73324,34 +73324,34 @@
         <v>65</v>
       </c>
       <c r="K818">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L818">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M818">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="N818">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="O818">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P818">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q818">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R818">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S818">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T818">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U818">
         <v>1.825</v>
@@ -73360,7 +73360,7 @@
         <v>1.975</v>
       </c>
       <c r="W818">
-        <v>0.615</v>
+        <v>1.45</v>
       </c>
       <c r="X818">
         <v>-1</v>
@@ -73369,16 +73369,16 @@
         <v>-1</v>
       </c>
       <c r="Z818">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA818">
         <v>-1</v>
       </c>
       <c r="AB818">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC818">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="819" spans="1:29">
@@ -73576,7 +73576,7 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F821" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G821" t="s">
         <v>36</v>
@@ -73920,7 +73920,7 @@
         <v>823</v>
       </c>
       <c r="B825">
-        <v>6927886</v>
+        <v>6927306</v>
       </c>
       <c r="C825" t="s">
         <v>28</v>
@@ -73932,13 +73932,13 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F825" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G825" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I825">
         <v>0</v>
@@ -73947,34 +73947,34 @@
         <v>65</v>
       </c>
       <c r="K825">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L825">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M825">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="N825">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="O825">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P825">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q825">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R825">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S825">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T825">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U825">
         <v>1.825</v>
@@ -73983,7 +73983,7 @@
         <v>1.975</v>
       </c>
       <c r="W825">
-        <v>1.45</v>
+        <v>0.615</v>
       </c>
       <c r="X825">
         <v>-1</v>
@@ -73992,16 +73992,16 @@
         <v>-1</v>
       </c>
       <c r="Z825">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA825">
         <v>-1</v>
       </c>
       <c r="AB825">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC825">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="826" spans="1:29">
@@ -74024,7 +74024,7 @@
         <v>63</v>
       </c>
       <c r="G826" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H826">
         <v>0</v>
@@ -74187,7 +74187,7 @@
         <v>826</v>
       </c>
       <c r="B828">
-        <v>6927070</v>
+        <v>6927071</v>
       </c>
       <c r="C828" t="s">
         <v>28</v>
@@ -74199,76 +74199,76 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F828" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G828" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H828">
         <v>0</v>
       </c>
       <c r="I828">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J828" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K828">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L828">
         <v>3.25</v>
       </c>
       <c r="M828">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N828">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O828">
         <v>3.1</v>
       </c>
       <c r="P828">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q828">
         <v>-0.25</v>
       </c>
       <c r="R828">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S828">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T828">
         <v>2.25</v>
       </c>
       <c r="U828">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V828">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W828">
         <v>-1</v>
       </c>
       <c r="X828">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y828">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z828">
+        <v>-1</v>
+      </c>
+      <c r="AA828">
+        <v>0.75</v>
+      </c>
+      <c r="AB828">
         <v>-0.5</v>
       </c>
-      <c r="AA828">
-        <v>0.45</v>
-      </c>
-      <c r="AB828">
-        <v>-1</v>
-      </c>
       <c r="AC828">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="829" spans="1:29">
@@ -74276,7 +74276,7 @@
         <v>827</v>
       </c>
       <c r="B829">
-        <v>6927071</v>
+        <v>6927070</v>
       </c>
       <c r="C829" t="s">
         <v>28</v>
@@ -74288,76 +74288,76 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F829" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G829" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H829">
         <v>0</v>
       </c>
       <c r="I829">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J829" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K829">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L829">
         <v>3.25</v>
       </c>
       <c r="M829">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N829">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O829">
         <v>3.1</v>
       </c>
       <c r="P829">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q829">
         <v>-0.25</v>
       </c>
       <c r="R829">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S829">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T829">
         <v>2.25</v>
       </c>
       <c r="U829">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V829">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W829">
         <v>-1</v>
       </c>
       <c r="X829">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y829">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z829">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA829">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="AB829">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC829">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="830" spans="1:29">
@@ -74380,7 +74380,7 @@
         <v>43</v>
       </c>
       <c r="G830" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H830">
         <v>1</v>
@@ -75178,7 +75178,7 @@
         <v>45205.60416666666</v>
       </c>
       <c r="F839" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G839" t="s">
         <v>48</v>
@@ -75359,7 +75359,7 @@
         <v>56</v>
       </c>
       <c r="G841" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H841">
         <v>1</v>
@@ -75893,7 +75893,7 @@
         <v>36</v>
       </c>
       <c r="G847" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H847">
         <v>0</v>
@@ -76427,7 +76427,7 @@
         <v>33</v>
       </c>
       <c r="G853" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H853">
         <v>2</v>
@@ -76590,7 +76590,7 @@
         <v>853</v>
       </c>
       <c r="B855">
-        <v>6927315</v>
+        <v>6927314</v>
       </c>
       <c r="C855" t="s">
         <v>28</v>
@@ -76602,76 +76602,76 @@
         <v>45219.60416666666</v>
       </c>
       <c r="F855" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G855" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="H855">
         <v>1</v>
       </c>
       <c r="I855">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J855" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K855">
+        <v>4.2</v>
+      </c>
+      <c r="L855">
+        <v>3.4</v>
+      </c>
+      <c r="M855">
         <v>1.727</v>
       </c>
-      <c r="L855">
-        <v>3.3</v>
-      </c>
-      <c r="M855">
-        <v>4.333</v>
-      </c>
       <c r="N855">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="O855">
         <v>3.3</v>
       </c>
       <c r="P855">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="Q855">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R855">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S855">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T855">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U855">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V855">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W855">
         <v>-1</v>
       </c>
       <c r="X855">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y855">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z855">
         <v>-1</v>
       </c>
       <c r="AA855">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB855">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC855">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="856" spans="1:29">
@@ -76679,7 +76679,7 @@
         <v>854</v>
       </c>
       <c r="B856">
-        <v>6927314</v>
+        <v>6927083</v>
       </c>
       <c r="C856" t="s">
         <v>28</v>
@@ -76691,76 +76691,76 @@
         <v>45219.60416666666</v>
       </c>
       <c r="F856" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G856" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H856">
         <v>1</v>
       </c>
       <c r="I856">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J856" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K856">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="L856">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M856">
-        <v>1.727</v>
+        <v>3.8</v>
       </c>
       <c r="N856">
+        <v>1.909</v>
+      </c>
+      <c r="O856">
         <v>3.25</v>
       </c>
-      <c r="O856">
-        <v>3.3</v>
-      </c>
       <c r="P856">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="Q856">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R856">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S856">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T856">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U856">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V856">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W856">
         <v>-1</v>
       </c>
       <c r="X856">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y856">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z856">
         <v>-1</v>
       </c>
       <c r="AA856">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB856">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC856">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="857" spans="1:29">
@@ -76768,7 +76768,7 @@
         <v>855</v>
       </c>
       <c r="B857">
-        <v>6927083</v>
+        <v>6927315</v>
       </c>
       <c r="C857" t="s">
         <v>28</v>
@@ -76780,10 +76780,10 @@
         <v>45219.60416666666</v>
       </c>
       <c r="F857" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G857" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H857">
         <v>1</v>
@@ -76795,25 +76795,25 @@
         <v>66</v>
       </c>
       <c r="K857">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L857">
         <v>3.3</v>
       </c>
       <c r="M857">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="N857">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="O857">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P857">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q857">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R857">
         <v>2</v>
@@ -76825,16 +76825,16 @@
         <v>2.25</v>
       </c>
       <c r="U857">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V857">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W857">
         <v>-1</v>
       </c>
       <c r="X857">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y857">
         <v>-1</v>
@@ -76849,7 +76849,7 @@
         <v>-0.5</v>
       </c>
       <c r="AC857">
-        <v>0.4</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="858" spans="1:29">
@@ -76857,7 +76857,7 @@
         <v>856</v>
       </c>
       <c r="B858">
-        <v>6927082</v>
+        <v>6927081</v>
       </c>
       <c r="C858" t="s">
         <v>28</v>
@@ -76869,76 +76869,76 @@
         <v>45219.60416666666</v>
       </c>
       <c r="F858" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G858" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I858">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J858" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K858">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L858">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M858">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N858">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="O858">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P858">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="Q858">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R858">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S858">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="T858">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U858">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V858">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W858">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X858">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y858">
         <v>-1</v>
       </c>
       <c r="Z858">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA858">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB858">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC858">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="859" spans="1:29">
@@ -77047,7 +77047,7 @@
         <v>45219.60416666666</v>
       </c>
       <c r="F860" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G860" t="s">
         <v>52</v>
@@ -77124,7 +77124,7 @@
         <v>859</v>
       </c>
       <c r="B861">
-        <v>6927081</v>
+        <v>6927082</v>
       </c>
       <c r="C861" t="s">
         <v>28</v>
@@ -77136,76 +77136,76 @@
         <v>45219.60416666666</v>
       </c>
       <c r="F861" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G861" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H861">
+        <v>0</v>
+      </c>
+      <c r="I861">
+        <v>0</v>
+      </c>
+      <c r="J861" t="s">
+        <v>66</v>
+      </c>
+      <c r="K861">
+        <v>1.75</v>
+      </c>
+      <c r="L861">
+        <v>3.4</v>
+      </c>
+      <c r="M861">
         <v>4</v>
       </c>
-      <c r="I861">
-        <v>2</v>
-      </c>
-      <c r="J861" t="s">
-        <v>65</v>
-      </c>
-      <c r="K861">
+      <c r="N861">
+        <v>2.875</v>
+      </c>
+      <c r="O861">
         <v>3</v>
       </c>
-      <c r="L861">
-        <v>3.1</v>
-      </c>
-      <c r="M861">
-        <v>2.2</v>
-      </c>
-      <c r="N861">
-        <v>2.3</v>
-      </c>
-      <c r="O861">
-        <v>3.1</v>
-      </c>
       <c r="P861">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="Q861">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R861">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S861">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="T861">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U861">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V861">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W861">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X861">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y861">
         <v>-1</v>
       </c>
       <c r="Z861">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA861">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB861">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC861">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="862" spans="1:29">
@@ -77225,7 +77225,7 @@
         <v>45222.5625</v>
       </c>
       <c r="F862" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G862" t="s">
         <v>43</v>
@@ -77495,7 +77495,7 @@
         <v>41</v>
       </c>
       <c r="G865" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H865">
         <v>1</v>
@@ -77673,7 +77673,7 @@
         <v>48</v>
       </c>
       <c r="G867" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H867">
         <v>0</v>
@@ -78293,7 +78293,7 @@
         <v>45240.64583333334</v>
       </c>
       <c r="F874" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G874" t="s">
         <v>59</v>
@@ -78827,7 +78827,7 @@
         <v>45240.64583333334</v>
       </c>
       <c r="F880" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G880" t="s">
         <v>33</v>
@@ -79453,7 +79453,7 @@
         <v>57</v>
       </c>
       <c r="G887" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H887">
         <v>2</v>
@@ -79542,7 +79542,7 @@
         <v>52</v>
       </c>
       <c r="G888" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H888">
         <v>1</v>
@@ -79806,7 +79806,7 @@
         <v>45261.64583333334</v>
       </c>
       <c r="F891" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G891" t="s">
         <v>41</v>
@@ -80862,7 +80862,7 @@
         <v>901</v>
       </c>
       <c r="B903">
-        <v>6927103</v>
+        <v>6927281</v>
       </c>
       <c r="C903" t="s">
         <v>28</v>
@@ -80874,73 +80874,73 @@
         <v>45275.64583333334</v>
       </c>
       <c r="F903" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G903" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H903">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I903">
         <v>2</v>
       </c>
       <c r="J903" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K903">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L903">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M903">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N903">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O903">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P903">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q903">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R903">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S903">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T903">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U903">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V903">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W903">
         <v>-1</v>
       </c>
       <c r="X903">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y903">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z903">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA903">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB903">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC903">
         <v>-1</v>
@@ -80951,7 +80951,7 @@
         <v>902</v>
       </c>
       <c r="B904">
-        <v>6927102</v>
+        <v>6927103</v>
       </c>
       <c r="C904" t="s">
         <v>28</v>
@@ -80963,7 +80963,7 @@
         <v>45275.64583333334</v>
       </c>
       <c r="F904" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G904" t="s">
         <v>62</v>
@@ -80978,40 +80978,40 @@
         <v>64</v>
       </c>
       <c r="K904">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="L904">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M904">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N904">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="O904">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P904">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="Q904">
         <v>0</v>
       </c>
       <c r="R904">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S904">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T904">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U904">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V904">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W904">
         <v>-1</v>
@@ -81020,16 +81020,16 @@
         <v>-1</v>
       </c>
       <c r="Y904">
-        <v>1.375</v>
+        <v>1.55</v>
       </c>
       <c r="Z904">
         <v>-1</v>
       </c>
       <c r="AA904">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB904">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC904">
         <v>-1</v>
@@ -81040,7 +81040,7 @@
         <v>903</v>
       </c>
       <c r="B905">
-        <v>6927281</v>
+        <v>6927102</v>
       </c>
       <c r="C905" t="s">
         <v>28</v>
@@ -81052,46 +81052,46 @@
         <v>45275.64583333334</v>
       </c>
       <c r="F905" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="G905" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I905">
         <v>2</v>
       </c>
       <c r="J905" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K905">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L905">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M905">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N905">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="O905">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P905">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q905">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R905">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S905">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T905">
         <v>2.25</v>
@@ -81106,16 +81106,16 @@
         <v>-1</v>
       </c>
       <c r="X905">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y905">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z905">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA905">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="AB905">
         <v>1</v>
@@ -81218,7 +81218,7 @@
         <v>905</v>
       </c>
       <c r="B907">
-        <v>6927333</v>
+        <v>6927332</v>
       </c>
       <c r="C907" t="s">
         <v>28</v>
@@ -81230,10 +81230,10 @@
         <v>45303.64583333334</v>
       </c>
       <c r="F907" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G907" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H907">
         <v>2</v>
@@ -81245,43 +81245,43 @@
         <v>65</v>
       </c>
       <c r="K907">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="L907">
+        <v>3.3</v>
+      </c>
+      <c r="M907">
         <v>3.6</v>
       </c>
-      <c r="M907">
-        <v>4.333</v>
-      </c>
       <c r="N907">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O907">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P907">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q907">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R907">
+        <v>1.9</v>
+      </c>
+      <c r="S907">
+        <v>1.9</v>
+      </c>
+      <c r="T907">
+        <v>2.25</v>
+      </c>
+      <c r="U907">
         <v>1.825</v>
       </c>
-      <c r="S907">
+      <c r="V907">
         <v>1.975</v>
       </c>
-      <c r="T907">
-        <v>2.5</v>
-      </c>
-      <c r="U907">
-        <v>1.975</v>
-      </c>
-      <c r="V907">
-        <v>1.825</v>
-      </c>
       <c r="W907">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="X907">
         <v>-1</v>
@@ -81290,13 +81290,13 @@
         <v>-1</v>
       </c>
       <c r="Z907">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA907">
+        <v>-1</v>
+      </c>
+      <c r="AB907">
         <v>0.825</v>
-      </c>
-      <c r="AA907">
-        <v>-1</v>
-      </c>
-      <c r="AB907">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC907">
         <v>-1</v>
@@ -81307,7 +81307,7 @@
         <v>906</v>
       </c>
       <c r="B908">
-        <v>6927332</v>
+        <v>6927333</v>
       </c>
       <c r="C908" t="s">
         <v>28</v>
@@ -81319,10 +81319,10 @@
         <v>45303.64583333334</v>
       </c>
       <c r="F908" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G908" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H908">
         <v>2</v>
@@ -81334,43 +81334,43 @@
         <v>65</v>
       </c>
       <c r="K908">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="L908">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M908">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N908">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O908">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P908">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q908">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R908">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S908">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T908">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U908">
+        <v>1.975</v>
+      </c>
+      <c r="V908">
         <v>1.825</v>
       </c>
-      <c r="V908">
-        <v>1.975</v>
-      </c>
       <c r="W908">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="X908">
         <v>-1</v>
@@ -81379,13 +81379,13 @@
         <v>-1</v>
       </c>
       <c r="Z908">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA908">
         <v>-1</v>
       </c>
       <c r="AB908">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC908">
         <v>-1</v>
@@ -81408,7 +81408,7 @@
         <v>45303.64583333334</v>
       </c>
       <c r="F909" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G909" t="s">
         <v>50</v>
@@ -81853,7 +81853,7 @@
         <v>45303.64583333334</v>
       </c>
       <c r="F914" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G914" t="s">
         <v>57</v>
@@ -82390,7 +82390,7 @@
         <v>60</v>
       </c>
       <c r="G920" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H920">
         <v>2</v>
@@ -82565,7 +82565,7 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F922" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G922" t="s">
         <v>58</v>
@@ -82642,7 +82642,7 @@
         <v>921</v>
       </c>
       <c r="B923">
-        <v>7712134</v>
+        <v>7695781</v>
       </c>
       <c r="C923" t="s">
         <v>28</v>
@@ -82654,76 +82654,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F923" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G923" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J923" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K923">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="L923">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M923">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N923">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O923">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P923">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q923">
         <v>-0.25</v>
       </c>
       <c r="R923">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S923">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T923">
         <v>2.25</v>
       </c>
       <c r="U923">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V923">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W923">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X923">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y923">
         <v>-1</v>
       </c>
       <c r="Z923">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA923">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB923">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC923">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="924" spans="1:29">
@@ -82731,7 +82731,7 @@
         <v>922</v>
       </c>
       <c r="B924">
-        <v>7695781</v>
+        <v>7712134</v>
       </c>
       <c r="C924" t="s">
         <v>28</v>
@@ -82743,76 +82743,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F924" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G924" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H924">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J924" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K924">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L924">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M924">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N924">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O924">
+        <v>3.25</v>
+      </c>
+      <c r="P924">
         <v>3.2</v>
-      </c>
-      <c r="P924">
-        <v>3.1</v>
       </c>
       <c r="Q924">
         <v>-0.25</v>
       </c>
       <c r="R924">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S924">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T924">
         <v>2.25</v>
       </c>
       <c r="U924">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V924">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W924">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X924">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y924">
         <v>-1</v>
       </c>
       <c r="Z924">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA924">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB924">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC924">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/France National/France National.xlsx
+++ b/France National/France National.xlsx
@@ -27346,7 +27346,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6927103</v>
+        <v>6927281</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27358,73 +27358,73 @@
         <v>45275.64583333334</v>
       </c>
       <c r="F302" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G302" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I302">
         <v>2</v>
       </c>
       <c r="J302" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K302">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L302">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M302">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N302">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O302">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P302">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q302">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R302">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S302">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T302">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U302">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V302">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W302">
         <v>-1</v>
       </c>
       <c r="X302">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y302">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z302">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA302">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB302">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC302">
         <v>-1</v>
@@ -27435,7 +27435,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6927281</v>
+        <v>6927329</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27447,76 +27447,76 @@
         <v>45275.64583333334</v>
       </c>
       <c r="F303" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G303" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H303">
         <v>2</v>
       </c>
       <c r="I303">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J303" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K303">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="L303">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M303">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N303">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O303">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P303">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q303">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R303">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S303">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T303">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U303">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V303">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W303">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X303">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA303">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB303">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC303">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27524,7 +27524,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6927329</v>
+        <v>6927327</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27536,76 +27536,76 @@
         <v>45275.64583333334</v>
       </c>
       <c r="F304" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G304" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J304" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K304">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="L304">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M304">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N304">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="O304">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P304">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q304">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R304">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S304">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T304">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U304">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V304">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W304">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X304">
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z304">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA304">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB304">
         <v>-1</v>
       </c>
       <c r="AC304">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27613,7 +27613,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6927327</v>
+        <v>6927103</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27625,55 +27625,55 @@
         <v>45275.64583333334</v>
       </c>
       <c r="F305" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G305" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I305">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J305" t="s">
         <v>55</v>
       </c>
       <c r="K305">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="L305">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M305">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="N305">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="O305">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P305">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="Q305">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R305">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S305">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T305">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U305">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V305">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W305">
         <v>-1</v>
@@ -27682,19 +27682,19 @@
         <v>-1</v>
       </c>
       <c r="Y305">
-        <v>0.833</v>
+        <v>1.55</v>
       </c>
       <c r="Z305">
         <v>-1</v>
       </c>
       <c r="AA305">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB305">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC305">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -28592,7 +28592,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>6927334</v>
+        <v>6927336</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28604,76 +28604,76 @@
         <v>45310.64583333334</v>
       </c>
       <c r="F316" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G316" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I316">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J316" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K316">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="L316">
+        <v>3.1</v>
+      </c>
+      <c r="M316">
         <v>3</v>
       </c>
-      <c r="M316">
-        <v>2.3</v>
-      </c>
       <c r="N316">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="O316">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="P316">
+        <v>3.5</v>
+      </c>
+      <c r="Q316">
+        <v>-0.25</v>
+      </c>
+      <c r="R316">
         <v>1.85</v>
       </c>
-      <c r="Q316">
-        <v>0.5</v>
-      </c>
-      <c r="R316">
-        <v>1.8</v>
-      </c>
       <c r="S316">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T316">
         <v>2.25</v>
       </c>
       <c r="U316">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V316">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W316">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X316">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y316">
         <v>-1</v>
       </c>
       <c r="Z316">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA316">
         <v>-1</v>
       </c>
       <c r="AB316">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC316">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28681,7 +28681,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>6927336</v>
+        <v>6927334</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28693,76 +28693,76 @@
         <v>45310.64583333334</v>
       </c>
       <c r="F317" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G317" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H317">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J317" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K317">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="L317">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M317">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N317">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="O317">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="P317">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q317">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R317">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S317">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T317">
         <v>2.25</v>
       </c>
       <c r="U317">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V317">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W317">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X317">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA317">
         <v>-1</v>
       </c>
       <c r="AB317">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC317">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28948,7 +28948,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>7695781</v>
+        <v>7679827</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28960,58 +28960,58 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F320" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G320" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H320">
         <v>2</v>
       </c>
       <c r="I320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J320" t="s">
         <v>56</v>
       </c>
       <c r="K320">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L320">
         <v>3.4</v>
       </c>
       <c r="M320">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="N320">
+        <v>3.2</v>
+      </c>
+      <c r="O320">
+        <v>3</v>
+      </c>
+      <c r="P320">
         <v>2.2</v>
       </c>
-      <c r="O320">
-        <v>3.2</v>
-      </c>
-      <c r="P320">
-        <v>3.1</v>
-      </c>
       <c r="Q320">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R320">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S320">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T320">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U320">
+        <v>1.85</v>
+      </c>
+      <c r="V320">
         <v>1.95</v>
       </c>
-      <c r="V320">
-        <v>1.85</v>
-      </c>
       <c r="W320">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="X320">
         <v>-1</v>
@@ -29020,16 +29020,16 @@
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA320">
         <v>-1</v>
       </c>
       <c r="AB320">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC320">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29037,7 +29037,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7712134</v>
+        <v>7568500</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29049,76 +29049,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F321" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G321" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I321">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J321" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K321">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="L321">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M321">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N321">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="O321">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P321">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q321">
         <v>-0.25</v>
       </c>
       <c r="R321">
+        <v>2</v>
+      </c>
+      <c r="S321">
+        <v>1.7</v>
+      </c>
+      <c r="T321">
+        <v>2</v>
+      </c>
+      <c r="U321">
+        <v>1.775</v>
+      </c>
+      <c r="V321">
+        <v>2.025</v>
+      </c>
+      <c r="W321">
+        <v>-1</v>
+      </c>
+      <c r="X321">
+        <v>-1</v>
+      </c>
+      <c r="Y321">
         <v>1.9</v>
       </c>
-      <c r="S321">
-        <v>1.9</v>
-      </c>
-      <c r="T321">
-        <v>2.25</v>
-      </c>
-      <c r="U321">
-        <v>1.9</v>
-      </c>
-      <c r="V321">
-        <v>1.9</v>
-      </c>
-      <c r="W321">
-        <v>-1</v>
-      </c>
-      <c r="X321">
-        <v>2.25</v>
-      </c>
-      <c r="Y321">
-        <v>-1</v>
-      </c>
       <c r="Z321">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA321">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="AB321">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC321">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29215,7 +29215,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7568500</v>
+        <v>7712134</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29227,76 +29227,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F323" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G323" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J323" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K323">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="L323">
+        <v>3.8</v>
+      </c>
+      <c r="M323">
+        <v>5</v>
+      </c>
+      <c r="N323">
+        <v>2.1</v>
+      </c>
+      <c r="O323">
         <v>3.25</v>
       </c>
-      <c r="M323">
-        <v>2.7</v>
-      </c>
-      <c r="N323">
-        <v>2.4</v>
-      </c>
-      <c r="O323">
-        <v>3</v>
-      </c>
       <c r="P323">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q323">
         <v>-0.25</v>
       </c>
       <c r="R323">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S323">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="T323">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U323">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V323">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W323">
         <v>-1</v>
       </c>
       <c r="X323">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y323">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z323">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA323">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
       <c r="AB323">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC323">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29304,7 +29304,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7679827</v>
+        <v>7695781</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29316,58 +29316,58 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F324" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G324" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H324">
         <v>2</v>
       </c>
       <c r="I324">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J324" t="s">
         <v>56</v>
       </c>
       <c r="K324">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L324">
         <v>3.4</v>
       </c>
       <c r="M324">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N324">
+        <v>2.2</v>
+      </c>
+      <c r="O324">
         <v>3.2</v>
       </c>
-      <c r="O324">
-        <v>3</v>
-      </c>
       <c r="P324">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q324">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R324">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S324">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T324">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U324">
+        <v>1.95</v>
+      </c>
+      <c r="V324">
         <v>1.85</v>
       </c>
-      <c r="V324">
-        <v>1.95</v>
-      </c>
       <c r="W324">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="X324">
         <v>-1</v>
@@ -29376,16 +29376,16 @@
         <v>-1</v>
       </c>
       <c r="Z324">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA324">
         <v>-1</v>
       </c>
       <c r="AB324">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC324">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29393,7 +29393,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>6927112</v>
+        <v>6927114</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29405,76 +29405,76 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F325" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G325" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J325" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K325">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="L325">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M325">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="N325">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="O325">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P325">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q325">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R325">
+        <v>1.75</v>
+      </c>
+      <c r="S325">
+        <v>1.95</v>
+      </c>
+      <c r="T325">
+        <v>2.25</v>
+      </c>
+      <c r="U325">
+        <v>2.025</v>
+      </c>
+      <c r="V325">
         <v>1.775</v>
       </c>
-      <c r="S325">
-        <v>2.025</v>
-      </c>
-      <c r="T325">
-        <v>2.5</v>
-      </c>
-      <c r="U325">
-        <v>1.95</v>
-      </c>
-      <c r="V325">
-        <v>1.85</v>
-      </c>
       <c r="W325">
         <v>-1</v>
       </c>
       <c r="X325">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y325">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z325">
         <v>-1</v>
       </c>
       <c r="AA325">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB325">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC325">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="326" spans="1:29">
@@ -29482,7 +29482,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>6927114</v>
+        <v>6927112</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29494,76 +29494,76 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F326" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G326" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I326">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J326" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K326">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="L326">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M326">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="N326">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="O326">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P326">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q326">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R326">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S326">
+        <v>2.025</v>
+      </c>
+      <c r="T326">
+        <v>2.5</v>
+      </c>
+      <c r="U326">
         <v>1.95</v>
       </c>
-      <c r="T326">
-        <v>2.25</v>
-      </c>
-      <c r="U326">
-        <v>2.025</v>
-      </c>
       <c r="V326">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W326">
         <v>-1</v>
       </c>
       <c r="X326">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y326">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z326">
         <v>-1</v>
       </c>
       <c r="AA326">
+        <v>1.025</v>
+      </c>
+      <c r="AB326">
         <v>0.95</v>
       </c>
-      <c r="AB326">
-        <v>-1</v>
-      </c>
       <c r="AC326">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -29571,7 +29571,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>6927111</v>
+        <v>6927113</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29583,55 +29583,55 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F327" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G327" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I327">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J327" t="s">
         <v>55</v>
       </c>
       <c r="K327">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L327">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M327">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="N327">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O327">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P327">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q327">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R327">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S327">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T327">
         <v>2.25</v>
       </c>
       <c r="U327">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V327">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W327">
         <v>-1</v>
@@ -29640,16 +29640,16 @@
         <v>-1</v>
       </c>
       <c r="Y327">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Z327">
         <v>-1</v>
       </c>
       <c r="AA327">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB327">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC327">
         <v>-1</v>
@@ -29660,7 +29660,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6927113</v>
+        <v>6927111</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29672,55 +29672,55 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F328" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G328" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J328" t="s">
         <v>55</v>
       </c>
       <c r="K328">
+        <v>2.15</v>
+      </c>
+      <c r="L328">
+        <v>3.2</v>
+      </c>
+      <c r="M328">
+        <v>3.1</v>
+      </c>
+      <c r="N328">
+        <v>2.15</v>
+      </c>
+      <c r="O328">
+        <v>3.2</v>
+      </c>
+      <c r="P328">
+        <v>3.1</v>
+      </c>
+      <c r="Q328">
+        <v>-0.25</v>
+      </c>
+      <c r="R328">
+        <v>1.95</v>
+      </c>
+      <c r="S328">
         <v>1.85</v>
-      </c>
-      <c r="L328">
-        <v>3.4</v>
-      </c>
-      <c r="M328">
-        <v>3.8</v>
-      </c>
-      <c r="N328">
-        <v>1.833</v>
-      </c>
-      <c r="O328">
-        <v>3.4</v>
-      </c>
-      <c r="P328">
-        <v>4</v>
-      </c>
-      <c r="Q328">
-        <v>-0.5</v>
-      </c>
-      <c r="R328">
-        <v>1.9</v>
-      </c>
-      <c r="S328">
-        <v>1.9</v>
       </c>
       <c r="T328">
         <v>2.25</v>
       </c>
       <c r="U328">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V328">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W328">
         <v>-1</v>
@@ -29729,16 +29729,16 @@
         <v>-1</v>
       </c>
       <c r="Y328">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Z328">
         <v>-1</v>
       </c>
       <c r="AA328">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB328">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC328">
         <v>-1</v>
@@ -29927,7 +29927,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6927337</v>
+        <v>6926931</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29939,40 +29939,40 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F331" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G331" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I331">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J331" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K331">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="L331">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M331">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N331">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="O331">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P331">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q331">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R331">
         <v>1.9</v>
@@ -29984,31 +29984,31 @@
         <v>2.25</v>
       </c>
       <c r="U331">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V331">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W331">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X331">
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z331">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA331">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB331">
         <v>-1</v>
       </c>
       <c r="AC331">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30016,7 +30016,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6926931</v>
+        <v>6927337</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30028,40 +30028,40 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F332" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G332" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J332" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K332">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="L332">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M332">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N332">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="O332">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P332">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q332">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R332">
         <v>1.9</v>
@@ -30073,31 +30073,31 @@
         <v>2.25</v>
       </c>
       <c r="U332">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V332">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W332">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X332">
         <v>-1</v>
       </c>
       <c r="Y332">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z332">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA332">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB332">
         <v>-1</v>
       </c>
       <c r="AC332">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -31351,7 +31351,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6926932</v>
+        <v>6927342</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31363,76 +31363,76 @@
         <v>45338.64583333334</v>
       </c>
       <c r="F347" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G347" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H347">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I347">
         <v>1</v>
       </c>
       <c r="J347" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K347">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L347">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M347">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N347">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="O347">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P347">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="Q347">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R347">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S347">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T347">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U347">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V347">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W347">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X347">
         <v>-1</v>
       </c>
       <c r="Y347">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z347">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA347">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB347">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC347">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31440,7 +31440,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>6927342</v>
+        <v>6926932</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31452,76 +31452,76 @@
         <v>45338.64583333334</v>
       </c>
       <c r="F348" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G348" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I348">
         <v>1</v>
       </c>
       <c r="J348" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K348">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L348">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M348">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N348">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="O348">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P348">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q348">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R348">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S348">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T348">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U348">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V348">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W348">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X348">
         <v>-1</v>
       </c>
       <c r="Y348">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z348">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA348">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB348">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC348">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="349" spans="1:29">

--- a/France National/France National.xlsx
+++ b/France National/France National.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC254"/>
+  <dimension ref="A1:AC255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6927095</v>
+        <v>6927096</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,37 +10958,37 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
         <v>3</v>
       </c>
-      <c r="I118">
-        <v>1</v>
-      </c>
       <c r="J118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K118">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L118">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M118">
+        <v>2.875</v>
+      </c>
+      <c r="N118">
         <v>2.9</v>
       </c>
-      <c r="N118">
-        <v>2.8</v>
-      </c>
       <c r="O118">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P118">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q118">
         <v>0</v>
@@ -11000,31 +11000,31 @@
         <v>1.75</v>
       </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U118">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V118">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W118">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z118">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB118">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6927096</v>
+        <v>6927279</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,55 +11047,55 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
         <v>48</v>
       </c>
       <c r="K119">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L119">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M119">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="N119">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="O119">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P119">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S119">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T119">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -11104,16 +11104,16 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.375</v>
+        <v>3.5</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB119">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6927884</v>
+        <v>6927095</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,49 +11314,49 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H122">
+        <v>3</v>
+      </c>
+      <c r="I122">
         <v>1</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
       </c>
       <c r="J122" t="s">
         <v>49</v>
       </c>
       <c r="K122">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="L122">
+        <v>3.25</v>
+      </c>
+      <c r="M122">
         <v>2.9</v>
       </c>
-      <c r="M122">
-        <v>2.5</v>
-      </c>
       <c r="N122">
+        <v>2.8</v>
+      </c>
+      <c r="O122">
         <v>3.2</v>
       </c>
-      <c r="O122">
-        <v>3.1</v>
-      </c>
       <c r="P122">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q122">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S122">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T122">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
         <v>1.875</v>
@@ -11365,7 +11365,7 @@
         <v>1.925</v>
       </c>
       <c r="W122">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11374,16 +11374,16 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC122">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6927279</v>
+        <v>6927094</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,13 +11403,13 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>2</v>
@@ -11418,40 +11418,40 @@
         <v>48</v>
       </c>
       <c r="K123">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M123">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="N123">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="O123">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P123">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q123">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R123">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S123">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T123">
         <v>2.25</v>
       </c>
       <c r="U123">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V123">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W123">
         <v>-1</v>
@@ -11460,19 +11460,19 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>3.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AB123">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6927094</v>
+        <v>6927884</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K124">
+        <v>2.875</v>
+      </c>
+      <c r="L124">
+        <v>2.9</v>
+      </c>
+      <c r="M124">
+        <v>2.5</v>
+      </c>
+      <c r="N124">
+        <v>3.2</v>
+      </c>
+      <c r="O124">
         <v>3.1</v>
       </c>
-      <c r="L124">
-        <v>3.25</v>
-      </c>
-      <c r="M124">
-        <v>2.15</v>
-      </c>
-      <c r="N124">
-        <v>3.6</v>
-      </c>
-      <c r="O124">
-        <v>3.25</v>
-      </c>
       <c r="P124">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="Q124">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S124">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U124">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V124">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA124">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6927099</v>
+        <v>7101738</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,34 +11848,34 @@
         <v>45261.64583333334</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G128" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H128">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
         <v>49</v>
       </c>
       <c r="K128">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="L128">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M128">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="N128">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="O128">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P128">
         <v>5.5</v>
@@ -11884,22 +11884,22 @@
         <v>-1</v>
       </c>
       <c r="R128">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S128">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V128">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W128">
-        <v>0.571</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11908,13 +11908,13 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7101738</v>
+        <v>6927099</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,34 +11937,34 @@
         <v>45261.64583333334</v>
       </c>
       <c r="F129" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H129">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
         <v>49</v>
       </c>
       <c r="K129">
-        <v>1.45</v>
+        <v>1.666</v>
       </c>
       <c r="L129">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M129">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="N129">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="O129">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P129">
         <v>5.5</v>
@@ -11973,22 +11973,22 @@
         <v>-1</v>
       </c>
       <c r="R129">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T129">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U129">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V129">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
-        <v>0.5329999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11997,13 +11997,13 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6927101</v>
+        <v>6927102</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,49 +12382,49 @@
         <v>45275.64583333334</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H134">
         <v>1</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K134">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="L134">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M134">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N134">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="O134">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P134">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="Q134">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S134">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T134">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
         <v>2</v>
@@ -12433,25 +12433,25 @@
         <v>1.8</v>
       </c>
       <c r="W134">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z134">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC134">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6926928</v>
+        <v>6927101</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,10 +12560,10 @@
         <v>45275.64583333334</v>
       </c>
       <c r="F136" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12575,43 +12575,43 @@
         <v>49</v>
       </c>
       <c r="K136">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="L136">
         <v>3</v>
       </c>
       <c r="M136">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="N136">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="O136">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P136">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R136">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U136">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
-        <v>0.909</v>
+        <v>3.333</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12620,7 +12620,7 @@
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA136">
         <v>-1</v>
@@ -12629,7 +12629,7 @@
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6927102</v>
+        <v>6926928</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45275.64583333334</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H137">
         <v>1</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K137">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="L137">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M137">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="N137">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O137">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P137">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S137">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T137">
         <v>2.25</v>
       </c>
       <c r="U137">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA137">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12726,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6927281</v>
+        <v>6927103</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12738,73 +12738,73 @@
         <v>45275.64583333334</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138">
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K138">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L138">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M138">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N138">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O138">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P138">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R138">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U138">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V138">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AB138">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7101739</v>
+        <v>6927281</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,37 +12827,37 @@
         <v>45275.64583333334</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G139" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139" t="s">
+        <v>47</v>
+      </c>
+      <c r="K139">
+        <v>2.1</v>
+      </c>
+      <c r="L139">
         <v>3</v>
       </c>
-      <c r="J139" t="s">
-        <v>48</v>
-      </c>
-      <c r="K139">
-        <v>2.15</v>
-      </c>
-      <c r="L139">
+      <c r="M139">
         <v>3.2</v>
       </c>
-      <c r="M139">
+      <c r="N139">
+        <v>2.1</v>
+      </c>
+      <c r="O139">
         <v>3</v>
       </c>
-      <c r="N139">
-        <v>2.15</v>
-      </c>
-      <c r="O139">
-        <v>3.1</v>
-      </c>
       <c r="P139">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q139">
         <v>-0.25</v>
@@ -12869,31 +12869,31 @@
         <v>1.9</v>
       </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U139">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V139">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y139">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA139">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB139">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6927103</v>
+        <v>7101739</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,55 +13005,55 @@
         <v>45275.64583333334</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J141" t="s">
         <v>48</v>
       </c>
       <c r="K141">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L141">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M141">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N141">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="O141">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P141">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S141">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T141">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13062,16 +13062,16 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB141">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6927105</v>
+        <v>6926929</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45303.64583333334</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K143">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L143">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M143">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N143">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O143">
         <v>3.1</v>
       </c>
       <c r="P143">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q143">
         <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S143">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T143">
         <v>2</v>
       </c>
       <c r="U143">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z143">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6926929</v>
+        <v>6927105</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,76 +13272,76 @@
         <v>45303.64583333334</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G144" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K144">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L144">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M144">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N144">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O144">
         <v>3.1</v>
       </c>
       <c r="P144">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q144">
         <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
         <v>2</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6927104</v>
+        <v>6927106</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,76 +13361,76 @@
         <v>45303.64583333334</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K145">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="L145">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M145">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="N145">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="O145">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P145">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R145">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S145">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA145">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13438,7 +13438,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6927106</v>
+        <v>6927104</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13450,76 +13450,76 @@
         <v>45303.64583333334</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G146" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K146">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="L146">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M146">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="N146">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="O146">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P146">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q146">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S146">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T146">
         <v>2.25</v>
       </c>
       <c r="U146">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V146">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W146">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC146">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6927333</v>
+        <v>6927331</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,16 +13539,16 @@
         <v>45303.64583333334</v>
       </c>
       <c r="F147" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
         <v>49</v>
@@ -13563,34 +13563,34 @@
         <v>4.333</v>
       </c>
       <c r="N147">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="O147">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P147">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R147">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S147">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T147">
         <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
-        <v>0.8</v>
+        <v>0.615</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13599,16 +13599,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6927331</v>
+        <v>6927333</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,16 +13628,16 @@
         <v>45303.64583333334</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H148">
+        <v>2</v>
+      </c>
+      <c r="I148">
         <v>1</v>
-      </c>
-      <c r="I148">
-        <v>0</v>
       </c>
       <c r="J148" t="s">
         <v>49</v>
@@ -13652,34 +13652,34 @@
         <v>4.333</v>
       </c>
       <c r="N148">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O148">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P148">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R148">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S148">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W148">
-        <v>0.615</v>
+        <v>0.8</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13688,16 +13688,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA148">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC148">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6927334</v>
+        <v>6927336</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,76 +13984,76 @@
         <v>45310.64583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G152" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K152">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="L152">
+        <v>3.1</v>
+      </c>
+      <c r="M152">
         <v>3</v>
       </c>
-      <c r="M152">
-        <v>2.3</v>
-      </c>
       <c r="N152">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="O152">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="P152">
+        <v>3.5</v>
+      </c>
+      <c r="Q152">
+        <v>-0.25</v>
+      </c>
+      <c r="R152">
         <v>1.85</v>
       </c>
-      <c r="Q152">
-        <v>0.5</v>
-      </c>
-      <c r="R152">
-        <v>1.8</v>
-      </c>
       <c r="S152">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T152">
         <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V152">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X152">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC152">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6927336</v>
+        <v>6927334</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,76 +14073,76 @@
         <v>45310.64583333334</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H153">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K153">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="L153">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M153">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N153">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="O153">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="P153">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R153">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S153">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T153">
         <v>2.25</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V153">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W153">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14773,7 +14773,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7101742</v>
+        <v>6927112</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14785,46 +14785,46 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F161" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G161" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J161" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K161">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="L161">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M161">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N161">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="O161">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P161">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q161">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R161">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S161">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T161">
         <v>2.5</v>
@@ -14839,16 +14839,16 @@
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB161">
         <v>0.95</v>
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6927112</v>
+        <v>6927282</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,73 +14874,73 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I162">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K162">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L162">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M162">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="N162">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="O162">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P162">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q162">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R162">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S162">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T162">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U162">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V162">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA162">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6927282</v>
+        <v>6927337</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,76 +14963,76 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K163">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L163">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M163">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N163">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="O163">
         <v>3.25</v>
       </c>
       <c r="P163">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q163">
         <v>-0.5</v>
       </c>
       <c r="R163">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S163">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T163">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U163">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V163">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W163">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z163">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB163">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6927337</v>
+        <v>7101742</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,49 +15052,49 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F164" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G164" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K164">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="L164">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M164">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N164">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="O164">
         <v>3.25</v>
       </c>
       <c r="P164">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="Q164">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S164">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T164">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U164">
         <v>1.95</v>
@@ -15106,22 +15106,22 @@
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y164">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA164">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC164">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15574,7 +15574,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6927118</v>
+        <v>6927339</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15586,76 +15586,76 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G170" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
         <v>47</v>
       </c>
       <c r="K170">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L170">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M170">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="N170">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="O170">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P170">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q170">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R170">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S170">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T170">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U170">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V170">
+        <v>1.875</v>
+      </c>
+      <c r="W170">
+        <v>-1</v>
+      </c>
+      <c r="X170">
         <v>1.8</v>
       </c>
-      <c r="W170">
-        <v>-1</v>
-      </c>
-      <c r="X170">
-        <v>2.2</v>
-      </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA170">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB170">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6927339</v>
+        <v>6927118</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,76 +15764,76 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F172" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
         <v>47</v>
       </c>
       <c r="K172">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L172">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M172">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="N172">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="O172">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P172">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S172">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T172">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U172">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V172">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA172">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC172">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6927119</v>
+        <v>6927340</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,76 +15853,76 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H173">
+        <v>3</v>
+      </c>
+      <c r="I173">
         <v>1</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>49</v>
       </c>
       <c r="K173">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L173">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M173">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N173">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O173">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P173">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q173">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R173">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S173">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T173">
         <v>2.25</v>
       </c>
       <c r="U173">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V173">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W173">
+        <v>1.15</v>
+      </c>
+      <c r="X173">
+        <v>-1</v>
+      </c>
+      <c r="Y173">
+        <v>-1</v>
+      </c>
+      <c r="Z173">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA173">
+        <v>-1</v>
+      </c>
+      <c r="AB173">
         <v>0.95</v>
       </c>
-      <c r="X173">
-        <v>-1</v>
-      </c>
-      <c r="Y173">
-        <v>-1</v>
-      </c>
-      <c r="Z173">
-        <v>0.95</v>
-      </c>
-      <c r="AA173">
-        <v>-1</v>
-      </c>
-      <c r="AB173">
-        <v>-1</v>
-      </c>
       <c r="AC173">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6927116</v>
+        <v>6927119</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,13 +15942,13 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F174" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -15957,43 +15957,43 @@
         <v>49</v>
       </c>
       <c r="K174">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="L174">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M174">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N174">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O174">
         <v>3.3</v>
       </c>
       <c r="P174">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q174">
         <v>-0.5</v>
       </c>
       <c r="R174">
+        <v>1.95</v>
+      </c>
+      <c r="S174">
         <v>1.85</v>
-      </c>
-      <c r="S174">
-        <v>1.95</v>
       </c>
       <c r="T174">
         <v>2.25</v>
       </c>
       <c r="U174">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V174">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W174">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16002,16 +16002,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6927340</v>
+        <v>6927116</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,58 +16031,58 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>49</v>
       </c>
       <c r="K175">
+        <v>1.6</v>
+      </c>
+      <c r="L175">
+        <v>3.6</v>
+      </c>
+      <c r="M175">
+        <v>5</v>
+      </c>
+      <c r="N175">
+        <v>1.8</v>
+      </c>
+      <c r="O175">
+        <v>3.3</v>
+      </c>
+      <c r="P175">
+        <v>3.8</v>
+      </c>
+      <c r="Q175">
+        <v>-0.5</v>
+      </c>
+      <c r="R175">
         <v>1.85</v>
       </c>
-      <c r="L175">
-        <v>3.25</v>
-      </c>
-      <c r="M175">
-        <v>4</v>
-      </c>
-      <c r="N175">
-        <v>2.15</v>
-      </c>
-      <c r="O175">
-        <v>3.1</v>
-      </c>
-      <c r="P175">
-        <v>3</v>
-      </c>
-      <c r="Q175">
-        <v>-0.25</v>
-      </c>
-      <c r="R175">
-        <v>1.9</v>
-      </c>
       <c r="S175">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T175">
         <v>2.25</v>
       </c>
       <c r="U175">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V175">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W175">
-        <v>1.15</v>
+        <v>0.8</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16091,16 +16091,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6927121</v>
+        <v>6927341</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,13 +16476,13 @@
         <v>45338.64583333334</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G180" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H180">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -16491,43 +16491,43 @@
         <v>49</v>
       </c>
       <c r="K180">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="L180">
+        <v>3</v>
+      </c>
+      <c r="M180">
+        <v>2.75</v>
+      </c>
+      <c r="N180">
         <v>3.1</v>
       </c>
-      <c r="M180">
-        <v>2.7</v>
-      </c>
-      <c r="N180">
-        <v>2.625</v>
-      </c>
       <c r="O180">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P180">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q180">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R180">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S180">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T180">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U180">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V180">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W180">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16536,16 +16536,16 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6927341</v>
+        <v>6927121</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,13 +16565,13 @@
         <v>45338.64583333334</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -16580,43 +16580,43 @@
         <v>49</v>
       </c>
       <c r="K181">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L181">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M181">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N181">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="O181">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P181">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q181">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R181">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S181">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T181">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U181">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V181">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W181">
-        <v>2.1</v>
+        <v>1.625</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16625,16 +16625,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC181">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6927130</v>
+        <v>6927128</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,10 +18256,10 @@
         <v>45352.64583333334</v>
       </c>
       <c r="F200" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G200" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18271,43 +18271,43 @@
         <v>49</v>
       </c>
       <c r="K200">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="L200">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M200">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N200">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="O200">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P200">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q200">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R200">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S200">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T200">
         <v>2.25</v>
       </c>
       <c r="U200">
+        <v>1.925</v>
+      </c>
+      <c r="V200">
         <v>1.875</v>
       </c>
-      <c r="V200">
-        <v>1.925</v>
-      </c>
       <c r="W200">
-        <v>0.444</v>
+        <v>2</v>
       </c>
       <c r="X200">
         <v>-1</v>
@@ -18316,13 +18316,13 @@
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA200">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB200">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC200">
         <v>-1</v>
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6927128</v>
+        <v>6927130</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,10 +18345,10 @@
         <v>45352.64583333334</v>
       </c>
       <c r="F201" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H201">
         <v>2</v>
@@ -18360,43 +18360,43 @@
         <v>49</v>
       </c>
       <c r="K201">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="L201">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M201">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N201">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="O201">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P201">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q201">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R201">
+        <v>2</v>
+      </c>
+      <c r="S201">
         <v>1.8</v>
-      </c>
-      <c r="S201">
-        <v>2</v>
       </c>
       <c r="T201">
         <v>2.25</v>
       </c>
       <c r="U201">
+        <v>1.875</v>
+      </c>
+      <c r="V201">
         <v>1.925</v>
       </c>
-      <c r="V201">
-        <v>1.875</v>
-      </c>
       <c r="W201">
-        <v>2</v>
+        <v>0.444</v>
       </c>
       <c r="X201">
         <v>-1</v>
@@ -18405,13 +18405,13 @@
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA201">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB201">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC201">
         <v>-1</v>
@@ -19134,7 +19134,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6927350</v>
+        <v>6927351</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19146,76 +19146,76 @@
         <v>45359.64583333334</v>
       </c>
       <c r="F210" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G210" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K210">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="L210">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M210">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N210">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="O210">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P210">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R210">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S210">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T210">
         <v>2.25</v>
       </c>
       <c r="U210">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V210">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA210">
+        <v>-1</v>
+      </c>
+      <c r="AB210">
         <v>0.925</v>
       </c>
-      <c r="AB210">
-        <v>-0.5</v>
-      </c>
       <c r="AC210">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6927351</v>
+        <v>6927133</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,13 +19413,13 @@
         <v>45359.64583333334</v>
       </c>
       <c r="F213" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G213" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H213">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I213">
         <v>1</v>
@@ -19428,43 +19428,43 @@
         <v>49</v>
       </c>
       <c r="K213">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="L213">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M213">
+        <v>4.75</v>
+      </c>
+      <c r="N213">
+        <v>1.85</v>
+      </c>
+      <c r="O213">
+        <v>3.2</v>
+      </c>
+      <c r="P213">
         <v>3.8</v>
-      </c>
-      <c r="N213">
-        <v>1.75</v>
-      </c>
-      <c r="O213">
-        <v>3.3</v>
-      </c>
-      <c r="P213">
-        <v>4.2</v>
       </c>
       <c r="Q213">
         <v>-0.5</v>
       </c>
       <c r="R213">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S213">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T213">
         <v>2.25</v>
       </c>
       <c r="U213">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V213">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W213">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19473,13 +19473,13 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA213">
         <v>-1</v>
       </c>
       <c r="AB213">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC213">
         <v>-1</v>
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6927133</v>
+        <v>6927350</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,46 +19502,46 @@
         <v>45359.64583333334</v>
       </c>
       <c r="F214" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G214" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K214">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L214">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M214">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N214">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O214">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P214">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q214">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R214">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S214">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T214">
         <v>2.25</v>
@@ -19553,25 +19553,25 @@
         <v>1.825</v>
       </c>
       <c r="W214">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z214">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB214">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6927134</v>
+        <v>6927286</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,58 +20036,58 @@
         <v>45366.64583333334</v>
       </c>
       <c r="F220" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G220" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
         <v>49</v>
       </c>
       <c r="K220">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L220">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M220">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N220">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="O220">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P220">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q220">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R220">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S220">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T220">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U220">
         <v>1.975</v>
       </c>
       <c r="V220">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="W220">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="X220">
         <v>-1</v>
@@ -20096,7 +20096,7 @@
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA220">
         <v>-1</v>
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6927286</v>
+        <v>6927134</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,58 +20125,58 @@
         <v>45366.64583333334</v>
       </c>
       <c r="F221" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G221" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
         <v>49</v>
       </c>
       <c r="K221">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L221">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M221">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N221">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="O221">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P221">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q221">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R221">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S221">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T221">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U221">
         <v>1.975</v>
       </c>
       <c r="V221">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="W221">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20185,7 +20185,7 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA221">
         <v>-1</v>
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6927142</v>
+        <v>6927141</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,40 +20837,40 @@
         <v>45373.64583333334</v>
       </c>
       <c r="F229" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G229" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K229">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L229">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M229">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N229">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O229">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P229">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q229">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R229">
         <v>1.975</v>
@@ -20879,34 +20879,34 @@
         <v>1.825</v>
       </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U229">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V229">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W229">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC229">
-        <v>0.8999999999999999</v>
+        <v>0.3625</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6927141</v>
+        <v>6927354</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,76 +20926,76 @@
         <v>45373.64583333334</v>
       </c>
       <c r="F230" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G230" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H230">
         <v>1</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K230">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L230">
         <v>3</v>
       </c>
       <c r="M230">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N230">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O230">
         <v>3</v>
       </c>
       <c r="P230">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q230">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R230">
+        <v>1.825</v>
+      </c>
+      <c r="S230">
         <v>1.975</v>
       </c>
-      <c r="S230">
-        <v>1.825</v>
-      </c>
       <c r="T230">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U230">
+        <v>1.725</v>
+      </c>
+      <c r="V230">
         <v>1.975</v>
       </c>
-      <c r="V230">
-        <v>1.725</v>
-      </c>
       <c r="W230">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X230">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA230">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC230">
-        <v>0.3625</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6927354</v>
+        <v>6927139</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,76 +21015,76 @@
         <v>45373.64583333334</v>
       </c>
       <c r="F231" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G231" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H231">
         <v>1</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K231">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L231">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M231">
+        <v>2.15</v>
+      </c>
+      <c r="N231">
+        <v>3.6</v>
+      </c>
+      <c r="O231">
         <v>3.25</v>
       </c>
-      <c r="N231">
-        <v>2</v>
-      </c>
-      <c r="O231">
-        <v>3</v>
-      </c>
       <c r="P231">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q231">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R231">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S231">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T231">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U231">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="V231">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W231">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA231">
         <v>-1</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC231">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21092,7 +21092,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6927139</v>
+        <v>6927142</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21104,76 +21104,76 @@
         <v>45373.64583333334</v>
       </c>
       <c r="F232" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G232" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K232">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="L232">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M232">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="N232">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O232">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P232">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q232">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R232">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S232">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T232">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U232">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V232">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W232">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X232">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA232">
         <v>-1</v>
       </c>
       <c r="AB232">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21448,7 +21448,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7884723</v>
+        <v>7866258</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21460,73 +21460,73 @@
         <v>45377.625</v>
       </c>
       <c r="F236" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G236" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J236" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K236">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L236">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M236">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N236">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O236">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P236">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q236">
         <v>0</v>
       </c>
       <c r="R236">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S236">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T236">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U236">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V236">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z236">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB236">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC236">
         <v>-1</v>
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7866258</v>
+        <v>7884723</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,73 +21549,73 @@
         <v>45377.625</v>
       </c>
       <c r="F237" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G237" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K237">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L237">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M237">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N237">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O237">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P237">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="Q237">
         <v>0</v>
       </c>
       <c r="R237">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S237">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T237">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U237">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V237">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y237">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA237">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB237">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC237">
         <v>-1</v>
@@ -22427,7 +22427,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6927359</v>
+        <v>6927360</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22439,46 +22439,46 @@
         <v>45387.60416666666</v>
       </c>
       <c r="F247" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G247" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K247">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L247">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M247">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="N247">
-        <v>1.6</v>
+        <v>1.833</v>
       </c>
       <c r="O247">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P247">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q247">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R247">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S247">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T247">
         <v>2.25</v>
       </c>
       <c r="U247">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V247">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W247">
         <v>0</v>
@@ -22501,7 +22501,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6927360</v>
+        <v>6927361</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22513,46 +22513,46 @@
         <v>45387.60416666666</v>
       </c>
       <c r="F248" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G248" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K248">
+        <v>1.615</v>
+      </c>
+      <c r="L248">
+        <v>3.75</v>
+      </c>
+      <c r="M248">
+        <v>5</v>
+      </c>
+      <c r="N248">
+        <v>1.533</v>
+      </c>
+      <c r="O248">
+        <v>3.8</v>
+      </c>
+      <c r="P248">
+        <v>5.75</v>
+      </c>
+      <c r="Q248">
+        <v>-1</v>
+      </c>
+      <c r="R248">
+        <v>1.85</v>
+      </c>
+      <c r="S248">
         <v>1.95</v>
       </c>
-      <c r="L248">
-        <v>3</v>
-      </c>
-      <c r="M248">
-        <v>3.8</v>
-      </c>
-      <c r="N248">
-        <v>1.833</v>
-      </c>
-      <c r="O248">
-        <v>3.1</v>
-      </c>
-      <c r="P248">
-        <v>4.2</v>
-      </c>
-      <c r="Q248">
-        <v>-0.5</v>
-      </c>
-      <c r="R248">
-        <v>1.9</v>
-      </c>
-      <c r="S248">
-        <v>1.9</v>
-      </c>
       <c r="T248">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U248">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V248">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W248">
         <v>0</v>
@@ -22575,7 +22575,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6927361</v>
+        <v>6927359</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22587,46 +22587,46 @@
         <v>45387.60416666666</v>
       </c>
       <c r="F249" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G249" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="K249">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="L249">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M249">
+        <v>4.75</v>
+      </c>
+      <c r="N249">
+        <v>1.571</v>
+      </c>
+      <c r="O249">
+        <v>3.6</v>
+      </c>
+      <c r="P249">
         <v>5</v>
       </c>
-      <c r="N249">
-        <v>1.533</v>
-      </c>
-      <c r="O249">
-        <v>3.8</v>
-      </c>
-      <c r="P249">
-        <v>5.75</v>
-      </c>
       <c r="Q249">
         <v>-1</v>
       </c>
       <c r="R249">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S249">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T249">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U249">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V249">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W249">
         <v>0</v>
@@ -22676,31 +22676,31 @@
         <v>2.45</v>
       </c>
       <c r="N250">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O250">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P250">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="Q250">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R250">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S250">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T250">
         <v>2.25</v>
       </c>
       <c r="U250">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V250">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W250">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6927149</v>
+        <v>6927148</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22735,46 +22735,46 @@
         <v>45387.60416666666</v>
       </c>
       <c r="F251" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G251" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K251">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="L251">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M251">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="N251">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="O251">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P251">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q251">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R251">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S251">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T251">
         <v>2.25</v>
       </c>
       <c r="U251">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V251">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W251">
         <v>0</v>
@@ -22797,7 +22797,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6927148</v>
+        <v>6927149</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22809,46 +22809,46 @@
         <v>45387.60416666666</v>
       </c>
       <c r="F252" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G252" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K252">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="L252">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M252">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="N252">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="O252">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P252">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="Q252">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R252">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S252">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T252">
         <v>2.25</v>
       </c>
       <c r="U252">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V252">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W252">
         <v>0</v>
@@ -22871,7 +22871,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6927150</v>
+        <v>6927147</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22880,49 +22880,49 @@
         <v>28</v>
       </c>
       <c r="E253" s="2">
-        <v>45388.54166666666</v>
+        <v>45387.60416666666</v>
       </c>
       <c r="F253" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G253" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K253">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="L253">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M253">
+        <v>4</v>
+      </c>
+      <c r="N253">
+        <v>1.833</v>
+      </c>
+      <c r="O253">
         <v>3.3</v>
       </c>
-      <c r="N253">
-        <v>2.15</v>
-      </c>
-      <c r="O253">
-        <v>2.9</v>
-      </c>
       <c r="P253">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q253">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R253">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S253">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T253">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U253">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V253">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W253">
         <v>0</v>
@@ -22945,72 +22945,146 @@
         <v>252</v>
       </c>
       <c r="B254">
+        <v>6927150</v>
+      </c>
+      <c r="C254" t="s">
+        <v>28</v>
+      </c>
+      <c r="D254" t="s">
+        <v>28</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45388.54166666666</v>
+      </c>
+      <c r="F254" t="s">
+        <v>40</v>
+      </c>
+      <c r="G254" t="s">
+        <v>38</v>
+      </c>
+      <c r="K254">
+        <v>2.15</v>
+      </c>
+      <c r="L254">
+        <v>2.875</v>
+      </c>
+      <c r="M254">
+        <v>3.3</v>
+      </c>
+      <c r="N254">
+        <v>2.15</v>
+      </c>
+      <c r="O254">
+        <v>2.9</v>
+      </c>
+      <c r="P254">
+        <v>3.3</v>
+      </c>
+      <c r="Q254">
+        <v>-0.25</v>
+      </c>
+      <c r="R254">
+        <v>1.95</v>
+      </c>
+      <c r="S254">
+        <v>1.85</v>
+      </c>
+      <c r="T254">
+        <v>2</v>
+      </c>
+      <c r="U254">
+        <v>1.9</v>
+      </c>
+      <c r="V254">
+        <v>1.9</v>
+      </c>
+      <c r="W254">
+        <v>0</v>
+      </c>
+      <c r="X254">
+        <v>0</v>
+      </c>
+      <c r="Y254">
+        <v>0</v>
+      </c>
+      <c r="Z254">
+        <v>0</v>
+      </c>
+      <c r="AA254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:29">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
         <v>7980557</v>
       </c>
-      <c r="C254" t="s">
-        <v>28</v>
-      </c>
-      <c r="D254" t="s">
-        <v>28</v>
-      </c>
-      <c r="E254" s="2">
+      <c r="C255" t="s">
+        <v>28</v>
+      </c>
+      <c r="D255" t="s">
+        <v>28</v>
+      </c>
+      <c r="E255" s="2">
         <v>45390.5625</v>
       </c>
-      <c r="F254" t="s">
+      <c r="F255" t="s">
         <v>46</v>
       </c>
-      <c r="G254" t="s">
+      <c r="G255" t="s">
         <v>29</v>
       </c>
-      <c r="K254">
+      <c r="K255">
         <v>1.909</v>
       </c>
-      <c r="L254">
+      <c r="L255">
         <v>3.2</v>
       </c>
-      <c r="M254">
+      <c r="M255">
         <v>3.6</v>
       </c>
-      <c r="N254">
-        <v>1.909</v>
-      </c>
-      <c r="O254">
-        <v>3.2</v>
-      </c>
-      <c r="P254">
-        <v>3.6</v>
-      </c>
-      <c r="Q254">
-        <v>-0.5</v>
-      </c>
-      <c r="R254">
-        <v>2</v>
-      </c>
-      <c r="S254">
+      <c r="N255">
+        <v>2.05</v>
+      </c>
+      <c r="O255">
+        <v>3.1</v>
+      </c>
+      <c r="P255">
+        <v>3.3</v>
+      </c>
+      <c r="Q255">
+        <v>-0.25</v>
+      </c>
+      <c r="R255">
         <v>1.8</v>
       </c>
-      <c r="T254">
+      <c r="S255">
+        <v>2</v>
+      </c>
+      <c r="T255">
         <v>2.25</v>
       </c>
-      <c r="U254">
+      <c r="U255">
         <v>1.825</v>
       </c>
-      <c r="V254">
+      <c r="V255">
         <v>1.975</v>
       </c>
-      <c r="W254">
-        <v>0</v>
-      </c>
-      <c r="X254">
-        <v>0</v>
-      </c>
-      <c r="Y254">
-        <v>0</v>
-      </c>
-      <c r="Z254">
-        <v>0</v>
-      </c>
-      <c r="AA254">
+      <c r="W255">
+        <v>0</v>
+      </c>
+      <c r="X255">
+        <v>0</v>
+      </c>
+      <c r="Y255">
+        <v>0</v>
+      </c>
+      <c r="Z255">
+        <v>0</v>
+      </c>
+      <c r="AA255">
         <v>0</v>
       </c>
     </row>

--- a/France National/France National.xlsx
+++ b/France National/France National.xlsx
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6927096</v>
+        <v>6927095</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,37 +10958,37 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K118">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L118">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M118">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="N118">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O118">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P118">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="Q118">
         <v>0</v>
@@ -11000,31 +11000,31 @@
         <v>1.75</v>
       </c>
       <c r="T118">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V118">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA118">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6927279</v>
+        <v>6927096</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,55 +11047,55 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J119" t="s">
         <v>48</v>
       </c>
       <c r="K119">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L119">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M119">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N119">
+        <v>2.9</v>
+      </c>
+      <c r="O119">
+        <v>2.875</v>
+      </c>
+      <c r="P119">
+        <v>2.375</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>2.05</v>
+      </c>
+      <c r="S119">
         <v>1.75</v>
       </c>
-      <c r="O119">
-        <v>3.4</v>
-      </c>
-      <c r="P119">
-        <v>4.5</v>
-      </c>
-      <c r="Q119">
-        <v>-0.5</v>
-      </c>
-      <c r="R119">
-        <v>1.8</v>
-      </c>
-      <c r="S119">
-        <v>2</v>
-      </c>
       <c r="T119">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U119">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V119">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -11104,16 +11104,16 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>3.5</v>
+        <v>1.375</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB119">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6927095</v>
+        <v>6927884</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,49 +11314,49 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G122" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
         <v>49</v>
       </c>
       <c r="K122">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="L122">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="M122">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="N122">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="O122">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P122">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R122">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S122">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T122">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U122">
         <v>1.875</v>
@@ -11365,7 +11365,7 @@
         <v>1.925</v>
       </c>
       <c r="W122">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11374,16 +11374,16 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6927094</v>
+        <v>6927279</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,13 +11403,13 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123">
         <v>2</v>
@@ -11418,40 +11418,40 @@
         <v>48</v>
       </c>
       <c r="K123">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="L123">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="N123">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="O123">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P123">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="Q123">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S123">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T123">
         <v>2.25</v>
       </c>
       <c r="U123">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V123">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W123">
         <v>-1</v>
@@ -11460,19 +11460,19 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>0.95</v>
+        <v>3.5</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AB123">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC123">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6927884</v>
+        <v>6927094</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K124">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="L124">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="M124">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N124">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O124">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P124">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R124">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S124">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T124">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V124">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W124">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z124">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC124">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7101738</v>
+        <v>6927099</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,34 +11848,34 @@
         <v>45261.64583333334</v>
       </c>
       <c r="F128" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H128">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
         <v>49</v>
       </c>
       <c r="K128">
-        <v>1.45</v>
+        <v>1.666</v>
       </c>
       <c r="L128">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M128">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="N128">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="O128">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P128">
         <v>5.5</v>
@@ -11884,22 +11884,22 @@
         <v>-1</v>
       </c>
       <c r="R128">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S128">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T128">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V128">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
-        <v>0.5329999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11908,13 +11908,13 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6927099</v>
+        <v>7101738</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,34 +11937,34 @@
         <v>45261.64583333334</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H129">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
         <v>49</v>
       </c>
       <c r="K129">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="L129">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M129">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="N129">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="O129">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P129">
         <v>5.5</v>
@@ -11973,22 +11973,22 @@
         <v>-1</v>
       </c>
       <c r="R129">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S129">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T129">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W129">
-        <v>0.571</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11997,13 +11997,13 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6927102</v>
+        <v>6927101</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,49 +12382,49 @@
         <v>45275.64583333334</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H134">
         <v>1</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K134">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="L134">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M134">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="N134">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="O134">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P134">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R134">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S134">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U134">
         <v>2</v>
@@ -12433,25 +12433,25 @@
         <v>1.8</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA134">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6927101</v>
+        <v>6926928</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,10 +12560,10 @@
         <v>45275.64583333334</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12575,43 +12575,43 @@
         <v>49</v>
       </c>
       <c r="K136">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="L136">
         <v>3</v>
       </c>
       <c r="M136">
+        <v>3.6</v>
+      </c>
+      <c r="N136">
         <v>1.909</v>
       </c>
-      <c r="N136">
-        <v>4.333</v>
-      </c>
       <c r="O136">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P136">
+        <v>3.6</v>
+      </c>
+      <c r="Q136">
+        <v>-0.5</v>
+      </c>
+      <c r="R136">
+        <v>1.95</v>
+      </c>
+      <c r="S136">
         <v>1.85</v>
       </c>
-      <c r="Q136">
-        <v>0.5</v>
-      </c>
-      <c r="R136">
-        <v>1.9</v>
-      </c>
-      <c r="S136">
-        <v>1.9</v>
-      </c>
       <c r="T136">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U136">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V136">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W136">
-        <v>3.333</v>
+        <v>0.909</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12620,7 +12620,7 @@
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA136">
         <v>-1</v>
@@ -12629,7 +12629,7 @@
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6926928</v>
+        <v>6927102</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45275.64583333334</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H137">
         <v>1</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K137">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L137">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M137">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="N137">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="O137">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R137">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S137">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T137">
         <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W137">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z137">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC137">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12726,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6927103</v>
+        <v>6927281</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12738,73 +12738,73 @@
         <v>45275.64583333334</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H138">
+        <v>2</v>
+      </c>
+      <c r="I138">
+        <v>2</v>
+      </c>
+      <c r="J138" t="s">
+        <v>47</v>
+      </c>
+      <c r="K138">
+        <v>2.1</v>
+      </c>
+      <c r="L138">
+        <v>3</v>
+      </c>
+      <c r="M138">
+        <v>3.2</v>
+      </c>
+      <c r="N138">
+        <v>2.1</v>
+      </c>
+      <c r="O138">
+        <v>3</v>
+      </c>
+      <c r="P138">
+        <v>3.25</v>
+      </c>
+      <c r="Q138">
+        <v>-0.25</v>
+      </c>
+      <c r="R138">
+        <v>1.9</v>
+      </c>
+      <c r="S138">
+        <v>1.9</v>
+      </c>
+      <c r="T138">
+        <v>2.25</v>
+      </c>
+      <c r="U138">
+        <v>2</v>
+      </c>
+      <c r="V138">
+        <v>1.8</v>
+      </c>
+      <c r="W138">
+        <v>-1</v>
+      </c>
+      <c r="X138">
+        <v>2</v>
+      </c>
+      <c r="Y138">
+        <v>-1</v>
+      </c>
+      <c r="Z138">
+        <v>-0.5</v>
+      </c>
+      <c r="AA138">
+        <v>0.45</v>
+      </c>
+      <c r="AB138">
         <v>1</v>
-      </c>
-      <c r="I138">
-        <v>2</v>
-      </c>
-      <c r="J138" t="s">
-        <v>48</v>
-      </c>
-      <c r="K138">
-        <v>2.375</v>
-      </c>
-      <c r="L138">
-        <v>2.9</v>
-      </c>
-      <c r="M138">
-        <v>2.9</v>
-      </c>
-      <c r="N138">
-        <v>2.75</v>
-      </c>
-      <c r="O138">
-        <v>2.8</v>
-      </c>
-      <c r="P138">
-        <v>2.55</v>
-      </c>
-      <c r="Q138">
-        <v>0</v>
-      </c>
-      <c r="R138">
-        <v>1.975</v>
-      </c>
-      <c r="S138">
-        <v>1.825</v>
-      </c>
-      <c r="T138">
-        <v>2</v>
-      </c>
-      <c r="U138">
-        <v>1.975</v>
-      </c>
-      <c r="V138">
-        <v>1.825</v>
-      </c>
-      <c r="W138">
-        <v>-1</v>
-      </c>
-      <c r="X138">
-        <v>-1</v>
-      </c>
-      <c r="Y138">
-        <v>1.55</v>
-      </c>
-      <c r="Z138">
-        <v>-1</v>
-      </c>
-      <c r="AA138">
-        <v>0.825</v>
-      </c>
-      <c r="AB138">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6927281</v>
+        <v>7101739</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,37 +12827,37 @@
         <v>45275.64583333334</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K139">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L139">
+        <v>3.2</v>
+      </c>
+      <c r="M139">
         <v>3</v>
       </c>
-      <c r="M139">
-        <v>3.2</v>
-      </c>
       <c r="N139">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O139">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P139">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q139">
         <v>-0.25</v>
@@ -12869,31 +12869,31 @@
         <v>1.9</v>
       </c>
       <c r="T139">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U139">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V139">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB139">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12993,7 +12993,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7101739</v>
+        <v>6927103</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,55 +13005,55 @@
         <v>45275.64583333334</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
         <v>48</v>
       </c>
       <c r="K141">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="L141">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M141">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N141">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="O141">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P141">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R141">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S141">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U141">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13062,16 +13062,16 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB141">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6926929</v>
+        <v>6927105</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45303.64583333334</v>
       </c>
       <c r="F143" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K143">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L143">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M143">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N143">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O143">
         <v>3.1</v>
       </c>
       <c r="P143">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q143">
         <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
         <v>2</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6927105</v>
+        <v>6926929</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,76 +13272,76 @@
         <v>45303.64583333334</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K144">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L144">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M144">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N144">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O144">
         <v>3.1</v>
       </c>
       <c r="P144">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q144">
         <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S144">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T144">
         <v>2</v>
       </c>
       <c r="U144">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z144">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB144">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6927106</v>
+        <v>6927104</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,76 +13361,76 @@
         <v>45303.64583333334</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K145">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="L145">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M145">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="N145">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="O145">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P145">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S145">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC145">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13438,7 +13438,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6927104</v>
+        <v>6927106</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13450,76 +13450,76 @@
         <v>45303.64583333334</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K146">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="L146">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M146">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="N146">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="O146">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P146">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q146">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R146">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S146">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T146">
         <v>2.25</v>
       </c>
       <c r="U146">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V146">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA146">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6927331</v>
+        <v>6927333</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,16 +13539,16 @@
         <v>45303.64583333334</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G147" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H147">
+        <v>2</v>
+      </c>
+      <c r="I147">
         <v>1</v>
-      </c>
-      <c r="I147">
-        <v>0</v>
       </c>
       <c r="J147" t="s">
         <v>49</v>
@@ -13563,34 +13563,34 @@
         <v>4.333</v>
       </c>
       <c r="N147">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O147">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P147">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S147">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T147">
         <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W147">
-        <v>0.615</v>
+        <v>0.8</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13599,16 +13599,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA147">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC147">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6927333</v>
+        <v>6927331</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,16 +13628,16 @@
         <v>45303.64583333334</v>
       </c>
       <c r="F148" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
         <v>49</v>
@@ -13652,34 +13652,34 @@
         <v>4.333</v>
       </c>
       <c r="N148">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="O148">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P148">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R148">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S148">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V148">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W148">
-        <v>0.8</v>
+        <v>0.615</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13688,16 +13688,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB148">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6927336</v>
+        <v>6927334</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,76 +13984,76 @@
         <v>45310.64583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H152">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K152">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="L152">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M152">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N152">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="O152">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="P152">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q152">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R152">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S152">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T152">
         <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V152">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W152">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6927334</v>
+        <v>6927336</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,76 +14073,76 @@
         <v>45310.64583333334</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K153">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="L153">
+        <v>3.1</v>
+      </c>
+      <c r="M153">
         <v>3</v>
       </c>
-      <c r="M153">
-        <v>2.3</v>
-      </c>
       <c r="N153">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="O153">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="P153">
+        <v>3.5</v>
+      </c>
+      <c r="Q153">
+        <v>-0.25</v>
+      </c>
+      <c r="R153">
         <v>1.85</v>
       </c>
-      <c r="Q153">
-        <v>0.5</v>
-      </c>
-      <c r="R153">
-        <v>1.8</v>
-      </c>
       <c r="S153">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T153">
         <v>2.25</v>
       </c>
       <c r="U153">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V153">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X153">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC153">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14773,7 +14773,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6927112</v>
+        <v>7101742</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14785,46 +14785,46 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G161" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K161">
+        <v>2.4</v>
+      </c>
+      <c r="L161">
+        <v>3.3</v>
+      </c>
+      <c r="M161">
+        <v>2.7</v>
+      </c>
+      <c r="N161">
         <v>2.55</v>
       </c>
-      <c r="L161">
-        <v>3.1</v>
-      </c>
-      <c r="M161">
+      <c r="O161">
+        <v>3.25</v>
+      </c>
+      <c r="P161">
         <v>2.55</v>
       </c>
-      <c r="N161">
-        <v>2.8</v>
-      </c>
-      <c r="O161">
-        <v>3.1</v>
-      </c>
-      <c r="P161">
-        <v>2.3</v>
-      </c>
       <c r="Q161">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R161">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S161">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T161">
         <v>2.5</v>
@@ -14839,16 +14839,16 @@
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y161">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA161">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB161">
         <v>0.95</v>
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6927282</v>
+        <v>6927112</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,73 +14874,73 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K162">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L162">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M162">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="N162">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="O162">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P162">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q162">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R162">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S162">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T162">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V162">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W162">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z162">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB162">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6927337</v>
+        <v>6927282</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,76 +14963,76 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K163">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L163">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M163">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N163">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O163">
         <v>3.25</v>
       </c>
       <c r="P163">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q163">
         <v>-0.5</v>
       </c>
       <c r="R163">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S163">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T163">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U163">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V163">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA163">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC163">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7101742</v>
+        <v>6927337</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,49 +15052,49 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F164" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G164" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K164">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L164">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M164">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N164">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="O164">
         <v>3.25</v>
       </c>
       <c r="P164">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S164">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T164">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
         <v>1.95</v>
@@ -15106,22 +15106,22 @@
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB164">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15574,7 +15574,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6927339</v>
+        <v>6927118</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15586,76 +15586,76 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F170" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
         <v>47</v>
       </c>
       <c r="K170">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L170">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M170">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="N170">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="O170">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P170">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q170">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S170">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T170">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U170">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V170">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA170">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC170">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6927118</v>
+        <v>6927339</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,76 +15764,76 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G172" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>47</v>
       </c>
       <c r="K172">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L172">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M172">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="N172">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="O172">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P172">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q172">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R172">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S172">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T172">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U172">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V172">
+        <v>1.875</v>
+      </c>
+      <c r="W172">
+        <v>-1</v>
+      </c>
+      <c r="X172">
         <v>1.8</v>
       </c>
-      <c r="W172">
-        <v>-1</v>
-      </c>
-      <c r="X172">
-        <v>2.2</v>
-      </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA172">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6927340</v>
+        <v>6927119</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,58 +15853,58 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>49</v>
       </c>
       <c r="K173">
+        <v>1.75</v>
+      </c>
+      <c r="L173">
+        <v>3.3</v>
+      </c>
+      <c r="M173">
+        <v>4.333</v>
+      </c>
+      <c r="N173">
+        <v>1.95</v>
+      </c>
+      <c r="O173">
+        <v>3.3</v>
+      </c>
+      <c r="P173">
+        <v>3.4</v>
+      </c>
+      <c r="Q173">
+        <v>-0.5</v>
+      </c>
+      <c r="R173">
+        <v>1.95</v>
+      </c>
+      <c r="S173">
         <v>1.85</v>
-      </c>
-      <c r="L173">
-        <v>3.25</v>
-      </c>
-      <c r="M173">
-        <v>4</v>
-      </c>
-      <c r="N173">
-        <v>2.15</v>
-      </c>
-      <c r="O173">
-        <v>3.1</v>
-      </c>
-      <c r="P173">
-        <v>3</v>
-      </c>
-      <c r="Q173">
-        <v>-0.25</v>
-      </c>
-      <c r="R173">
-        <v>1.9</v>
-      </c>
-      <c r="S173">
-        <v>1.9</v>
       </c>
       <c r="T173">
         <v>2.25</v>
       </c>
       <c r="U173">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V173">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W173">
-        <v>1.15</v>
+        <v>0.95</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15913,16 +15913,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6927119</v>
+        <v>6927116</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,13 +15942,13 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G174" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -15957,43 +15957,43 @@
         <v>49</v>
       </c>
       <c r="K174">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="L174">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M174">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N174">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O174">
         <v>3.3</v>
       </c>
       <c r="P174">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q174">
         <v>-0.5</v>
       </c>
       <c r="R174">
+        <v>1.85</v>
+      </c>
+      <c r="S174">
         <v>1.95</v>
-      </c>
-      <c r="S174">
-        <v>1.85</v>
       </c>
       <c r="T174">
         <v>2.25</v>
       </c>
       <c r="U174">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V174">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W174">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16002,16 +16002,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC174">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6927116</v>
+        <v>6927340</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,58 +16031,58 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G175" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
         <v>49</v>
       </c>
       <c r="K175">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="L175">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M175">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N175">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O175">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P175">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q175">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S175">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T175">
         <v>2.25</v>
       </c>
       <c r="U175">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V175">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W175">
-        <v>0.8</v>
+        <v>1.15</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16091,16 +16091,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC175">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6927341</v>
+        <v>6927121</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,13 +16476,13 @@
         <v>45338.64583333334</v>
       </c>
       <c r="F180" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G180" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -16491,43 +16491,43 @@
         <v>49</v>
       </c>
       <c r="K180">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L180">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M180">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N180">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="O180">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P180">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q180">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R180">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T180">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U180">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V180">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W180">
-        <v>2.1</v>
+        <v>1.625</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16536,16 +16536,16 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC180">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6927121</v>
+        <v>6927341</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,13 +16565,13 @@
         <v>45338.64583333334</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G181" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H181">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -16580,43 +16580,43 @@
         <v>49</v>
       </c>
       <c r="K181">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="L181">
+        <v>3</v>
+      </c>
+      <c r="M181">
+        <v>2.75</v>
+      </c>
+      <c r="N181">
         <v>3.1</v>
       </c>
-      <c r="M181">
-        <v>2.7</v>
-      </c>
-      <c r="N181">
-        <v>2.625</v>
-      </c>
       <c r="O181">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P181">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q181">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S181">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T181">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U181">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V181">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W181">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16625,16 +16625,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6927128</v>
+        <v>6927130</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,10 +18256,10 @@
         <v>45352.64583333334</v>
       </c>
       <c r="F200" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G200" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18271,43 +18271,43 @@
         <v>49</v>
       </c>
       <c r="K200">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="L200">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M200">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N200">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="O200">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P200">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q200">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R200">
+        <v>2</v>
+      </c>
+      <c r="S200">
         <v>1.8</v>
-      </c>
-      <c r="S200">
-        <v>2</v>
       </c>
       <c r="T200">
         <v>2.25</v>
       </c>
       <c r="U200">
+        <v>1.875</v>
+      </c>
+      <c r="V200">
         <v>1.925</v>
       </c>
-      <c r="V200">
-        <v>1.875</v>
-      </c>
       <c r="W200">
-        <v>2</v>
+        <v>0.444</v>
       </c>
       <c r="X200">
         <v>-1</v>
@@ -18316,13 +18316,13 @@
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA200">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB200">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC200">
         <v>-1</v>
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6927130</v>
+        <v>6927128</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,10 +18345,10 @@
         <v>45352.64583333334</v>
       </c>
       <c r="F201" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G201" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H201">
         <v>2</v>
@@ -18360,43 +18360,43 @@
         <v>49</v>
       </c>
       <c r="K201">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="L201">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M201">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N201">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="O201">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P201">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q201">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R201">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S201">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T201">
         <v>2.25</v>
       </c>
       <c r="U201">
+        <v>1.925</v>
+      </c>
+      <c r="V201">
         <v>1.875</v>
       </c>
-      <c r="V201">
-        <v>1.925</v>
-      </c>
       <c r="W201">
-        <v>0.444</v>
+        <v>2</v>
       </c>
       <c r="X201">
         <v>-1</v>
@@ -18405,13 +18405,13 @@
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA201">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC201">
         <v>-1</v>
@@ -19134,7 +19134,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6927351</v>
+        <v>6927350</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19146,76 +19146,76 @@
         <v>45359.64583333334</v>
       </c>
       <c r="F210" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G210" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H210">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K210">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="L210">
+        <v>3</v>
+      </c>
+      <c r="M210">
+        <v>3</v>
+      </c>
+      <c r="N210">
+        <v>2.1</v>
+      </c>
+      <c r="O210">
+        <v>3</v>
+      </c>
+      <c r="P210">
         <v>3.3</v>
       </c>
-      <c r="M210">
-        <v>3.8</v>
-      </c>
-      <c r="N210">
-        <v>1.75</v>
-      </c>
-      <c r="O210">
-        <v>3.3</v>
-      </c>
-      <c r="P210">
-        <v>4.2</v>
-      </c>
       <c r="Q210">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R210">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S210">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T210">
         <v>2.25</v>
       </c>
       <c r="U210">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V210">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W210">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z210">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB210">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19401,7 +19401,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6927133</v>
+        <v>6927351</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19413,13 +19413,13 @@
         <v>45359.64583333334</v>
       </c>
       <c r="F213" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G213" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I213">
         <v>1</v>
@@ -19428,43 +19428,43 @@
         <v>49</v>
       </c>
       <c r="K213">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="L213">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M213">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="N213">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O213">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P213">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q213">
         <v>-0.5</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S213">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T213">
         <v>2.25</v>
       </c>
       <c r="U213">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V213">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W213">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19473,13 +19473,13 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA213">
         <v>-1</v>
       </c>
       <c r="AB213">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC213">
         <v>-1</v>
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6927350</v>
+        <v>6927133</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,46 +19502,46 @@
         <v>45359.64583333334</v>
       </c>
       <c r="F214" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G214" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K214">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L214">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M214">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N214">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O214">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P214">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q214">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R214">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S214">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T214">
         <v>2.25</v>
@@ -19553,25 +19553,25 @@
         <v>1.825</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA214">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC214">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6927286</v>
+        <v>6927134</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,58 +20036,58 @@
         <v>45366.64583333334</v>
       </c>
       <c r="F220" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G220" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J220" t="s">
         <v>49</v>
       </c>
       <c r="K220">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L220">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M220">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N220">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="O220">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P220">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q220">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R220">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S220">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T220">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U220">
         <v>1.975</v>
       </c>
       <c r="V220">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="W220">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="X220">
         <v>-1</v>
@@ -20096,7 +20096,7 @@
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA220">
         <v>-1</v>
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6927134</v>
+        <v>6927286</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,58 +20125,58 @@
         <v>45366.64583333334</v>
       </c>
       <c r="F221" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G221" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J221" t="s">
         <v>49</v>
       </c>
       <c r="K221">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L221">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M221">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N221">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="O221">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P221">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q221">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R221">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S221">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T221">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U221">
         <v>1.975</v>
       </c>
       <c r="V221">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="W221">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20185,7 +20185,7 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA221">
         <v>-1</v>
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6927141</v>
+        <v>6927142</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,40 +20837,40 @@
         <v>45373.64583333334</v>
       </c>
       <c r="F229" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G229" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K229">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L229">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M229">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N229">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O229">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="P229">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q229">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R229">
         <v>1.975</v>
@@ -20879,34 +20879,34 @@
         <v>1.825</v>
       </c>
       <c r="T229">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V229">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X229">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA229">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>0.3625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6927354</v>
+        <v>6927141</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,76 +20926,76 @@
         <v>45373.64583333334</v>
       </c>
       <c r="F230" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G230" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H230">
         <v>1</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K230">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L230">
         <v>3</v>
       </c>
       <c r="M230">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N230">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O230">
         <v>3</v>
       </c>
       <c r="P230">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q230">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R230">
+        <v>1.975</v>
+      </c>
+      <c r="S230">
         <v>1.825</v>
       </c>
-      <c r="S230">
+      <c r="T230">
+        <v>2.25</v>
+      </c>
+      <c r="U230">
         <v>1.975</v>
       </c>
-      <c r="T230">
-        <v>2</v>
-      </c>
-      <c r="U230">
+      <c r="V230">
         <v>1.725</v>
       </c>
-      <c r="V230">
-        <v>1.975</v>
-      </c>
       <c r="W230">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
+        <v>-1</v>
+      </c>
+      <c r="AA230">
         <v>0.825</v>
       </c>
-      <c r="AA230">
-        <v>-1</v>
-      </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC230">
-        <v>0.9750000000000001</v>
+        <v>0.3625</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6927139</v>
+        <v>6927354</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,76 +21015,76 @@
         <v>45373.64583333334</v>
       </c>
       <c r="F231" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G231" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H231">
         <v>1</v>
       </c>
       <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231" t="s">
+        <v>49</v>
+      </c>
+      <c r="K231">
+        <v>2.1</v>
+      </c>
+      <c r="L231">
+        <v>3</v>
+      </c>
+      <c r="M231">
+        <v>3.25</v>
+      </c>
+      <c r="N231">
+        <v>2</v>
+      </c>
+      <c r="O231">
+        <v>3</v>
+      </c>
+      <c r="P231">
+        <v>3.4</v>
+      </c>
+      <c r="Q231">
+        <v>-0.25</v>
+      </c>
+      <c r="R231">
+        <v>1.825</v>
+      </c>
+      <c r="S231">
+        <v>1.975</v>
+      </c>
+      <c r="T231">
+        <v>2</v>
+      </c>
+      <c r="U231">
+        <v>1.725</v>
+      </c>
+      <c r="V231">
+        <v>1.975</v>
+      </c>
+      <c r="W231">
         <v>1</v>
       </c>
-      <c r="J231" t="s">
-        <v>47</v>
-      </c>
-      <c r="K231">
-        <v>3.1</v>
-      </c>
-      <c r="L231">
-        <v>3.1</v>
-      </c>
-      <c r="M231">
-        <v>2.15</v>
-      </c>
-      <c r="N231">
-        <v>3.6</v>
-      </c>
-      <c r="O231">
-        <v>3.25</v>
-      </c>
-      <c r="P231">
-        <v>1.909</v>
-      </c>
-      <c r="Q231">
-        <v>0.5</v>
-      </c>
-      <c r="R231">
-        <v>1.8</v>
-      </c>
-      <c r="S231">
-        <v>2</v>
-      </c>
-      <c r="T231">
-        <v>2.25</v>
-      </c>
-      <c r="U231">
-        <v>1.75</v>
-      </c>
-      <c r="V231">
-        <v>1.95</v>
-      </c>
-      <c r="W231">
-        <v>-1</v>
-      </c>
       <c r="X231">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA231">
         <v>-1</v>
       </c>
       <c r="AB231">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21092,7 +21092,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6927142</v>
+        <v>6927139</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21104,76 +21104,76 @@
         <v>45373.64583333334</v>
       </c>
       <c r="F232" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G232" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K232">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="L232">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M232">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="N232">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="O232">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P232">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q232">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R232">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S232">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T232">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U232">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V232">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W232">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X232">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y232">
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA232">
         <v>-1</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC232">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21448,7 +21448,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7866258</v>
+        <v>7884723</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21460,73 +21460,73 @@
         <v>45377.625</v>
       </c>
       <c r="F236" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G236" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I236">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K236">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L236">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M236">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N236">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O236">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P236">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="Q236">
         <v>0</v>
       </c>
       <c r="R236">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S236">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T236">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U236">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V236">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y236">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA236">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB236">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC236">
         <v>-1</v>
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7884723</v>
+        <v>7866258</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,73 +21549,73 @@
         <v>45377.625</v>
       </c>
       <c r="F237" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G237" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J237" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K237">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L237">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M237">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N237">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O237">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P237">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q237">
         <v>0</v>
       </c>
       <c r="R237">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S237">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T237">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U237">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V237">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z237">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA237">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB237">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC237">
         <v>-1</v>
@@ -22427,7 +22427,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6927360</v>
+        <v>6927361</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22439,46 +22439,46 @@
         <v>45387.60416666666</v>
       </c>
       <c r="F247" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G247" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K247">
+        <v>1.615</v>
+      </c>
+      <c r="L247">
+        <v>3.75</v>
+      </c>
+      <c r="M247">
+        <v>5</v>
+      </c>
+      <c r="N247">
+        <v>1.4</v>
+      </c>
+      <c r="O247">
+        <v>4.333</v>
+      </c>
+      <c r="P247">
+        <v>7</v>
+      </c>
+      <c r="Q247">
+        <v>-1.25</v>
+      </c>
+      <c r="R247">
+        <v>1.85</v>
+      </c>
+      <c r="S247">
         <v>1.95</v>
       </c>
-      <c r="L247">
-        <v>3</v>
-      </c>
-      <c r="M247">
-        <v>3.8</v>
-      </c>
-      <c r="N247">
-        <v>1.833</v>
-      </c>
-      <c r="O247">
-        <v>3.1</v>
-      </c>
-      <c r="P247">
-        <v>4.2</v>
-      </c>
-      <c r="Q247">
-        <v>-0.5</v>
-      </c>
-      <c r="R247">
-        <v>1.9</v>
-      </c>
-      <c r="S247">
-        <v>1.9</v>
-      </c>
       <c r="T247">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U247">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V247">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W247">
         <v>0</v>
@@ -22501,7 +22501,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6927361</v>
+        <v>6927360</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22513,46 +22513,46 @@
         <v>45387.60416666666</v>
       </c>
       <c r="F248" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G248" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K248">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="L248">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M248">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="N248">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="O248">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P248">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q248">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R248">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S248">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T248">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U248">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V248">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W248">
         <v>0</v>
@@ -22575,7 +22575,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6927359</v>
+        <v>6927147</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22587,46 +22587,46 @@
         <v>45387.60416666666</v>
       </c>
       <c r="F249" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G249" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K249">
-        <v>1.6</v>
+        <v>1.833</v>
       </c>
       <c r="L249">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M249">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N249">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="O249">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P249">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q249">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R249">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S249">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T249">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U249">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V249">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W249">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6927148</v>
+        <v>6927359</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22735,46 +22735,46 @@
         <v>45387.60416666666</v>
       </c>
       <c r="F251" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G251" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K251">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="L251">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="M251">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="N251">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="O251">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P251">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R251">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S251">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T251">
         <v>2.25</v>
       </c>
       <c r="U251">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V251">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W251">
         <v>0</v>
@@ -22797,7 +22797,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6927149</v>
+        <v>6927148</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22809,46 +22809,46 @@
         <v>45387.60416666666</v>
       </c>
       <c r="F252" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G252" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K252">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="L252">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M252">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="N252">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="O252">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P252">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q252">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S252">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T252">
         <v>2.25</v>
       </c>
       <c r="U252">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V252">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W252">
         <v>0</v>
@@ -22871,7 +22871,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6927147</v>
+        <v>6927149</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22883,46 +22883,46 @@
         <v>45387.60416666666</v>
       </c>
       <c r="F253" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G253" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K253">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="L253">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M253">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N253">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="O253">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P253">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q253">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R253">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S253">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T253">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U253">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V253">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W253">
         <v>0</v>
@@ -22975,7 +22975,7 @@
         <v>2.15</v>
       </c>
       <c r="O254">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P254">
         <v>3.3</v>
@@ -22984,19 +22984,19 @@
         <v>-0.25</v>
       </c>
       <c r="R254">
+        <v>1.85</v>
+      </c>
+      <c r="S254">
         <v>1.95</v>
       </c>
-      <c r="S254">
-        <v>1.85</v>
-      </c>
       <c r="T254">
         <v>2</v>
       </c>
       <c r="U254">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V254">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W254">
         <v>0</v>

--- a/France National/France National.xlsx
+++ b/France National/France National.xlsx
@@ -1423,7 +1423,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6926920</v>
+        <v>6927292</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1435,73 +1435,73 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K11">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L11">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N11">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O11">
+        <v>3.25</v>
+      </c>
+      <c r="P11">
         <v>3.4</v>
-      </c>
-      <c r="P11">
-        <v>3.75</v>
       </c>
       <c r="Q11">
         <v>-0.5</v>
       </c>
       <c r="R11">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T11">
         <v>2.25</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X11">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AC11">
         <v>-1</v>
@@ -1512,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6927292</v>
+        <v>6927048</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1524,76 +1524,76 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L12">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M12">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N12">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O12">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P12">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q12">
         <v>-0.5</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V12">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB12">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6927048</v>
+        <v>6927293</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1613,76 +1613,76 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="L13">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M13">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="N13">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="O13">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P13">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="Q13">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R13">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S13">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U13">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X13">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA13">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC13">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6927293</v>
+        <v>6927294</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1702,13 +1702,13 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1717,43 +1717,43 @@
         <v>49</v>
       </c>
       <c r="K14">
-        <v>3.8</v>
+        <v>1.909</v>
       </c>
       <c r="L14">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M14">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="N14">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P14">
+        <v>2.875</v>
+      </c>
+      <c r="Q14">
+        <v>-0.25</v>
+      </c>
+      <c r="R14">
+        <v>1.95</v>
+      </c>
+      <c r="S14">
         <v>1.85</v>
       </c>
-      <c r="Q14">
-        <v>0.5</v>
-      </c>
-      <c r="R14">
-        <v>1.875</v>
-      </c>
-      <c r="S14">
-        <v>1.925</v>
-      </c>
       <c r="T14">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W14">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1762,13 +1762,13 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6927294</v>
+        <v>6927047</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1791,10 +1791,10 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1815,34 +1815,34 @@
         <v>3.6</v>
       </c>
       <c r="N15">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O15">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P15">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q15">
         <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
         <v>1.95</v>
       </c>
       <c r="V15">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1851,7 +1851,7 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA15">
         <v>-1</v>
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6927047</v>
+        <v>6926920</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1880,73 +1880,73 @@
         <v>45156.60416666666</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L16">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M16">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O16">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P16">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S16">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB16">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6927304</v>
+        <v>6927067</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K55">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L55">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M55">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="N55">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="O55">
         <v>3.1</v>
       </c>
       <c r="P55">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S55">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T55">
         <v>2.25</v>
       </c>
       <c r="U55">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V55">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y55">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA55">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6927068</v>
+        <v>6927304</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,10 +5440,10 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5455,40 +5455,40 @@
         <v>48</v>
       </c>
       <c r="K56">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L56">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M56">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="N56">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="O56">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P56">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q56">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S56">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T56">
         <v>2.25</v>
       </c>
       <c r="U56">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W56">
         <v>-1</v>
@@ -5497,19 +5497,19 @@
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6927066</v>
+        <v>6927068</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,40 +5529,40 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
         <v>1</v>
-      </c>
-      <c r="I57">
-        <v>2</v>
       </c>
       <c r="J57" t="s">
         <v>48</v>
       </c>
       <c r="K57">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="L57">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M57">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="N57">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="O57">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P57">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
         <v>1.8</v>
@@ -5574,10 +5574,10 @@
         <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V57">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W57">
         <v>-1</v>
@@ -5586,7 +5586,7 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="Z57">
         <v>-1</v>
@@ -5595,10 +5595,10 @@
         <v>1</v>
       </c>
       <c r="AB57">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6927305</v>
+        <v>6927066</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,10 +5618,10 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5633,40 +5633,40 @@
         <v>48</v>
       </c>
       <c r="K58">
+        <v>3.1</v>
+      </c>
+      <c r="L58">
+        <v>3.1</v>
+      </c>
+      <c r="M58">
+        <v>2.15</v>
+      </c>
+      <c r="N58">
         <v>2.4</v>
       </c>
-      <c r="L58">
-        <v>2.9</v>
-      </c>
-      <c r="M58">
-        <v>2.8</v>
-      </c>
-      <c r="N58">
-        <v>3.4</v>
-      </c>
       <c r="O58">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P58">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q58">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R58">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S58">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T58">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V58">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5675,16 +5675,16 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB58">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6927067</v>
+        <v>6927305</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,34 +5707,34 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K59">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="L59">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M59">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="N59">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O59">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P59">
         <v>2.1</v>
@@ -5743,40 +5743,40 @@
         <v>0.25</v>
       </c>
       <c r="R59">
+        <v>1.975</v>
+      </c>
+      <c r="S59">
+        <v>1.825</v>
+      </c>
+      <c r="T59">
+        <v>2</v>
+      </c>
+      <c r="U59">
+        <v>1.85</v>
+      </c>
+      <c r="V59">
         <v>1.95</v>
       </c>
-      <c r="S59">
-        <v>1.85</v>
-      </c>
-      <c r="T59">
-        <v>2.25</v>
-      </c>
-      <c r="U59">
-        <v>1.95</v>
-      </c>
-      <c r="V59">
-        <v>1.85</v>
-      </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z59">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6140,7 +6140,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6926923</v>
+        <v>6927308</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6152,19 +6152,19 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K64">
         <v>2.25</v>
@@ -6176,22 +6176,22 @@
         <v>2.9</v>
       </c>
       <c r="N64">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O64">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P64">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R64">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S64">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T64">
         <v>2.25</v>
@@ -6203,19 +6203,19 @@
         <v>1.825</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA64">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
         <v>-0.5</v>
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6927308</v>
+        <v>7101731</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,28 +6241,28 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H65">
         <v>2</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
         <v>49</v>
       </c>
       <c r="K65">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="L65">
         <v>3.1</v>
       </c>
       <c r="M65">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="N65">
         <v>2</v>
@@ -6271,25 +6271,25 @@
         <v>3.2</v>
       </c>
       <c r="P65">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T65">
         <v>2.25</v>
       </c>
       <c r="U65">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V65">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W65">
         <v>1</v>
@@ -6301,16 +6301,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.7250000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC65">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7101731</v>
+        <v>6926923</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,76 +6330,76 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K66">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="L66">
         <v>3.1</v>
       </c>
       <c r="M66">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="N66">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O66">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P66">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q66">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S66">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T66">
         <v>2.25</v>
       </c>
       <c r="U66">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V66">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W66">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z66">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB66">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6927310</v>
+        <v>6926924</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,13 +6953,13 @@
         <v>45205.60416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -6968,43 +6968,43 @@
         <v>49</v>
       </c>
       <c r="K73">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L73">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M73">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N73">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O73">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P73">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q73">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S73">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T73">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V73">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W73">
-        <v>0.8500000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -7013,7 +7013,7 @@
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA73">
         <v>-1</v>
@@ -7022,7 +7022,7 @@
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6927277</v>
+        <v>6927074</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,76 +7042,76 @@
         <v>45205.60416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K74">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L74">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M74">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N74">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="O74">
         <v>3.2</v>
       </c>
       <c r="P74">
+        <v>2.7</v>
+      </c>
+      <c r="Q74">
+        <v>-0.25</v>
+      </c>
+      <c r="R74">
+        <v>2.05</v>
+      </c>
+      <c r="S74">
+        <v>1.75</v>
+      </c>
+      <c r="T74">
         <v>2.25</v>
       </c>
-      <c r="Q74">
-        <v>0.25</v>
-      </c>
-      <c r="R74">
-        <v>1.75</v>
-      </c>
-      <c r="S74">
-        <v>2.05</v>
-      </c>
-      <c r="T74">
-        <v>2</v>
-      </c>
       <c r="U74">
+        <v>1.95</v>
+      </c>
+      <c r="V74">
         <v>1.85</v>
       </c>
-      <c r="V74">
-        <v>1.95</v>
-      </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X74">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.375</v>
+        <v>1.05</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC74">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6927075</v>
+        <v>6927310</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,40 +7131,40 @@
         <v>45205.60416666666</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L75">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M75">
+        <v>3.2</v>
+      </c>
+      <c r="N75">
+        <v>1.85</v>
+      </c>
+      <c r="O75">
         <v>3.4</v>
       </c>
-      <c r="N75">
-        <v>1.5</v>
-      </c>
-      <c r="O75">
-        <v>3.6</v>
-      </c>
       <c r="P75">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
         <v>1.875</v>
@@ -7173,34 +7173,34 @@
         <v>1.925</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X75">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA75">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6927074</v>
+        <v>6927277</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,76 +7220,76 @@
         <v>45205.60416666666</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K76">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L76">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M76">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N76">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O76">
         <v>3.2</v>
       </c>
       <c r="P76">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R76">
+        <v>1.75</v>
+      </c>
+      <c r="S76">
         <v>2.05</v>
       </c>
-      <c r="S76">
-        <v>1.75</v>
-      </c>
       <c r="T76">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U76">
+        <v>1.85</v>
+      </c>
+      <c r="V76">
         <v>1.95</v>
       </c>
-      <c r="V76">
-        <v>1.85</v>
-      </c>
       <c r="W76">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>1.05</v>
+        <v>0.375</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB76">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7475,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6926924</v>
+        <v>6927075</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7487,76 +7487,76 @@
         <v>45205.60416666666</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K79">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="L79">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="M79">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N79">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O79">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>2.875</v>
+        <v>5.75</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R79">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S79">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T79">
         <v>2.25</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W79">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB79">
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7920,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6927312</v>
+        <v>7101733</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,76 +7932,76 @@
         <v>45210.66666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K84">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L84">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M84">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N84">
+        <v>2.7</v>
+      </c>
+      <c r="O84">
+        <v>3</v>
+      </c>
+      <c r="P84">
+        <v>2.45</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>1.975</v>
+      </c>
+      <c r="S84">
+        <v>1.825</v>
+      </c>
+      <c r="T84">
+        <v>2</v>
+      </c>
+      <c r="U84">
         <v>1.8</v>
       </c>
-      <c r="O84">
-        <v>3.3</v>
-      </c>
-      <c r="P84">
-        <v>4.2</v>
-      </c>
-      <c r="Q84">
-        <v>-0.5</v>
-      </c>
-      <c r="R84">
-        <v>1.875</v>
-      </c>
-      <c r="S84">
-        <v>1.925</v>
-      </c>
-      <c r="T84">
-        <v>2.25</v>
-      </c>
-      <c r="U84">
-        <v>1.925</v>
-      </c>
       <c r="V84">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W84">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB84">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7101733</v>
+        <v>6927312</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,76 +8110,76 @@
         <v>45210.66666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86">
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K86">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L86">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M86">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N86">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O86">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P86">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S86">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T86">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V86">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X86">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA86">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC86">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8187,7 +8187,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6927313</v>
+        <v>6927078</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8199,49 +8199,49 @@
         <v>45210.66666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K87">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L87">
         <v>3</v>
       </c>
       <c r="M87">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N87">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O87">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P87">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S87">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U87">
         <v>1.825</v>
@@ -8250,19 +8250,19 @@
         <v>1.975</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
         <v>-1</v>
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6927078</v>
+        <v>6927313</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,49 +8288,49 @@
         <v>45210.66666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
         <v>1</v>
       </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
       <c r="J88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K88">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L88">
         <v>3</v>
       </c>
       <c r="M88">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N88">
+        <v>2.7</v>
+      </c>
+      <c r="O88">
+        <v>2.875</v>
+      </c>
+      <c r="P88">
+        <v>2.55</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>2</v>
+      </c>
+      <c r="S88">
         <v>1.8</v>
       </c>
-      <c r="O88">
-        <v>3.3</v>
-      </c>
-      <c r="P88">
-        <v>3.8</v>
-      </c>
-      <c r="Q88">
-        <v>-0.5</v>
-      </c>
-      <c r="R88">
-        <v>1.875</v>
-      </c>
-      <c r="S88">
-        <v>1.925</v>
-      </c>
       <c r="T88">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U88">
         <v>1.825</v>
@@ -8339,19 +8339,19 @@
         <v>1.975</v>
       </c>
       <c r="W88">
+        <v>-1</v>
+      </c>
+      <c r="X88">
+        <v>-1</v>
+      </c>
+      <c r="Y88">
+        <v>1.55</v>
+      </c>
+      <c r="Z88">
+        <v>-1</v>
+      </c>
+      <c r="AA88">
         <v>0.8</v>
-      </c>
-      <c r="X88">
-        <v>-1</v>
-      </c>
-      <c r="Y88">
-        <v>-1</v>
-      </c>
-      <c r="Z88">
-        <v>0.875</v>
-      </c>
-      <c r="AA88">
-        <v>-1</v>
       </c>
       <c r="AB88">
         <v>-1</v>
@@ -8543,7 +8543,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6927885</v>
+        <v>6927314</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,76 +8555,76 @@
         <v>45219.60416666666</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="L91">
+        <v>3.4</v>
+      </c>
+      <c r="M91">
+        <v>1.727</v>
+      </c>
+      <c r="N91">
         <v>3.25</v>
       </c>
-      <c r="M91">
+      <c r="O91">
         <v>3.3</v>
       </c>
-      <c r="N91">
-        <v>2.45</v>
-      </c>
-      <c r="O91">
-        <v>3</v>
-      </c>
       <c r="P91">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R91">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S91">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T91">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="V91">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W91">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z91">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC91">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6927314</v>
+        <v>7101734</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,73 +8644,73 @@
         <v>45219.60416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K92">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="L92">
+        <v>3.2</v>
+      </c>
+      <c r="M92">
+        <v>2.3</v>
+      </c>
+      <c r="N92">
+        <v>2.1</v>
+      </c>
+      <c r="O92">
         <v>3.4</v>
       </c>
-      <c r="M92">
-        <v>1.727</v>
-      </c>
-      <c r="N92">
-        <v>3.25</v>
-      </c>
-      <c r="O92">
-        <v>3.3</v>
-      </c>
       <c r="P92">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="Q92">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R92">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S92">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T92">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V92">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA92">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AB92">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7101734</v>
+        <v>6927885</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,76 +8733,76 @@
         <v>45219.60416666666</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93" t="s">
+        <v>49</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
+      <c r="L93">
+        <v>3.25</v>
+      </c>
+      <c r="M93">
+        <v>3.3</v>
+      </c>
+      <c r="N93">
+        <v>2.45</v>
+      </c>
+      <c r="O93">
         <v>3</v>
       </c>
-      <c r="I93">
-        <v>3</v>
-      </c>
-      <c r="J93" t="s">
-        <v>47</v>
-      </c>
-      <c r="K93">
-        <v>2.75</v>
-      </c>
-      <c r="L93">
-        <v>3.2</v>
-      </c>
-      <c r="M93">
-        <v>2.3</v>
-      </c>
-      <c r="N93">
-        <v>2.1</v>
-      </c>
-      <c r="O93">
-        <v>3.4</v>
-      </c>
       <c r="P93">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T93">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U93">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="V93">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X93">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA93">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6927315</v>
+        <v>6927083</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,10 +8822,10 @@
         <v>45219.60416666666</v>
       </c>
       <c r="F94" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8837,25 +8837,25 @@
         <v>47</v>
       </c>
       <c r="K94">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L94">
         <v>3.3</v>
       </c>
       <c r="M94">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="N94">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O94">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P94">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q94">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R94">
         <v>2</v>
@@ -8867,16 +8867,16 @@
         <v>2.25</v>
       </c>
       <c r="U94">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V94">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y94">
         <v>-1</v>
@@ -8891,7 +8891,7 @@
         <v>-0.5</v>
       </c>
       <c r="AC94">
-        <v>0.3875</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6927083</v>
+        <v>6927315</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,10 +8911,10 @@
         <v>45219.60416666666</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8926,25 +8926,25 @@
         <v>47</v>
       </c>
       <c r="K95">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L95">
         <v>3.3</v>
       </c>
       <c r="M95">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="N95">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="O95">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P95">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
         <v>2</v>
@@ -8956,16 +8956,16 @@
         <v>2.25</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V95">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y95">
         <v>-1</v>
@@ -8980,7 +8980,7 @@
         <v>-0.5</v>
       </c>
       <c r="AC95">
-        <v>0.4</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6927326</v>
+        <v>6927280</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,76 +11759,76 @@
         <v>45261.64583333334</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K127">
         <v>2.4</v>
       </c>
       <c r="L127">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M127">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N127">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O127">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P127">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Q127">
         <v>0</v>
       </c>
       <c r="R127">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S127">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="V127">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA127">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AC127">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6927099</v>
+        <v>6927326</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,76 +11848,76 @@
         <v>45261.64583333334</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H128">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K128">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L128">
+        <v>3.2</v>
+      </c>
+      <c r="M128">
+        <v>2.6</v>
+      </c>
+      <c r="N128">
+        <v>2.375</v>
+      </c>
+      <c r="O128">
         <v>3.3</v>
       </c>
-      <c r="M128">
-        <v>4.75</v>
-      </c>
-      <c r="N128">
-        <v>1.571</v>
-      </c>
-      <c r="O128">
-        <v>3.5</v>
-      </c>
       <c r="P128">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R128">
+        <v>1.825</v>
+      </c>
+      <c r="S128">
         <v>1.975</v>
       </c>
-      <c r="S128">
+      <c r="T128">
+        <v>2.75</v>
+      </c>
+      <c r="U128">
         <v>1.825</v>
       </c>
-      <c r="T128">
-        <v>2.25</v>
-      </c>
-      <c r="U128">
-        <v>1.75</v>
-      </c>
       <c r="V128">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W128">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z128">
+        <v>-1</v>
+      </c>
+      <c r="AA128">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA128">
-        <v>-1</v>
-      </c>
       <c r="AB128">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6927280</v>
+        <v>6927099</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,13 +12026,13 @@
         <v>45261.64583333334</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H130">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -12041,43 +12041,43 @@
         <v>49</v>
       </c>
       <c r="K130">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L130">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M130">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="N130">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="O130">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P130">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R130">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T130">
         <v>2.25</v>
       </c>
       <c r="U130">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="V130">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="W130">
-        <v>1.75</v>
+        <v>0.571</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12086,13 +12086,13 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>1.075</v>
+        <v>0.75</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6927102</v>
+        <v>7101739</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,55 +12382,55 @@
         <v>45275.64583333334</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J134" t="s">
         <v>48</v>
       </c>
       <c r="K134">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="L134">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M134">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N134">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="O134">
         <v>3.1</v>
       </c>
       <c r="P134">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S134">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V134">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12439,16 +12439,16 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>1.375</v>
+        <v>2.1</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB134">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC134">
         <v>-1</v>
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7101739</v>
+        <v>6927102</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,55 +12649,55 @@
         <v>45275.64583333334</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
         <v>48</v>
       </c>
       <c r="K137">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="L137">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M137">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N137">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="O137">
         <v>3.1</v>
       </c>
       <c r="P137">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V137">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12706,16 +12706,16 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>2.1</v>
+        <v>1.375</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AB137">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6927104</v>
+        <v>6927330</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45303.64583333334</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K143">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L143">
+        <v>3.2</v>
+      </c>
+      <c r="M143">
         <v>3.1</v>
       </c>
-      <c r="M143">
-        <v>3.5</v>
-      </c>
       <c r="N143">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="O143">
         <v>3.1</v>
       </c>
       <c r="P143">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R143">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S143">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U143">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA143">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC143">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6927330</v>
+        <v>6927104</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,76 +13272,76 @@
         <v>45303.64583333334</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K144">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L144">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M144">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N144">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O144">
         <v>3.1</v>
       </c>
       <c r="P144">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
+        <v>1.775</v>
+      </c>
+      <c r="S144">
+        <v>2.025</v>
+      </c>
+      <c r="T144">
+        <v>2.25</v>
+      </c>
+      <c r="U144">
         <v>1.975</v>
       </c>
-      <c r="S144">
+      <c r="V144">
         <v>1.825</v>
       </c>
-      <c r="T144">
-        <v>2</v>
-      </c>
-      <c r="U144">
-        <v>1.8</v>
-      </c>
-      <c r="V144">
-        <v>2</v>
-      </c>
       <c r="W144">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z144">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB144">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC144">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6927106</v>
+        <v>6927331</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,10 +13361,10 @@
         <v>45303.64583333334</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G145" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13376,43 +13376,43 @@
         <v>49</v>
       </c>
       <c r="K145">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="L145">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M145">
+        <v>4.333</v>
+      </c>
+      <c r="N145">
+        <v>1.615</v>
+      </c>
+      <c r="O145">
+        <v>3.75</v>
+      </c>
+      <c r="P145">
         <v>4.75</v>
       </c>
-      <c r="N145">
-        <v>1.55</v>
-      </c>
-      <c r="O145">
-        <v>3.8</v>
-      </c>
-      <c r="P145">
-        <v>5.25</v>
-      </c>
       <c r="Q145">
         <v>-1</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S145">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>0.55</v>
+        <v>0.615</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13430,7 +13430,7 @@
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13438,7 +13438,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6927331</v>
+        <v>6927106</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13450,10 +13450,10 @@
         <v>45303.64583333334</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13465,43 +13465,43 @@
         <v>49</v>
       </c>
       <c r="K146">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="L146">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M146">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N146">
-        <v>1.615</v>
+        <v>1.55</v>
       </c>
       <c r="O146">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P146">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q146">
         <v>-1</v>
       </c>
       <c r="R146">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S146">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T146">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U146">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V146">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W146">
-        <v>0.615</v>
+        <v>0.55</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13519,7 +13519,7 @@
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13527,7 +13527,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6926929</v>
+        <v>6927333</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13539,76 +13539,76 @@
         <v>45303.64583333334</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G147" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K147">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="L147">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N147">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O147">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P147">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q147">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
+        <v>1.825</v>
+      </c>
+      <c r="S147">
         <v>1.975</v>
       </c>
-      <c r="S147">
+      <c r="T147">
+        <v>2.5</v>
+      </c>
+      <c r="U147">
+        <v>1.975</v>
+      </c>
+      <c r="V147">
         <v>1.825</v>
       </c>
-      <c r="T147">
-        <v>2</v>
-      </c>
-      <c r="U147">
-        <v>1.9</v>
-      </c>
-      <c r="V147">
-        <v>1.9</v>
-      </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA147">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC147">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6927333</v>
+        <v>6926929</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,76 +13628,76 @@
         <v>45303.64583333334</v>
       </c>
       <c r="F148" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148">
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K148">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M148">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N148">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O148">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P148">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
+        <v>1.975</v>
+      </c>
+      <c r="S148">
         <v>1.825</v>
       </c>
-      <c r="S148">
-        <v>1.975</v>
-      </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U148">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V148">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W148">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z148">
+        <v>-1</v>
+      </c>
+      <c r="AA148">
         <v>0.825</v>
       </c>
-      <c r="AA148">
-        <v>-1</v>
-      </c>
       <c r="AB148">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13972,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6927334</v>
+        <v>6927336</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13984,76 +13984,76 @@
         <v>45310.64583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K152">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="L152">
+        <v>3.1</v>
+      </c>
+      <c r="M152">
         <v>3</v>
       </c>
-      <c r="M152">
-        <v>2.3</v>
-      </c>
       <c r="N152">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="O152">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="P152">
+        <v>3.5</v>
+      </c>
+      <c r="Q152">
+        <v>-0.25</v>
+      </c>
+      <c r="R152">
         <v>1.85</v>
       </c>
-      <c r="Q152">
-        <v>0.5</v>
-      </c>
-      <c r="R152">
-        <v>1.8</v>
-      </c>
       <c r="S152">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T152">
         <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V152">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W152">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X152">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA152">
         <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC152">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14061,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6927336</v>
+        <v>6927334</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14073,76 +14073,76 @@
         <v>45310.64583333334</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H153">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K153">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="L153">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M153">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N153">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="O153">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="P153">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R153">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S153">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T153">
         <v>2.25</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V153">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W153">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14328,7 +14328,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7695781</v>
+        <v>7716254</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14340,73 +14340,73 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G156" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K156">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L156">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M156">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N156">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O156">
         <v>3.2</v>
       </c>
       <c r="P156">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q156">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R156">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S156">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T156">
         <v>2.25</v>
       </c>
       <c r="U156">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V156">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W156">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z156">
+        <v>-1</v>
+      </c>
+      <c r="AA156">
+        <v>1</v>
+      </c>
+      <c r="AB156">
         <v>0.925</v>
-      </c>
-      <c r="AA156">
-        <v>-1</v>
-      </c>
-      <c r="AB156">
-        <v>0.95</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7679827</v>
+        <v>7695781</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,58 +14429,58 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G157" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H157">
         <v>2</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
         <v>49</v>
       </c>
       <c r="K157">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L157">
         <v>3.4</v>
       </c>
       <c r="M157">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="N157">
+        <v>2.2</v>
+      </c>
+      <c r="O157">
         <v>3.2</v>
       </c>
-      <c r="O157">
-        <v>3</v>
-      </c>
       <c r="P157">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q157">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R157">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S157">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T157">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U157">
+        <v>1.95</v>
+      </c>
+      <c r="V157">
         <v>1.85</v>
       </c>
-      <c r="V157">
-        <v>1.95</v>
-      </c>
       <c r="W157">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14489,16 +14489,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC157">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14506,7 +14506,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7568500</v>
+        <v>7679827</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14518,76 +14518,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K158">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="L158">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="N158">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="O158">
         <v>3</v>
       </c>
       <c r="P158">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q158">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R158">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S158">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="T158">
         <v>2</v>
       </c>
       <c r="U158">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V158">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA158">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14595,7 +14595,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7716254</v>
+        <v>7568500</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14607,10 +14607,10 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G159" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14622,40 +14622,40 @@
         <v>48</v>
       </c>
       <c r="K159">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L159">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M159">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="N159">
+        <v>2.4</v>
+      </c>
+      <c r="O159">
+        <v>3</v>
+      </c>
+      <c r="P159">
         <v>2.9</v>
       </c>
-      <c r="O159">
-        <v>3.2</v>
-      </c>
-      <c r="P159">
-        <v>2.25</v>
-      </c>
       <c r="Q159">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R159">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S159">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="T159">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U159">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V159">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14664,16 +14664,16 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AB159">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -14773,7 +14773,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6927337</v>
+        <v>6927111</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14785,46 +14785,46 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H161">
         <v>0</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J161" t="s">
         <v>48</v>
       </c>
       <c r="K161">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="L161">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M161">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N161">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O161">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P161">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q161">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S161">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T161">
         <v>2.25</v>
@@ -14842,19 +14842,19 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC161">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14862,7 +14862,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6927111</v>
+        <v>6927112</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,13 +14874,13 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G162" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162">
         <v>4</v>
@@ -14889,34 +14889,34 @@
         <v>48</v>
       </c>
       <c r="K162">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="L162">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M162">
+        <v>2.55</v>
+      </c>
+      <c r="N162">
+        <v>2.8</v>
+      </c>
+      <c r="O162">
         <v>3.1</v>
       </c>
-      <c r="N162">
-        <v>2.15</v>
-      </c>
-      <c r="O162">
-        <v>3.2</v>
-      </c>
       <c r="P162">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R162">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S162">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T162">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
         <v>1.95</v>
@@ -14931,13 +14931,13 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB162">
         <v>0.95</v>
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6927112</v>
+        <v>6927115</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14963,76 +14963,76 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H163">
         <v>1</v>
       </c>
       <c r="I163">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K163">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L163">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M163">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="N163">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="O163">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P163">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q163">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R163">
+        <v>2.025</v>
+      </c>
+      <c r="S163">
         <v>1.775</v>
       </c>
-      <c r="S163">
-        <v>2.025</v>
-      </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U163">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V163">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W163">
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y163">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB163">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15040,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6927115</v>
+        <v>6926931</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,76 +15052,76 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F164" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K164">
+        <v>1.615</v>
+      </c>
+      <c r="L164">
+        <v>3.4</v>
+      </c>
+      <c r="M164">
+        <v>5.5</v>
+      </c>
+      <c r="N164">
+        <v>1.666</v>
+      </c>
+      <c r="O164">
+        <v>3.4</v>
+      </c>
+      <c r="P164">
+        <v>5</v>
+      </c>
+      <c r="Q164">
+        <v>-0.75</v>
+      </c>
+      <c r="R164">
+        <v>1.9</v>
+      </c>
+      <c r="S164">
+        <v>1.9</v>
+      </c>
+      <c r="T164">
+        <v>2.25</v>
+      </c>
+      <c r="U164">
+        <v>2</v>
+      </c>
+      <c r="V164">
         <v>1.8</v>
       </c>
-      <c r="L164">
-        <v>3.3</v>
-      </c>
-      <c r="M164">
-        <v>4.333</v>
-      </c>
-      <c r="N164">
-        <v>1.95</v>
-      </c>
-      <c r="O164">
-        <v>2.9</v>
-      </c>
-      <c r="P164">
-        <v>3.8</v>
-      </c>
-      <c r="Q164">
+      <c r="W164">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X164">
+        <v>-1</v>
+      </c>
+      <c r="Y164">
+        <v>-1</v>
+      </c>
+      <c r="Z164">
+        <v>0.45</v>
+      </c>
+      <c r="AA164">
         <v>-0.5</v>
       </c>
-      <c r="R164">
-        <v>2.025</v>
-      </c>
-      <c r="S164">
-        <v>1.775</v>
-      </c>
-      <c r="T164">
-        <v>2</v>
-      </c>
-      <c r="U164">
-        <v>1.9</v>
-      </c>
-      <c r="V164">
-        <v>1.9</v>
-      </c>
-      <c r="W164">
-        <v>-1</v>
-      </c>
-      <c r="X164">
-        <v>1.9</v>
-      </c>
-      <c r="Y164">
-        <v>-1</v>
-      </c>
-      <c r="Z164">
-        <v>-1</v>
-      </c>
-      <c r="AA164">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6926931</v>
+        <v>6927114</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,76 +15141,76 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F165" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G165" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165">
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K165">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L165">
         <v>3.4</v>
       </c>
       <c r="M165">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N165">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="O165">
         <v>3.4</v>
       </c>
       <c r="P165">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q165">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R165">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S165">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T165">
         <v>2.25</v>
       </c>
       <c r="U165">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V165">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W165">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6927114</v>
+        <v>6927337</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,76 +15230,76 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F166" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G166" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H166">
         <v>0</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K166">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L166">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M166">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N166">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="O166">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P166">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q166">
         <v>-0.5</v>
       </c>
       <c r="R166">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S166">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T166">
         <v>2.25</v>
       </c>
       <c r="U166">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V166">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W166">
         <v>-1</v>
       </c>
       <c r="X166">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15574,7 +15574,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6927119</v>
+        <v>6927340</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15586,76 +15586,76 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H170">
+        <v>3</v>
+      </c>
+      <c r="I170">
         <v>1</v>
-      </c>
-      <c r="I170">
-        <v>0</v>
       </c>
       <c r="J170" t="s">
         <v>49</v>
       </c>
       <c r="K170">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L170">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M170">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N170">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O170">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P170">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q170">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S170">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T170">
         <v>2.25</v>
       </c>
       <c r="U170">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V170">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W170">
+        <v>1.15</v>
+      </c>
+      <c r="X170">
+        <v>-1</v>
+      </c>
+      <c r="Y170">
+        <v>-1</v>
+      </c>
+      <c r="Z170">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA170">
+        <v>-1</v>
+      </c>
+      <c r="AB170">
         <v>0.95</v>
       </c>
-      <c r="X170">
-        <v>-1</v>
-      </c>
-      <c r="Y170">
-        <v>-1</v>
-      </c>
-      <c r="Z170">
-        <v>0.95</v>
-      </c>
-      <c r="AA170">
-        <v>-1</v>
-      </c>
-      <c r="AB170">
-        <v>-1</v>
-      </c>
       <c r="AC170">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15663,7 +15663,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6927339</v>
+        <v>6927119</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15675,76 +15675,76 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F171" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G171" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171">
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K171">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L171">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M171">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="N171">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="O171">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="P171">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q171">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R171">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S171">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T171">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U171">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V171">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X171">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA171">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
         <v>-1</v>
       </c>
       <c r="AC171">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6927340</v>
+        <v>6927339</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,76 +15764,76 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G172" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H172">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K172">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="L172">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M172">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N172">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O172">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P172">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="Q172">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R172">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S172">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T172">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U172">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V172">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W172">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB172">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6927116</v>
+        <v>6927118</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,76 +15853,76 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F173" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K173">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="L173">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M173">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="N173">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O173">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P173">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q173">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R173">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S173">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T173">
         <v>2.25</v>
       </c>
       <c r="U173">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V173">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W173">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y173">
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB173">
         <v>-0.5</v>
       </c>
       <c r="AC173">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6927118</v>
+        <v>6927116</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,76 +16031,76 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G175" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K175">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="L175">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M175">
+        <v>5</v>
+      </c>
+      <c r="N175">
+        <v>1.8</v>
+      </c>
+      <c r="O175">
+        <v>3.3</v>
+      </c>
+      <c r="P175">
         <v>3.8</v>
       </c>
-      <c r="N175">
+      <c r="Q175">
+        <v>-0.5</v>
+      </c>
+      <c r="R175">
+        <v>1.85</v>
+      </c>
+      <c r="S175">
         <v>1.95</v>
-      </c>
-      <c r="O175">
-        <v>3.2</v>
-      </c>
-      <c r="P175">
-        <v>3.4</v>
-      </c>
-      <c r="Q175">
-        <v>-0.25</v>
-      </c>
-      <c r="R175">
-        <v>1.725</v>
-      </c>
-      <c r="S175">
-        <v>1.975</v>
       </c>
       <c r="T175">
         <v>2.25</v>
       </c>
       <c r="U175">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V175">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X175">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA175">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
         <v>-0.5</v>
       </c>
       <c r="AC175">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16464,7 +16464,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6927123</v>
+        <v>6927120</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16476,76 +16476,76 @@
         <v>45338.64583333334</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180">
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K180">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="L180">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M180">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="N180">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O180">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="P180">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="Q180">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R180">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S180">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T180">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U180">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V180">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y180">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA180">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC180">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6926932</v>
+        <v>6927121</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16565,58 +16565,58 @@
         <v>45338.64583333334</v>
       </c>
       <c r="F181" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G181" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H181">
         <v>4</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
         <v>49</v>
       </c>
       <c r="K181">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L181">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M181">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N181">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="O181">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P181">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q181">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R181">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S181">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T181">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U181">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="V181">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W181">
-        <v>0.833</v>
+        <v>1.625</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16625,13 +16625,13 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -16642,7 +16642,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6927121</v>
+        <v>6927123</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16654,40 +16654,40 @@
         <v>45338.64583333334</v>
       </c>
       <c r="F182" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G182" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K182">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L182">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M182">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="N182">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="O182">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="P182">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q182">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R182">
         <v>1.95</v>
@@ -16696,34 +16696,34 @@
         <v>1.85</v>
       </c>
       <c r="T182">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U182">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V182">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W182">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z182">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB182">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6927120</v>
+        <v>6927342</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45338.64583333334</v>
       </c>
       <c r="F183" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G183" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183">
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K183">
+        <v>1.95</v>
+      </c>
+      <c r="L183">
+        <v>3</v>
+      </c>
+      <c r="M183">
         <v>3.75</v>
       </c>
-      <c r="L183">
-        <v>3.3</v>
-      </c>
-      <c r="M183">
-        <v>1.833</v>
-      </c>
       <c r="N183">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="O183">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P183">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="Q183">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R183">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S183">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T183">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U183">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V183">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z183">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB183">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6927342</v>
+        <v>7101744</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,10 +16832,10 @@
         <v>45338.64583333334</v>
       </c>
       <c r="F184" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -16847,41 +16847,41 @@
         <v>48</v>
       </c>
       <c r="K184">
+        <v>1.5</v>
+      </c>
+      <c r="L184">
+        <v>3.75</v>
+      </c>
+      <c r="M184">
+        <v>5.5</v>
+      </c>
+      <c r="N184">
+        <v>1.533</v>
+      </c>
+      <c r="O184">
+        <v>3.75</v>
+      </c>
+      <c r="P184">
+        <v>5.25</v>
+      </c>
+      <c r="Q184">
+        <v>-1</v>
+      </c>
+      <c r="R184">
+        <v>1.875</v>
+      </c>
+      <c r="S184">
+        <v>1.925</v>
+      </c>
+      <c r="T184">
+        <v>2.75</v>
+      </c>
+      <c r="U184">
         <v>1.95</v>
       </c>
-      <c r="L184">
-        <v>3</v>
-      </c>
-      <c r="M184">
-        <v>3.75</v>
-      </c>
-      <c r="N184">
-        <v>2.55</v>
-      </c>
-      <c r="O184">
-        <v>3</v>
-      </c>
-      <c r="P184">
-        <v>2.625</v>
-      </c>
-      <c r="Q184">
-        <v>0</v>
-      </c>
-      <c r="R184">
-        <v>1.9</v>
-      </c>
-      <c r="S184">
-        <v>1.9</v>
-      </c>
-      <c r="T184">
-        <v>2</v>
-      </c>
-      <c r="U184">
+      <c r="V184">
         <v>1.85</v>
       </c>
-      <c r="V184">
-        <v>1.95</v>
-      </c>
       <c r="W184">
         <v>-1</v>
       </c>
@@ -16889,19 +16889,19 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>1.625</v>
+        <v>4.25</v>
       </c>
       <c r="Z184">
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16909,7 +16909,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7101744</v>
+        <v>6926932</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16921,76 +16921,76 @@
         <v>45338.64583333334</v>
       </c>
       <c r="F185" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G185" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I185">
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K185">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L185">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M185">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N185">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="O185">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P185">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q185">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R185">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S185">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T185">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V185">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA185">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC185">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7101745</v>
+        <v>6927127</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,10 +17099,10 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F187" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G187" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17114,61 +17114,61 @@
         <v>47</v>
       </c>
       <c r="K187">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L187">
         <v>3.2</v>
       </c>
       <c r="M187">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="N187">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="O187">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P187">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="Q187">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R187">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S187">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="T187">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U187">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V187">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA187">
+        <v>0.35</v>
+      </c>
+      <c r="AB187">
+        <v>0</v>
+      </c>
+      <c r="AC187">
         <v>-0</v>
-      </c>
-      <c r="AB187">
-        <v>-0.5</v>
-      </c>
-      <c r="AC187">
-        <v>0.425</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6927127</v>
+        <v>6927283</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,46 +17188,46 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G188" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J188" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K188">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L188">
+        <v>3.1</v>
+      </c>
+      <c r="M188">
         <v>3.2</v>
       </c>
-      <c r="M188">
-        <v>2.625</v>
-      </c>
       <c r="N188">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O188">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P188">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q188">
         <v>-0.25</v>
       </c>
       <c r="R188">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S188">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T188">
         <v>2</v>
@@ -17242,22 +17242,22 @@
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="AB188">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC188">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6927283</v>
+        <v>6927343</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,73 +17277,73 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F189" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G189" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H189">
+        <v>4</v>
+      </c>
+      <c r="I189">
         <v>1</v>
       </c>
-      <c r="I189">
-        <v>3</v>
-      </c>
       <c r="J189" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K189">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L189">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M189">
+        <v>5</v>
+      </c>
+      <c r="N189">
+        <v>1.75</v>
+      </c>
+      <c r="O189">
         <v>3.2</v>
       </c>
-      <c r="N189">
-        <v>2.15</v>
-      </c>
-      <c r="O189">
-        <v>3.1</v>
-      </c>
       <c r="P189">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S189">
         <v>1.95</v>
       </c>
       <c r="T189">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U189">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V189">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA189">
+        <v>-1</v>
+      </c>
+      <c r="AB189">
         <v>0.95</v>
-      </c>
-      <c r="AB189">
-        <v>0.825</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17532,7 +17532,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6927343</v>
+        <v>7101745</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17544,46 +17544,46 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F192" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G192" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H192">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I192">
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K192">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L192">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M192">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N192">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="O192">
         <v>3.2</v>
       </c>
       <c r="P192">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="Q192">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R192">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S192">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T192">
         <v>2.25</v>
@@ -17595,25 +17595,25 @@
         <v>1.85</v>
       </c>
       <c r="W192">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X192">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB192">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6927125</v>
+        <v>6927126</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,76 +17633,76 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F193" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G193" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K193">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L193">
         <v>3.2</v>
       </c>
       <c r="M193">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="N193">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O193">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="P193">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q193">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R193">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S193">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U193">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="V193">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA193">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17710,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6927126</v>
+        <v>6927125</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17722,76 +17722,76 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F194" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G194" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J194" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K194">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L194">
         <v>3.2</v>
       </c>
       <c r="M194">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="N194">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O194">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="P194">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="Q194">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R194">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S194">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T194">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="V194">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W194">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z194">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC194">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17888,7 +17888,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7801213</v>
+        <v>7864325</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17900,76 +17900,76 @@
         <v>45349.64583333334</v>
       </c>
       <c r="F196" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G196" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H196">
         <v>0</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J196" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K196">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="L196">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M196">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N196">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O196">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P196">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q196">
         <v>-0.25</v>
       </c>
       <c r="R196">
+        <v>1.975</v>
+      </c>
+      <c r="S196">
         <v>1.725</v>
-      </c>
-      <c r="S196">
-        <v>1.975</v>
       </c>
       <c r="T196">
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V196">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z196">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.4875</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC196">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18066,7 +18066,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7864325</v>
+        <v>7801213</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18078,76 +18078,76 @@
         <v>45349.64583333334</v>
       </c>
       <c r="F198" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G198" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H198">
         <v>0</v>
       </c>
       <c r="I198">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K198">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="L198">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M198">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N198">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O198">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P198">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="Q198">
         <v>-0.25</v>
       </c>
       <c r="R198">
+        <v>1.725</v>
+      </c>
+      <c r="S198">
         <v>1.975</v>
-      </c>
-      <c r="S198">
-        <v>1.725</v>
       </c>
       <c r="T198">
         <v>2.25</v>
       </c>
       <c r="U198">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y198">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA198">
-        <v>0.7250000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB198">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -19134,7 +19134,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6927133</v>
+        <v>6927285</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19146,76 +19146,76 @@
         <v>45359.64583333334</v>
       </c>
       <c r="F210" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G210" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K210">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="L210">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M210">
         <v>4.75</v>
       </c>
       <c r="N210">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="O210">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P210">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q210">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R210">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S210">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T210">
         <v>2.25</v>
       </c>
       <c r="U210">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V210">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W210">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB210">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19223,7 +19223,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6927285</v>
+        <v>6927133</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19235,76 +19235,76 @@
         <v>45359.64583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G211" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K211">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="L211">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M211">
         <v>4.75</v>
       </c>
       <c r="N211">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="O211">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P211">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q211">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R211">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S211">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T211">
         <v>2.25</v>
       </c>
       <c r="U211">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V211">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X211">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA211">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC211">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19935,7 +19935,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6927134</v>
+        <v>6927135</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19947,58 +19947,58 @@
         <v>45366.64583333334</v>
       </c>
       <c r="F219" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G219" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H219">
         <v>2</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" t="s">
         <v>49</v>
       </c>
       <c r="K219">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="L219">
         <v>3.1</v>
       </c>
       <c r="M219">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N219">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O219">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P219">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="Q219">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R219">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S219">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T219">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U219">
+        <v>1.725</v>
+      </c>
+      <c r="V219">
         <v>1.975</v>
       </c>
-      <c r="V219">
-        <v>1.825</v>
-      </c>
       <c r="W219">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -20007,16 +20007,16 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA219">
         <v>-1</v>
       </c>
       <c r="AB219">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC219">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6927135</v>
+        <v>6927134</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,58 +20036,58 @@
         <v>45366.64583333334</v>
       </c>
       <c r="F220" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G220" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H220">
         <v>2</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" t="s">
         <v>49</v>
       </c>
       <c r="K220">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="L220">
         <v>3.1</v>
       </c>
       <c r="M220">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N220">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="O220">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P220">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="Q220">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R220">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S220">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T220">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U220">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="V220">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W220">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="X220">
         <v>-1</v>
@@ -20096,16 +20096,16 @@
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA220">
         <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC220">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6927352</v>
+        <v>6927286</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,76 +20125,76 @@
         <v>45366.64583333334</v>
       </c>
       <c r="F221" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G221" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J221" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K221">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L221">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M221">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="N221">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="O221">
         <v>3</v>
       </c>
       <c r="P221">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q221">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R221">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S221">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T221">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U221">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V221">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA221">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC221">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20291,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6927286</v>
+        <v>6927352</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20303,76 +20303,76 @@
         <v>45366.64583333334</v>
       </c>
       <c r="F223" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G223" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H223">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K223">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L223">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M223">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="N223">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="O223">
         <v>3</v>
       </c>
       <c r="P223">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q223">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R223">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S223">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T223">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V223">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="W223">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z223">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB223">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -21804,7 +21804,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6927143</v>
+        <v>6927358</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21816,10 +21816,10 @@
         <v>45380.64583333334</v>
       </c>
       <c r="F240" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G240" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H240">
         <v>1</v>
@@ -21831,43 +21831,43 @@
         <v>49</v>
       </c>
       <c r="K240">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L240">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M240">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N240">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="O240">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P240">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q240">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R240">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S240">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T240">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U240">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V240">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W240">
-        <v>1.7</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21876,16 +21876,16 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA240">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB240">
         <v>-1</v>
       </c>
       <c r="AC240">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21893,7 +21893,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6927358</v>
+        <v>6927145</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21905,40 +21905,40 @@
         <v>45380.64583333334</v>
       </c>
       <c r="F241" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G241" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H241">
         <v>1</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K241">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L241">
+        <v>3.4</v>
+      </c>
+      <c r="M241">
+        <v>4</v>
+      </c>
+      <c r="N241">
+        <v>2.05</v>
+      </c>
+      <c r="O241">
+        <v>3.25</v>
+      </c>
+      <c r="P241">
         <v>3.5</v>
       </c>
-      <c r="M241">
-        <v>4.75</v>
-      </c>
-      <c r="N241">
-        <v>1.533</v>
-      </c>
-      <c r="O241">
-        <v>4</v>
-      </c>
-      <c r="P241">
-        <v>5.5</v>
-      </c>
       <c r="Q241">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R241">
         <v>1.825</v>
@@ -21947,7 +21947,7 @@
         <v>1.975</v>
       </c>
       <c r="T241">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U241">
         <v>1.975</v>
@@ -21956,25 +21956,25 @@
         <v>1.825</v>
       </c>
       <c r="W241">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X241">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA241">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB241">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC241">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -21982,7 +21982,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6927145</v>
+        <v>6927143</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21994,76 +21994,76 @@
         <v>45380.64583333334</v>
       </c>
       <c r="F242" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G242" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H242">
         <v>1</v>
       </c>
       <c r="I242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J242" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K242">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L242">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M242">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N242">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O242">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P242">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q242">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R242">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S242">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T242">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U242">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V242">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W242">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X242">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y242">
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA242">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB242">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC242">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22427,7 +22427,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6927151</v>
+        <v>6927359</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22439,46 +22439,46 @@
         <v>45387.60416666666</v>
       </c>
       <c r="F247" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G247" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247">
         <v>1</v>
       </c>
       <c r="J247" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K247">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="L247">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M247">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="N247">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="O247">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P247">
+        <v>6</v>
+      </c>
+      <c r="Q247">
+        <v>-1</v>
+      </c>
+      <c r="R247">
+        <v>1.85</v>
+      </c>
+      <c r="S247">
         <v>1.95</v>
-      </c>
-      <c r="Q247">
-        <v>0.5</v>
-      </c>
-      <c r="R247">
-        <v>1.8</v>
-      </c>
-      <c r="S247">
-        <v>2</v>
       </c>
       <c r="T247">
         <v>2.25</v>
@@ -22490,25 +22490,25 @@
         <v>1.95</v>
       </c>
       <c r="W247">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X247">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y247">
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA247">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB247">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC247">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22516,7 +22516,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6927149</v>
+        <v>6927151</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22528,58 +22528,58 @@
         <v>45387.60416666666</v>
       </c>
       <c r="F248" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G248" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H248">
+        <v>2</v>
+      </c>
+      <c r="I248">
         <v>1</v>
-      </c>
-      <c r="I248">
-        <v>0</v>
       </c>
       <c r="J248" t="s">
         <v>49</v>
       </c>
       <c r="K248">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="L248">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M248">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="N248">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="O248">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P248">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="Q248">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R248">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S248">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T248">
         <v>2.25</v>
       </c>
       <c r="U248">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V248">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W248">
-        <v>0.571</v>
+        <v>2.6</v>
       </c>
       <c r="X248">
         <v>-1</v>
@@ -22588,16 +22588,16 @@
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="AA248">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB248">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC248">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22605,7 +22605,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6927359</v>
+        <v>6927149</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22617,76 +22617,76 @@
         <v>45387.60416666666</v>
       </c>
       <c r="F249" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G249" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H249">
         <v>1</v>
       </c>
       <c r="I249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K249">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="L249">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M249">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N249">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="O249">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P249">
         <v>6</v>
       </c>
       <c r="Q249">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R249">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S249">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T249">
         <v>2.25</v>
       </c>
       <c r="U249">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V249">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W249">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X249">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y249">
         <v>-1</v>
       </c>
       <c r="Z249">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA249">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB249">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC249">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6927360</v>
+        <v>6927147</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,73 +22795,73 @@
         <v>45387.60416666666</v>
       </c>
       <c r="F251" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G251" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H251">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="J251" t="s">
+        <v>49</v>
+      </c>
+      <c r="K251">
+        <v>1.833</v>
+      </c>
+      <c r="L251">
+        <v>3.3</v>
+      </c>
+      <c r="M251">
         <v>4</v>
       </c>
-      <c r="J251" t="s">
-        <v>48</v>
-      </c>
-      <c r="K251">
-        <v>1.95</v>
-      </c>
-      <c r="L251">
-        <v>3</v>
-      </c>
-      <c r="M251">
-        <v>3.8</v>
-      </c>
       <c r="N251">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O251">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P251">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q251">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R251">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S251">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T251">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U251">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V251">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W251">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X251">
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z251">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA251">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC251">
         <v>-1</v>
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6927147</v>
+        <v>6927148</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,58 +22884,58 @@
         <v>45387.60416666666</v>
       </c>
       <c r="F252" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G252" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H252">
         <v>2</v>
       </c>
       <c r="I252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J252" t="s">
         <v>49</v>
       </c>
       <c r="K252">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L252">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="M252">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N252">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="O252">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="P252">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q252">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R252">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S252">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T252">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U252">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V252">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W252">
-        <v>0.8</v>
+        <v>1.375</v>
       </c>
       <c r="X252">
         <v>-1</v>
@@ -22944,16 +22944,16 @@
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA252">
         <v>-1</v>
       </c>
       <c r="AB252">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC252">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22961,7 +22961,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6927148</v>
+        <v>6927360</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22973,76 +22973,76 @@
         <v>45387.60416666666</v>
       </c>
       <c r="F253" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G253" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I253">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J253" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K253">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L253">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M253">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="N253">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="O253">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="P253">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q253">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R253">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S253">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T253">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U253">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V253">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W253">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X253">
         <v>-1</v>
       </c>
       <c r="Y253">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z253">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA253">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB253">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC253">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -23267,19 +23267,19 @@
         <v>-0.5</v>
       </c>
       <c r="R256">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S256">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T256">
         <v>2.25</v>
       </c>
       <c r="U256">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V256">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W256">
         <v>0</v>
@@ -23302,7 +23302,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6927364</v>
+        <v>7101752</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23314,46 +23314,46 @@
         <v>45394.60416666666</v>
       </c>
       <c r="F257" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G257" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K257">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="L257">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M257">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="N257">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="O257">
         <v>3.25</v>
       </c>
       <c r="P257">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="Q257">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R257">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S257">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T257">
         <v>2.5</v>
       </c>
       <c r="U257">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V257">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W257">
         <v>0</v>
@@ -23376,7 +23376,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7101752</v>
+        <v>6927363</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23388,46 +23388,46 @@
         <v>45394.60416666666</v>
       </c>
       <c r="F258" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G258" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K258">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="L258">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M258">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="N258">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="O258">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P258">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="Q258">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R258">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S258">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T258">
         <v>2.5</v>
       </c>
       <c r="U258">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V258">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W258">
         <v>0</v>
@@ -23477,31 +23477,31 @@
         <v>2.75</v>
       </c>
       <c r="N259">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O259">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P259">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q259">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R259">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S259">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T259">
         <v>2.25</v>
       </c>
       <c r="U259">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V259">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W259">
         <v>0</v>
@@ -23524,7 +23524,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6927363</v>
+        <v>6927364</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23536,46 +23536,46 @@
         <v>45394.60416666666</v>
       </c>
       <c r="F260" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G260" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K260">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="L260">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M260">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="N260">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="O260">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P260">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="Q260">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R260">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S260">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T260">
         <v>2.5</v>
       </c>
       <c r="U260">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V260">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W260">
         <v>0</v>
@@ -23637,10 +23637,10 @@
         <v>0</v>
       </c>
       <c r="R261">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S261">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T261">
         <v>2.25</v>
@@ -23699,22 +23699,22 @@
         <v>2.875</v>
       </c>
       <c r="N262">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="O262">
         <v>2.875</v>
       </c>
       <c r="P262">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q262">
         <v>0</v>
       </c>
       <c r="R262">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S262">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T262">
         <v>2.25</v>

--- a/France National/France National.xlsx
+++ b/France National/France National.xlsx
@@ -103,19 +103,19 @@
     <t>7101755</t>
   </si>
   <si>
-    <t>6927376</t>
-  </si>
-  <si>
     <t>6954804</t>
-  </si>
-  <si>
-    <t>6927375</t>
   </si>
   <si>
     <t>6926938</t>
   </si>
   <si>
     <t>6927373</t>
+  </si>
+  <si>
+    <t>6927375</t>
+  </si>
+  <si>
+    <t>6927376</t>
   </si>
   <si>
     <t>6927162</t>
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6927292</v>
+        <v>6926920</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -1426,73 +1426,73 @@
         <v>45156.60416666666</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11">
+        <v>2.1</v>
+      </c>
+      <c r="K11">
+        <v>3.3</v>
+      </c>
+      <c r="L11">
         <v>3</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11">
+      <c r="M11">
         <v>1.8</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>3.4</v>
       </c>
-      <c r="L11">
-        <v>3.8</v>
-      </c>
-      <c r="M11">
-        <v>1.95</v>
-      </c>
-      <c r="N11">
-        <v>3.25</v>
-      </c>
       <c r="O11">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P11">
         <v>-0.5</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R11">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S11">
         <v>2.25</v>
       </c>
       <c r="T11">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U11">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA11">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AB11">
         <v>-1</v>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6927047</v>
+        <v>6927292</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -1512,40 +1512,40 @@
         <v>45156.60416666666</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>57</v>
       </c>
       <c r="J12">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="K12">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L12">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M12">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="N12">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O12">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P12">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -1557,13 +1557,13 @@
         <v>2.25</v>
       </c>
       <c r="T12">
+        <v>1.75</v>
+      </c>
+      <c r="U12">
         <v>1.95</v>
       </c>
-      <c r="U12">
-        <v>1.85</v>
-      </c>
       <c r="V12">
-        <v>1.3</v>
+        <v>0.95</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1578,7 +1578,7 @@
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB12">
         <v>-1</v>
@@ -1589,7 +1589,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6927048</v>
+        <v>6927047</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -1598,76 +1598,76 @@
         <v>45156.60416666666</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J13">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="K13">
+        <v>3.2</v>
+      </c>
+      <c r="L13">
+        <v>3.6</v>
+      </c>
+      <c r="M13">
+        <v>2.3</v>
+      </c>
+      <c r="N13">
         <v>3.1</v>
       </c>
-      <c r="L13">
-        <v>2.875</v>
-      </c>
-      <c r="M13">
-        <v>1.909</v>
-      </c>
-      <c r="N13">
-        <v>3.2</v>
-      </c>
       <c r="O13">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P13">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q13">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R13">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
         <v>2.25</v>
       </c>
       <c r="T13">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V13">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W13">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB13">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1675,7 +1675,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6927293</v>
+        <v>6927048</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -1684,76 +1684,76 @@
         <v>45156.60416666666</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J14">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="K14">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L14">
+        <v>2.875</v>
+      </c>
+      <c r="M14">
+        <v>1.909</v>
+      </c>
+      <c r="N14">
+        <v>3.2</v>
+      </c>
+      <c r="O14">
+        <v>3.6</v>
+      </c>
+      <c r="P14">
+        <v>-0.5</v>
+      </c>
+      <c r="Q14">
+        <v>1.95</v>
+      </c>
+      <c r="R14">
+        <v>1.85</v>
+      </c>
+      <c r="S14">
+        <v>2.25</v>
+      </c>
+      <c r="T14">
         <v>1.8</v>
       </c>
-      <c r="M14">
-        <v>4</v>
-      </c>
-      <c r="N14">
-        <v>3</v>
-      </c>
-      <c r="O14">
-        <v>1.85</v>
-      </c>
-      <c r="P14">
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <v>-1</v>
+      </c>
+      <c r="W14">
+        <v>2.2</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
+        <v>-1</v>
+      </c>
+      <c r="Z14">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA14">
+        <v>-0.5</v>
+      </c>
+      <c r="AB14">
         <v>0.5</v>
-      </c>
-      <c r="Q14">
-        <v>1.875</v>
-      </c>
-      <c r="R14">
-        <v>1.925</v>
-      </c>
-      <c r="S14">
-        <v>2</v>
-      </c>
-      <c r="T14">
-        <v>1.9</v>
-      </c>
-      <c r="U14">
-        <v>1.9</v>
-      </c>
-      <c r="V14">
-        <v>3</v>
-      </c>
-      <c r="W14">
-        <v>-1</v>
-      </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
-      <c r="Y14">
-        <v>0.875</v>
-      </c>
-      <c r="Z14">
-        <v>-1</v>
-      </c>
-      <c r="AA14">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB14">
-        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6926920</v>
+        <v>6927293</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -1770,73 +1770,73 @@
         <v>45156.60416666666</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J15">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="K15">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L15">
+        <v>1.8</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
         <v>3</v>
       </c>
-      <c r="M15">
-        <v>1.8</v>
-      </c>
-      <c r="N15">
-        <v>3.4</v>
-      </c>
       <c r="O15">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="P15">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q15">
+        <v>1.875</v>
+      </c>
+      <c r="R15">
+        <v>1.925</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
         <v>1.9</v>
       </c>
-      <c r="R15">
+      <c r="U15">
         <v>1.9</v>
       </c>
-      <c r="S15">
-        <v>2.25</v>
-      </c>
-      <c r="T15">
-        <v>1.8</v>
-      </c>
-      <c r="U15">
-        <v>2</v>
-      </c>
       <c r="V15">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="W15">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z15">
+        <v>-1</v>
+      </c>
+      <c r="AA15">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA15">
-        <v>0.8</v>
       </c>
       <c r="AB15">
         <v>-1</v>
@@ -2535,7 +2535,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6927295</v>
+        <v>6927051</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
@@ -2544,16 +2544,16 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="s">
         <v>56</v>
@@ -2568,52 +2568,52 @@
         <v>3</v>
       </c>
       <c r="M24">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="N24">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="P24">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q24">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="R24">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S24">
+        <v>2.5</v>
+      </c>
+      <c r="T24">
+        <v>1.925</v>
+      </c>
+      <c r="U24">
+        <v>1.875</v>
+      </c>
+      <c r="V24">
+        <v>-1</v>
+      </c>
+      <c r="W24">
         <v>2.25</v>
       </c>
-      <c r="T24">
-        <v>1.85</v>
-      </c>
-      <c r="U24">
-        <v>1.95</v>
-      </c>
-      <c r="V24">
-        <v>-1</v>
-      </c>
-      <c r="W24">
-        <v>2.2</v>
-      </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
+        <v>0.375</v>
+      </c>
+      <c r="Z24">
         <v>-0.5</v>
       </c>
-      <c r="Z24">
-        <v>0.4875</v>
-      </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2621,7 +2621,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6927051</v>
+        <v>6927295</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
@@ -2630,16 +2630,16 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="s">
         <v>56</v>
@@ -2654,52 +2654,52 @@
         <v>3</v>
       </c>
       <c r="M25">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="N25">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O25">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="P25">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q25">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="R25">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S25">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T25">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U25">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V25">
         <v>-1</v>
       </c>
       <c r="W25">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>0.375</v>
+        <v>-0.5</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -3051,7 +3051,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7101727</v>
+        <v>6927054</v>
       </c>
       <c r="C30" t="s">
         <v>36</v>
@@ -3060,76 +3060,76 @@
         <v>45170.60416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30">
+        <v>2.05</v>
+      </c>
+      <c r="K30">
+        <v>3.25</v>
+      </c>
+      <c r="L30">
+        <v>3.4</v>
+      </c>
+      <c r="M30">
         <v>3</v>
       </c>
-      <c r="I30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J30">
-        <v>2.2</v>
-      </c>
-      <c r="K30">
-        <v>3.3</v>
-      </c>
-      <c r="L30">
-        <v>2.8</v>
-      </c>
-      <c r="M30">
-        <v>2.25</v>
-      </c>
       <c r="N30">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O30">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="P30">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q30">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="R30">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S30">
         <v>2.25</v>
       </c>
       <c r="T30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V30">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z30">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3137,7 +3137,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6927054</v>
+        <v>6927055</v>
       </c>
       <c r="C31" t="s">
         <v>36</v>
@@ -3146,10 +3146,10 @@
         <v>45170.60416666666</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3161,43 +3161,43 @@
         <v>57</v>
       </c>
       <c r="J31">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K31">
         <v>3.25</v>
       </c>
       <c r="L31">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="N31">
+        <v>3.3</v>
+      </c>
+      <c r="O31">
         <v>3.1</v>
       </c>
-      <c r="O31">
-        <v>2.3</v>
-      </c>
       <c r="P31">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q31">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S31">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U31">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1.15</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3206,16 +3206,16 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3223,7 +3223,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6927055</v>
+        <v>6927057</v>
       </c>
       <c r="C32" t="s">
         <v>36</v>
@@ -3232,49 +3232,49 @@
         <v>45170.60416666666</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G32">
         <v>2</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="s">
         <v>57</v>
       </c>
       <c r="J32">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="K32">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L32">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="M32">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N32">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O32">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P32">
         <v>-0.25</v>
       </c>
       <c r="Q32">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R32">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T32">
         <v>1.95</v>
@@ -3283,7 +3283,7 @@
         <v>1.85</v>
       </c>
       <c r="V32">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="W32">
         <v>-1</v>
@@ -3292,16 +3292,16 @@
         <v>-1</v>
       </c>
       <c r="Y32">
+        <v>0.875</v>
+      </c>
+      <c r="Z32">
+        <v>-1</v>
+      </c>
+      <c r="AA32">
         <v>0.95</v>
       </c>
-      <c r="Z32">
-        <v>-1</v>
-      </c>
-      <c r="AA32">
-        <v>-1</v>
-      </c>
       <c r="AB32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3309,7 +3309,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6927057</v>
+        <v>7101727</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
@@ -3318,73 +3318,73 @@
         <v>45170.60416666666</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J33">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="K33">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L33">
+        <v>2.8</v>
+      </c>
+      <c r="M33">
+        <v>2.25</v>
+      </c>
+      <c r="N33">
+        <v>3.3</v>
+      </c>
+      <c r="O33">
         <v>2.7</v>
-      </c>
-      <c r="M33">
-        <v>2.2</v>
-      </c>
-      <c r="N33">
-        <v>3.1</v>
-      </c>
-      <c r="O33">
-        <v>3.2</v>
       </c>
       <c r="P33">
         <v>-0.25</v>
       </c>
       <c r="Q33">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="R33">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S33">
         <v>2.25</v>
       </c>
       <c r="T33">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U33">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V33">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y33">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA33">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB33">
         <v>-1</v>
@@ -4513,7 +4513,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6927065</v>
+        <v>6927303</v>
       </c>
       <c r="C47" t="s">
         <v>36</v>
@@ -4522,76 +4522,76 @@
         <v>45184.60416666666</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J47">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="K47">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="M47">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="N47">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O47">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="P47">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R47">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S47">
         <v>2.5</v>
       </c>
       <c r="T47">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U47">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V47">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -4599,7 +4599,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6927303</v>
+        <v>6927302</v>
       </c>
       <c r="C48" t="s">
         <v>36</v>
@@ -4608,37 +4608,37 @@
         <v>45184.60416666666</v>
       </c>
       <c r="E48" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J48">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="K48">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="L48">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="M48">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="N48">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="O48">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -4650,34 +4650,34 @@
         <v>2</v>
       </c>
       <c r="S48">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T48">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V48">
         <v>-1</v>
       </c>
       <c r="W48">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB48">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -4685,7 +4685,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6927302</v>
+        <v>6927063</v>
       </c>
       <c r="C49" t="s">
         <v>36</v>
@@ -4694,73 +4694,73 @@
         <v>45184.60416666666</v>
       </c>
       <c r="E49" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J49">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="K49">
         <v>2.875</v>
       </c>
       <c r="L49">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="M49">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="N49">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="O49">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q49">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="R49">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S49">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T49">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U49">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z49">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB49">
         <v>-1</v>
@@ -4771,7 +4771,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6927063</v>
+        <v>6927064</v>
       </c>
       <c r="C50" t="s">
         <v>36</v>
@@ -4780,76 +4780,76 @@
         <v>45184.60416666666</v>
       </c>
       <c r="E50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J50">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="K50">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L50">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N50">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P50">
         <v>-0.5</v>
       </c>
       <c r="Q50">
+        <v>1.9</v>
+      </c>
+      <c r="R50">
+        <v>1.9</v>
+      </c>
+      <c r="S50">
+        <v>2.5</v>
+      </c>
+      <c r="T50">
         <v>2.025</v>
       </c>
-      <c r="R50">
+      <c r="U50">
         <v>1.775</v>
       </c>
-      <c r="S50">
-        <v>2</v>
-      </c>
-      <c r="T50">
-        <v>1.775</v>
-      </c>
-      <c r="U50">
-        <v>2.025</v>
-      </c>
       <c r="V50">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA50">
+        <v>-1</v>
+      </c>
+      <c r="AB50">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB50">
-        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -4857,7 +4857,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6927064</v>
+        <v>6927301</v>
       </c>
       <c r="C51" t="s">
         <v>36</v>
@@ -4866,34 +4866,34 @@
         <v>45184.60416666666</v>
       </c>
       <c r="E51" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J51">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="K51">
+        <v>3.5</v>
+      </c>
+      <c r="L51">
+        <v>5.25</v>
+      </c>
+      <c r="M51">
+        <v>1.95</v>
+      </c>
+      <c r="N51">
         <v>3</v>
-      </c>
-      <c r="L51">
-        <v>4</v>
-      </c>
-      <c r="M51">
-        <v>1.909</v>
-      </c>
-      <c r="N51">
-        <v>3.1</v>
       </c>
       <c r="O51">
         <v>3.8</v>
@@ -4902,40 +4902,40 @@
         <v>-0.5</v>
       </c>
       <c r="Q51">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R51">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S51">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T51">
+        <v>1.775</v>
+      </c>
+      <c r="U51">
         <v>2.025</v>
       </c>
-      <c r="U51">
-        <v>1.775</v>
-      </c>
       <c r="V51">
         <v>-1</v>
       </c>
       <c r="W51">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -4943,7 +4943,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6927301</v>
+        <v>6927065</v>
       </c>
       <c r="C52" t="s">
         <v>36</v>
@@ -4952,37 +4952,37 @@
         <v>45184.60416666666</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J52">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="K52">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L52">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="M52">
         <v>1.95</v>
       </c>
       <c r="N52">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O52">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P52">
         <v>-0.5</v>
@@ -4994,34 +4994,34 @@
         <v>1.8</v>
       </c>
       <c r="S52">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T52">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="U52">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z52">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB52">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -5115,7 +5115,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6927886</v>
+        <v>6927068</v>
       </c>
       <c r="C54" t="s">
         <v>36</v>
@@ -5124,40 +5124,40 @@
         <v>45191.60416666666</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J54">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="L54">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="M54">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="N54">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O54">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q54">
         <v>1.8</v>
@@ -5169,31 +5169,31 @@
         <v>2.25</v>
       </c>
       <c r="T54">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y54">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5545,7 +5545,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6927068</v>
+        <v>6927886</v>
       </c>
       <c r="C59" t="s">
         <v>36</v>
@@ -5554,40 +5554,40 @@
         <v>45191.60416666666</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J59">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="K59">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="L59">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="M59">
-        <v>1.571</v>
+        <v>2.45</v>
       </c>
       <c r="N59">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O59">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="P59">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q59">
         <v>1.8</v>
@@ -5599,31 +5599,31 @@
         <v>2.25</v>
       </c>
       <c r="T59">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U59">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5889,7 +5889,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7101731</v>
+        <v>6927307</v>
       </c>
       <c r="C63" t="s">
         <v>36</v>
@@ -5898,28 +5898,28 @@
         <v>45198.60416666666</v>
       </c>
       <c r="E63" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F63" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J63">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="K63">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L63">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="M63">
         <v>2</v>
@@ -5928,46 +5928,46 @@
         <v>3.2</v>
       </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P63">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q63">
+        <v>1.725</v>
+      </c>
+      <c r="R63">
         <v>1.975</v>
-      </c>
-      <c r="R63">
-        <v>1.825</v>
       </c>
       <c r="S63">
         <v>2.25</v>
       </c>
       <c r="T63">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U63">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA63">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -5975,7 +5975,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6927069</v>
+        <v>7101731</v>
       </c>
       <c r="C64" t="s">
         <v>36</v>
@@ -5984,58 +5984,58 @@
         <v>45198.60416666666</v>
       </c>
       <c r="E64" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F64" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="s">
         <v>57</v>
       </c>
       <c r="J64">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="K64">
         <v>3.1</v>
       </c>
       <c r="L64">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="M64">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="N64">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O64">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="P64">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q64">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="R64">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S64">
         <v>2.25</v>
       </c>
       <c r="T64">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="U64">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V64">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="W64">
         <v>-1</v>
@@ -6044,13 +6044,13 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AB64">
         <v>-1</v>
@@ -6061,7 +6061,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6927070</v>
+        <v>6927069</v>
       </c>
       <c r="C65" t="s">
         <v>36</v>
@@ -6070,76 +6070,76 @@
         <v>45198.60416666666</v>
       </c>
       <c r="E65" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J65">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K65">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L65">
         <v>3</v>
       </c>
       <c r="M65">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="N65">
         <v>3.1</v>
       </c>
       <c r="O65">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="P65">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q65">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="R65">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S65">
         <v>2.25</v>
       </c>
       <c r="T65">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="U65">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V65">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="W65">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Z65">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB65">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6147,7 +6147,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6927071</v>
+        <v>6927070</v>
       </c>
       <c r="C66" t="s">
         <v>36</v>
@@ -6156,76 +6156,76 @@
         <v>45198.60416666666</v>
       </c>
       <c r="E66" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F66" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J66">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="K66">
         <v>3.25</v>
       </c>
       <c r="L66">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M66">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N66">
         <v>3.1</v>
       </c>
       <c r="O66">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="P66">
         <v>-0.25</v>
       </c>
       <c r="Q66">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R66">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S66">
         <v>2.25</v>
       </c>
       <c r="T66">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U66">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V66">
         <v>-1</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X66">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z66">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="AA66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -6233,7 +6233,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6927309</v>
+        <v>6927071</v>
       </c>
       <c r="C67" t="s">
         <v>36</v>
@@ -6242,76 +6242,76 @@
         <v>45198.60416666666</v>
       </c>
       <c r="E67" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J67">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="K67">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L67">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M67">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N67">
         <v>3.1</v>
       </c>
       <c r="O67">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="P67">
         <v>-0.25</v>
       </c>
       <c r="Q67">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="R67">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S67">
         <v>2.25</v>
       </c>
       <c r="T67">
+        <v>1.975</v>
+      </c>
+      <c r="U67">
         <v>1.825</v>
       </c>
-      <c r="U67">
-        <v>1.975</v>
-      </c>
       <c r="V67">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y67">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA67">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -6319,7 +6319,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6927308</v>
+        <v>6927309</v>
       </c>
       <c r="C68" t="s">
         <v>36</v>
@@ -6328,13 +6328,13 @@
         <v>45198.60416666666</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6343,19 +6343,19 @@
         <v>57</v>
       </c>
       <c r="J68">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K68">
         <v>3.1</v>
       </c>
       <c r="L68">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M68">
         <v>2</v>
       </c>
       <c r="N68">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O68">
         <v>3.4</v>
@@ -6364,20 +6364,20 @@
         <v>-0.25</v>
       </c>
       <c r="Q68">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S68">
         <v>2.25</v>
       </c>
       <c r="T68">
+        <v>1.825</v>
+      </c>
+      <c r="U68">
         <v>1.975</v>
       </c>
-      <c r="U68">
-        <v>1.825</v>
-      </c>
       <c r="V68">
         <v>1</v>
       </c>
@@ -6388,16 +6388,16 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0.7250000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB68">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6405,7 +6405,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6927307</v>
+        <v>6927308</v>
       </c>
       <c r="C69" t="s">
         <v>36</v>
@@ -6414,28 +6414,28 @@
         <v>45198.60416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F69" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J69">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="K69">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L69">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M69">
         <v>2</v>
@@ -6444,7 +6444,7 @@
         <v>3.2</v>
       </c>
       <c r="O69">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P69">
         <v>-0.25</v>
@@ -6459,31 +6459,31 @@
         <v>2.25</v>
       </c>
       <c r="T69">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U69">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V69">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W69">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z69">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
         <v>-0.5</v>
       </c>
       <c r="AB69">
-        <v>0.475</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6835,7 +6835,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6927072</v>
+        <v>6927073</v>
       </c>
       <c r="C74" t="s">
         <v>36</v>
@@ -6844,76 +6844,76 @@
         <v>45205.60416666666</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J74">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K74">
         <v>3</v>
       </c>
       <c r="L74">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="M74">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="N74">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O74">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="P74">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q74">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="R74">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
         <v>2.25</v>
       </c>
       <c r="T74">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="U74">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V74">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -6921,7 +6921,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6927073</v>
+        <v>6927074</v>
       </c>
       <c r="C75" t="s">
         <v>36</v>
@@ -6930,76 +6930,76 @@
         <v>45205.60416666666</v>
       </c>
       <c r="E75" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F75" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J75">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="K75">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L75">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="M75">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="N75">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O75">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="P75">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q75">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S75">
         <v>2.25</v>
       </c>
       <c r="T75">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U75">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W75">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.475</v>
+        <v>1.05</v>
       </c>
       <c r="Z75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -7007,7 +7007,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6927074</v>
+        <v>6927075</v>
       </c>
       <c r="C76" t="s">
         <v>36</v>
@@ -7016,76 +7016,76 @@
         <v>45205.60416666666</v>
       </c>
       <c r="E76" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J76">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="K76">
         <v>3.25</v>
       </c>
       <c r="L76">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="M76">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="N76">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O76">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="P76">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q76">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="R76">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
         <v>2.25</v>
       </c>
       <c r="T76">
+        <v>1.85</v>
+      </c>
+      <c r="U76">
         <v>1.95</v>
       </c>
-      <c r="U76">
-        <v>1.85</v>
-      </c>
       <c r="V76">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA76">
+        <v>-1</v>
+      </c>
+      <c r="AB76">
         <v>0.95</v>
-      </c>
-      <c r="AB76">
-        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7093,7 +7093,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6927075</v>
+        <v>6927310</v>
       </c>
       <c r="C77" t="s">
         <v>36</v>
@@ -7102,40 +7102,40 @@
         <v>45205.60416666666</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J77">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="K77">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L77">
+        <v>3.2</v>
+      </c>
+      <c r="M77">
+        <v>1.85</v>
+      </c>
+      <c r="N77">
         <v>3.4</v>
       </c>
-      <c r="M77">
-        <v>1.5</v>
-      </c>
-      <c r="N77">
-        <v>3.6</v>
-      </c>
       <c r="O77">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q77">
         <v>1.875</v>
@@ -7144,34 +7144,34 @@
         <v>1.925</v>
       </c>
       <c r="S77">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T77">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W77">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z77">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7179,7 +7179,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6927310</v>
+        <v>6926924</v>
       </c>
       <c r="C78" t="s">
         <v>36</v>
@@ -7188,13 +7188,13 @@
         <v>45205.60416666666</v>
       </c>
       <c r="E78" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F78" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7203,43 +7203,43 @@
         <v>57</v>
       </c>
       <c r="J78">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="K78">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L78">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="M78">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="N78">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O78">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="P78">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="R78">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S78">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T78">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U78">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V78">
-        <v>0.8500000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7248,7 +7248,7 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="Z78">
         <v>-1</v>
@@ -7257,7 +7257,7 @@
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7265,7 +7265,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6926924</v>
+        <v>6927072</v>
       </c>
       <c r="C79" t="s">
         <v>36</v>
@@ -7274,10 +7274,10 @@
         <v>45205.60416666666</v>
       </c>
       <c r="E79" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7289,43 +7289,43 @@
         <v>57</v>
       </c>
       <c r="J79">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K79">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L79">
         <v>2.6</v>
       </c>
       <c r="M79">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N79">
         <v>3</v>
       </c>
       <c r="O79">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P79">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q79">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="R79">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S79">
         <v>2.25</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U79">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V79">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7334,7 +7334,7 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="Z79">
         <v>-1</v>
@@ -7343,7 +7343,7 @@
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -8383,7 +8383,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6927083</v>
+        <v>6927315</v>
       </c>
       <c r="C92" t="s">
         <v>36</v>
@@ -8392,10 +8392,10 @@
         <v>45219.60416666666</v>
       </c>
       <c r="E92" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F92" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8407,25 +8407,25 @@
         <v>56</v>
       </c>
       <c r="J92">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="K92">
         <v>3.3</v>
       </c>
       <c r="L92">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M92">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="N92">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O92">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P92">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q92">
         <v>2</v>
@@ -8437,16 +8437,16 @@
         <v>2.25</v>
       </c>
       <c r="T92">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U92">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V92">
         <v>-1</v>
       </c>
       <c r="W92">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8461,7 +8461,7 @@
         <v>-0.5</v>
       </c>
       <c r="AB92">
-        <v>0.4</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -8469,7 +8469,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7101734</v>
+        <v>6927083</v>
       </c>
       <c r="C93" t="s">
         <v>36</v>
@@ -8478,76 +8478,76 @@
         <v>45219.60416666666</v>
       </c>
       <c r="E93" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F93" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I93" t="s">
         <v>56</v>
       </c>
       <c r="J93">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="K93">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L93">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="M93">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="N93">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O93">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P93">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q93">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R93">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
         <v>2.25</v>
       </c>
       <c r="T93">
+        <v>2</v>
+      </c>
+      <c r="U93">
         <v>1.8</v>
       </c>
-      <c r="U93">
-        <v>2</v>
-      </c>
       <c r="V93">
         <v>-1</v>
       </c>
       <c r="W93">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
+        <v>-1</v>
+      </c>
+      <c r="Z93">
+        <v>0.8</v>
+      </c>
+      <c r="AA93">
         <v>-0.5</v>
       </c>
-      <c r="Z93">
-        <v>0.4625</v>
-      </c>
-      <c r="AA93">
-        <v>0.8</v>
-      </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -8555,7 +8555,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6927885</v>
+        <v>7101734</v>
       </c>
       <c r="C94" t="s">
         <v>36</v>
@@ -8564,76 +8564,76 @@
         <v>45219.60416666666</v>
       </c>
       <c r="E94" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J94">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="K94">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L94">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="M94">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="N94">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O94">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="P94">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q94">
+        <v>1.875</v>
+      </c>
+      <c r="R94">
+        <v>1.925</v>
+      </c>
+      <c r="S94">
+        <v>2.25</v>
+      </c>
+      <c r="T94">
         <v>1.8</v>
       </c>
-      <c r="R94">
-        <v>2</v>
-      </c>
-      <c r="S94">
-        <v>2</v>
-      </c>
-      <c r="T94">
-        <v>1.725</v>
-      </c>
       <c r="U94">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V94">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
+        <v>-0.5</v>
+      </c>
+      <c r="Z94">
+        <v>0.4625</v>
+      </c>
+      <c r="AA94">
         <v>0.8</v>
       </c>
-      <c r="Z94">
-        <v>-1</v>
-      </c>
-      <c r="AA94">
-        <v>-1</v>
-      </c>
       <c r="AB94">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8641,7 +8641,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6927315</v>
+        <v>6927885</v>
       </c>
       <c r="C95" t="s">
         <v>36</v>
@@ -8650,76 +8650,76 @@
         <v>45219.60416666666</v>
       </c>
       <c r="E95" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G95">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J95">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="K95">
+        <v>3.25</v>
+      </c>
+      <c r="L95">
         <v>3.3</v>
       </c>
-      <c r="L95">
-        <v>4.333</v>
-      </c>
       <c r="M95">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="N95">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O95">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="P95">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S95">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T95">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="U95">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W95">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8727,7 +8727,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6927314</v>
+        <v>6927082</v>
       </c>
       <c r="C96" t="s">
         <v>36</v>
@@ -8736,76 +8736,76 @@
         <v>45219.60416666666</v>
       </c>
       <c r="E96" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J96">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="K96">
         <v>3.4</v>
       </c>
       <c r="L96">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="M96">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="N96">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O96">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="P96">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q96">
+        <v>2.05</v>
+      </c>
+      <c r="R96">
         <v>1.75</v>
       </c>
-      <c r="R96">
-        <v>2.05</v>
-      </c>
       <c r="S96">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T96">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
         <v>-1</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z96">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -8813,7 +8813,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6927082</v>
+        <v>6927314</v>
       </c>
       <c r="C97" t="s">
         <v>36</v>
@@ -8822,76 +8822,76 @@
         <v>45219.60416666666</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F97" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J97">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="K97">
         <v>3.4</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="M97">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="N97">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O97">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="P97">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q97">
+        <v>1.75</v>
+      </c>
+      <c r="R97">
         <v>2.05</v>
       </c>
-      <c r="R97">
-        <v>1.75</v>
-      </c>
       <c r="S97">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T97">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
         <v>-1</v>
       </c>
       <c r="W97">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB97">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:28">
@@ -11995,7 +11995,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6927281</v>
+        <v>6926928</v>
       </c>
       <c r="C134" t="s">
         <v>36</v>
@@ -12004,76 +12004,76 @@
         <v>45275.64583333334</v>
       </c>
       <c r="E134" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J134">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="K134">
         <v>3</v>
       </c>
       <c r="L134">
+        <v>3.6</v>
+      </c>
+      <c r="M134">
+        <v>1.909</v>
+      </c>
+      <c r="N134">
         <v>3.2</v>
       </c>
-      <c r="M134">
-        <v>2.1</v>
-      </c>
-      <c r="N134">
-        <v>3</v>
-      </c>
       <c r="O134">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P134">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q134">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R134">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S134">
         <v>2.25</v>
       </c>
       <c r="T134">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U134">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V134">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W134">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z134">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="135" spans="1:28">
@@ -12081,7 +12081,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6926928</v>
+        <v>6927101</v>
       </c>
       <c r="C135" t="s">
         <v>36</v>
@@ -12090,10 +12090,10 @@
         <v>45275.64583333334</v>
       </c>
       <c r="E135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F135" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12105,43 +12105,43 @@
         <v>57</v>
       </c>
       <c r="J135">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="K135">
         <v>3</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="M135">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="N135">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O135">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="P135">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q135">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R135">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S135">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T135">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U135">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V135">
-        <v>0.909</v>
+        <v>3.333</v>
       </c>
       <c r="W135">
         <v>-1</v>
@@ -12150,7 +12150,7 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z135">
         <v>-1</v>
@@ -12159,7 +12159,7 @@
         <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="136" spans="1:28">
@@ -12167,7 +12167,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6927101</v>
+        <v>6927281</v>
       </c>
       <c r="C136" t="s">
         <v>36</v>
@@ -12176,40 +12176,40 @@
         <v>45275.64583333334</v>
       </c>
       <c r="E136" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F136" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J136">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="K136">
         <v>3</v>
       </c>
       <c r="L136">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="M136">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N136">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O136">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="P136">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q136">
         <v>1.9</v>
@@ -12218,7 +12218,7 @@
         <v>1.9</v>
       </c>
       <c r="S136">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T136">
         <v>2</v>
@@ -12227,25 +12227,25 @@
         <v>1.8</v>
       </c>
       <c r="V136">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB136">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12855,7 +12855,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6927333</v>
+        <v>6926929</v>
       </c>
       <c r="C144" t="s">
         <v>36</v>
@@ -12864,76 +12864,76 @@
         <v>45303.64583333334</v>
       </c>
       <c r="E144" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H144">
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J144">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="K144">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L144">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="M144">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="N144">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O144">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P144">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q144">
+        <v>1.975</v>
+      </c>
+      <c r="R144">
         <v>1.825</v>
       </c>
-      <c r="R144">
-        <v>1.975</v>
-      </c>
       <c r="S144">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T144">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U144">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y144">
+        <v>-1</v>
+      </c>
+      <c r="Z144">
         <v>0.825</v>
       </c>
-      <c r="Z144">
-        <v>-1</v>
-      </c>
       <c r="AA144">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -12941,7 +12941,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6927331</v>
+        <v>6927333</v>
       </c>
       <c r="C145" t="s">
         <v>36</v>
@@ -12950,16 +12950,16 @@
         <v>45303.64583333334</v>
       </c>
       <c r="E145" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="s">
         <v>57</v>
@@ -12974,34 +12974,34 @@
         <v>4.333</v>
       </c>
       <c r="M145">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="N145">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O145">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q145">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R145">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S145">
         <v>2.5</v>
       </c>
       <c r="T145">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V145">
-        <v>0.615</v>
+        <v>0.8</v>
       </c>
       <c r="W145">
         <v>-1</v>
@@ -13010,16 +13010,16 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="Z145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -13027,7 +13027,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6926929</v>
+        <v>6927331</v>
       </c>
       <c r="C146" t="s">
         <v>36</v>
@@ -13036,49 +13036,49 @@
         <v>45303.64583333334</v>
       </c>
       <c r="E146" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J146">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="K146">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L146">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="M146">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="N146">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O146">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P146">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q146">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R146">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S146">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T146">
         <v>1.9</v>
@@ -13087,19 +13087,19 @@
         <v>1.9</v>
       </c>
       <c r="V146">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z146">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA146">
         <v>-1</v>
@@ -13113,7 +13113,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6927106</v>
+        <v>6927330</v>
       </c>
       <c r="C147" t="s">
         <v>36</v>
@@ -13122,13 +13122,13 @@
         <v>45303.64583333334</v>
       </c>
       <c r="E147" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -13137,34 +13137,34 @@
         <v>57</v>
       </c>
       <c r="J147">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="K147">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="L147">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="M147">
-        <v>1.55</v>
+        <v>2.7</v>
       </c>
       <c r="N147">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="O147">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="P147">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q147">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R147">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S147">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T147">
         <v>1.8</v>
@@ -13173,7 +13173,7 @@
         <v>2</v>
       </c>
       <c r="V147">
-        <v>0.55</v>
+        <v>1.7</v>
       </c>
       <c r="W147">
         <v>-1</v>
@@ -13182,16 +13182,16 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:28">
@@ -13199,7 +13199,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6927330</v>
+        <v>6927106</v>
       </c>
       <c r="C148" t="s">
         <v>36</v>
@@ -13208,13 +13208,13 @@
         <v>45303.64583333334</v>
       </c>
       <c r="E148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F148" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13223,34 +13223,34 @@
         <v>57</v>
       </c>
       <c r="J148">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="K148">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="L148">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="M148">
-        <v>2.7</v>
+        <v>1.55</v>
       </c>
       <c r="N148">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="O148">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="P148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q148">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R148">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S148">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T148">
         <v>1.8</v>
@@ -13259,7 +13259,7 @@
         <v>2</v>
       </c>
       <c r="V148">
-        <v>1.7</v>
+        <v>0.55</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13268,16 +13268,16 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -13887,7 +13887,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7679827</v>
+        <v>7716254</v>
       </c>
       <c r="C156" t="s">
         <v>36</v>
@@ -13896,37 +13896,37 @@
         <v>45317.64583333334</v>
       </c>
       <c r="E156" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F156" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J156">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K156">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L156">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="M156">
+        <v>2.9</v>
+      </c>
+      <c r="N156">
         <v>3.2</v>
       </c>
-      <c r="N156">
-        <v>3</v>
-      </c>
       <c r="O156">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P156">
         <v>0.25</v>
@@ -13938,34 +13938,34 @@
         <v>2</v>
       </c>
       <c r="S156">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T156">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U156">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V156">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y156">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA156">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB156">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:28">
@@ -13973,7 +13973,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7695781</v>
+        <v>7679827</v>
       </c>
       <c r="C157" t="s">
         <v>36</v>
@@ -13982,58 +13982,58 @@
         <v>45317.64583333334</v>
       </c>
       <c r="E157" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F157" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G157">
         <v>2</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="s">
         <v>57</v>
       </c>
       <c r="J157">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="K157">
         <v>3.4</v>
       </c>
       <c r="L157">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="M157">
+        <v>3.2</v>
+      </c>
+      <c r="N157">
+        <v>3</v>
+      </c>
+      <c r="O157">
         <v>2.2</v>
       </c>
-      <c r="N157">
-        <v>3.2</v>
-      </c>
-      <c r="O157">
-        <v>3.1</v>
-      </c>
       <c r="P157">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q157">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R157">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S157">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T157">
+        <v>1.85</v>
+      </c>
+      <c r="U157">
         <v>1.95</v>
       </c>
-      <c r="U157">
-        <v>1.85</v>
-      </c>
       <c r="V157">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="W157">
         <v>-1</v>
@@ -14042,16 +14042,16 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -14231,7 +14231,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7716254</v>
+        <v>7695781</v>
       </c>
       <c r="C160" t="s">
         <v>36</v>
@@ -14240,73 +14240,73 @@
         <v>45317.64583333334</v>
       </c>
       <c r="E160" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J160">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K160">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L160">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="M160">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="N160">
         <v>3.2</v>
       </c>
       <c r="O160">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="P160">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q160">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R160">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S160">
         <v>2.25</v>
       </c>
       <c r="T160">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U160">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V160">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z160">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB160">
         <v>-1</v>
@@ -21885,7 +21885,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6927149</v>
+        <v>6927147</v>
       </c>
       <c r="C249" t="s">
         <v>36</v>
@@ -21894,58 +21894,58 @@
         <v>45387.60416666666</v>
       </c>
       <c r="E249" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F249" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I249" t="s">
         <v>57</v>
       </c>
       <c r="J249">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="K249">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L249">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M249">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="N249">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O249">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P249">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q249">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R249">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S249">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T249">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U249">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V249">
-        <v>0.571</v>
+        <v>0.8</v>
       </c>
       <c r="W249">
         <v>-1</v>
@@ -21954,16 +21954,16 @@
         <v>-1</v>
       </c>
       <c r="Y249">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="Z249">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA249">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB249">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="250" spans="1:28">
@@ -21971,7 +21971,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6927147</v>
+        <v>6927149</v>
       </c>
       <c r="C250" t="s">
         <v>36</v>
@@ -21980,76 +21980,76 @@
         <v>45387.60416666666</v>
       </c>
       <c r="E250" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F250" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="s">
         <v>57</v>
       </c>
       <c r="J250">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="K250">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L250">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M250">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="N250">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O250">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P250">
+        <v>-0.75</v>
+      </c>
+      <c r="Q250">
+        <v>1.775</v>
+      </c>
+      <c r="R250">
+        <v>2.025</v>
+      </c>
+      <c r="S250">
+        <v>2.25</v>
+      </c>
+      <c r="T250">
+        <v>1.925</v>
+      </c>
+      <c r="U250">
+        <v>1.875</v>
+      </c>
+      <c r="V250">
+        <v>0.571</v>
+      </c>
+      <c r="W250">
+        <v>-1</v>
+      </c>
+      <c r="X250">
+        <v>-1</v>
+      </c>
+      <c r="Y250">
+        <v>0.3875</v>
+      </c>
+      <c r="Z250">
         <v>-0.5</v>
       </c>
-      <c r="Q250">
-        <v>1.8</v>
-      </c>
-      <c r="R250">
-        <v>2</v>
-      </c>
-      <c r="S250">
-        <v>2.5</v>
-      </c>
-      <c r="T250">
-        <v>1.9</v>
-      </c>
-      <c r="U250">
-        <v>1.9</v>
-      </c>
-      <c r="V250">
-        <v>0.8</v>
-      </c>
-      <c r="W250">
-        <v>-1</v>
-      </c>
-      <c r="X250">
-        <v>-1</v>
-      </c>
-      <c r="Y250">
-        <v>0.8</v>
-      </c>
-      <c r="Z250">
-        <v>-1</v>
-      </c>
       <c r="AA250">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB250">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="251" spans="1:28">
@@ -23605,7 +23605,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6927158</v>
+        <v>6927365</v>
       </c>
       <c r="C269" t="s">
         <v>36</v>
@@ -23614,76 +23614,76 @@
         <v>45401.60416666666</v>
       </c>
       <c r="E269" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F269" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G269">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J269">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="K269">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="L269">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="M269">
-        <v>1.571</v>
+        <v>3.1</v>
       </c>
       <c r="N269">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="O269">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="P269">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q269">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R269">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S269">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T269">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U269">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V269">
         <v>-1</v>
       </c>
       <c r="W269">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X269">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y269">
         <v>-1</v>
       </c>
       <c r="Z269">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA269">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB269">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="270" spans="1:28">
@@ -23691,7 +23691,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6927365</v>
+        <v>6927158</v>
       </c>
       <c r="C270" t="s">
         <v>36</v>
@@ -23700,76 +23700,76 @@
         <v>45401.60416666666</v>
       </c>
       <c r="E270" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F270" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G270">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I270" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J270">
-        <v>3</v>
+        <v>1.333</v>
       </c>
       <c r="K270">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="L270">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="M270">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="N270">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="O270">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="P270">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q270">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R270">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S270">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T270">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U270">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V270">
         <v>-1</v>
       </c>
       <c r="W270">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X270">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y270">
         <v>-1</v>
       </c>
       <c r="Z270">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA270">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB270">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:28">
@@ -24854,10 +24854,10 @@
         <v>2.25</v>
       </c>
       <c r="T283">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U283">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V283">
         <v>0</v>
@@ -24948,46 +24948,46 @@
         <v>45415.60416666666</v>
       </c>
       <c r="E285" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F285" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J285">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="K285">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L285">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M285">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="N285">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O285">
+        <v>4.75</v>
+      </c>
+      <c r="P285">
+        <v>-1</v>
+      </c>
+      <c r="Q285">
         <v>1.95</v>
       </c>
-      <c r="P285">
-        <v>0.5</v>
-      </c>
-      <c r="Q285">
-        <v>1.8</v>
-      </c>
       <c r="R285">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S285">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T285">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U285">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V285">
         <v>0</v>
@@ -25013,46 +25013,46 @@
         <v>45415.60416666666</v>
       </c>
       <c r="E286" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F286" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J286">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="K286">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L286">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="M286">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="N286">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O286">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="P286">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q286">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R286">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S286">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T286">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U286">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V286">
         <v>0</v>
@@ -25078,46 +25078,46 @@
         <v>45415.60416666666</v>
       </c>
       <c r="E287" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F287" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J287">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="K287">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L287">
+        <v>4.75</v>
+      </c>
+      <c r="M287">
+        <v>1.666</v>
+      </c>
+      <c r="N287">
         <v>3.5</v>
       </c>
-      <c r="M287">
-        <v>2.1</v>
-      </c>
-      <c r="N287">
-        <v>2.9</v>
-      </c>
       <c r="O287">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P287">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q287">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R287">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S287">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T287">
+        <v>1.975</v>
+      </c>
+      <c r="U287">
         <v>1.825</v>
-      </c>
-      <c r="U287">
-        <v>1.975</v>
       </c>
       <c r="V287">
         <v>0</v>
@@ -25143,46 +25143,46 @@
         <v>45415.60416666666</v>
       </c>
       <c r="E288" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F288" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J288">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="K288">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L288">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="M288">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="N288">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O288">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="P288">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q288">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R288">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S288">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T288">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U288">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V288">
         <v>0</v>
@@ -25208,37 +25208,37 @@
         <v>45415.60416666666</v>
       </c>
       <c r="E289" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F289" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J289">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="K289">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L289">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="M289">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="N289">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O289">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="P289">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q289">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R289">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S289">
         <v>2.5</v>
@@ -25353,13 +25353,13 @@
         <v>2.3</v>
       </c>
       <c r="M291">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N291">
         <v>3</v>
       </c>
       <c r="O291">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P291">
         <v>0.25</v>
@@ -25371,13 +25371,13 @@
         <v>2.025</v>
       </c>
       <c r="S291">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T291">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U291">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V291">
         <v>0</v>

--- a/France National/France National.xlsx
+++ b/France National/France National.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>7054880</t>
+  </si>
+  <si>
+    <t>7054878</t>
+  </si>
+  <si>
+    <t>7054883</t>
   </si>
   <si>
     <t>France National</t>
@@ -534,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB295"/>
+  <dimension ref="A1:AB297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,16 +637,16 @@
         <v>6927043</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
         <v>45149.60416666666</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -649,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J2">
         <v>1.8</v>
@@ -717,16 +723,16 @@
         <v>6926919</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2">
         <v>45149.60416666666</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -735,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J3">
         <v>2.25</v>
@@ -803,16 +809,16 @@
         <v>6927291</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>45149.60416666666</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -821,7 +827,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J4">
         <v>2.7</v>
@@ -889,16 +895,16 @@
         <v>6927290</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2">
         <v>45149.60416666666</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -907,7 +913,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J5">
         <v>2.1</v>
@@ -975,16 +981,16 @@
         <v>6927289</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2">
         <v>45149.60416666666</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -993,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J6">
         <v>2.25</v>
@@ -1061,16 +1067,16 @@
         <v>6927044</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2">
         <v>45149.60416666666</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1079,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J7">
         <v>2.2</v>
@@ -1147,16 +1153,16 @@
         <v>6927272</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2">
         <v>45149.60416666666</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1165,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J8">
         <v>1.9</v>
@@ -1233,16 +1239,16 @@
         <v>6927042</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
         <v>45152.5625</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1251,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J9">
         <v>2.3</v>
@@ -1319,16 +1325,16 @@
         <v>6927047</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>45156.60416666666</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1337,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J10">
         <v>1.909</v>
@@ -1405,16 +1411,16 @@
         <v>6926920</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2">
         <v>45156.60416666666</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1423,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J11">
         <v>2.1</v>
@@ -1491,17 +1497,17 @@
         <v>6927048</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2">
         <v>45156.60416666666</v>
       </c>
       <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
         <v>41</v>
       </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
       <c r="G12">
         <v>1</v>
       </c>
@@ -1509,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J12">
         <v>2.25</v>
@@ -1577,16 +1583,16 @@
         <v>6927292</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
         <v>45156.60416666666</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1595,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J13">
         <v>1.8</v>
@@ -1663,16 +1669,16 @@
         <v>6927293</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>45156.60416666666</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1681,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J14">
         <v>3.8</v>
@@ -1749,16 +1755,16 @@
         <v>6927294</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>45156.60416666666</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1767,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J15">
         <v>1.909</v>
@@ -1835,16 +1841,16 @@
         <v>6927045</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
         <v>45156.60416666666</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1853,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J16">
         <v>2.5</v>
@@ -1921,16 +1927,16 @@
         <v>6927046</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2">
         <v>45159.5625</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1939,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J17">
         <v>2.2</v>
@@ -2007,16 +2013,16 @@
         <v>6927273</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2">
         <v>45163.60416666666</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2025,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J18">
         <v>3.25</v>
@@ -2093,16 +2099,16 @@
         <v>6927053</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2">
         <v>45163.60416666666</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -2111,7 +2117,7 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J19">
         <v>1.85</v>
@@ -2179,16 +2185,16 @@
         <v>6927295</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
         <v>45163.60416666666</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2197,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J20">
         <v>2.1</v>
@@ -2265,16 +2271,16 @@
         <v>6927049</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2">
         <v>45163.60416666666</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2283,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J21">
         <v>2.55</v>
@@ -2351,16 +2357,16 @@
         <v>6926921</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2">
         <v>45163.60416666666</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2369,7 +2375,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J22">
         <v>2.15</v>
@@ -2437,16 +2443,16 @@
         <v>7095693</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2">
         <v>45163.60416666666</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2455,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J23">
         <v>1.85</v>
@@ -2523,16 +2529,16 @@
         <v>6927051</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2">
         <v>45163.60416666666</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2541,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J24">
         <v>2.1</v>
@@ -2609,16 +2615,16 @@
         <v>6927052</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2">
         <v>45163.60416666666</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2627,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J25">
         <v>1.75</v>
@@ -2695,16 +2701,16 @@
         <v>6927050</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2">
         <v>45166.66666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2713,7 +2719,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -2781,16 +2787,16 @@
         <v>6927054</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2">
         <v>45170.60416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -2799,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J27">
         <v>2.05</v>
@@ -2867,16 +2873,16 @@
         <v>6927298</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2">
         <v>45170.60416666666</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2885,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J28">
         <v>1.833</v>
@@ -2953,16 +2959,16 @@
         <v>6927057</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2">
         <v>45170.60416666666</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2971,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J29">
         <v>2.45</v>
@@ -3039,16 +3045,16 @@
         <v>6927296</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2">
         <v>45170.60416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3057,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J30">
         <v>2.05</v>
@@ -3125,16 +3131,16 @@
         <v>6927055</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2">
         <v>45170.60416666666</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3143,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J31">
         <v>1.95</v>
@@ -3211,16 +3217,16 @@
         <v>6927297</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2">
         <v>45170.60416666666</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3229,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J32">
         <v>1.85</v>
@@ -3297,16 +3303,16 @@
         <v>6927888</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2">
         <v>45170.60416666666</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3315,7 +3321,7 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J33">
         <v>2.2</v>
@@ -3383,16 +3389,16 @@
         <v>7101727</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2">
         <v>45170.60416666666</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3401,7 +3407,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J34">
         <v>2.2</v>
@@ -3469,16 +3475,16 @@
         <v>6927056</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2">
         <v>45173.66666666666</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3487,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J35">
         <v>2.8</v>
@@ -3555,16 +3561,16 @@
         <v>6927060</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2">
         <v>45177.60416666666</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3573,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J36">
         <v>1.727</v>
@@ -3641,16 +3647,16 @@
         <v>6927058</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2">
         <v>45177.60416666666</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3659,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J37">
         <v>2.8</v>
@@ -3727,17 +3733,17 @@
         <v>6926922</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2">
         <v>45177.60416666666</v>
       </c>
       <c r="E38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" t="s">
         <v>35</v>
       </c>
-      <c r="F38" t="s">
-        <v>33</v>
-      </c>
       <c r="G38">
         <v>1</v>
       </c>
@@ -3745,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J38">
         <v>2.8</v>
@@ -3813,16 +3819,16 @@
         <v>6927061</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2">
         <v>45177.60416666666</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3831,7 +3837,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J39">
         <v>2.1</v>
@@ -3899,16 +3905,16 @@
         <v>7101728</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2">
         <v>45177.60416666666</v>
       </c>
       <c r="E40" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3917,7 +3923,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J40">
         <v>2</v>
@@ -3985,16 +3991,16 @@
         <v>6927062</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2">
         <v>45177.60416666666</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -4003,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J41">
         <v>2.4</v>
@@ -4071,16 +4077,16 @@
         <v>6927300</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2">
         <v>45178.58333333334</v>
       </c>
       <c r="E42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4089,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J42">
         <v>2</v>
@@ -4157,16 +4163,16 @@
         <v>7169168</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2">
         <v>45180.60416666666</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4175,7 +4181,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J43">
         <v>1.909</v>
@@ -4243,16 +4249,16 @@
         <v>6927299</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2">
         <v>45180.66666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4261,7 +4267,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J44">
         <v>2.625</v>
@@ -4329,16 +4335,16 @@
         <v>6927065</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2">
         <v>45184.60416666666</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4347,7 +4353,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J45">
         <v>1.833</v>
@@ -4415,16 +4421,16 @@
         <v>6927301</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2">
         <v>45184.60416666666</v>
       </c>
       <c r="E46" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4433,7 +4439,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J46">
         <v>1.571</v>
@@ -4501,16 +4507,16 @@
         <v>6927064</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2">
         <v>45184.60416666666</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4519,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J47">
         <v>1.85</v>
@@ -4587,16 +4593,16 @@
         <v>6927274</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2">
         <v>45184.60416666666</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4605,7 +4611,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J48">
         <v>2.45</v>
@@ -4673,16 +4679,16 @@
         <v>7101729</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2">
         <v>45184.60416666666</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4691,7 +4697,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J49">
         <v>1.615</v>
@@ -4759,16 +4765,16 @@
         <v>6927303</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2">
         <v>45184.60416666666</v>
       </c>
       <c r="E50" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4777,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J50">
         <v>2.25</v>
@@ -4845,16 +4851,16 @@
         <v>6927063</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2">
         <v>45184.60416666666</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4863,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J51">
         <v>2.2</v>
@@ -4931,16 +4937,16 @@
         <v>6927302</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2">
         <v>45184.60416666666</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4949,7 +4955,7 @@
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J52">
         <v>3.2</v>
@@ -5017,16 +5023,16 @@
         <v>6927887</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2">
         <v>45187.55208333334</v>
       </c>
       <c r="E53" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5035,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J53">
         <v>2.45</v>
@@ -5103,16 +5109,16 @@
         <v>6927066</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2">
         <v>45191.60416666666</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5121,7 +5127,7 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J54">
         <v>3.1</v>
@@ -5189,16 +5195,16 @@
         <v>6927067</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2">
         <v>45191.60416666666</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5207,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J55">
         <v>3</v>
@@ -5275,16 +5281,16 @@
         <v>6927068</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2">
         <v>45191.60416666666</v>
       </c>
       <c r="E56" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5293,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J56">
         <v>1.727</v>
@@ -5361,16 +5367,16 @@
         <v>6927275</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2">
         <v>45191.60416666666</v>
       </c>
       <c r="E57" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5379,7 +5385,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J57">
         <v>2.375</v>
@@ -5447,16 +5453,16 @@
         <v>6927304</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2">
         <v>45191.60416666666</v>
       </c>
       <c r="E58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5465,7 +5471,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J58">
         <v>2.25</v>
@@ -5533,16 +5539,16 @@
         <v>6927305</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2">
         <v>45191.60416666666</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5551,7 +5557,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J59">
         <v>2.4</v>
@@ -5619,16 +5625,16 @@
         <v>6927306</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2">
         <v>45191.60416666666</v>
       </c>
       <c r="E60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -5637,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J60">
         <v>1.571</v>
@@ -5705,16 +5711,16 @@
         <v>6927886</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2">
         <v>45191.60416666666</v>
       </c>
       <c r="E61" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5723,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J61">
         <v>2.375</v>
@@ -5791,16 +5797,16 @@
         <v>7197905</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2">
         <v>45194.66666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -5809,7 +5815,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J62">
         <v>2.25</v>
@@ -5877,16 +5883,16 @@
         <v>6927308</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2">
         <v>45198.60416666666</v>
       </c>
       <c r="E63" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5895,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J63">
         <v>2.25</v>
@@ -5963,16 +5969,16 @@
         <v>6926923</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2">
         <v>45198.60416666666</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5981,7 +5987,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J64">
         <v>2.25</v>
@@ -6049,16 +6055,16 @@
         <v>7101731</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2">
         <v>45198.60416666666</v>
       </c>
       <c r="E65" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F65" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6067,7 +6073,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J65">
         <v>2.9</v>
@@ -6135,16 +6141,16 @@
         <v>6927069</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2">
         <v>45198.60416666666</v>
       </c>
       <c r="E66" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -6153,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J66">
         <v>2.2</v>
@@ -6221,16 +6227,16 @@
         <v>6927070</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D67" s="2">
         <v>45198.60416666666</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6239,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J67">
         <v>2.1</v>
@@ -6307,16 +6313,16 @@
         <v>6927071</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2">
         <v>45198.60416666666</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6325,7 +6331,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J68">
         <v>1.909</v>
@@ -6393,16 +6399,16 @@
         <v>6927309</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D69" s="2">
         <v>45198.60416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -6411,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J69">
         <v>2.2</v>
@@ -6479,16 +6485,16 @@
         <v>6927307</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D70" s="2">
         <v>45198.60416666666</v>
       </c>
       <c r="E70" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6497,7 +6503,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J70">
         <v>1.909</v>
@@ -6565,16 +6571,16 @@
         <v>7249744</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D71" s="2">
         <v>45201.5625</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F71" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6583,7 +6589,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J71">
         <v>3.25</v>
@@ -6651,16 +6657,16 @@
         <v>7267631</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D72" s="2">
         <v>45202.60416666666</v>
       </c>
       <c r="E72" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F72" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6669,7 +6675,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J72">
         <v>2.1</v>
@@ -6737,16 +6743,16 @@
         <v>6927074</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2">
         <v>45205.60416666666</v>
       </c>
       <c r="E73" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F73" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G73">
         <v>4</v>
@@ -6755,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J73">
         <v>2.25</v>
@@ -6823,16 +6829,16 @@
         <v>6927277</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D74" s="2">
         <v>45205.60416666666</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6841,7 +6847,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J74">
         <v>2.5</v>
@@ -6909,16 +6915,16 @@
         <v>6927075</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2">
         <v>45205.60416666666</v>
       </c>
       <c r="E75" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6927,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J75">
         <v>1.95</v>
@@ -6995,16 +7001,16 @@
         <v>6927310</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2">
         <v>45205.60416666666</v>
       </c>
       <c r="E76" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F76" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7013,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J76">
         <v>2.1</v>
@@ -7081,17 +7087,17 @@
         <v>6927072</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D77" s="2">
         <v>45205.60416666666</v>
       </c>
       <c r="E77" t="s">
+        <v>41</v>
+      </c>
+      <c r="F77" t="s">
         <v>39</v>
       </c>
-      <c r="F77" t="s">
-        <v>37</v>
-      </c>
       <c r="G77">
         <v>1</v>
       </c>
@@ -7099,7 +7105,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J77">
         <v>2.5</v>
@@ -7167,16 +7173,16 @@
         <v>6926924</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D78" s="2">
         <v>45205.60416666666</v>
       </c>
       <c r="E78" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7185,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J78">
         <v>2.6</v>
@@ -7253,16 +7259,16 @@
         <v>6927073</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D79" s="2">
         <v>45205.60416666666</v>
       </c>
       <c r="E79" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7271,7 +7277,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J79">
         <v>3</v>
@@ -7339,16 +7345,16 @@
         <v>6927311</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D80" s="2">
         <v>45206.60416666666</v>
       </c>
       <c r="E80" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7357,7 +7363,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J80">
         <v>2.1</v>
@@ -7425,16 +7431,16 @@
         <v>7296703</v>
       </c>
       <c r="C81" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D81" s="2">
         <v>45206.60416666666</v>
       </c>
       <c r="E81" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G81">
         <v>2</v>
@@ -7443,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J81">
         <v>2.5</v>
@@ -7511,17 +7517,17 @@
         <v>6927076</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D82" s="2">
         <v>45210.60416666666</v>
       </c>
       <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
         <v>42</v>
       </c>
-      <c r="F82" t="s">
-        <v>40</v>
-      </c>
       <c r="G82">
         <v>2</v>
       </c>
@@ -7529,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J82">
         <v>2.7</v>
@@ -7597,16 +7603,16 @@
         <v>6927077</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D83" s="2">
         <v>45210.60416666666</v>
       </c>
       <c r="E83" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7615,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J83">
         <v>2.1</v>
@@ -7683,16 +7689,16 @@
         <v>6927078</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D84" s="2">
         <v>45210.66666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F84" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7701,7 +7707,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J84">
         <v>2.1</v>
@@ -7769,17 +7775,17 @@
         <v>6927313</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2">
         <v>45210.66666666666</v>
       </c>
       <c r="E85" t="s">
+        <v>40</v>
+      </c>
+      <c r="F85" t="s">
         <v>38</v>
       </c>
-      <c r="F85" t="s">
-        <v>36</v>
-      </c>
       <c r="G85">
         <v>0</v>
       </c>
@@ -7787,7 +7793,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J85">
         <v>2.25</v>
@@ -7855,16 +7861,16 @@
         <v>7101733</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D86" s="2">
         <v>45210.66666666666</v>
       </c>
       <c r="E86" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F86" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7873,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J86">
         <v>2.3</v>
@@ -7941,16 +7947,16 @@
         <v>6927312</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D87" s="2">
         <v>45210.66666666666</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F87" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7959,7 +7965,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -8027,16 +8033,16 @@
         <v>6927080</v>
       </c>
       <c r="C88" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D88" s="2">
         <v>45210.66666666666</v>
       </c>
       <c r="E88" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G88">
         <v>4</v>
@@ -8045,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J88">
         <v>1.727</v>
@@ -8113,16 +8119,16 @@
         <v>6927079</v>
       </c>
       <c r="C89" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D89" s="2">
         <v>45210.66666666666</v>
       </c>
       <c r="E89" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8131,7 +8137,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J89">
         <v>2.6</v>
@@ -8199,16 +8205,16 @@
         <v>6926925</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D90" s="2">
         <v>45210.66666666666</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F90" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -8217,7 +8223,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J90">
         <v>2.9</v>
@@ -8285,16 +8291,16 @@
         <v>7101734</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D91" s="2">
         <v>45219.60416666666</v>
       </c>
       <c r="E91" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8303,7 +8309,7 @@
         <v>3</v>
       </c>
       <c r="I91" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J91">
         <v>2.75</v>
@@ -8371,16 +8377,16 @@
         <v>6927885</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D92" s="2">
         <v>45219.60416666666</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8389,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J92">
         <v>2</v>
@@ -8457,16 +8463,16 @@
         <v>6927082</v>
       </c>
       <c r="C93" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D93" s="2">
         <v>45219.60416666666</v>
       </c>
       <c r="E93" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8475,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J93">
         <v>1.75</v>
@@ -8543,16 +8549,16 @@
         <v>6927083</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D94" s="2">
         <v>45219.60416666666</v>
       </c>
       <c r="E94" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F94" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8561,7 +8567,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J94">
         <v>1.833</v>
@@ -8629,16 +8635,16 @@
         <v>6927315</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D95" s="2">
         <v>45219.60416666666</v>
       </c>
       <c r="E95" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8647,7 +8653,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J95">
         <v>1.727</v>
@@ -8715,16 +8721,16 @@
         <v>6927081</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D96" s="2">
         <v>45219.60416666666</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G96">
         <v>4</v>
@@ -8733,7 +8739,7 @@
         <v>2</v>
       </c>
       <c r="I96" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J96">
         <v>3</v>
@@ -8801,16 +8807,16 @@
         <v>6927314</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D97" s="2">
         <v>45219.60416666666</v>
       </c>
       <c r="E97" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F97" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8819,7 +8825,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J97">
         <v>4.2</v>
@@ -8887,16 +8893,16 @@
         <v>7327947</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D98" s="2">
         <v>45222.5625</v>
       </c>
       <c r="E98" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8905,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J98">
         <v>1.8</v>
@@ -8973,16 +8979,16 @@
         <v>7299648</v>
       </c>
       <c r="C99" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D99" s="2">
         <v>45222.60416666666</v>
       </c>
       <c r="E99" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -8991,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J99">
         <v>1.6</v>
@@ -9059,16 +9065,16 @@
         <v>6927087</v>
       </c>
       <c r="C100" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D100" s="2">
         <v>45233.64583333334</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F100" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9077,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J100">
         <v>2.3</v>
@@ -9145,16 +9151,16 @@
         <v>6927085</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D101" s="2">
         <v>45233.64583333334</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -9163,7 +9169,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J101">
         <v>1.909</v>
@@ -9231,16 +9237,16 @@
         <v>6927319</v>
       </c>
       <c r="C102" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D102" s="2">
         <v>45233.64583333334</v>
       </c>
       <c r="E102" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9249,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J102">
         <v>2.25</v>
@@ -9317,16 +9323,16 @@
         <v>6927089</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D103" s="2">
         <v>45233.64583333334</v>
       </c>
       <c r="E103" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9335,7 +9341,7 @@
         <v>3</v>
       </c>
       <c r="I103" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J103">
         <v>1.363</v>
@@ -9403,16 +9409,16 @@
         <v>6927317</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D104" s="2">
         <v>45233.64583333334</v>
       </c>
       <c r="E104" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9421,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J104">
         <v>3.2</v>
@@ -9489,16 +9495,16 @@
         <v>7101735</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D105" s="2">
         <v>45233.64583333334</v>
       </c>
       <c r="E105" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F105" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9507,7 +9513,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J105">
         <v>2.7</v>
@@ -9575,16 +9581,16 @@
         <v>6927086</v>
       </c>
       <c r="C106" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D106" s="2">
         <v>45233.64583333334</v>
       </c>
       <c r="E106" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9593,7 +9599,7 @@
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J106">
         <v>2.7</v>
@@ -9661,16 +9667,16 @@
         <v>6927318</v>
       </c>
       <c r="C107" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D107" s="2">
         <v>45233.65625</v>
       </c>
       <c r="E107" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9679,7 +9685,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J107">
         <v>2.4</v>
@@ -9747,16 +9753,16 @@
         <v>7366188</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D108" s="2">
         <v>45236.60416666666</v>
       </c>
       <c r="E108" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F108" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -9765,7 +9771,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J108">
         <v>3.1</v>
@@ -9833,16 +9839,16 @@
         <v>7101736</v>
       </c>
       <c r="C109" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D109" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E109" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9851,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J109">
         <v>1.7</v>
@@ -9919,16 +9925,16 @@
         <v>6927321</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D110" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E110" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G110">
         <v>4</v>
@@ -9937,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J110">
         <v>2.5</v>
@@ -10005,16 +10011,16 @@
         <v>6927320</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D111" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E111" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10023,7 +10029,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J111">
         <v>1.45</v>
@@ -10091,16 +10097,16 @@
         <v>6927093</v>
       </c>
       <c r="C112" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D112" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E112" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G112">
         <v>6</v>
@@ -10109,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J112">
         <v>2.2</v>
@@ -10177,16 +10183,16 @@
         <v>6927092</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D113" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E113" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10195,7 +10201,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J113">
         <v>1.95</v>
@@ -10263,16 +10269,16 @@
         <v>6927091</v>
       </c>
       <c r="C114" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D114" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10281,7 +10287,7 @@
         <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J114">
         <v>2.875</v>
@@ -10349,16 +10355,16 @@
         <v>6927090</v>
       </c>
       <c r="C115" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D115" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E115" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10367,7 +10373,7 @@
         <v>3</v>
       </c>
       <c r="I115" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J115">
         <v>2.55</v>
@@ -10435,16 +10441,16 @@
         <v>6926926</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D116" s="2">
         <v>45240.64583333334</v>
       </c>
       <c r="E116" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10453,7 +10459,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J116">
         <v>1.85</v>
@@ -10521,16 +10527,16 @@
         <v>6927278</v>
       </c>
       <c r="C117" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D117" s="2">
         <v>45243.70833333334</v>
       </c>
       <c r="E117" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F117" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10539,7 +10545,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J117">
         <v>2.05</v>
@@ -10607,16 +10613,16 @@
         <v>6927884</v>
       </c>
       <c r="C118" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D118" s="2">
         <v>45254.64583333334</v>
       </c>
       <c r="E118" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10625,7 +10631,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J118">
         <v>2.875</v>
@@ -10693,16 +10699,16 @@
         <v>6927094</v>
       </c>
       <c r="C119" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D119" s="2">
         <v>45254.64583333334</v>
       </c>
       <c r="E119" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10711,7 +10717,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J119">
         <v>3.1</v>
@@ -10779,16 +10785,16 @@
         <v>6927095</v>
       </c>
       <c r="C120" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D120" s="2">
         <v>45254.64583333334</v>
       </c>
       <c r="E120" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F120" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G120">
         <v>3</v>
@@ -10797,7 +10803,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J120">
         <v>2.25</v>
@@ -10865,16 +10871,16 @@
         <v>6927096</v>
       </c>
       <c r="C121" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D121" s="2">
         <v>45254.64583333334</v>
       </c>
       <c r="E121" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -10883,7 +10889,7 @@
         <v>3</v>
       </c>
       <c r="I121" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J121">
         <v>2.375</v>
@@ -10951,16 +10957,16 @@
         <v>6927279</v>
       </c>
       <c r="C122" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D122" s="2">
         <v>45254.64583333334</v>
       </c>
       <c r="E122" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10969,7 +10975,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J122">
         <v>1.909</v>
@@ -11037,16 +11043,16 @@
         <v>6927322</v>
       </c>
       <c r="C123" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D123" s="2">
         <v>45254.64583333334</v>
       </c>
       <c r="E123" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11055,7 +11061,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J123">
         <v>2.45</v>
@@ -11123,16 +11129,16 @@
         <v>6927323</v>
       </c>
       <c r="C124" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D124" s="2">
         <v>45254.64583333334</v>
       </c>
       <c r="E124" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F124" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11141,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J124">
         <v>2.25</v>
@@ -11209,16 +11215,16 @@
         <v>7499520</v>
       </c>
       <c r="C125" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D125" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E125" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G125">
         <v>4</v>
@@ -11227,7 +11233,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J125">
         <v>1.615</v>
@@ -11295,16 +11301,16 @@
         <v>7504966</v>
       </c>
       <c r="C126" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D126" s="2">
         <v>45257.60416666666</v>
       </c>
       <c r="E126" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F126" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G126">
         <v>4</v>
@@ -11313,7 +11319,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J126">
         <v>2.6</v>
@@ -11381,16 +11387,16 @@
         <v>6926927</v>
       </c>
       <c r="C127" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D127" s="2">
         <v>45261.64583333334</v>
       </c>
       <c r="E127" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11399,7 +11405,7 @@
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J127">
         <v>1.909</v>
@@ -11467,16 +11473,16 @@
         <v>6927099</v>
       </c>
       <c r="C128" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D128" s="2">
         <v>45261.64583333334</v>
       </c>
       <c r="E128" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G128">
         <v>5</v>
@@ -11485,7 +11491,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J128">
         <v>1.666</v>
@@ -11553,16 +11559,16 @@
         <v>6927326</v>
       </c>
       <c r="C129" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D129" s="2">
         <v>45261.64583333334</v>
       </c>
       <c r="E129" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F129" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11571,7 +11577,7 @@
         <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J129">
         <v>2.4</v>
@@ -11639,16 +11645,16 @@
         <v>6927280</v>
       </c>
       <c r="C130" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D130" s="2">
         <v>45261.64583333334</v>
       </c>
       <c r="E130" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F130" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G130">
         <v>4</v>
@@ -11657,7 +11663,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J130">
         <v>2.4</v>
@@ -11725,16 +11731,16 @@
         <v>7101738</v>
       </c>
       <c r="C131" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D131" s="2">
         <v>45261.64583333334</v>
       </c>
       <c r="E131" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G131">
         <v>4</v>
@@ -11743,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J131">
         <v>1.45</v>
@@ -11811,16 +11817,16 @@
         <v>6927098</v>
       </c>
       <c r="C132" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D132" s="2">
         <v>45262.64583333334</v>
       </c>
       <c r="E132" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11829,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J132">
         <v>1.5</v>
@@ -11897,16 +11903,16 @@
         <v>7473930</v>
       </c>
       <c r="C133" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D133" s="2">
         <v>45264.70833333334</v>
       </c>
       <c r="E133" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11915,7 +11921,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J133">
         <v>1.8</v>
@@ -11983,16 +11989,16 @@
         <v>6927103</v>
       </c>
       <c r="C134" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D134" s="2">
         <v>45275.64583333334</v>
       </c>
       <c r="E134" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -12001,7 +12007,7 @@
         <v>2</v>
       </c>
       <c r="I134" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J134">
         <v>2.375</v>
@@ -12069,16 +12075,16 @@
         <v>6926928</v>
       </c>
       <c r="C135" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D135" s="2">
         <v>45275.64583333334</v>
       </c>
       <c r="E135" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12087,7 +12093,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J135">
         <v>1.95</v>
@@ -12155,16 +12161,16 @@
         <v>6927101</v>
       </c>
       <c r="C136" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D136" s="2">
         <v>45275.64583333334</v>
       </c>
       <c r="E136" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F136" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -12173,7 +12179,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J136">
         <v>3.8</v>
@@ -12241,16 +12247,16 @@
         <v>6927102</v>
       </c>
       <c r="C137" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D137" s="2">
         <v>45275.64583333334</v>
       </c>
       <c r="E137" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12259,7 +12265,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J137">
         <v>2.6</v>
@@ -12327,16 +12333,16 @@
         <v>7101739</v>
       </c>
       <c r="C138" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D138" s="2">
         <v>45275.64583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F138" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -12345,7 +12351,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J138">
         <v>2.15</v>
@@ -12413,17 +12419,17 @@
         <v>6927329</v>
       </c>
       <c r="C139" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D139" s="2">
         <v>45275.64583333334</v>
       </c>
       <c r="E139" t="s">
+        <v>38</v>
+      </c>
+      <c r="F139" t="s">
         <v>36</v>
       </c>
-      <c r="F139" t="s">
-        <v>34</v>
-      </c>
       <c r="G139">
         <v>2</v>
       </c>
@@ -12431,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J139">
         <v>1.7</v>
@@ -12499,16 +12505,16 @@
         <v>6927327</v>
       </c>
       <c r="C140" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D140" s="2">
         <v>45275.64583333334</v>
       </c>
       <c r="E140" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F140" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -12517,7 +12523,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J140">
         <v>3.2</v>
@@ -12585,16 +12591,16 @@
         <v>6927281</v>
       </c>
       <c r="C141" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D141" s="2">
         <v>45275.64583333334</v>
       </c>
       <c r="E141" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F141" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -12603,7 +12609,7 @@
         <v>2</v>
       </c>
       <c r="I141" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J141">
         <v>2.1</v>
@@ -12671,16 +12677,16 @@
         <v>7430793</v>
       </c>
       <c r="C142" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D142" s="2">
         <v>45278.70833333334</v>
       </c>
       <c r="E142" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F142" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12689,7 +12695,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J142">
         <v>2.8</v>
@@ -12757,16 +12763,16 @@
         <v>6927104</v>
       </c>
       <c r="C143" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D143" s="2">
         <v>45303.64583333334</v>
       </c>
       <c r="E143" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -12775,7 +12781,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J143">
         <v>2.05</v>
@@ -12843,16 +12849,16 @@
         <v>6927105</v>
       </c>
       <c r="C144" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D144" s="2">
         <v>45303.64583333334</v>
       </c>
       <c r="E144" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G144">
         <v>3</v>
@@ -12861,7 +12867,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J144">
         <v>2.25</v>
@@ -12929,16 +12935,16 @@
         <v>6927332</v>
       </c>
       <c r="C145" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D145" s="2">
         <v>45303.64583333334</v>
       </c>
       <c r="E145" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12947,7 +12953,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J145">
         <v>1.95</v>
@@ -13015,16 +13021,16 @@
         <v>6927330</v>
       </c>
       <c r="C146" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D146" s="2">
         <v>45303.64583333334</v>
       </c>
       <c r="E146" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F146" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13033,7 +13039,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J146">
         <v>2.2</v>
@@ -13101,16 +13107,16 @@
         <v>6927106</v>
       </c>
       <c r="C147" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D147" s="2">
         <v>45303.64583333334</v>
       </c>
       <c r="E147" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13119,7 +13125,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J147">
         <v>1.6</v>
@@ -13187,16 +13193,16 @@
         <v>6926929</v>
       </c>
       <c r="C148" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D148" s="2">
         <v>45303.64583333334</v>
       </c>
       <c r="E148" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13205,7 +13211,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J148">
         <v>2.3</v>
@@ -13273,16 +13279,16 @@
         <v>6927331</v>
       </c>
       <c r="C149" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D149" s="2">
         <v>45303.64583333334</v>
       </c>
       <c r="E149" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -13291,7 +13297,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J149">
         <v>1.7</v>
@@ -13359,16 +13365,16 @@
         <v>6927333</v>
       </c>
       <c r="C150" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D150" s="2">
         <v>45303.64583333334</v>
       </c>
       <c r="E150" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13377,7 +13383,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J150">
         <v>1.7</v>
@@ -13445,16 +13451,16 @@
         <v>7666943</v>
       </c>
       <c r="C151" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D151" s="2">
         <v>45306.59375</v>
       </c>
       <c r="E151" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13463,7 +13469,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J151">
         <v>1.727</v>
@@ -13531,16 +13537,16 @@
         <v>6927334</v>
       </c>
       <c r="C152" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D152" s="2">
         <v>45310.64583333334</v>
       </c>
       <c r="E152" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F152" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -13549,7 +13555,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J152">
         <v>2.9</v>
@@ -13617,16 +13623,16 @@
         <v>6927336</v>
       </c>
       <c r="C153" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D153" s="2">
         <v>45310.64583333334</v>
       </c>
       <c r="E153" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G153">
         <v>4</v>
@@ -13635,7 +13641,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J153">
         <v>2.2</v>
@@ -13703,16 +13709,16 @@
         <v>7615525</v>
       </c>
       <c r="C154" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D154" s="2">
         <v>45313.59375</v>
       </c>
       <c r="E154" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F154" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13721,7 +13727,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J154">
         <v>2</v>
@@ -13789,16 +13795,16 @@
         <v>6927107</v>
       </c>
       <c r="C155" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D155" s="2">
         <v>45313.625</v>
       </c>
       <c r="E155" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13807,7 +13813,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J155">
         <v>2.3</v>
@@ -13875,16 +13881,16 @@
         <v>7716254</v>
       </c>
       <c r="C156" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D156" s="2">
         <v>45317.64583333334</v>
       </c>
       <c r="E156" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13893,7 +13899,7 @@
         <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J156">
         <v>2.5</v>
@@ -13961,16 +13967,16 @@
         <v>7679827</v>
       </c>
       <c r="C157" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D157" s="2">
         <v>45317.64583333334</v>
       </c>
       <c r="E157" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F157" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G157">
         <v>2</v>
@@ -13979,7 +13985,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J157">
         <v>2.75</v>
@@ -14047,16 +14053,16 @@
         <v>7712134</v>
       </c>
       <c r="C158" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D158" s="2">
         <v>45317.64583333334</v>
       </c>
       <c r="E158" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F158" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -14065,7 +14071,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J158">
         <v>1.6</v>
@@ -14133,16 +14139,16 @@
         <v>7695781</v>
       </c>
       <c r="C159" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D159" s="2">
         <v>45317.64583333334</v>
       </c>
       <c r="E159" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14151,7 +14157,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J159">
         <v>2</v>
@@ -14219,16 +14225,16 @@
         <v>7568500</v>
       </c>
       <c r="C160" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D160" s="2">
         <v>45317.64583333334</v>
       </c>
       <c r="E160" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14237,7 +14243,7 @@
         <v>2</v>
       </c>
       <c r="I160" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J160">
         <v>2.45</v>
@@ -14305,16 +14311,16 @@
         <v>6927111</v>
       </c>
       <c r="C161" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D161" s="2">
         <v>45324.64583333334</v>
       </c>
       <c r="E161" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -14323,7 +14329,7 @@
         <v>4</v>
       </c>
       <c r="I161" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J161">
         <v>2.15</v>
@@ -14391,16 +14397,16 @@
         <v>6927113</v>
       </c>
       <c r="C162" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D162" s="2">
         <v>45324.64583333334</v>
       </c>
       <c r="E162" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F162" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14409,7 +14415,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J162">
         <v>1.85</v>
@@ -14477,16 +14483,16 @@
         <v>6927282</v>
       </c>
       <c r="C163" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D163" s="2">
         <v>45324.64583333334</v>
       </c>
       <c r="E163" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G163">
         <v>3</v>
@@ -14495,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J163">
         <v>1.8</v>
@@ -14563,16 +14569,16 @@
         <v>6926931</v>
       </c>
       <c r="C164" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D164" s="2">
         <v>45324.64583333334</v>
       </c>
       <c r="E164" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14581,7 +14587,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J164">
         <v>1.615</v>
@@ -14649,16 +14655,16 @@
         <v>6927112</v>
       </c>
       <c r="C165" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D165" s="2">
         <v>45324.64583333334</v>
       </c>
       <c r="E165" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14667,7 +14673,7 @@
         <v>4</v>
       </c>
       <c r="I165" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J165">
         <v>2.55</v>
@@ -14735,16 +14741,16 @@
         <v>6927337</v>
       </c>
       <c r="C166" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D166" s="2">
         <v>45324.64583333334</v>
       </c>
       <c r="E166" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14753,7 +14759,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J166">
         <v>1.833</v>
@@ -14821,16 +14827,16 @@
         <v>6927114</v>
       </c>
       <c r="C167" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D167" s="2">
         <v>45324.64583333334</v>
       </c>
       <c r="E167" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -14839,7 +14845,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J167">
         <v>1.75</v>
@@ -14907,16 +14913,16 @@
         <v>6927115</v>
       </c>
       <c r="C168" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D168" s="2">
         <v>45324.64583333334</v>
       </c>
       <c r="E168" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -14925,7 +14931,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J168">
         <v>1.8</v>
@@ -14993,17 +14999,17 @@
         <v>7101742</v>
       </c>
       <c r="C169" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D169" s="2">
         <v>45324.64583333334</v>
       </c>
       <c r="E169" t="s">
+        <v>51</v>
+      </c>
+      <c r="F169" t="s">
         <v>49</v>
       </c>
-      <c r="F169" t="s">
-        <v>47</v>
-      </c>
       <c r="G169">
         <v>2</v>
       </c>
@@ -15011,7 +15017,7 @@
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J169">
         <v>2.4</v>
@@ -15079,16 +15085,16 @@
         <v>6927338</v>
       </c>
       <c r="C170" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D170" s="2">
         <v>45331.64583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -15097,7 +15103,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J170">
         <v>3</v>
@@ -15165,16 +15171,16 @@
         <v>6927340</v>
       </c>
       <c r="C171" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D171" s="2">
         <v>45331.64583333334</v>
       </c>
       <c r="E171" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G171">
         <v>3</v>
@@ -15183,7 +15189,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J171">
         <v>1.85</v>
@@ -15251,17 +15257,17 @@
         <v>6927339</v>
       </c>
       <c r="C172" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D172" s="2">
         <v>45331.64583333334</v>
       </c>
       <c r="E172" t="s">
+        <v>50</v>
+      </c>
+      <c r="F172" t="s">
         <v>48</v>
       </c>
-      <c r="F172" t="s">
-        <v>46</v>
-      </c>
       <c r="G172">
         <v>0</v>
       </c>
@@ -15269,7 +15275,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J172">
         <v>2.4</v>
@@ -15337,16 +15343,16 @@
         <v>6927119</v>
       </c>
       <c r="C173" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D173" s="2">
         <v>45331.64583333334</v>
       </c>
       <c r="E173" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F173" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15355,7 +15361,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J173">
         <v>1.75</v>
@@ -15423,16 +15429,16 @@
         <v>6927116</v>
       </c>
       <c r="C174" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D174" s="2">
         <v>45331.64583333334</v>
       </c>
       <c r="E174" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F174" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -15441,7 +15447,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J174">
         <v>1.6</v>
@@ -15509,16 +15515,16 @@
         <v>6927118</v>
       </c>
       <c r="C175" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D175" s="2">
         <v>45331.64583333334</v>
       </c>
       <c r="E175" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F175" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15527,7 +15533,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J175">
         <v>1.909</v>
@@ -15595,16 +15601,16 @@
         <v>7746926</v>
       </c>
       <c r="C176" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D176" s="2">
         <v>45334.60416666666</v>
       </c>
       <c r="E176" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F176" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G176">
         <v>2</v>
@@ -15613,7 +15619,7 @@
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J176">
         <v>2.375</v>
@@ -15681,16 +15687,16 @@
         <v>6927117</v>
       </c>
       <c r="C177" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D177" s="2">
         <v>45334.64583333334</v>
       </c>
       <c r="E177" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F177" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -15699,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J177">
         <v>2.375</v>
@@ -15767,16 +15773,16 @@
         <v>6927122</v>
       </c>
       <c r="C178" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D178" s="2">
         <v>45338.64583333334</v>
       </c>
       <c r="E178" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F178" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G178">
         <v>3</v>
@@ -15785,7 +15791,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J178">
         <v>1.909</v>
@@ -15853,16 +15859,16 @@
         <v>6927341</v>
       </c>
       <c r="C179" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D179" s="2">
         <v>45338.64583333334</v>
       </c>
       <c r="E179" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F179" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -15871,7 +15877,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J179">
         <v>2.375</v>
@@ -15939,16 +15945,16 @@
         <v>6927342</v>
       </c>
       <c r="C180" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D180" s="2">
         <v>45338.64583333334</v>
       </c>
       <c r="E180" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -15957,7 +15963,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J180">
         <v>1.95</v>
@@ -16025,16 +16031,16 @@
         <v>7101744</v>
       </c>
       <c r="C181" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D181" s="2">
         <v>45338.64583333334</v>
       </c>
       <c r="E181" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F181" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -16043,7 +16049,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J181">
         <v>1.5</v>
@@ -16111,16 +16117,16 @@
         <v>6926932</v>
       </c>
       <c r="C182" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D182" s="2">
         <v>45338.64583333334</v>
       </c>
       <c r="E182" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G182">
         <v>4</v>
@@ -16129,7 +16135,7 @@
         <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J182">
         <v>1.8</v>
@@ -16197,16 +16203,16 @@
         <v>6927123</v>
       </c>
       <c r="C183" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D183" s="2">
         <v>45338.64583333334</v>
       </c>
       <c r="E183" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F183" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -16215,7 +16221,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J183">
         <v>2.05</v>
@@ -16283,16 +16289,16 @@
         <v>6927121</v>
       </c>
       <c r="C184" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D184" s="2">
         <v>45338.64583333334</v>
       </c>
       <c r="E184" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F184" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G184">
         <v>4</v>
@@ -16301,7 +16307,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J184">
         <v>2.4</v>
@@ -16369,16 +16375,16 @@
         <v>6927120</v>
       </c>
       <c r="C185" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D185" s="2">
         <v>45338.64583333334</v>
       </c>
       <c r="E185" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16387,7 +16393,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J185">
         <v>3.75</v>
@@ -16455,16 +16461,16 @@
         <v>6927124</v>
       </c>
       <c r="C186" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D186" s="2">
         <v>45341.60416666666</v>
       </c>
       <c r="E186" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F186" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16473,7 +16479,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J186">
         <v>2.8</v>
@@ -16541,17 +16547,17 @@
         <v>6927126</v>
       </c>
       <c r="C187" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D187" s="2">
         <v>45345.64583333334</v>
       </c>
       <c r="E187" t="s">
+        <v>45</v>
+      </c>
+      <c r="F187" t="s">
         <v>43</v>
       </c>
-      <c r="F187" t="s">
-        <v>41</v>
-      </c>
       <c r="G187">
         <v>1</v>
       </c>
@@ -16559,7 +16565,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J187">
         <v>2.75</v>
@@ -16627,16 +16633,16 @@
         <v>6927125</v>
       </c>
       <c r="C188" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D188" s="2">
         <v>45345.64583333334</v>
       </c>
       <c r="E188" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F188" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -16645,7 +16651,7 @@
         <v>3</v>
       </c>
       <c r="I188" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J188">
         <v>3</v>
@@ -16713,16 +16719,16 @@
         <v>6927345</v>
       </c>
       <c r="C189" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D189" s="2">
         <v>45345.64583333334</v>
       </c>
       <c r="E189" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F189" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G189">
         <v>3</v>
@@ -16731,7 +16737,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J189">
         <v>1.8</v>
@@ -16799,16 +16805,16 @@
         <v>6927283</v>
       </c>
       <c r="C190" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D190" s="2">
         <v>45345.64583333334</v>
       </c>
       <c r="E190" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F190" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16817,7 +16823,7 @@
         <v>3</v>
       </c>
       <c r="I190" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J190">
         <v>2.2</v>
@@ -16885,16 +16891,16 @@
         <v>7101745</v>
       </c>
       <c r="C191" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D191" s="2">
         <v>45345.64583333334</v>
       </c>
       <c r="E191" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F191" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16903,7 +16909,7 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J191">
         <v>2.4</v>
@@ -16971,16 +16977,16 @@
         <v>6927343</v>
       </c>
       <c r="C192" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D192" s="2">
         <v>45345.64583333334</v>
       </c>
       <c r="E192" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F192" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G192">
         <v>4</v>
@@ -16989,7 +16995,7 @@
         <v>1</v>
       </c>
       <c r="I192" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J192">
         <v>1.666</v>
@@ -17057,16 +17063,16 @@
         <v>6927344</v>
       </c>
       <c r="C193" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D193" s="2">
         <v>45345.64583333334</v>
       </c>
       <c r="E193" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F193" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G193">
         <v>3</v>
@@ -17075,7 +17081,7 @@
         <v>2</v>
       </c>
       <c r="I193" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J193">
         <v>1.85</v>
@@ -17143,16 +17149,16 @@
         <v>6927127</v>
       </c>
       <c r="C194" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D194" s="2">
         <v>45345.64583333334</v>
       </c>
       <c r="E194" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F194" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17161,7 +17167,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J194">
         <v>2.5</v>
@@ -17229,16 +17235,16 @@
         <v>7771331</v>
       </c>
       <c r="C195" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D195" s="2">
         <v>45348.60416666666</v>
       </c>
       <c r="E195" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G195">
         <v>3</v>
@@ -17247,7 +17253,7 @@
         <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J195">
         <v>2.05</v>
@@ -17315,16 +17321,16 @@
         <v>7801213</v>
       </c>
       <c r="C196" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D196" s="2">
         <v>45349.64583333334</v>
       </c>
       <c r="E196" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F196" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -17333,7 +17339,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J196">
         <v>1.95</v>
@@ -17401,16 +17407,16 @@
         <v>7864325</v>
       </c>
       <c r="C197" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D197" s="2">
         <v>45349.64583333334</v>
       </c>
       <c r="E197" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F197" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -17419,7 +17425,7 @@
         <v>4</v>
       </c>
       <c r="I197" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J197">
         <v>2.45</v>
@@ -17487,16 +17493,16 @@
         <v>7864324</v>
       </c>
       <c r="C198" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D198" s="2">
         <v>45349.64583333334</v>
       </c>
       <c r="E198" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F198" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -17505,7 +17511,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J198">
         <v>1.444</v>
@@ -17573,16 +17579,16 @@
         <v>6927129</v>
       </c>
       <c r="C199" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D199" s="2">
         <v>45352.45833333334</v>
       </c>
       <c r="E199" t="s">
+        <v>39</v>
+      </c>
+      <c r="F199" t="s">
         <v>37</v>
-      </c>
-      <c r="F199" t="s">
-        <v>35</v>
       </c>
       <c r="G199">
         <v>3</v>
@@ -17591,7 +17597,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J199">
         <v>1.533</v>
@@ -17659,16 +17665,16 @@
         <v>6927881</v>
       </c>
       <c r="C200" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D200" s="2">
         <v>45352.64583333334</v>
       </c>
       <c r="E200" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F200" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G200">
         <v>3</v>
@@ -17677,7 +17683,7 @@
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J200">
         <v>1.909</v>
@@ -17745,16 +17751,16 @@
         <v>6927128</v>
       </c>
       <c r="C201" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D201" s="2">
         <v>45352.64583333334</v>
       </c>
       <c r="E201" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F201" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -17763,7 +17769,7 @@
         <v>1</v>
       </c>
       <c r="I201" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J201">
         <v>3.25</v>
@@ -17831,16 +17837,16 @@
         <v>6927130</v>
       </c>
       <c r="C202" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D202" s="2">
         <v>45352.64583333334</v>
       </c>
       <c r="E202" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F202" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G202">
         <v>2</v>
@@ -17849,7 +17855,7 @@
         <v>1</v>
       </c>
       <c r="I202" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J202">
         <v>1.571</v>
@@ -17917,16 +17923,16 @@
         <v>6927346</v>
       </c>
       <c r="C203" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D203" s="2">
         <v>45353.54166666666</v>
       </c>
       <c r="E203" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F203" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -17935,7 +17941,7 @@
         <v>1</v>
       </c>
       <c r="I203" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J203">
         <v>2.1</v>
@@ -18003,16 +18009,16 @@
         <v>6927348</v>
       </c>
       <c r="C204" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D204" s="2">
         <v>45353.54166666666</v>
       </c>
       <c r="E204" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F204" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -18021,7 +18027,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J204">
         <v>3.6</v>
@@ -18089,16 +18095,16 @@
         <v>6927347</v>
       </c>
       <c r="C205" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D205" s="2">
         <v>45353.64583333334</v>
       </c>
       <c r="E205" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F205" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G205">
         <v>2</v>
@@ -18107,7 +18113,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J205">
         <v>1.85</v>
@@ -18175,16 +18181,16 @@
         <v>6927284</v>
       </c>
       <c r="C206" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D206" s="2">
         <v>45353.64583333334</v>
       </c>
       <c r="E206" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18193,7 +18199,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J206">
         <v>2.875</v>
@@ -18261,16 +18267,16 @@
         <v>7886920</v>
       </c>
       <c r="C207" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D207" s="2">
         <v>45355.60416666666</v>
       </c>
       <c r="E207" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F207" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -18279,7 +18285,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J207">
         <v>2</v>
@@ -18347,16 +18353,16 @@
         <v>6927350</v>
       </c>
       <c r="C208" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D208" s="2">
         <v>45359.64583333334</v>
       </c>
       <c r="E208" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F208" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -18365,7 +18371,7 @@
         <v>2</v>
       </c>
       <c r="I208" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J208">
         <v>2.25</v>
@@ -18433,16 +18439,16 @@
         <v>6927349</v>
       </c>
       <c r="C209" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D209" s="2">
         <v>45359.64583333334</v>
       </c>
       <c r="E209" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F209" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G209">
         <v>2</v>
@@ -18451,7 +18457,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J209">
         <v>1.95</v>
@@ -18519,17 +18525,17 @@
         <v>6927285</v>
       </c>
       <c r="C210" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D210" s="2">
         <v>45359.64583333334</v>
       </c>
       <c r="E210" t="s">
+        <v>49</v>
+      </c>
+      <c r="F210" t="s">
         <v>47</v>
       </c>
-      <c r="F210" t="s">
-        <v>45</v>
-      </c>
       <c r="G210">
         <v>0</v>
       </c>
@@ -18537,7 +18543,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J210">
         <v>1.533</v>
@@ -18605,16 +18611,16 @@
         <v>6926933</v>
       </c>
       <c r="C211" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D211" s="2">
         <v>45359.64583333334</v>
       </c>
       <c r="E211" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F211" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18623,7 +18629,7 @@
         <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J211">
         <v>2.4</v>
@@ -18691,16 +18697,16 @@
         <v>6927351</v>
       </c>
       <c r="C212" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D212" s="2">
         <v>45359.64583333334</v>
       </c>
       <c r="E212" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F212" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G212">
         <v>4</v>
@@ -18709,7 +18715,7 @@
         <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J212">
         <v>1.833</v>
@@ -18777,16 +18783,16 @@
         <v>6927133</v>
       </c>
       <c r="C213" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D213" s="2">
         <v>45359.64583333334</v>
       </c>
       <c r="E213" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F213" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G213">
         <v>2</v>
@@ -18795,7 +18801,7 @@
         <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J213">
         <v>1.666</v>
@@ -18863,16 +18869,16 @@
         <v>6927132</v>
       </c>
       <c r="C214" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D214" s="2">
         <v>45359.64583333334</v>
       </c>
       <c r="E214" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F214" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G214">
         <v>3</v>
@@ -18881,7 +18887,7 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J214">
         <v>1.7</v>
@@ -18949,16 +18955,16 @@
         <v>7920386</v>
       </c>
       <c r="C215" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D215" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E215" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F215" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -18967,7 +18973,7 @@
         <v>2</v>
       </c>
       <c r="I215" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J215">
         <v>2.15</v>
@@ -19035,16 +19041,16 @@
         <v>7822998</v>
       </c>
       <c r="C216" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D216" s="2">
         <v>45362.60416666666</v>
       </c>
       <c r="E216" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F216" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G216">
         <v>1</v>
@@ -19053,7 +19059,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J216">
         <v>2.15</v>
@@ -19121,16 +19127,16 @@
         <v>7924922</v>
       </c>
       <c r="C217" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D217" s="2">
         <v>45363.64583333334</v>
       </c>
       <c r="E217" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F217" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G217">
         <v>1</v>
@@ -19139,7 +19145,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J217">
         <v>1.909</v>
@@ -19207,16 +19213,16 @@
         <v>7959075</v>
       </c>
       <c r="C218" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D218" s="2">
         <v>45366.45833333334</v>
       </c>
       <c r="E218" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F218" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G218">
         <v>3</v>
@@ -19225,7 +19231,7 @@
         <v>2</v>
       </c>
       <c r="I218" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J218">
         <v>1.909</v>
@@ -19293,16 +19299,16 @@
         <v>6927286</v>
       </c>
       <c r="C219" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D219" s="2">
         <v>45366.64583333334</v>
       </c>
       <c r="E219" t="s">
+        <v>47</v>
+      </c>
+      <c r="F219" t="s">
         <v>45</v>
-      </c>
-      <c r="F219" t="s">
-        <v>43</v>
       </c>
       <c r="G219">
         <v>3</v>
@@ -19311,7 +19317,7 @@
         <v>2</v>
       </c>
       <c r="I219" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J219">
         <v>2.1</v>
@@ -19379,16 +19385,16 @@
         <v>6927352</v>
       </c>
       <c r="C220" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D220" s="2">
         <v>45366.64583333334</v>
       </c>
       <c r="E220" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F220" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -19397,7 +19403,7 @@
         <v>1</v>
       </c>
       <c r="I220" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J220">
         <v>3.1</v>
@@ -19465,16 +19471,16 @@
         <v>7101748</v>
       </c>
       <c r="C221" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D221" s="2">
         <v>45366.64583333334</v>
       </c>
       <c r="E221" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F221" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -19483,7 +19489,7 @@
         <v>1</v>
       </c>
       <c r="I221" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J221">
         <v>3</v>
@@ -19551,16 +19557,16 @@
         <v>6926934</v>
       </c>
       <c r="C222" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D222" s="2">
         <v>45366.64583333334</v>
       </c>
       <c r="E222" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F222" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -19569,7 +19575,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J222">
         <v>2.05</v>
@@ -19637,16 +19643,16 @@
         <v>6927135</v>
       </c>
       <c r="C223" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D223" s="2">
         <v>45366.64583333334</v>
       </c>
       <c r="E223" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F223" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G223">
         <v>2</v>
@@ -19655,7 +19661,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J223">
         <v>2.05</v>
@@ -19723,16 +19729,16 @@
         <v>6927134</v>
       </c>
       <c r="C224" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D224" s="2">
         <v>45366.64583333334</v>
       </c>
       <c r="E224" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G224">
         <v>2</v>
@@ -19741,7 +19747,7 @@
         <v>1</v>
       </c>
       <c r="I224" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J224">
         <v>3.4</v>
@@ -19809,16 +19815,16 @@
         <v>6927137</v>
       </c>
       <c r="C225" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D225" s="2">
         <v>45368.64583333334</v>
       </c>
       <c r="E225" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F225" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G225">
         <v>1</v>
@@ -19827,7 +19833,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J225">
         <v>1.615</v>
@@ -19895,16 +19901,16 @@
         <v>6927353</v>
       </c>
       <c r="C226" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D226" s="2">
         <v>45369.70833333334</v>
       </c>
       <c r="E226" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F226" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -19913,7 +19919,7 @@
         <v>2</v>
       </c>
       <c r="I226" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J226">
         <v>3.5</v>
@@ -19981,16 +19987,16 @@
         <v>6927141</v>
       </c>
       <c r="C227" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D227" s="2">
         <v>45373.64583333334</v>
       </c>
       <c r="E227" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F227" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G227">
         <v>1</v>
@@ -19999,7 +20005,7 @@
         <v>1</v>
       </c>
       <c r="I227" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J227">
         <v>1.909</v>
@@ -20067,16 +20073,16 @@
         <v>6926935</v>
       </c>
       <c r="C228" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D228" s="2">
         <v>45373.64583333334</v>
       </c>
       <c r="E228" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F228" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G228">
         <v>1</v>
@@ -20085,7 +20091,7 @@
         <v>1</v>
       </c>
       <c r="I228" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J228">
         <v>1.5</v>
@@ -20153,16 +20159,16 @@
         <v>6927355</v>
       </c>
       <c r="C229" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D229" s="2">
         <v>45373.64583333334</v>
       </c>
       <c r="E229" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F229" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G229">
         <v>1</v>
@@ -20171,7 +20177,7 @@
         <v>2</v>
       </c>
       <c r="I229" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J229">
         <v>1.571</v>
@@ -20239,16 +20245,16 @@
         <v>7101749</v>
       </c>
       <c r="C230" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D230" s="2">
         <v>45373.64583333334</v>
       </c>
       <c r="E230" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F230" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -20257,7 +20263,7 @@
         <v>2</v>
       </c>
       <c r="I230" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J230">
         <v>2.1</v>
@@ -20325,16 +20331,16 @@
         <v>6927354</v>
       </c>
       <c r="C231" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D231" s="2">
         <v>45373.64583333334</v>
       </c>
       <c r="E231" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F231" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G231">
         <v>1</v>
@@ -20343,7 +20349,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J231">
         <v>2.1</v>
@@ -20411,16 +20417,16 @@
         <v>6927142</v>
       </c>
       <c r="C232" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D232" s="2">
         <v>45373.64583333334</v>
       </c>
       <c r="E232" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F232" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G232">
         <v>2</v>
@@ -20429,7 +20435,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J232">
         <v>1.615</v>
@@ -20497,16 +20503,16 @@
         <v>6927140</v>
       </c>
       <c r="C233" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D233" s="2">
         <v>45373.64583333334</v>
       </c>
       <c r="E233" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F233" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -20515,7 +20521,7 @@
         <v>1</v>
       </c>
       <c r="I233" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J233">
         <v>1.8</v>
@@ -20583,17 +20589,17 @@
         <v>6927139</v>
       </c>
       <c r="C234" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D234" s="2">
         <v>45373.64583333334</v>
       </c>
       <c r="E234" t="s">
+        <v>36</v>
+      </c>
+      <c r="F234" t="s">
         <v>34</v>
       </c>
-      <c r="F234" t="s">
-        <v>32</v>
-      </c>
       <c r="G234">
         <v>1</v>
       </c>
@@ -20601,7 +20607,7 @@
         <v>1</v>
       </c>
       <c r="I234" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J234">
         <v>3.1</v>
@@ -20669,16 +20675,16 @@
         <v>7927217</v>
       </c>
       <c r="C235" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D235" s="2">
         <v>45376.70833333334</v>
       </c>
       <c r="E235" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F235" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G235">
         <v>1</v>
@@ -20687,7 +20693,7 @@
         <v>1</v>
       </c>
       <c r="I235" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J235">
         <v>2.5</v>
@@ -20755,16 +20761,16 @@
         <v>7866258</v>
       </c>
       <c r="C236" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D236" s="2">
         <v>45377.625</v>
       </c>
       <c r="E236" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F236" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G236">
         <v>1</v>
@@ -20773,7 +20779,7 @@
         <v>3</v>
       </c>
       <c r="I236" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J236">
         <v>2.2</v>
@@ -20841,16 +20847,16 @@
         <v>7884723</v>
       </c>
       <c r="C237" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D237" s="2">
         <v>45377.625</v>
       </c>
       <c r="E237" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F237" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G237">
         <v>2</v>
@@ -20859,7 +20865,7 @@
         <v>2</v>
       </c>
       <c r="I237" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J237">
         <v>2.6</v>
@@ -20927,16 +20933,16 @@
         <v>6927358</v>
       </c>
       <c r="C238" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D238" s="2">
         <v>45380.64583333334</v>
       </c>
       <c r="E238" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F238" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -20945,7 +20951,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J238">
         <v>1.666</v>
@@ -21013,16 +21019,16 @@
         <v>6927145</v>
       </c>
       <c r="C239" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D239" s="2">
         <v>45380.64583333334</v>
       </c>
       <c r="E239" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F239" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -21031,7 +21037,7 @@
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J239">
         <v>1.909</v>
@@ -21099,16 +21105,16 @@
         <v>6927357</v>
       </c>
       <c r="C240" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D240" s="2">
         <v>45380.64583333334</v>
       </c>
       <c r="E240" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F240" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G240">
         <v>1</v>
@@ -21117,7 +21123,7 @@
         <v>1</v>
       </c>
       <c r="I240" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J240">
         <v>5.5</v>
@@ -21185,16 +21191,16 @@
         <v>6927356</v>
       </c>
       <c r="C241" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D241" s="2">
         <v>45380.64583333334</v>
       </c>
       <c r="E241" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F241" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G241">
         <v>2</v>
@@ -21203,7 +21209,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J241">
         <v>2.625</v>
@@ -21271,16 +21277,16 @@
         <v>6927143</v>
       </c>
       <c r="C242" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D242" s="2">
         <v>45380.64583333334</v>
       </c>
       <c r="E242" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F242" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -21289,7 +21295,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J242">
         <v>2.25</v>
@@ -21357,16 +21363,16 @@
         <v>7101750</v>
       </c>
       <c r="C243" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D243" s="2">
         <v>45381.64583333334</v>
       </c>
       <c r="E243" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F243" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G243">
         <v>2</v>
@@ -21375,7 +21381,7 @@
         <v>2</v>
       </c>
       <c r="I243" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J243">
         <v>2.625</v>
@@ -21443,16 +21449,16 @@
         <v>6927144</v>
       </c>
       <c r="C244" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D244" s="2">
         <v>45381.64583333334</v>
       </c>
       <c r="E244" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F244" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -21461,7 +21467,7 @@
         <v>2</v>
       </c>
       <c r="I244" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J244">
         <v>3.25</v>
@@ -21529,16 +21535,16 @@
         <v>6927880</v>
       </c>
       <c r="C245" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D245" s="2">
         <v>45381.64583333334</v>
       </c>
       <c r="E245" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F245" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G245">
         <v>2</v>
@@ -21547,7 +21553,7 @@
         <v>2</v>
       </c>
       <c r="I245" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J245">
         <v>1.909</v>
@@ -21615,16 +21621,16 @@
         <v>6927146</v>
       </c>
       <c r="C246" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D246" s="2">
         <v>45383.47916666666</v>
       </c>
       <c r="E246" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F246" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -21633,7 +21639,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J246">
         <v>1.833</v>
@@ -21701,16 +21707,16 @@
         <v>6927151</v>
       </c>
       <c r="C247" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D247" s="2">
         <v>45387.60416666666</v>
       </c>
       <c r="E247" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F247" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G247">
         <v>2</v>
@@ -21719,7 +21725,7 @@
         <v>1</v>
       </c>
       <c r="I247" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J247">
         <v>2.8</v>
@@ -21787,16 +21793,16 @@
         <v>6927361</v>
       </c>
       <c r="C248" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D248" s="2">
         <v>45387.60416666666</v>
       </c>
       <c r="E248" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F248" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G248">
         <v>3</v>
@@ -21805,7 +21811,7 @@
         <v>4</v>
       </c>
       <c r="I248" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J248">
         <v>1.615</v>
@@ -21873,16 +21879,16 @@
         <v>6927147</v>
       </c>
       <c r="C249" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D249" s="2">
         <v>45387.60416666666</v>
       </c>
       <c r="E249" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F249" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G249">
         <v>2</v>
@@ -21891,7 +21897,7 @@
         <v>1</v>
       </c>
       <c r="I249" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J249">
         <v>1.833</v>
@@ -21959,16 +21965,16 @@
         <v>6927360</v>
       </c>
       <c r="C250" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D250" s="2">
         <v>45387.60416666666</v>
       </c>
       <c r="E250" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F250" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G250">
         <v>3</v>
@@ -21977,7 +21983,7 @@
         <v>4</v>
       </c>
       <c r="I250" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J250">
         <v>1.95</v>
@@ -22045,16 +22051,16 @@
         <v>6927149</v>
       </c>
       <c r="C251" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D251" s="2">
         <v>45387.60416666666</v>
       </c>
       <c r="E251" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F251" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -22063,7 +22069,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J251">
         <v>1.7</v>
@@ -22131,16 +22137,16 @@
         <v>6927148</v>
       </c>
       <c r="C252" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D252" s="2">
         <v>45387.60416666666</v>
       </c>
       <c r="E252" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F252" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G252">
         <v>2</v>
@@ -22149,7 +22155,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J252">
         <v>2.3</v>
@@ -22217,16 +22223,16 @@
         <v>6927359</v>
       </c>
       <c r="C253" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D253" s="2">
         <v>45387.60416666666</v>
       </c>
       <c r="E253" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F253" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G253">
         <v>1</v>
@@ -22235,7 +22241,7 @@
         <v>1</v>
       </c>
       <c r="I253" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J253">
         <v>1.6</v>
@@ -22303,16 +22309,16 @@
         <v>6927150</v>
       </c>
       <c r="C254" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D254" s="2">
         <v>45388.54166666666</v>
       </c>
       <c r="E254" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F254" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G254">
         <v>1</v>
@@ -22321,7 +22327,7 @@
         <v>1</v>
       </c>
       <c r="I254" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J254">
         <v>2.15</v>
@@ -22389,16 +22395,16 @@
         <v>7980557</v>
       </c>
       <c r="C255" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D255" s="2">
         <v>45390.66666666666</v>
       </c>
       <c r="E255" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F255" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G255">
         <v>4</v>
@@ -22407,7 +22413,7 @@
         <v>1</v>
       </c>
       <c r="I255" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J255">
         <v>1.909</v>
@@ -22475,16 +22481,16 @@
         <v>8066345</v>
       </c>
       <c r="C256" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D256" s="2">
         <v>45394.53125</v>
       </c>
       <c r="E256" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F256" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G256">
         <v>2</v>
@@ -22493,7 +22499,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J256">
         <v>1.833</v>
@@ -22561,16 +22567,16 @@
         <v>6927364</v>
       </c>
       <c r="C257" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D257" s="2">
         <v>45394.60416666666</v>
       </c>
       <c r="E257" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F257" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -22579,7 +22585,7 @@
         <v>2</v>
       </c>
       <c r="I257" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J257">
         <v>2.25</v>
@@ -22647,16 +22653,16 @@
         <v>6927154</v>
       </c>
       <c r="C258" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D258" s="2">
         <v>45394.60416666666</v>
       </c>
       <c r="E258" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F258" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -22665,7 +22671,7 @@
         <v>1</v>
       </c>
       <c r="I258" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J258">
         <v>2.625</v>
@@ -22733,16 +22739,16 @@
         <v>6927155</v>
       </c>
       <c r="C259" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D259" s="2">
         <v>45394.60416666666</v>
       </c>
       <c r="E259" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F259" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -22751,7 +22757,7 @@
         <v>1</v>
       </c>
       <c r="I259" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J259">
         <v>2.45</v>
@@ -22819,16 +22825,16 @@
         <v>6927362</v>
       </c>
       <c r="C260" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D260" s="2">
         <v>45394.60416666666</v>
       </c>
       <c r="E260" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F260" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G260">
         <v>1</v>
@@ -22837,7 +22843,7 @@
         <v>2</v>
       </c>
       <c r="I260" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J260">
         <v>2.5</v>
@@ -22905,16 +22911,16 @@
         <v>7101752</v>
       </c>
       <c r="C261" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D261" s="2">
         <v>45394.60416666666</v>
       </c>
       <c r="E261" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F261" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G261">
         <v>1</v>
@@ -22923,7 +22929,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J261">
         <v>3.2</v>
@@ -22991,16 +22997,16 @@
         <v>6927153</v>
       </c>
       <c r="C262" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D262" s="2">
         <v>45394.60416666666</v>
       </c>
       <c r="E262" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F262" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -23009,7 +23015,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J262">
         <v>2.4</v>
@@ -23077,16 +23083,16 @@
         <v>6927363</v>
       </c>
       <c r="C263" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D263" s="2">
         <v>45394.60416666666</v>
       </c>
       <c r="E263" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F263" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G263">
         <v>0</v>
@@ -23095,7 +23101,7 @@
         <v>2</v>
       </c>
       <c r="I263" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J263">
         <v>4.5</v>
@@ -23163,16 +23169,16 @@
         <v>6926936</v>
       </c>
       <c r="C264" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D264" s="2">
         <v>45397.5625</v>
       </c>
       <c r="E264" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F264" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G264">
         <v>3</v>
@@ -23181,7 +23187,7 @@
         <v>2</v>
       </c>
       <c r="I264" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J264">
         <v>2.75</v>
@@ -23249,16 +23255,16 @@
         <v>6927365</v>
       </c>
       <c r="C265" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D265" s="2">
         <v>45401.60416666666</v>
       </c>
       <c r="E265" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F265" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -23267,7 +23273,7 @@
         <v>1</v>
       </c>
       <c r="I265" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J265">
         <v>3</v>
@@ -23335,16 +23341,16 @@
         <v>6927879</v>
       </c>
       <c r="C266" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D266" s="2">
         <v>45401.60416666666</v>
       </c>
       <c r="E266" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F266" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G266">
         <v>2</v>
@@ -23353,7 +23359,7 @@
         <v>3</v>
       </c>
       <c r="I266" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J266">
         <v>2.1</v>
@@ -23421,16 +23427,16 @@
         <v>6927368</v>
       </c>
       <c r="C267" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D267" s="2">
         <v>45401.60416666666</v>
       </c>
       <c r="E267" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F267" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G267">
         <v>3</v>
@@ -23439,7 +23445,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J267">
         <v>1.8</v>
@@ -23507,16 +23513,16 @@
         <v>6927367</v>
       </c>
       <c r="C268" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D268" s="2">
         <v>45401.60416666666</v>
       </c>
       <c r="E268" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F268" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -23525,7 +23531,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J268">
         <v>3.4</v>
@@ -23593,17 +23599,17 @@
         <v>6927366</v>
       </c>
       <c r="C269" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D269" s="2">
         <v>45401.60416666666</v>
       </c>
       <c r="E269" t="s">
+        <v>48</v>
+      </c>
+      <c r="F269" t="s">
         <v>46</v>
       </c>
-      <c r="F269" t="s">
-        <v>44</v>
-      </c>
       <c r="G269">
         <v>1</v>
       </c>
@@ -23611,7 +23617,7 @@
         <v>1</v>
       </c>
       <c r="I269" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J269">
         <v>1.7</v>
@@ -23679,17 +23685,17 @@
         <v>6927158</v>
       </c>
       <c r="C270" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D270" s="2">
         <v>45401.60416666666</v>
       </c>
       <c r="E270" t="s">
+        <v>42</v>
+      </c>
+      <c r="F270" t="s">
         <v>40</v>
       </c>
-      <c r="F270" t="s">
-        <v>38</v>
-      </c>
       <c r="G270">
         <v>2</v>
       </c>
@@ -23697,7 +23703,7 @@
         <v>2</v>
       </c>
       <c r="I270" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J270">
         <v>1.333</v>
@@ -23765,16 +23771,16 @@
         <v>6927157</v>
       </c>
       <c r="C271" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D271" s="2">
         <v>45401.60416666666</v>
       </c>
       <c r="E271" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F271" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -23783,7 +23789,7 @@
         <v>1</v>
       </c>
       <c r="I271" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J271">
         <v>1.8</v>
@@ -23851,16 +23857,16 @@
         <v>6927156</v>
       </c>
       <c r="C272" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D272" s="2">
         <v>45401.60416666666</v>
       </c>
       <c r="E272" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F272" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -23869,7 +23875,7 @@
         <v>2</v>
       </c>
       <c r="I272" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J272">
         <v>1.727</v>
@@ -23937,16 +23943,16 @@
         <v>8101813</v>
       </c>
       <c r="C273" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D273" s="2">
         <v>45404.66666666666</v>
       </c>
       <c r="E273" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F273" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G273">
         <v>2</v>
@@ -23955,7 +23961,7 @@
         <v>1</v>
       </c>
       <c r="I273" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J273">
         <v>2.5</v>
@@ -24023,16 +24029,16 @@
         <v>6927159</v>
       </c>
       <c r="C274" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D274" s="2">
         <v>45408.5625</v>
       </c>
       <c r="E274" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F274" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -24041,7 +24047,7 @@
         <v>3</v>
       </c>
       <c r="I274" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J274">
         <v>2.3</v>
@@ -24109,16 +24115,16 @@
         <v>6927160</v>
       </c>
       <c r="C275" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D275" s="2">
         <v>45408.60416666666</v>
       </c>
       <c r="E275" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F275" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G275">
         <v>1</v>
@@ -24127,7 +24133,7 @@
         <v>2</v>
       </c>
       <c r="I275" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J275">
         <v>2.75</v>
@@ -24195,16 +24201,16 @@
         <v>7101754</v>
       </c>
       <c r="C276" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D276" s="2">
         <v>45408.60416666666</v>
       </c>
       <c r="E276" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F276" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G276">
         <v>1</v>
@@ -24213,7 +24219,7 @@
         <v>2</v>
       </c>
       <c r="I276" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J276">
         <v>2.55</v>
@@ -24281,16 +24287,16 @@
         <v>6927369</v>
       </c>
       <c r="C277" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D277" s="2">
         <v>45408.60416666666</v>
       </c>
       <c r="E277" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F277" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G277">
         <v>3</v>
@@ -24299,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J277">
         <v>2.2</v>
@@ -24367,16 +24373,16 @@
         <v>6927371</v>
       </c>
       <c r="C278" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D278" s="2">
         <v>45408.60416666666</v>
       </c>
       <c r="E278" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F278" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G278">
         <v>1</v>
@@ -24385,7 +24391,7 @@
         <v>4</v>
       </c>
       <c r="I278" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J278">
         <v>1.571</v>
@@ -24453,16 +24459,16 @@
         <v>6926937</v>
       </c>
       <c r="C279" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D279" s="2">
         <v>45408.60416666666</v>
       </c>
       <c r="E279" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F279" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G279">
         <v>3</v>
@@ -24471,7 +24477,7 @@
         <v>6</v>
       </c>
       <c r="I279" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J279">
         <v>2.15</v>
@@ -24539,16 +24545,16 @@
         <v>6943497</v>
       </c>
       <c r="C280" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D280" s="2">
         <v>45408.60416666666</v>
       </c>
       <c r="E280" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F280" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G280">
         <v>0</v>
@@ -24557,7 +24563,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J280">
         <v>2.45</v>
@@ -24625,17 +24631,17 @@
         <v>6927372</v>
       </c>
       <c r="C281" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D281" s="2">
         <v>45408.60416666666</v>
       </c>
       <c r="E281" t="s">
+        <v>46</v>
+      </c>
+      <c r="F281" t="s">
         <v>44</v>
       </c>
-      <c r="F281" t="s">
-        <v>42</v>
-      </c>
       <c r="G281">
         <v>0</v>
       </c>
@@ -24643,7 +24649,7 @@
         <v>1</v>
       </c>
       <c r="I281" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J281">
         <v>1.6</v>
@@ -24711,16 +24717,16 @@
         <v>6927370</v>
       </c>
       <c r="C282" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D282" s="2">
         <v>45411.66666666666</v>
       </c>
       <c r="E282" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F282" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G282">
         <v>1</v>
@@ -24729,7 +24735,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J282">
         <v>3</v>
@@ -24797,16 +24803,16 @@
         <v>6927374</v>
       </c>
       <c r="C283" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D283" s="2">
         <v>45415.58333333334</v>
       </c>
       <c r="E283" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F283" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G283">
         <v>1</v>
@@ -24815,7 +24821,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J283">
         <v>1.95</v>
@@ -24883,16 +24889,16 @@
         <v>6927373</v>
       </c>
       <c r="C284" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D284" s="2">
         <v>45415.60416666666</v>
       </c>
       <c r="E284" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F284" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G284">
         <v>1</v>
@@ -24901,7 +24907,7 @@
         <v>2</v>
       </c>
       <c r="I284" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J284">
         <v>1.65</v>
@@ -24969,16 +24975,16 @@
         <v>6926938</v>
       </c>
       <c r="C285" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D285" s="2">
         <v>45415.60416666666</v>
       </c>
       <c r="E285" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F285" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G285">
         <v>0</v>
@@ -24987,7 +24993,7 @@
         <v>3</v>
       </c>
       <c r="I285" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J285">
         <v>2.7</v>
@@ -25055,16 +25061,16 @@
         <v>6927376</v>
       </c>
       <c r="C286" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D286" s="2">
         <v>45415.60416666666</v>
       </c>
       <c r="E286" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F286" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G286">
         <v>0</v>
@@ -25073,7 +25079,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J286">
         <v>3.5</v>
@@ -25141,16 +25147,16 @@
         <v>6954804</v>
       </c>
       <c r="C287" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D287" s="2">
         <v>45415.60416666666</v>
       </c>
       <c r="E287" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F287" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G287">
         <v>3</v>
@@ -25159,7 +25165,7 @@
         <v>3</v>
       </c>
       <c r="I287" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J287">
         <v>1.6</v>
@@ -25227,16 +25233,16 @@
         <v>6927375</v>
       </c>
       <c r="C288" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D288" s="2">
         <v>45415.60416666666</v>
       </c>
       <c r="E288" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F288" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G288">
         <v>1</v>
@@ -25245,7 +25251,7 @@
         <v>2</v>
       </c>
       <c r="I288" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J288">
         <v>2.1</v>
@@ -25313,16 +25319,16 @@
         <v>7101755</v>
       </c>
       <c r="C289" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D289" s="2">
         <v>45415.60416666666</v>
       </c>
       <c r="E289" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F289" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G289">
         <v>0</v>
@@ -25331,7 +25337,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J289">
         <v>2.15</v>
@@ -25399,16 +25405,16 @@
         <v>6927162</v>
       </c>
       <c r="C290" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D290" s="2">
         <v>45415.66666666666</v>
       </c>
       <c r="E290" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F290" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G290">
         <v>2</v>
@@ -25417,7 +25423,7 @@
         <v>1</v>
       </c>
       <c r="I290" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J290">
         <v>1.5</v>
@@ -25485,16 +25491,16 @@
         <v>6927161</v>
       </c>
       <c r="C291" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D291" s="2">
         <v>45416.54166666666</v>
       </c>
       <c r="E291" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F291" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G291">
         <v>4</v>
@@ -25503,7 +25509,7 @@
         <v>2</v>
       </c>
       <c r="I291" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J291">
         <v>3</v>
@@ -25571,16 +25577,16 @@
         <v>27</v>
       </c>
       <c r="C292" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D292" s="2">
         <v>45422.66666666666</v>
       </c>
       <c r="E292" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F292" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J292">
         <v>2.3</v>
@@ -25636,16 +25642,16 @@
         <v>28</v>
       </c>
       <c r="C293" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D293" s="2">
         <v>45422.66666666666</v>
       </c>
       <c r="E293" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F293" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J293">
         <v>1.85</v>
@@ -25657,16 +25663,16 @@
         <v>3.5</v>
       </c>
       <c r="M293">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="N293">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O293">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P293">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q293">
         <v>2</v>
@@ -25678,10 +25684,10 @@
         <v>2.75</v>
       </c>
       <c r="T293">
+        <v>1.85</v>
+      </c>
+      <c r="U293">
         <v>1.95</v>
-      </c>
-      <c r="U293">
-        <v>1.85</v>
       </c>
       <c r="V293">
         <v>0</v>
@@ -25701,16 +25707,16 @@
         <v>29</v>
       </c>
       <c r="C294" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D294" s="2">
         <v>45422.66666666666</v>
       </c>
       <c r="E294" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F294" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J294">
         <v>2.5</v>
@@ -25734,19 +25740,19 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R294">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S294">
         <v>2.5</v>
       </c>
       <c r="T294">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U294">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V294">
         <v>0</v>
@@ -25766,16 +25772,16 @@
         <v>30</v>
       </c>
       <c r="C295" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D295" s="2">
         <v>45422.66666666666</v>
       </c>
       <c r="E295" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F295" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J295">
         <v>2.1</v>
@@ -25787,39 +25793,169 @@
         <v>3.1</v>
       </c>
       <c r="M295">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="N295">
         <v>3.4</v>
       </c>
       <c r="O295">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P295">
         <v>-0.25</v>
       </c>
       <c r="Q295">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R295">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S295">
         <v>2.5</v>
       </c>
       <c r="T295">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U295">
+        <v>1.825</v>
+      </c>
+      <c r="V295">
+        <v>0</v>
+      </c>
+      <c r="W295">
+        <v>0</v>
+      </c>
+      <c r="X295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:28">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>31</v>
+      </c>
+      <c r="C296" t="s">
+        <v>33</v>
+      </c>
+      <c r="D296" s="2">
+        <v>45422.66666666666</v>
+      </c>
+      <c r="E296" t="s">
+        <v>37</v>
+      </c>
+      <c r="F296" t="s">
+        <v>43</v>
+      </c>
+      <c r="J296">
+        <v>2.5</v>
+      </c>
+      <c r="K296">
+        <v>3.6</v>
+      </c>
+      <c r="L296">
+        <v>2.4</v>
+      </c>
+      <c r="M296">
+        <v>2.7</v>
+      </c>
+      <c r="N296">
+        <v>3.75</v>
+      </c>
+      <c r="O296">
+        <v>2.2</v>
+      </c>
+      <c r="P296">
+        <v>0.25</v>
+      </c>
+      <c r="Q296">
         <v>1.8</v>
       </c>
-      <c r="V295">
-        <v>0</v>
-      </c>
-      <c r="W295">
-        <v>0</v>
-      </c>
-      <c r="X295">
+      <c r="R296">
+        <v>2</v>
+      </c>
+      <c r="S296">
+        <v>2.5</v>
+      </c>
+      <c r="T296">
+        <v>2</v>
+      </c>
+      <c r="U296">
+        <v>1.8</v>
+      </c>
+      <c r="V296">
+        <v>0</v>
+      </c>
+      <c r="W296">
+        <v>0</v>
+      </c>
+      <c r="X296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:28">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>32</v>
+      </c>
+      <c r="C297" t="s">
+        <v>33</v>
+      </c>
+      <c r="D297" s="2">
+        <v>45422.66666666666</v>
+      </c>
+      <c r="E297" t="s">
+        <v>38</v>
+      </c>
+      <c r="F297" t="s">
+        <v>49</v>
+      </c>
+      <c r="J297">
+        <v>2.4</v>
+      </c>
+      <c r="K297">
+        <v>2.9</v>
+      </c>
+      <c r="L297">
+        <v>3</v>
+      </c>
+      <c r="M297">
+        <v>2.55</v>
+      </c>
+      <c r="N297">
+        <v>3.1</v>
+      </c>
+      <c r="O297">
+        <v>2.625</v>
+      </c>
+      <c r="P297">
+        <v>0</v>
+      </c>
+      <c r="Q297">
+        <v>1.85</v>
+      </c>
+      <c r="R297">
+        <v>1.95</v>
+      </c>
+      <c r="S297">
+        <v>2.5</v>
+      </c>
+      <c r="T297">
+        <v>1.875</v>
+      </c>
+      <c r="U297">
+        <v>1.925</v>
+      </c>
+      <c r="V297">
+        <v>0</v>
+      </c>
+      <c r="W297">
+        <v>0</v>
+      </c>
+      <c r="X297">
         <v>0</v>
       </c>
     </row>

--- a/France National/France National.xlsx
+++ b/France National/France National.xlsx
@@ -115,6 +115,9 @@
     <t>Niort</t>
   </si>
   <si>
+    <t>Nancy</t>
+  </si>
+  <si>
     <t>Epinal</t>
   </si>
   <si>
@@ -124,13 +127,7 @@
     <t>Cholet</t>
   </si>
   <si>
-    <t>Nancy</t>
-  </si>
-  <si>
     <t>Nimes</t>
-  </si>
-  <si>
-    <t>Villefranche</t>
   </si>
   <si>
     <t>GOAL FC</t>
@@ -139,10 +136,13 @@
     <t>Avranches</t>
   </si>
   <si>
-    <t>Martigues</t>
+    <t>Villefranche</t>
   </si>
   <si>
     <t>Chateauroux</t>
+  </si>
+  <si>
+    <t>Martigues</t>
   </si>
   <si>
     <t>Rouen</t>
@@ -824,7 +824,7 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -904,7 +904,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6927291</v>
+        <v>6926919</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -916,79 +916,79 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L5">
+        <v>2.25</v>
+      </c>
+      <c r="M5">
+        <v>3.3</v>
+      </c>
+      <c r="N5">
         <v>2.7</v>
       </c>
-      <c r="M5">
-        <v>3.5</v>
-      </c>
-      <c r="N5">
-        <v>2.2</v>
-      </c>
       <c r="O5">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="P5">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q5">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="R5">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S5">
+        <v>1.9</v>
+      </c>
+      <c r="T5">
+        <v>1.9</v>
+      </c>
+      <c r="U5">
+        <v>2.5</v>
+      </c>
+      <c r="V5">
+        <v>1.95</v>
+      </c>
+      <c r="W5">
         <v>1.85</v>
       </c>
-      <c r="T5">
-        <v>1.95</v>
-      </c>
-      <c r="U5">
-        <v>2.25</v>
-      </c>
-      <c r="V5">
-        <v>1.825</v>
-      </c>
-      <c r="W5">
-        <v>1.975</v>
-      </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z5">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB5">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AC5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD5">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -996,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6927289</v>
+        <v>6927291</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1008,79 +1008,79 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L6">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="M6">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N6">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O6">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="P6">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q6">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="R6">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T6">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U6">
         <v>2.25</v>
       </c>
       <c r="V6">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X6">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="AA6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -1088,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6927272</v>
+        <v>6927289</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1100,10 +1100,10 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1118,43 +1118,43 @@
         <v>50</v>
       </c>
       <c r="L7">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="M7">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N7">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="O7">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P7">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q7">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="R7">
         <v>-0.25</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U7">
         <v>2.25</v>
       </c>
       <c r="V7">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W7">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X7">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="Y7">
         <v>-1</v>
@@ -1163,16 +1163,16 @@
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD7">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1180,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6926919</v>
+        <v>6927272</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1192,40 +1192,40 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="M8">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N8">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O8">
         <v>2.1</v>
       </c>
       <c r="P8">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="R8">
         <v>-0.25</v>
@@ -1237,34 +1237,34 @@
         <v>1.9</v>
       </c>
       <c r="U8">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V8">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y8">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB8">
+        <v>-1</v>
+      </c>
+      <c r="AC8">
         <v>-0.5</v>
       </c>
-      <c r="AB8">
-        <v>0.45</v>
-      </c>
-      <c r="AC8">
-        <v>-1</v>
-      </c>
       <c r="AD8">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1284,7 +1284,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1364,7 +1364,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6927294</v>
+        <v>6927293</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1376,61 +1376,61 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="s">
         <v>50</v>
       </c>
       <c r="L10">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="M10">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N10">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="O10">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q10">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="R10">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S10">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T10">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U10">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="X10">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="Y10">
         <v>-1</v>
@@ -1439,13 +1439,13 @@
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD10">
         <v>-1</v>
@@ -1456,7 +1456,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6927293</v>
+        <v>6927292</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1468,16 +1468,16 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1486,43 +1486,43 @@
         <v>50</v>
       </c>
       <c r="L11">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="M11">
         <v>3.4</v>
       </c>
       <c r="N11">
+        <v>3.8</v>
+      </c>
+      <c r="O11">
+        <v>1.95</v>
+      </c>
+      <c r="P11">
+        <v>3.25</v>
+      </c>
+      <c r="Q11">
+        <v>3.4</v>
+      </c>
+      <c r="R11">
+        <v>-0.5</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
         <v>1.8</v>
       </c>
-      <c r="O11">
-        <v>4</v>
-      </c>
-      <c r="P11">
-        <v>3</v>
-      </c>
-      <c r="Q11">
-        <v>1.85</v>
-      </c>
-      <c r="R11">
-        <v>0.5</v>
-      </c>
-      <c r="S11">
-        <v>1.875</v>
-      </c>
-      <c r="T11">
-        <v>1.925</v>
-      </c>
       <c r="U11">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V11">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W11">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X11">
-        <v>3</v>
+        <v>0.95</v>
       </c>
       <c r="Y11">
         <v>-1</v>
@@ -1531,13 +1531,13 @@
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AD11">
         <v>-1</v>
@@ -1548,7 +1548,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6927292</v>
+        <v>6927294</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -1560,76 +1560,76 @@
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
         <v>50</v>
       </c>
       <c r="L12">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="M12">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N12">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O12">
+        <v>2.2</v>
+      </c>
+      <c r="P12">
+        <v>3.2</v>
+      </c>
+      <c r="Q12">
+        <v>2.875</v>
+      </c>
+      <c r="R12">
+        <v>-0.25</v>
+      </c>
+      <c r="S12">
         <v>1.95</v>
       </c>
-      <c r="P12">
-        <v>3.25</v>
-      </c>
-      <c r="Q12">
-        <v>3.4</v>
-      </c>
-      <c r="R12">
-        <v>-0.5</v>
-      </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
       <c r="T12">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U12">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V12">
+        <v>1.95</v>
+      </c>
+      <c r="W12">
         <v>1.75</v>
       </c>
-      <c r="W12">
-        <v>1.95</v>
-      </c>
       <c r="X12">
+        <v>1.2</v>
+      </c>
+      <c r="Y12">
+        <v>-1</v>
+      </c>
+      <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
         <v>0.95</v>
       </c>
-      <c r="Y12">
-        <v>-1</v>
-      </c>
-      <c r="Z12">
-        <v>-1</v>
-      </c>
-      <c r="AA12">
-        <v>1</v>
-      </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AD12">
         <v>-1</v>
@@ -1640,7 +1640,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6926920</v>
+        <v>6927045</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -1649,82 +1649,82 @@
         <v>45156.60416666666</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="M13">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="O13">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="P13">
         <v>3.4</v>
       </c>
       <c r="Q13">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="R13">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T13">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U13">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V13">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB13">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -1741,7 +1741,7 @@
         <v>45156.60416666666</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
         <v>46</v>
@@ -1824,7 +1824,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6927045</v>
+        <v>6926920</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -1833,82 +1833,82 @@
         <v>45156.60416666666</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L15">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="M15">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N15">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O15">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="P15">
         <v>3.4</v>
       </c>
       <c r="Q15">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="R15">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S15">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T15">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U15">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V15">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W15">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD15">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -2204,7 +2204,7 @@
         <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -2293,10 +2293,10 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2385,10 +2385,10 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2661,10 +2661,10 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2756,7 +2756,7 @@
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2937,10 +2937,10 @@
         <v>45170.60416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -3029,7 +3029,7 @@
         <v>45170.60416666666</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
         <v>37</v>
@@ -3121,7 +3121,7 @@
         <v>45170.60416666666</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
         <v>32</v>
@@ -3213,7 +3213,7 @@
         <v>45170.60416666666</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
         <v>31</v>
@@ -3308,7 +3308,7 @@
         <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         <v>45170.60416666666</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
         <v>30</v>
@@ -3584,7 +3584,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3673,7 +3673,7 @@
         <v>45173.66666666666</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
         <v>45</v>
@@ -3765,7 +3765,7 @@
         <v>45177.60416666666</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F36" t="s">
         <v>47</v>
@@ -3860,7 +3860,7 @@
         <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3952,7 +3952,7 @@
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -4044,7 +4044,7 @@
         <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -4133,10 +4133,10 @@
         <v>45177.60416666666</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -4228,7 +4228,7 @@
         <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4320,7 +4320,7 @@
         <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4501,7 +4501,7 @@
         <v>45180.66666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F44" t="s">
         <v>44</v>
@@ -4593,7 +4593,7 @@
         <v>45184.60416666666</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s">
         <v>37</v>
@@ -4688,7 +4688,7 @@
         <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4780,7 +4780,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4869,10 +4869,10 @@
         <v>45184.60416666666</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -5053,7 +5053,7 @@
         <v>45184.60416666666</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F50" t="s">
         <v>30</v>
@@ -5145,7 +5145,7 @@
         <v>45184.60416666666</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s">
         <v>47</v>
@@ -5237,7 +5237,7 @@
         <v>45184.60416666666</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
         <v>46</v>
@@ -5329,7 +5329,7 @@
         <v>45187.55208333334</v>
       </c>
       <c r="E53" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F53" t="s">
         <v>31</v>
@@ -5516,7 +5516,7 @@
         <v>37</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5605,7 +5605,7 @@
         <v>45191.60416666666</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F56" t="s">
         <v>44</v>
@@ -5697,10 +5697,10 @@
         <v>45191.60416666666</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5792,7 +5792,7 @@
         <v>31</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>45191.60416666666</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5976,7 +5976,7 @@
         <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -6068,7 +6068,7 @@
         <v>46</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -6344,7 +6344,7 @@
         <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -6525,7 +6525,7 @@
         <v>45198.60416666666</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F66" t="s">
         <v>46</v>
@@ -6617,10 +6617,10 @@
         <v>45198.60416666666</v>
       </c>
       <c r="E67" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G67">
         <v>3</v>
@@ -6709,7 +6709,7 @@
         <v>45198.60416666666</v>
       </c>
       <c r="E68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F68" t="s">
         <v>37</v>
@@ -6801,10 +6801,10 @@
         <v>45198.60416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6985,7 +6985,7 @@
         <v>45201.5625</v>
       </c>
       <c r="E71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F71" t="s">
         <v>45</v>
@@ -7261,10 +7261,10 @@
         <v>45205.60416666666</v>
       </c>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -7353,7 +7353,7 @@
         <v>45205.60416666666</v>
       </c>
       <c r="E75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F75" t="s">
         <v>43</v>
@@ -7537,10 +7537,10 @@
         <v>45205.60416666666</v>
       </c>
       <c r="E77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7632,7 +7632,7 @@
         <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7721,7 +7721,7 @@
         <v>45205.60416666666</v>
       </c>
       <c r="E79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F79" t="s">
         <v>44</v>
@@ -7816,7 +7816,7 @@
         <v>46</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7908,7 +7908,7 @@
         <v>47</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G81">
         <v>2</v>
@@ -7997,10 +7997,10 @@
         <v>45210.60416666666</v>
       </c>
       <c r="E82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -8181,7 +8181,7 @@
         <v>45210.66666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F84" t="s">
         <v>47</v>
@@ -8273,7 +8273,7 @@
         <v>45210.66666666666</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F85" t="s">
         <v>45</v>
@@ -8365,10 +8365,10 @@
         <v>45210.66666666666</v>
       </c>
       <c r="E86" t="s">
+        <v>40</v>
+      </c>
+      <c r="F86" t="s">
         <v>38</v>
-      </c>
-      <c r="F86" t="s">
-        <v>39</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -8552,7 +8552,7 @@
         <v>31</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G88">
         <v>4</v>
@@ -8641,10 +8641,10 @@
         <v>45210.66666666666</v>
       </c>
       <c r="E89" t="s">
+        <v>36</v>
+      </c>
+      <c r="F89" t="s">
         <v>35</v>
-      </c>
-      <c r="F89" t="s">
-        <v>34</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8825,10 +8825,10 @@
         <v>45219.60416666666</v>
       </c>
       <c r="E91" t="s">
+        <v>42</v>
+      </c>
+      <c r="F91" t="s">
         <v>41</v>
-      </c>
-      <c r="F91" t="s">
-        <v>42</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8917,7 +8917,7 @@
         <v>45219.60416666666</v>
       </c>
       <c r="E92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F92" t="s">
         <v>32</v>
@@ -9101,7 +9101,7 @@
         <v>45219.60416666666</v>
       </c>
       <c r="E94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F94" t="s">
         <v>44</v>
@@ -9285,10 +9285,10 @@
         <v>45219.60416666666</v>
       </c>
       <c r="E96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -9380,7 +9380,7 @@
         <v>47</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -9472,7 +9472,7 @@
         <v>43</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -9564,7 +9564,7 @@
         <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -9656,7 +9656,7 @@
         <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9745,10 +9745,10 @@
         <v>45233.64583333334</v>
       </c>
       <c r="E101" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -9837,7 +9837,7 @@
         <v>45233.64583333334</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F102" t="s">
         <v>47</v>
@@ -10021,7 +10021,7 @@
         <v>45233.64583333334</v>
       </c>
       <c r="E104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F104" t="s">
         <v>43</v>
@@ -10116,7 +10116,7 @@
         <v>37</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -10205,10 +10205,10 @@
         <v>45233.64583333334</v>
       </c>
       <c r="E106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -10297,7 +10297,7 @@
         <v>45233.65625</v>
       </c>
       <c r="E107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F107" t="s">
         <v>44</v>
@@ -10481,10 +10481,10 @@
         <v>45240.64583333334</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G109">
         <v>4</v>
@@ -10576,7 +10576,7 @@
         <v>47</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -10748,7 +10748,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6926926</v>
+        <v>6927320</v>
       </c>
       <c r="C112" t="s">
         <v>29</v>
@@ -10757,82 +10757,82 @@
         <v>45240.64583333334</v>
       </c>
       <c r="E112" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112" t="s">
         <v>50</v>
       </c>
       <c r="L112">
+        <v>1.45</v>
+      </c>
+      <c r="M112">
+        <v>4.2</v>
+      </c>
+      <c r="N112">
+        <v>6</v>
+      </c>
+      <c r="O112">
+        <v>1.4</v>
+      </c>
+      <c r="P112">
+        <v>4.2</v>
+      </c>
+      <c r="Q112">
+        <v>7</v>
+      </c>
+      <c r="R112">
+        <v>-1.25</v>
+      </c>
+      <c r="S112">
+        <v>1.875</v>
+      </c>
+      <c r="T112">
+        <v>1.925</v>
+      </c>
+      <c r="U112">
+        <v>2.5</v>
+      </c>
+      <c r="V112">
+        <v>1.95</v>
+      </c>
+      <c r="W112">
         <v>1.85</v>
       </c>
-      <c r="M112">
-        <v>3.2</v>
-      </c>
-      <c r="N112">
-        <v>4</v>
-      </c>
-      <c r="O112">
-        <v>1.833</v>
-      </c>
-      <c r="P112">
-        <v>3.2</v>
-      </c>
-      <c r="Q112">
-        <v>4.2</v>
-      </c>
-      <c r="R112">
+      <c r="X112">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="Y112">
+        <v>-1</v>
+      </c>
+      <c r="Z112">
+        <v>-1</v>
+      </c>
+      <c r="AA112">
         <v>-0.5</v>
       </c>
-      <c r="S112">
-        <v>1.825</v>
-      </c>
-      <c r="T112">
-        <v>1.975</v>
-      </c>
-      <c r="U112">
-        <v>2</v>
-      </c>
-      <c r="V112">
-        <v>1.775</v>
-      </c>
-      <c r="W112">
-        <v>2.025</v>
-      </c>
-      <c r="X112">
-        <v>0.833</v>
-      </c>
-      <c r="Y112">
-        <v>-1</v>
-      </c>
-      <c r="Z112">
-        <v>-1</v>
-      </c>
-      <c r="AA112">
-        <v>0.825</v>
-      </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD112">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:30">
@@ -10849,7 +10849,7 @@
         <v>45240.64583333334</v>
       </c>
       <c r="E113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F113" t="s">
         <v>32</v>
@@ -10944,7 +10944,7 @@
         <v>43</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -11027,7 +11027,7 @@
         <v>45240.64583333334</v>
       </c>
       <c r="E115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F115" t="s">
         <v>31</v>
@@ -11110,7 +11110,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6927320</v>
+        <v>6926926</v>
       </c>
       <c r="C116" t="s">
         <v>29</v>
@@ -11119,64 +11119,64 @@
         <v>45240.64583333334</v>
       </c>
       <c r="E116" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K116" t="s">
         <v>50</v>
       </c>
       <c r="L116">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="M116">
+        <v>3.2</v>
+      </c>
+      <c r="N116">
+        <v>4</v>
+      </c>
+      <c r="O116">
+        <v>1.833</v>
+      </c>
+      <c r="P116">
+        <v>3.2</v>
+      </c>
+      <c r="Q116">
         <v>4.2</v>
       </c>
-      <c r="N116">
-        <v>6</v>
-      </c>
-      <c r="O116">
-        <v>1.4</v>
-      </c>
-      <c r="P116">
-        <v>4.2</v>
-      </c>
-      <c r="Q116">
-        <v>7</v>
-      </c>
       <c r="R116">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S116">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T116">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U116">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V116">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W116">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="X116">
-        <v>0.3999999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="Y116">
         <v>-1</v>
@@ -11185,16 +11185,16 @@
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB116">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD116">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="117" spans="1:30">
@@ -11214,7 +11214,7 @@
         <v>44</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -11294,7 +11294,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6927094</v>
+        <v>6927322</v>
       </c>
       <c r="C118" t="s">
         <v>29</v>
@@ -11303,82 +11303,82 @@
         <v>45254.64583333334</v>
       </c>
       <c r="E118" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H118">
         <v>2</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118">
         <v>1</v>
       </c>
       <c r="K118" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L118">
+        <v>2.45</v>
+      </c>
+      <c r="M118">
         <v>3.1</v>
       </c>
-      <c r="M118">
-        <v>3.25</v>
-      </c>
       <c r="N118">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="P118">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q118">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="R118">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S118">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T118">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U118">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V118">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W118">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z118">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB118">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC118">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AD118">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:30">
@@ -11386,7 +11386,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6927322</v>
+        <v>6927094</v>
       </c>
       <c r="C119" t="s">
         <v>29</v>
@@ -11395,82 +11395,82 @@
         <v>45254.64583333334</v>
       </c>
       <c r="E119" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119">
         <v>1</v>
       </c>
       <c r="K119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L119">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="M119">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N119">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="O119">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q119">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="R119">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S119">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T119">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V119">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W119">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC119">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AD119">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="120" spans="1:30">
@@ -11570,7 +11570,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6927323</v>
+        <v>6927096</v>
       </c>
       <c r="C121" t="s">
         <v>29</v>
@@ -11579,76 +11579,82 @@
         <v>45254.64583333334</v>
       </c>
       <c r="E121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F121" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G121">
         <v>2</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
       </c>
       <c r="K121" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L121">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="M121">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N121">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="O121">
+        <v>2.9</v>
+      </c>
+      <c r="P121">
+        <v>2.875</v>
+      </c>
+      <c r="Q121">
         <v>2.375</v>
       </c>
-      <c r="P121">
-        <v>3</v>
-      </c>
-      <c r="Q121">
-        <v>2.8</v>
-      </c>
       <c r="R121">
         <v>0</v>
       </c>
       <c r="S121">
+        <v>2.05</v>
+      </c>
+      <c r="T121">
         <v>1.75</v>
       </c>
-      <c r="T121">
-        <v>2.05</v>
-      </c>
       <c r="U121">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V121">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X121">
+        <v>-1</v>
+      </c>
+      <c r="Y121">
+        <v>-1</v>
+      </c>
+      <c r="Z121">
         <v>1.375</v>
       </c>
-      <c r="Y121">
-        <v>-1</v>
-      </c>
-      <c r="Z121">
-        <v>-1</v>
-      </c>
       <c r="AA121">
+        <v>-1</v>
+      </c>
+      <c r="AB121">
         <v>0.75</v>
       </c>
-      <c r="AB121">
-        <v>-1</v>
-      </c>
       <c r="AC121">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD121">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:30">
@@ -11656,7 +11662,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6927096</v>
+        <v>6927279</v>
       </c>
       <c r="C122" t="s">
         <v>29</v>
@@ -11665,61 +11671,61 @@
         <v>45254.64583333334</v>
       </c>
       <c r="E122" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K122" t="s">
         <v>48</v>
       </c>
       <c r="L122">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="M122">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N122">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="O122">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="P122">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q122">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="R122">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S122">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T122">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W122">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11728,16 +11734,16 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>1.375</v>
+        <v>3.5</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC122">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD122">
         <v>-1</v>
@@ -11748,7 +11754,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6927279</v>
+        <v>6927323</v>
       </c>
       <c r="C123" t="s">
         <v>29</v>
@@ -11757,82 +11763,76 @@
         <v>45254.64583333334</v>
       </c>
       <c r="E123" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H123">
-        <v>2</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123">
         <v>0</v>
       </c>
       <c r="K123" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L123">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="M123">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N123">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O123">
+        <v>2.375</v>
+      </c>
+      <c r="P123">
+        <v>3</v>
+      </c>
+      <c r="Q123">
+        <v>2.8</v>
+      </c>
+      <c r="R123">
+        <v>0</v>
+      </c>
+      <c r="S123">
         <v>1.75</v>
       </c>
-      <c r="P123">
-        <v>3.4</v>
-      </c>
-      <c r="Q123">
-        <v>4.5</v>
-      </c>
-      <c r="R123">
-        <v>-0.5</v>
-      </c>
-      <c r="S123">
-        <v>1.8</v>
-      </c>
       <c r="T123">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U123">
         <v>2.25</v>
       </c>
       <c r="V123">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W123">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB123">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AD123">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="124" spans="1:30">
@@ -11849,7 +11849,7 @@
         <v>45254.64583333334</v>
       </c>
       <c r="E124" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
         <v>43</v>
@@ -11944,7 +11944,7 @@
         <v>46</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G125">
         <v>4</v>
@@ -12125,10 +12125,10 @@
         <v>45261.64583333334</v>
       </c>
       <c r="E127" t="s">
+        <v>39</v>
+      </c>
+      <c r="F127" t="s">
         <v>40</v>
-      </c>
-      <c r="F127" t="s">
-        <v>38</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -12303,10 +12303,10 @@
         <v>45261.64583333334</v>
       </c>
       <c r="E129" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G129">
         <v>4</v>
@@ -12386,7 +12386,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6926927</v>
+        <v>6927099</v>
       </c>
       <c r="C130" t="s">
         <v>29</v>
@@ -12395,79 +12395,79 @@
         <v>45261.64583333334</v>
       </c>
       <c r="E130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F130" t="s">
         <v>36</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
         <v>3</v>
       </c>
-      <c r="I130">
-        <v>1</v>
-      </c>
       <c r="J130">
         <v>0</v>
       </c>
       <c r="K130" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L130">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="M130">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N130">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="O130">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="P130">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q130">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="R130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S130">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T130">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U130">
         <v>2.25</v>
       </c>
       <c r="V130">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W130">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB130">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD130">
         <v>-1</v>
@@ -12478,7 +12478,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6927099</v>
+        <v>6926927</v>
       </c>
       <c r="C131" t="s">
         <v>29</v>
@@ -12487,79 +12487,79 @@
         <v>45261.64583333334</v>
       </c>
       <c r="E131" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G131">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J131">
         <v>0</v>
       </c>
       <c r="K131" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L131">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="M131">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N131">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="O131">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="P131">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q131">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="R131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S131">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T131">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U131">
         <v>2.25</v>
       </c>
       <c r="V131">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W131">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X131">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="AA131">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC131">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD131">
         <v>-1</v>
@@ -12671,7 +12671,7 @@
         <v>45264.70833333334</v>
       </c>
       <c r="E133" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F133" t="s">
         <v>32</v>
@@ -12763,10 +12763,10 @@
         <v>45275.64583333334</v>
       </c>
       <c r="E134" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -12950,7 +12950,7 @@
         <v>37</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -13042,7 +13042,7 @@
         <v>30</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -13131,10 +13131,10 @@
         <v>45275.64583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -13223,10 +13223,10 @@
         <v>45275.64583333334</v>
       </c>
       <c r="E139" t="s">
+        <v>35</v>
+      </c>
+      <c r="F139" t="s">
         <v>34</v>
-      </c>
-      <c r="F139" t="s">
-        <v>33</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -13315,7 +13315,7 @@
         <v>45275.64583333334</v>
       </c>
       <c r="E140" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F140" t="s">
         <v>44</v>
@@ -13591,10 +13591,10 @@
         <v>45303.64583333334</v>
       </c>
       <c r="E143" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -13686,7 +13686,7 @@
         <v>45</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -13867,10 +13867,10 @@
         <v>45303.64583333334</v>
       </c>
       <c r="E146" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -14051,7 +14051,7 @@
         <v>45303.64583333334</v>
       </c>
       <c r="E148" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F148" t="s">
         <v>31</v>
@@ -14143,10 +14143,10 @@
         <v>45303.64583333334</v>
       </c>
       <c r="E149" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -14235,7 +14235,7 @@
         <v>45303.64583333334</v>
       </c>
       <c r="E150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F150" t="s">
         <v>46</v>
@@ -14419,10 +14419,10 @@
         <v>45310.64583333334</v>
       </c>
       <c r="E152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -14514,7 +14514,7 @@
         <v>30</v>
       </c>
       <c r="F153" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G153">
         <v>4</v>
@@ -14698,7 +14698,7 @@
         <v>46</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -14778,7 +14778,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7695781</v>
+        <v>7716254</v>
       </c>
       <c r="C156" t="s">
         <v>29</v>
@@ -14790,76 +14790,76 @@
         <v>34</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K156" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L156">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="M156">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N156">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="O156">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="P156">
         <v>3.2</v>
       </c>
       <c r="Q156">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="R156">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S156">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T156">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U156">
         <v>2.25</v>
       </c>
       <c r="V156">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W156">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X156">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA156">
+        <v>-1</v>
+      </c>
+      <c r="AB156">
+        <v>1</v>
+      </c>
+      <c r="AC156">
         <v>0.925</v>
-      </c>
-      <c r="AB156">
-        <v>-1</v>
-      </c>
-      <c r="AC156">
-        <v>0.95</v>
       </c>
       <c r="AD156">
         <v>-1</v>
@@ -14870,7 +14870,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7712134</v>
+        <v>7695781</v>
       </c>
       <c r="C157" t="s">
         <v>29</v>
@@ -14879,82 +14879,82 @@
         <v>45317.64583333334</v>
       </c>
       <c r="E157" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K157" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L157">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="M157">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N157">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O157">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P157">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q157">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="R157">
         <v>-0.25</v>
       </c>
       <c r="S157">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T157">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U157">
         <v>2.25</v>
       </c>
       <c r="V157">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W157">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y157">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB157">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD157">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:30">
@@ -15063,7 +15063,7 @@
         <v>45317.64583333334</v>
       </c>
       <c r="E159" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F159" t="s">
         <v>31</v>
@@ -15146,7 +15146,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7716254</v>
+        <v>7712134</v>
       </c>
       <c r="C160" t="s">
         <v>29</v>
@@ -15155,82 +15155,82 @@
         <v>45317.64583333334</v>
       </c>
       <c r="E160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160">
         <v>0</v>
       </c>
       <c r="K160" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L160">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="M160">
+        <v>3.8</v>
+      </c>
+      <c r="N160">
+        <v>5</v>
+      </c>
+      <c r="O160">
+        <v>2.1</v>
+      </c>
+      <c r="P160">
+        <v>3.25</v>
+      </c>
+      <c r="Q160">
         <v>3.2</v>
       </c>
-      <c r="N160">
-        <v>2.6</v>
-      </c>
-      <c r="O160">
-        <v>2.9</v>
-      </c>
-      <c r="P160">
-        <v>3.2</v>
-      </c>
-      <c r="Q160">
-        <v>2.25</v>
-      </c>
       <c r="R160">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S160">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T160">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U160">
         <v>2.25</v>
       </c>
       <c r="V160">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W160">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z160">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB160">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="AC160">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD160">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:30">
@@ -15523,10 +15523,10 @@
         <v>45324.64583333334</v>
       </c>
       <c r="E164" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -15615,10 +15615,10 @@
         <v>45324.64583333334</v>
       </c>
       <c r="E165" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F165" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -15707,7 +15707,7 @@
         <v>45324.64583333334</v>
       </c>
       <c r="E166" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F166" t="s">
         <v>30</v>
@@ -15799,10 +15799,10 @@
         <v>45324.64583333334</v>
       </c>
       <c r="E167" t="s">
+        <v>33</v>
+      </c>
+      <c r="F167" t="s">
         <v>36</v>
-      </c>
-      <c r="F167" t="s">
-        <v>35</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -15891,7 +15891,7 @@
         <v>45324.64583333334</v>
       </c>
       <c r="E168" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F168" t="s">
         <v>32</v>
@@ -15983,7 +15983,7 @@
         <v>45324.64583333334</v>
       </c>
       <c r="E169" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F169" t="s">
         <v>31</v>
@@ -16066,7 +16066,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6927116</v>
+        <v>6927340</v>
       </c>
       <c r="C170" t="s">
         <v>29</v>
@@ -16075,19 +16075,19 @@
         <v>45331.64583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F170" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -16096,43 +16096,43 @@
         <v>50</v>
       </c>
       <c r="L170">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="M170">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N170">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O170">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="P170">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q170">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="R170">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S170">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T170">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U170">
         <v>2.25</v>
       </c>
       <c r="V170">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W170">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X170">
-        <v>0.8</v>
+        <v>1.15</v>
       </c>
       <c r="Y170">
         <v>-1</v>
@@ -16141,16 +16141,16 @@
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AD170">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:30">
@@ -16158,7 +16158,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6927339</v>
+        <v>6927119</v>
       </c>
       <c r="C171" t="s">
         <v>29</v>
@@ -16167,13 +16167,13 @@
         <v>45331.64583333334</v>
       </c>
       <c r="E171" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F171" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -16185,64 +16185,64 @@
         <v>0</v>
       </c>
       <c r="K171" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L171">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="M171">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N171">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="O171">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="P171">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q171">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="R171">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S171">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T171">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="U171">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V171">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W171">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y171">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB171">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
         <v>-1</v>
       </c>
       <c r="AD171">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:30">
@@ -16250,7 +16250,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6927340</v>
+        <v>6927116</v>
       </c>
       <c r="C172" t="s">
         <v>29</v>
@@ -16259,19 +16259,19 @@
         <v>45331.64583333334</v>
       </c>
       <c r="E172" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J172">
         <v>0</v>
@@ -16280,43 +16280,43 @@
         <v>50</v>
       </c>
       <c r="L172">
+        <v>1.6</v>
+      </c>
+      <c r="M172">
+        <v>3.6</v>
+      </c>
+      <c r="N172">
+        <v>5</v>
+      </c>
+      <c r="O172">
+        <v>1.8</v>
+      </c>
+      <c r="P172">
+        <v>3.3</v>
+      </c>
+      <c r="Q172">
+        <v>3.8</v>
+      </c>
+      <c r="R172">
+        <v>-0.5</v>
+      </c>
+      <c r="S172">
         <v>1.85</v>
       </c>
-      <c r="M172">
-        <v>3.25</v>
-      </c>
-      <c r="N172">
-        <v>4</v>
-      </c>
-      <c r="O172">
-        <v>2.15</v>
-      </c>
-      <c r="P172">
-        <v>3.1</v>
-      </c>
-      <c r="Q172">
-        <v>3</v>
-      </c>
-      <c r="R172">
-        <v>-0.25</v>
-      </c>
-      <c r="S172">
-        <v>1.9</v>
-      </c>
       <c r="T172">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U172">
         <v>2.25</v>
       </c>
       <c r="V172">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W172">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X172">
-        <v>1.15</v>
+        <v>0.8</v>
       </c>
       <c r="Y172">
         <v>-1</v>
@@ -16325,16 +16325,16 @@
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB172">
         <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AD172">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="173" spans="1:30">
@@ -16354,7 +16354,7 @@
         <v>31</v>
       </c>
       <c r="F173" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -16434,7 +16434,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6927119</v>
+        <v>6927339</v>
       </c>
       <c r="C174" t="s">
         <v>29</v>
@@ -16443,13 +16443,13 @@
         <v>45331.64583333334</v>
       </c>
       <c r="E174" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F174" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -16461,64 +16461,64 @@
         <v>0</v>
       </c>
       <c r="K174" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L174">
+        <v>2.4</v>
+      </c>
+      <c r="M174">
+        <v>2.875</v>
+      </c>
+      <c r="N174">
+        <v>2.9</v>
+      </c>
+      <c r="O174">
+        <v>2.6</v>
+      </c>
+      <c r="P174">
+        <v>2.8</v>
+      </c>
+      <c r="Q174">
+        <v>2.875</v>
+      </c>
+      <c r="R174">
+        <v>0</v>
+      </c>
+      <c r="S174">
         <v>1.75</v>
       </c>
-      <c r="M174">
-        <v>3.3</v>
-      </c>
-      <c r="N174">
-        <v>4.333</v>
-      </c>
-      <c r="O174">
-        <v>1.95</v>
-      </c>
-      <c r="P174">
-        <v>3.3</v>
-      </c>
-      <c r="Q174">
-        <v>3.4</v>
-      </c>
-      <c r="R174">
-        <v>-0.5</v>
-      </c>
-      <c r="S174">
-        <v>1.95</v>
-      </c>
       <c r="T174">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="U174">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V174">
+        <v>1.925</v>
+      </c>
+      <c r="W174">
+        <v>1.875</v>
+      </c>
+      <c r="X174">
+        <v>-1</v>
+      </c>
+      <c r="Y174">
         <v>1.8</v>
       </c>
-      <c r="W174">
-        <v>2</v>
-      </c>
-      <c r="X174">
-        <v>0.95</v>
-      </c>
-      <c r="Y174">
-        <v>-1</v>
-      </c>
       <c r="Z174">
         <v>-1</v>
       </c>
       <c r="AA174">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC174">
         <v>-1</v>
       </c>
       <c r="AD174">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="175" spans="1:30">
@@ -16538,7 +16538,7 @@
         <v>30</v>
       </c>
       <c r="F175" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -16630,7 +16630,7 @@
         <v>32</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G176">
         <v>2</v>
@@ -16719,7 +16719,7 @@
         <v>45334.64583333334</v>
       </c>
       <c r="E177" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F177" t="s">
         <v>43</v>
@@ -16802,7 +16802,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6927121</v>
+        <v>6927342</v>
       </c>
       <c r="C178" t="s">
         <v>29</v>
@@ -16811,82 +16811,82 @@
         <v>45338.64583333334</v>
       </c>
       <c r="E178" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F178" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G178">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178" t="s">
+        <v>48</v>
+      </c>
+      <c r="L178">
+        <v>1.95</v>
+      </c>
+      <c r="M178">
         <v>3</v>
       </c>
-      <c r="J178">
-        <v>0</v>
-      </c>
-      <c r="K178" t="s">
-        <v>50</v>
-      </c>
-      <c r="L178">
-        <v>2.4</v>
-      </c>
-      <c r="M178">
-        <v>3.1</v>
-      </c>
       <c r="N178">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="O178">
+        <v>2.55</v>
+      </c>
+      <c r="P178">
+        <v>3</v>
+      </c>
+      <c r="Q178">
         <v>2.625</v>
       </c>
-      <c r="P178">
-        <v>2.9</v>
-      </c>
-      <c r="Q178">
-        <v>2.6</v>
-      </c>
       <c r="R178">
         <v>0</v>
       </c>
       <c r="S178">
+        <v>1.9</v>
+      </c>
+      <c r="T178">
+        <v>1.9</v>
+      </c>
+      <c r="U178">
+        <v>2</v>
+      </c>
+      <c r="V178">
+        <v>1.85</v>
+      </c>
+      <c r="W178">
         <v>1.95</v>
       </c>
-      <c r="T178">
-        <v>1.85</v>
-      </c>
-      <c r="U178">
-        <v>2</v>
-      </c>
-      <c r="V178">
-        <v>1.75</v>
-      </c>
-      <c r="W178">
-        <v>2.05</v>
-      </c>
       <c r="X178">
+        <v>-1</v>
+      </c>
+      <c r="Y178">
+        <v>-1</v>
+      </c>
+      <c r="Z178">
         <v>1.625</v>
       </c>
-      <c r="Y178">
-        <v>-1</v>
-      </c>
-      <c r="Z178">
-        <v>-1</v>
-      </c>
       <c r="AA178">
+        <v>-1</v>
+      </c>
+      <c r="AB178">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC178">
+        <v>-1</v>
+      </c>
+      <c r="AD178">
         <v>0.95</v>
-      </c>
-      <c r="AB178">
-        <v>-1</v>
-      </c>
-      <c r="AC178">
-        <v>0.75</v>
-      </c>
-      <c r="AD178">
-        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:30">
@@ -16894,7 +16894,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6927342</v>
+        <v>6927121</v>
       </c>
       <c r="C179" t="s">
         <v>29</v>
@@ -16903,82 +16903,82 @@
         <v>45338.64583333334</v>
       </c>
       <c r="E179" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G179">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J179">
         <v>0</v>
       </c>
       <c r="K179" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L179">
+        <v>2.4</v>
+      </c>
+      <c r="M179">
+        <v>3.1</v>
+      </c>
+      <c r="N179">
+        <v>2.7</v>
+      </c>
+      <c r="O179">
+        <v>2.625</v>
+      </c>
+      <c r="P179">
+        <v>2.9</v>
+      </c>
+      <c r="Q179">
+        <v>2.6</v>
+      </c>
+      <c r="R179">
+        <v>0</v>
+      </c>
+      <c r="S179">
         <v>1.95</v>
       </c>
-      <c r="M179">
-        <v>3</v>
-      </c>
-      <c r="N179">
-        <v>3.75</v>
-      </c>
-      <c r="O179">
-        <v>2.55</v>
-      </c>
-      <c r="P179">
-        <v>3</v>
-      </c>
-      <c r="Q179">
-        <v>2.625</v>
-      </c>
-      <c r="R179">
-        <v>0</v>
-      </c>
-      <c r="S179">
-        <v>1.9</v>
-      </c>
       <c r="T179">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U179">
         <v>2</v>
       </c>
       <c r="V179">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W179">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB179">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AD179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:30">
@@ -16998,7 +16998,7 @@
         <v>47</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -17087,7 +17087,7 @@
         <v>45338.64583333334</v>
       </c>
       <c r="E181" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F181" t="s">
         <v>46</v>
@@ -17179,7 +17179,7 @@
         <v>45338.64583333334</v>
       </c>
       <c r="E182" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F182" t="s">
         <v>32</v>
@@ -17271,7 +17271,7 @@
         <v>45338.64583333334</v>
       </c>
       <c r="E183" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F183" t="s">
         <v>30</v>
@@ -17363,10 +17363,10 @@
         <v>45338.64583333334</v>
       </c>
       <c r="E184" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F184" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G184">
         <v>3</v>
@@ -17455,7 +17455,7 @@
         <v>45338.64583333334</v>
       </c>
       <c r="E185" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F185" t="s">
         <v>37</v>
@@ -17630,7 +17630,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7101745</v>
+        <v>6927344</v>
       </c>
       <c r="C187" t="s">
         <v>29</v>
@@ -17639,82 +17639,82 @@
         <v>45345.64583333334</v>
       </c>
       <c r="E187" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F187" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K187" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L187">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="M187">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N187">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="O187">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="P187">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q187">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="R187">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S187">
+        <v>2.025</v>
+      </c>
+      <c r="T187">
+        <v>1.775</v>
+      </c>
+      <c r="U187">
+        <v>2</v>
+      </c>
+      <c r="V187">
+        <v>1.85</v>
+      </c>
+      <c r="W187">
         <v>1.95</v>
       </c>
-      <c r="T187">
-        <v>1.85</v>
-      </c>
-      <c r="U187">
-        <v>2.25</v>
-      </c>
-      <c r="V187">
-        <v>1.95</v>
-      </c>
-      <c r="W187">
-        <v>1.85</v>
-      </c>
       <c r="X187">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y187">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AB187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD187">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:30">
@@ -17722,7 +17722,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6927344</v>
+        <v>6927343</v>
       </c>
       <c r="C188" t="s">
         <v>29</v>
@@ -17731,16 +17731,16 @@
         <v>45345.64583333334</v>
       </c>
       <c r="E188" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G188">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188">
         <v>1</v>
@@ -17752,43 +17752,43 @@
         <v>50</v>
       </c>
       <c r="L188">
-        <v>1.85</v>
+        <v>1.666</v>
       </c>
       <c r="M188">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N188">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="O188">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="P188">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q188">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="R188">
         <v>-0.5</v>
       </c>
       <c r="S188">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T188">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U188">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V188">
+        <v>1.95</v>
+      </c>
+      <c r="W188">
         <v>1.85</v>
       </c>
-      <c r="W188">
-        <v>1.95</v>
-      </c>
       <c r="X188">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y188">
         <v>-1</v>
@@ -17797,13 +17797,13 @@
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AD188">
         <v>-1</v>
@@ -17814,7 +17814,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6927343</v>
+        <v>6927125</v>
       </c>
       <c r="C189" t="s">
         <v>29</v>
@@ -17823,79 +17823,79 @@
         <v>45345.64583333334</v>
       </c>
       <c r="E189" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F189" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G189">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K189" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L189">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="M189">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N189">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="O189">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="P189">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q189">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="R189">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S189">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T189">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U189">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V189">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W189">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X189">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA189">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC189">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AD189">
         <v>-1</v>
@@ -17906,7 +17906,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6927125</v>
+        <v>7101745</v>
       </c>
       <c r="C190" t="s">
         <v>29</v>
@@ -17915,82 +17915,82 @@
         <v>45345.64583333334</v>
       </c>
       <c r="E190" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F190" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I190">
         <v>0</v>
       </c>
       <c r="J190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K190" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L190">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="M190">
         <v>3.2</v>
       </c>
       <c r="N190">
+        <v>2.75</v>
+      </c>
+      <c r="O190">
+        <v>2.6</v>
+      </c>
+      <c r="P190">
+        <v>3.2</v>
+      </c>
+      <c r="Q190">
+        <v>2.55</v>
+      </c>
+      <c r="R190">
+        <v>0</v>
+      </c>
+      <c r="S190">
+        <v>1.95</v>
+      </c>
+      <c r="T190">
+        <v>1.85</v>
+      </c>
+      <c r="U190">
         <v>2.25</v>
       </c>
-      <c r="O190">
-        <v>3.25</v>
-      </c>
-      <c r="P190">
-        <v>3.3</v>
-      </c>
-      <c r="Q190">
-        <v>2.1</v>
-      </c>
-      <c r="R190">
-        <v>0.25</v>
-      </c>
-      <c r="S190">
-        <v>2</v>
-      </c>
-      <c r="T190">
-        <v>1.8</v>
-      </c>
-      <c r="U190">
-        <v>2.5</v>
-      </c>
       <c r="V190">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W190">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z190">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB190">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC190">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD190">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="191" spans="1:30">
@@ -17998,7 +17998,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6927283</v>
+        <v>6927345</v>
       </c>
       <c r="C191" t="s">
         <v>29</v>
@@ -18007,79 +18007,79 @@
         <v>45345.64583333334</v>
       </c>
       <c r="E191" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F191" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H191">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K191" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L191">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="M191">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N191">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O191">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="P191">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q191">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="R191">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S191">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T191">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U191">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V191">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W191">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB191">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD191">
         <v>-1</v>
@@ -18090,7 +18090,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6927345</v>
+        <v>6927283</v>
       </c>
       <c r="C192" t="s">
         <v>29</v>
@@ -18099,79 +18099,79 @@
         <v>45345.64583333334</v>
       </c>
       <c r="E192" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F192" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192">
         <v>3</v>
       </c>
-      <c r="H192">
-        <v>1</v>
-      </c>
       <c r="I192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K192" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L192">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="M192">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N192">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O192">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="P192">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q192">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="R192">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S192">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T192">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U192">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V192">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W192">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X192">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="AA192">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC192">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AD192">
         <v>-1</v>
@@ -18191,7 +18191,7 @@
         <v>45345.64583333334</v>
       </c>
       <c r="E193" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F193" t="s">
         <v>43</v>
@@ -18286,7 +18286,7 @@
         <v>37</v>
       </c>
       <c r="F194" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -18378,7 +18378,7 @@
         <v>31</v>
       </c>
       <c r="F195" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G195">
         <v>3</v>
@@ -18458,7 +18458,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7801213</v>
+        <v>7864325</v>
       </c>
       <c r="C196" t="s">
         <v>29</v>
@@ -18467,82 +18467,82 @@
         <v>45349.64583333334</v>
       </c>
       <c r="E196" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F196" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G196">
         <v>0</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I196">
         <v>0</v>
       </c>
       <c r="J196">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L196">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="M196">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N196">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="O196">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="P196">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q196">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="R196">
         <v>-0.25</v>
       </c>
       <c r="S196">
+        <v>1.975</v>
+      </c>
+      <c r="T196">
         <v>1.725</v>
-      </c>
-      <c r="T196">
-        <v>1.975</v>
       </c>
       <c r="U196">
         <v>2.25</v>
       </c>
       <c r="V196">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W196">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="AA196">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>0.4875</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD196">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:30">
@@ -18550,7 +18550,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7864325</v>
+        <v>7864324</v>
       </c>
       <c r="C197" t="s">
         <v>29</v>
@@ -18559,79 +18559,79 @@
         <v>45349.64583333334</v>
       </c>
       <c r="E197" t="s">
+        <v>45</v>
+      </c>
+      <c r="F197" t="s">
         <v>38</v>
       </c>
-      <c r="F197" t="s">
-        <v>44</v>
-      </c>
       <c r="G197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H197">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J197">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K197" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L197">
-        <v>2.45</v>
+        <v>1.444</v>
       </c>
       <c r="M197">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N197">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="O197">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="P197">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q197">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="R197">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S197">
+        <v>1.825</v>
+      </c>
+      <c r="T197">
         <v>1.975</v>
       </c>
-      <c r="T197">
-        <v>1.725</v>
-      </c>
       <c r="U197">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V197">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W197">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X197">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB197">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC197">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AD197">
         <v>-1</v>
@@ -18642,7 +18642,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7864324</v>
+        <v>7801213</v>
       </c>
       <c r="C198" t="s">
         <v>29</v>
@@ -18651,82 +18651,82 @@
         <v>45349.64583333334</v>
       </c>
       <c r="E198" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F198" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K198" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L198">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="M198">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="N198">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="O198">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="P198">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q198">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="R198">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S198">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T198">
         <v>1.975</v>
       </c>
       <c r="U198">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V198">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W198">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X198">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z198">
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB198">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC198">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD198">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:30">
@@ -18835,7 +18835,7 @@
         <v>45352.64583333334</v>
       </c>
       <c r="E200" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F200" t="s">
         <v>37</v>
@@ -18918,7 +18918,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6927130</v>
+        <v>6927128</v>
       </c>
       <c r="C201" t="s">
         <v>29</v>
@@ -18927,10 +18927,10 @@
         <v>45352.64583333334</v>
       </c>
       <c r="E201" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F201" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -18942,49 +18942,49 @@
         <v>0</v>
       </c>
       <c r="J201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K201" t="s">
         <v>50</v>
       </c>
       <c r="L201">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="M201">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N201">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="O201">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="P201">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q201">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="R201">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S201">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T201">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U201">
         <v>2.25</v>
       </c>
       <c r="V201">
+        <v>1.925</v>
+      </c>
+      <c r="W201">
         <v>1.875</v>
       </c>
-      <c r="W201">
-        <v>1.925</v>
-      </c>
       <c r="X201">
-        <v>0.444</v>
+        <v>2</v>
       </c>
       <c r="Y201">
         <v>-1</v>
@@ -18993,13 +18993,13 @@
         <v>-1</v>
       </c>
       <c r="AA201">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB201">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AD201">
         <v>-1</v>
@@ -19010,7 +19010,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6927128</v>
+        <v>6927130</v>
       </c>
       <c r="C202" t="s">
         <v>29</v>
@@ -19019,10 +19019,10 @@
         <v>45352.64583333334</v>
       </c>
       <c r="E202" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F202" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G202">
         <v>2</v>
@@ -19034,49 +19034,49 @@
         <v>0</v>
       </c>
       <c r="J202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K202" t="s">
         <v>50</v>
       </c>
       <c r="L202">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="M202">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N202">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="O202">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="P202">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q202">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="R202">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S202">
+        <v>2</v>
+      </c>
+      <c r="T202">
         <v>1.8</v>
-      </c>
-      <c r="T202">
-        <v>2</v>
       </c>
       <c r="U202">
         <v>2.25</v>
       </c>
       <c r="V202">
+        <v>1.875</v>
+      </c>
+      <c r="W202">
         <v>1.925</v>
       </c>
-      <c r="W202">
-        <v>1.875</v>
-      </c>
       <c r="X202">
-        <v>2</v>
+        <v>0.444</v>
       </c>
       <c r="Y202">
         <v>-1</v>
@@ -19085,13 +19085,13 @@
         <v>-1</v>
       </c>
       <c r="AA202">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC202">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AD202">
         <v>-1</v>
@@ -19111,7 +19111,7 @@
         <v>45353.54166666666</v>
       </c>
       <c r="E203" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F203" t="s">
         <v>46</v>
@@ -19203,7 +19203,7 @@
         <v>45353.54166666666</v>
       </c>
       <c r="E204" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F204" t="s">
         <v>45</v>
@@ -19286,7 +19286,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6927284</v>
+        <v>6927347</v>
       </c>
       <c r="C205" t="s">
         <v>29</v>
@@ -19295,64 +19295,64 @@
         <v>45353.64583333334</v>
       </c>
       <c r="E205" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F205" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G205">
         <v>2</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K205" t="s">
         <v>50</v>
       </c>
       <c r="L205">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="M205">
+        <v>3.4</v>
+      </c>
+      <c r="N205">
+        <v>3.6</v>
+      </c>
+      <c r="O205">
+        <v>1.909</v>
+      </c>
+      <c r="P205">
         <v>3.2</v>
       </c>
-      <c r="N205">
-        <v>2.3</v>
-      </c>
-      <c r="O205">
-        <v>2.9</v>
-      </c>
-      <c r="P205">
-        <v>3.1</v>
-      </c>
       <c r="Q205">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="R205">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S205">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T205">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="U205">
         <v>2</v>
       </c>
       <c r="V205">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W205">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X205">
-        <v>1.9</v>
+        <v>0.909</v>
       </c>
       <c r="Y205">
         <v>-1</v>
@@ -19361,16 +19361,16 @@
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB205">
         <v>-1</v>
       </c>
       <c r="AC205">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AD205">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:30">
@@ -19378,7 +19378,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6927347</v>
+        <v>6927284</v>
       </c>
       <c r="C206" t="s">
         <v>29</v>
@@ -19387,64 +19387,64 @@
         <v>45353.64583333334</v>
       </c>
       <c r="E206" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F206" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G206">
         <v>2</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K206" t="s">
         <v>50</v>
       </c>
       <c r="L206">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="M206">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N206">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="O206">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="P206">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q206">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="R206">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S206">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T206">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="U206">
         <v>2</v>
       </c>
       <c r="V206">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W206">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X206">
-        <v>0.909</v>
+        <v>1.9</v>
       </c>
       <c r="Y206">
         <v>-1</v>
@@ -19453,16 +19453,16 @@
         <v>-1</v>
       </c>
       <c r="AA206">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB206">
         <v>-1</v>
       </c>
       <c r="AC206">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AD206">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:30">
@@ -19571,10 +19571,10 @@
         <v>45359.64583333334</v>
       </c>
       <c r="E208" t="s">
+        <v>38</v>
+      </c>
+      <c r="F208" t="s">
         <v>39</v>
-      </c>
-      <c r="F208" t="s">
-        <v>40</v>
       </c>
       <c r="G208">
         <v>4</v>
@@ -19663,7 +19663,7 @@
         <v>45359.64583333334</v>
       </c>
       <c r="E209" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F209" t="s">
         <v>30</v>
@@ -19755,10 +19755,10 @@
         <v>45359.64583333334</v>
       </c>
       <c r="E210" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G210">
         <v>2</v>
@@ -19838,7 +19838,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6927133</v>
+        <v>6926933</v>
       </c>
       <c r="C211" t="s">
         <v>29</v>
@@ -19847,13 +19847,13 @@
         <v>45359.64583333334</v>
       </c>
       <c r="E211" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F211" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H211">
         <v>1</v>
@@ -19865,64 +19865,64 @@
         <v>1</v>
       </c>
       <c r="K211" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L211">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="M211">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N211">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="O211">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="P211">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q211">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="R211">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S211">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T211">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U211">
         <v>2.25</v>
       </c>
       <c r="V211">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W211">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X211">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z211">
         <v>-1</v>
       </c>
       <c r="AA211">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC211">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AD211">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="212" spans="1:30">
@@ -19930,7 +19930,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6927132</v>
+        <v>6927285</v>
       </c>
       <c r="C212" t="s">
         <v>29</v>
@@ -19939,55 +19939,55 @@
         <v>45359.64583333334</v>
       </c>
       <c r="E212" t="s">
+        <v>45</v>
+      </c>
+      <c r="F212" t="s">
         <v>41</v>
       </c>
-      <c r="F212" t="s">
-        <v>43</v>
-      </c>
       <c r="G212">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K212" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L212">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="M212">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="N212">
         <v>4.75</v>
       </c>
       <c r="O212">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="P212">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q212">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="R212">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S212">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T212">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U212">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="V212">
         <v>1.8</v>
@@ -19996,25 +19996,25 @@
         <v>2</v>
       </c>
       <c r="X212">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z212">
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC212">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD212">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:30">
@@ -20022,7 +20022,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6926933</v>
+        <v>6927132</v>
       </c>
       <c r="C213" t="s">
         <v>29</v>
@@ -20031,82 +20031,82 @@
         <v>45359.64583333334</v>
       </c>
       <c r="E213" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F213" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H213">
         <v>1</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213">
         <v>1</v>
       </c>
       <c r="K213" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L213">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="M213">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N213">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="O213">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="P213">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q213">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="R213">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S213">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T213">
         <v>1.975</v>
       </c>
       <c r="U213">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="V213">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W213">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y213">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD213">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:30">
@@ -20114,7 +20114,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6927285</v>
+        <v>6927133</v>
       </c>
       <c r="C214" t="s">
         <v>29</v>
@@ -20123,82 +20123,82 @@
         <v>45359.64583333334</v>
       </c>
       <c r="E214" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F214" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214">
         <v>0</v>
       </c>
       <c r="J214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K214" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L214">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="M214">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N214">
         <v>4.75</v>
       </c>
       <c r="O214">
-        <v>1.666</v>
+        <v>1.85</v>
       </c>
       <c r="P214">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q214">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="R214">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S214">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T214">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U214">
         <v>2.25</v>
       </c>
       <c r="V214">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W214">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y214">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB214">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD214">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:30">
@@ -20402,7 +20402,7 @@
         <v>43</v>
       </c>
       <c r="F217" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G217">
         <v>1</v>
@@ -20583,10 +20583,10 @@
         <v>45366.64583333334</v>
       </c>
       <c r="E219" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F219" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G219">
         <v>3</v>
@@ -20675,7 +20675,7 @@
         <v>45366.64583333334</v>
       </c>
       <c r="E220" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F220" t="s">
         <v>46</v>
@@ -20758,7 +20758,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6926934</v>
+        <v>6927135</v>
       </c>
       <c r="C221" t="s">
         <v>29</v>
@@ -20767,19 +20767,19 @@
         <v>45366.64583333334</v>
       </c>
       <c r="E221" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F221" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H221">
         <v>0</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221">
         <v>0</v>
@@ -20797,34 +20797,34 @@
         <v>3.3</v>
       </c>
       <c r="O221">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="P221">
         <v>3</v>
       </c>
       <c r="Q221">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="R221">
         <v>0</v>
       </c>
       <c r="S221">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T221">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U221">
         <v>2</v>
       </c>
       <c r="V221">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="W221">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X221">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Y221">
         <v>-1</v>
@@ -20833,16 +20833,16 @@
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB221">
         <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:30">
@@ -20850,7 +20850,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6927135</v>
+        <v>6927134</v>
       </c>
       <c r="C222" t="s">
         <v>29</v>
@@ -20859,19 +20859,19 @@
         <v>45366.64583333334</v>
       </c>
       <c r="E222" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F222" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G222">
         <v>2</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222">
         <v>0</v>
@@ -20880,43 +20880,43 @@
         <v>50</v>
       </c>
       <c r="L222">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="M222">
         <v>3.1</v>
       </c>
       <c r="N222">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="O222">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="P222">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q222">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="R222">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S222">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T222">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U222">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V222">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="W222">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="X222">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="Y222">
         <v>-1</v>
@@ -20925,16 +20925,16 @@
         <v>-1</v>
       </c>
       <c r="AA222">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB222">
         <v>-1</v>
       </c>
       <c r="AC222">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD222">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:30">
@@ -20942,7 +20942,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6927134</v>
+        <v>6926934</v>
       </c>
       <c r="C223" t="s">
         <v>29</v>
@@ -20951,16 +20951,16 @@
         <v>45366.64583333334</v>
       </c>
       <c r="E223" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F223" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223">
         <v>1</v>
@@ -20972,43 +20972,43 @@
         <v>50</v>
       </c>
       <c r="L223">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="M223">
         <v>3.1</v>
       </c>
       <c r="N223">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="O223">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="P223">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q223">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="R223">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S223">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T223">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U223">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V223">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W223">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X223">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="Y223">
         <v>-1</v>
@@ -21017,16 +21017,16 @@
         <v>-1</v>
       </c>
       <c r="AA223">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB223">
         <v>-1</v>
       </c>
       <c r="AC223">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD223">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:30">
@@ -21043,7 +21043,7 @@
         <v>45366.64583333334</v>
       </c>
       <c r="E224" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F224" t="s">
         <v>47</v>
@@ -21138,7 +21138,7 @@
         <v>43</v>
       </c>
       <c r="F225" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G225">
         <v>1</v>
@@ -21227,7 +21227,7 @@
         <v>45369.70833333334</v>
       </c>
       <c r="E226" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F226" t="s">
         <v>45</v>
@@ -21411,10 +21411,10 @@
         <v>45373.64583333334</v>
       </c>
       <c r="E228" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F228" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G228">
         <v>2</v>
@@ -21506,7 +21506,7 @@
         <v>45</v>
       </c>
       <c r="F229" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G229">
         <v>1</v>
@@ -21598,7 +21598,7 @@
         <v>47</v>
       </c>
       <c r="F230" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -21687,10 +21687,10 @@
         <v>45373.64583333334</v>
       </c>
       <c r="E231" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F231" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G231">
         <v>1</v>
@@ -21779,7 +21779,7 @@
         <v>45373.64583333334</v>
       </c>
       <c r="E232" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F232" t="s">
         <v>31</v>
@@ -21871,10 +21871,10 @@
         <v>45373.64583333334</v>
       </c>
       <c r="E233" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F233" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -22147,7 +22147,7 @@
         <v>45377.625</v>
       </c>
       <c r="E236" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F236" t="s">
         <v>47</v>
@@ -22239,10 +22239,10 @@
         <v>45377.625</v>
       </c>
       <c r="E237" t="s">
+        <v>39</v>
+      </c>
+      <c r="F237" t="s">
         <v>40</v>
-      </c>
-      <c r="F237" t="s">
-        <v>38</v>
       </c>
       <c r="G237">
         <v>1</v>
@@ -22426,7 +22426,7 @@
         <v>44</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -22515,7 +22515,7 @@
         <v>45380.64583333334</v>
       </c>
       <c r="E240" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F240" t="s">
         <v>45</v>
@@ -22699,10 +22699,10 @@
         <v>45380.64583333334</v>
       </c>
       <c r="E242" t="s">
+        <v>41</v>
+      </c>
+      <c r="F242" t="s">
         <v>42</v>
-      </c>
-      <c r="F242" t="s">
-        <v>41</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -22791,7 +22791,7 @@
         <v>45381.64583333334</v>
       </c>
       <c r="E243" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F243" t="s">
         <v>47</v>
@@ -22883,10 +22883,10 @@
         <v>45381.64583333334</v>
       </c>
       <c r="E244" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F244" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G244">
         <v>2</v>
@@ -22975,7 +22975,7 @@
         <v>45381.64583333334</v>
       </c>
       <c r="E245" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F245" t="s">
         <v>43</v>
@@ -23070,7 +23070,7 @@
         <v>32</v>
       </c>
       <c r="F246" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -23251,7 +23251,7 @@
         <v>45387.60416666666</v>
       </c>
       <c r="E248" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F248" t="s">
         <v>37</v>
@@ -23343,10 +23343,10 @@
         <v>45387.60416666666</v>
       </c>
       <c r="E249" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F249" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G249">
         <v>3</v>
@@ -23435,7 +23435,7 @@
         <v>45387.60416666666</v>
       </c>
       <c r="E250" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F250" t="s">
         <v>30</v>
@@ -23530,7 +23530,7 @@
         <v>44</v>
       </c>
       <c r="F251" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G251">
         <v>3</v>
@@ -23711,10 +23711,10 @@
         <v>45387.60416666666</v>
       </c>
       <c r="E253" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F253" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G253">
         <v>1</v>
@@ -23806,7 +23806,7 @@
         <v>43</v>
       </c>
       <c r="F254" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G254">
         <v>1</v>
@@ -23898,7 +23898,7 @@
         <v>47</v>
       </c>
       <c r="F255" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G255">
         <v>4</v>
@@ -23990,7 +23990,7 @@
         <v>32</v>
       </c>
       <c r="F256" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G256">
         <v>2</v>
@@ -24171,7 +24171,7 @@
         <v>45394.60416666666</v>
       </c>
       <c r="E258" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F258" t="s">
         <v>43</v>
@@ -24266,7 +24266,7 @@
         <v>31</v>
       </c>
       <c r="F259" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -24447,7 +24447,7 @@
         <v>45394.60416666666</v>
       </c>
       <c r="E261" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F261" t="s">
         <v>44</v>
@@ -24539,10 +24539,10 @@
         <v>45394.60416666666</v>
       </c>
       <c r="E262" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F262" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G262">
         <v>0</v>
@@ -24631,7 +24631,7 @@
         <v>45394.60416666666</v>
       </c>
       <c r="E263" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F263" t="s">
         <v>47</v>
@@ -24723,10 +24723,10 @@
         <v>45397.5625</v>
       </c>
       <c r="E264" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F264" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G264">
         <v>3</v>
@@ -24815,10 +24815,10 @@
         <v>45401.60416666666</v>
       </c>
       <c r="E265" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F265" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G265">
         <v>1</v>
@@ -24898,7 +24898,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6927156</v>
+        <v>6927157</v>
       </c>
       <c r="C266" t="s">
         <v>29</v>
@@ -24907,16 +24907,16 @@
         <v>45401.60416666666</v>
       </c>
       <c r="E266" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F266" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G266">
         <v>0</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266">
         <v>0</v>
@@ -24928,40 +24928,40 @@
         <v>48</v>
       </c>
       <c r="L266">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="M266">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N266">
         <v>4.2</v>
       </c>
       <c r="O266">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="P266">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q266">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="R266">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S266">
         <v>1.95</v>
       </c>
       <c r="T266">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U266">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V266">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W266">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X266">
         <v>-1</v>
@@ -24970,19 +24970,19 @@
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="AA266">
         <v>-1</v>
       </c>
       <c r="AB266">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC266">
         <v>-1</v>
       </c>
       <c r="AD266">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="267" spans="1:30">
@@ -24990,7 +24990,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6927157</v>
+        <v>6927365</v>
       </c>
       <c r="C267" t="s">
         <v>29</v>
@@ -25002,7 +25002,7 @@
         <v>34</v>
       </c>
       <c r="F267" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G267">
         <v>0</v>
@@ -25020,40 +25020,40 @@
         <v>48</v>
       </c>
       <c r="L267">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="M267">
+        <v>3.25</v>
+      </c>
+      <c r="N267">
+        <v>2.15</v>
+      </c>
+      <c r="O267">
         <v>3.1</v>
       </c>
-      <c r="N267">
-        <v>4.2</v>
-      </c>
-      <c r="O267">
-        <v>1.85</v>
-      </c>
       <c r="P267">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q267">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="R267">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S267">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T267">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U267">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V267">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W267">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="X267">
         <v>-1</v>
@@ -25062,19 +25062,19 @@
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>3.2</v>
+        <v>1.15</v>
       </c>
       <c r="AA267">
         <v>-1</v>
       </c>
       <c r="AB267">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC267">
         <v>-1</v>
       </c>
       <c r="AD267">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="268" spans="1:30">
@@ -25082,7 +25082,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6927365</v>
+        <v>6927156</v>
       </c>
       <c r="C268" t="s">
         <v>29</v>
@@ -25091,16 +25091,16 @@
         <v>45401.60416666666</v>
       </c>
       <c r="E268" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F268" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G268">
         <v>0</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I268">
         <v>0</v>
@@ -25112,40 +25112,40 @@
         <v>48</v>
       </c>
       <c r="L268">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="M268">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N268">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="O268">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="P268">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q268">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="R268">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S268">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T268">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U268">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V268">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W268">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="X268">
         <v>-1</v>
@@ -25154,19 +25154,19 @@
         <v>-1</v>
       </c>
       <c r="Z268">
-        <v>1.15</v>
+        <v>3.75</v>
       </c>
       <c r="AA268">
         <v>-1</v>
       </c>
       <c r="AB268">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AC268">
         <v>-1</v>
       </c>
       <c r="AD268">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:30">
@@ -25183,7 +25183,7 @@
         <v>45401.60416666666</v>
       </c>
       <c r="E269" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F269" t="s">
         <v>30</v>
@@ -25278,7 +25278,7 @@
         <v>43</v>
       </c>
       <c r="F270" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G270">
         <v>2</v>
@@ -25367,10 +25367,10 @@
         <v>45401.60416666666</v>
       </c>
       <c r="E271" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F271" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G271">
         <v>2</v>
@@ -25462,7 +25462,7 @@
         <v>44</v>
       </c>
       <c r="F272" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -25646,7 +25646,7 @@
         <v>32</v>
       </c>
       <c r="F274" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -25735,7 +25735,7 @@
         <v>45408.60416666666</v>
       </c>
       <c r="E275" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F275" t="s">
         <v>43</v>
@@ -25827,10 +25827,10 @@
         <v>45408.60416666666</v>
       </c>
       <c r="E276" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F276" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G276">
         <v>1</v>
@@ -25922,7 +25922,7 @@
         <v>31</v>
       </c>
       <c r="F277" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G277">
         <v>3</v>
@@ -26106,7 +26106,7 @@
         <v>46</v>
       </c>
       <c r="F279" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G279">
         <v>0</v>
@@ -26186,7 +26186,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6927372</v>
+        <v>6926937</v>
       </c>
       <c r="C280" t="s">
         <v>29</v>
@@ -26195,82 +26195,82 @@
         <v>45408.60416666666</v>
       </c>
       <c r="E280" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F280" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G280">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I280">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J280">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K280" t="s">
         <v>48</v>
       </c>
       <c r="L280">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="M280">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N280">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="O280">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="P280">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q280">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="R280">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S280">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T280">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U280">
         <v>2.5</v>
       </c>
       <c r="V280">
+        <v>1.85</v>
+      </c>
+      <c r="W280">
+        <v>1.95</v>
+      </c>
+      <c r="X280">
+        <v>-1</v>
+      </c>
+      <c r="Y280">
+        <v>-1</v>
+      </c>
+      <c r="Z280">
         <v>1.9</v>
       </c>
-      <c r="W280">
-        <v>1.9</v>
-      </c>
-      <c r="X280">
-        <v>-1</v>
-      </c>
-      <c r="Y280">
-        <v>-1</v>
-      </c>
-      <c r="Z280">
-        <v>3.5</v>
-      </c>
       <c r="AA280">
         <v>-1</v>
       </c>
       <c r="AB280">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC280">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD280">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="281" spans="1:30">
@@ -26278,7 +26278,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6926937</v>
+        <v>6927372</v>
       </c>
       <c r="C281" t="s">
         <v>29</v>
@@ -26287,61 +26287,61 @@
         <v>45408.60416666666</v>
       </c>
       <c r="E281" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F281" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G281">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H281">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I281">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J281">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K281" t="s">
         <v>48</v>
       </c>
       <c r="L281">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="M281">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N281">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="O281">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="P281">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q281">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="R281">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S281">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T281">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U281">
         <v>2.5</v>
       </c>
       <c r="V281">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W281">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X281">
         <v>-1</v>
@@ -26350,19 +26350,19 @@
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="AA281">
         <v>-1</v>
       </c>
       <c r="AB281">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC281">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD281">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="282" spans="1:30">
@@ -26471,10 +26471,10 @@
         <v>45415.58333333334</v>
       </c>
       <c r="E283" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F283" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G283">
         <v>1</v>
@@ -26563,10 +26563,10 @@
         <v>45415.60416666666</v>
       </c>
       <c r="E284" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F284" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G284">
         <v>0</v>
@@ -26655,10 +26655,10 @@
         <v>45415.60416666666</v>
       </c>
       <c r="E285" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F285" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G285">
         <v>0</v>
@@ -26839,7 +26839,7 @@
         <v>45415.60416666666</v>
       </c>
       <c r="E287" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F287" t="s">
         <v>37</v>
@@ -27026,7 +27026,7 @@
         <v>44</v>
       </c>
       <c r="F289" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G289">
         <v>3</v>
@@ -27115,7 +27115,7 @@
         <v>45415.66666666666</v>
       </c>
       <c r="E290" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F290" t="s">
         <v>30</v>
@@ -27483,10 +27483,10 @@
         <v>45422.66666666666</v>
       </c>
       <c r="E294" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F294" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G294">
         <v>0</v>
@@ -27575,7 +27575,7 @@
         <v>45422.66666666666</v>
       </c>
       <c r="E295" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F295" t="s">
         <v>45</v>
@@ -27759,10 +27759,10 @@
         <v>45422.66666666666</v>
       </c>
       <c r="E297" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F297" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G297">
         <v>1</v>
@@ -27854,7 +27854,7 @@
         <v>31</v>
       </c>
       <c r="F298" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G298">
         <v>3</v>
@@ -27943,10 +27943,10 @@
         <v>45422.66666666666</v>
       </c>
       <c r="E299" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F299" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G299">
         <v>1</v>
@@ -28038,7 +28038,7 @@
         <v>46</v>
       </c>
       <c r="F300" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G300">
         <v>0</v>
@@ -28127,10 +28127,10 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E301" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F301" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G301">
         <v>1</v>
@@ -28314,7 +28314,7 @@
         <v>45</v>
       </c>
       <c r="F303" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G303">
         <v>4</v>
@@ -28403,10 +28403,10 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E304" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F304" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G304">
         <v>2</v>
@@ -28495,10 +28495,10 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E305" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F305" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G305">
         <v>1</v>
@@ -28679,7 +28679,7 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E307" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F307" t="s">
         <v>32</v>
@@ -28863,7 +28863,7 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E309" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F309" t="s">
         <v>37</v>

--- a/France National/France National.xlsx
+++ b/France National/France National.xlsx
@@ -2284,7 +2284,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6927052</v>
+        <v>6927273</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -2293,10 +2293,10 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2308,67 +2308,67 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="s">
         <v>50</v>
       </c>
       <c r="L20">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="M20">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N20">
-        <v>4.1</v>
+        <v>2.05</v>
       </c>
       <c r="O20">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="P20">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q20">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="R20">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S20">
+        <v>1.8</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>1.85</v>
+      </c>
+      <c r="W20">
+        <v>1.95</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
         <v>1.875</v>
       </c>
-      <c r="T20">
-        <v>1.925</v>
-      </c>
-      <c r="U20">
-        <v>2.5</v>
-      </c>
-      <c r="V20">
-        <v>2</v>
-      </c>
-      <c r="W20">
-        <v>1.8</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>2.1</v>
-      </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
+        <v>0.4</v>
+      </c>
+      <c r="AB20">
         <v>-0.5</v>
       </c>
-      <c r="AB20">
-        <v>0.4625</v>
-      </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD20">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -2376,7 +2376,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6926921</v>
+        <v>6927052</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -2385,82 +2385,82 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L21">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="M21">
+        <v>3.3</v>
+      </c>
+      <c r="N21">
+        <v>4.1</v>
+      </c>
+      <c r="O21">
+        <v>2.1</v>
+      </c>
+      <c r="P21">
         <v>3.1</v>
       </c>
-      <c r="N21">
+      <c r="Q21">
         <v>3.1</v>
-      </c>
-      <c r="O21">
-        <v>2.375</v>
-      </c>
-      <c r="P21">
-        <v>2.9</v>
-      </c>
-      <c r="Q21">
-        <v>3</v>
       </c>
       <c r="R21">
         <v>-0.25</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="U21">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z21">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB21">
-        <v>0.7</v>
+        <v>0.4625</v>
       </c>
       <c r="AC21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD21">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -2468,7 +2468,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6927273</v>
+        <v>6926921</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2477,82 +2477,82 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L22">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="M22">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N22">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O22">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="P22">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <v>-0.25</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <v>1.7</v>
+      </c>
+      <c r="U22">
         <v>2.25</v>
       </c>
-      <c r="R22">
-        <v>0.25</v>
-      </c>
-      <c r="S22">
-        <v>1.8</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>2</v>
-      </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA22">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
+        <v>0.7</v>
+      </c>
+      <c r="AC22">
         <v>-0.5</v>
       </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
       <c r="AD22">
-        <v>0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -5504,7 +5504,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6927068</v>
+        <v>6927304</v>
       </c>
       <c r="C55" t="s">
         <v>29</v>
@@ -5513,10 +5513,10 @@
         <v>45191.60416666666</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5534,40 +5534,40 @@
         <v>49</v>
       </c>
       <c r="L55">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="M55">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N55">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="O55">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="P55">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q55">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="R55">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S55">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T55">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U55">
         <v>2.25</v>
       </c>
       <c r="V55">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W55">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5576,19 +5576,19 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC55">
         <v>-1</v>
       </c>
       <c r="AD55">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:30">
@@ -5596,7 +5596,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6927304</v>
+        <v>6927305</v>
       </c>
       <c r="C56" t="s">
         <v>29</v>
@@ -5605,61 +5605,61 @@
         <v>45191.60416666666</v>
       </c>
       <c r="E56" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K56" t="s">
         <v>49</v>
       </c>
       <c r="L56">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="M56">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N56">
+        <v>2.8</v>
+      </c>
+      <c r="O56">
+        <v>3.4</v>
+      </c>
+      <c r="P56">
         <v>2.9</v>
       </c>
-      <c r="O56">
-        <v>2.25</v>
-      </c>
-      <c r="P56">
-        <v>3.1</v>
-      </c>
       <c r="Q56">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="R56">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S56">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T56">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U56">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V56">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W56">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5668,19 +5668,19 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD56">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:30">
@@ -5688,7 +5688,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6927305</v>
+        <v>6927306</v>
       </c>
       <c r="C57" t="s">
         <v>29</v>
@@ -5697,79 +5697,79 @@
         <v>45191.60416666666</v>
       </c>
       <c r="E57" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L57">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="M57">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="N57">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="O57">
-        <v>3.4</v>
+        <v>1.615</v>
       </c>
       <c r="P57">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q57">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="R57">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S57">
+        <v>1.825</v>
+      </c>
+      <c r="T57">
         <v>1.975</v>
       </c>
-      <c r="T57">
+      <c r="U57">
+        <v>2.5</v>
+      </c>
+      <c r="V57">
         <v>1.825</v>
       </c>
-      <c r="U57">
-        <v>2</v>
-      </c>
-      <c r="V57">
-        <v>1.85</v>
-      </c>
       <c r="W57">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB57">
+        <v>-1</v>
+      </c>
+      <c r="AC57">
         <v>0.825</v>
-      </c>
-      <c r="AC57">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AD57">
         <v>-1</v>
@@ -5780,7 +5780,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6927306</v>
+        <v>6927886</v>
       </c>
       <c r="C58" t="s">
         <v>29</v>
@@ -5789,13 +5789,13 @@
         <v>45191.60416666666</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5810,34 +5810,34 @@
         <v>48</v>
       </c>
       <c r="L58">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="M58">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N58">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="O58">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="P58">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q58">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="R58">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S58">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T58">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U58">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V58">
         <v>1.825</v>
@@ -5846,7 +5846,7 @@
         <v>1.975</v>
       </c>
       <c r="X58">
-        <v>0.615</v>
+        <v>1.45</v>
       </c>
       <c r="Y58">
         <v>-1</v>
@@ -5855,16 +5855,16 @@
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD58">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:30">
@@ -5872,7 +5872,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6927886</v>
+        <v>6927275</v>
       </c>
       <c r="C59" t="s">
         <v>29</v>
@@ -5881,82 +5881,82 @@
         <v>45191.60416666666</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L59">
         <v>2.375</v>
       </c>
       <c r="M59">
+        <v>2.875</v>
+      </c>
+      <c r="N59">
+        <v>2.9</v>
+      </c>
+      <c r="O59">
+        <v>2.4</v>
+      </c>
+      <c r="P59">
+        <v>2.8</v>
+      </c>
+      <c r="Q59">
         <v>3</v>
       </c>
-      <c r="N59">
-        <v>2.75</v>
-      </c>
-      <c r="O59">
-        <v>2.45</v>
-      </c>
-      <c r="P59">
-        <v>3</v>
-      </c>
-      <c r="Q59">
-        <v>2.7</v>
-      </c>
       <c r="R59">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S59">
+        <v>2.05</v>
+      </c>
+      <c r="T59">
+        <v>1.75</v>
+      </c>
+      <c r="U59">
+        <v>2</v>
+      </c>
+      <c r="V59">
+        <v>1.875</v>
+      </c>
+      <c r="W59">
+        <v>1.925</v>
+      </c>
+      <c r="X59">
+        <v>-1</v>
+      </c>
+      <c r="Y59">
         <v>1.8</v>
       </c>
-      <c r="T59">
-        <v>2</v>
-      </c>
-      <c r="U59">
-        <v>2.25</v>
-      </c>
-      <c r="V59">
-        <v>1.825</v>
-      </c>
-      <c r="W59">
-        <v>1.975</v>
-      </c>
-      <c r="X59">
-        <v>1.45</v>
-      </c>
-      <c r="Y59">
-        <v>-1</v>
-      </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD59">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:30">
@@ -5964,7 +5964,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6927275</v>
+        <v>6927068</v>
       </c>
       <c r="C60" t="s">
         <v>29</v>
@@ -5973,82 +5973,82 @@
         <v>45191.60416666666</v>
       </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60">
         <v>1</v>
       </c>
       <c r="K60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L60">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="M60">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N60">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="O60">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="P60">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R60">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S60">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T60">
+        <v>2</v>
+      </c>
+      <c r="U60">
+        <v>2.25</v>
+      </c>
+      <c r="V60">
         <v>1.75</v>
       </c>
-      <c r="U60">
-        <v>2</v>
-      </c>
-      <c r="V60">
-        <v>1.875</v>
-      </c>
       <c r="W60">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AA60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="AC60">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD60">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="61" spans="1:30">
@@ -6608,7 +6608,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6927307</v>
+        <v>6927308</v>
       </c>
       <c r="C67" t="s">
         <v>29</v>
@@ -6617,34 +6617,34 @@
         <v>45198.60416666666</v>
       </c>
       <c r="E67" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L67">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="M67">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N67">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="O67">
         <v>2</v>
@@ -6653,7 +6653,7 @@
         <v>3.2</v>
       </c>
       <c r="Q67">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R67">
         <v>-0.25</v>
@@ -6668,31 +6668,31 @@
         <v>2.25</v>
       </c>
       <c r="V67">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W67">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y67">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB67">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
         <v>-0.5</v>
       </c>
       <c r="AD67">
-        <v>0.475</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="68" spans="1:30">
@@ -6700,7 +6700,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6927071</v>
+        <v>6927307</v>
       </c>
       <c r="C68" t="s">
         <v>29</v>
@@ -6709,25 +6709,25 @@
         <v>45198.60416666666</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L68">
         <v>1.909</v>
@@ -6739,52 +6739,52 @@
         <v>3.5</v>
       </c>
       <c r="O68">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="P68">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q68">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="R68">
         <v>-0.25</v>
       </c>
       <c r="S68">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="T68">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U68">
         <v>2.25</v>
       </c>
       <c r="V68">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W68">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z68">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB68">
-        <v>0.75</v>
+        <v>0.4875</v>
       </c>
       <c r="AC68">
         <v>-0.5</v>
       </c>
       <c r="AD68">
-        <v>0.4125</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="69" spans="1:30">
@@ -6792,7 +6792,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6927309</v>
+        <v>6927071</v>
       </c>
       <c r="C69" t="s">
         <v>29</v>
@@ -6801,82 +6801,82 @@
         <v>45198.60416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L69">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="M69">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N69">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O69">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="P69">
         <v>3.1</v>
       </c>
       <c r="Q69">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="R69">
         <v>-0.25</v>
       </c>
       <c r="S69">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T69">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="U69">
         <v>2.25</v>
       </c>
       <c r="V69">
+        <v>1.975</v>
+      </c>
+      <c r="W69">
         <v>1.825</v>
       </c>
-      <c r="W69">
-        <v>1.975</v>
-      </c>
       <c r="X69">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA69">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC69">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AD69">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="70" spans="1:30">
@@ -6884,7 +6884,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6927308</v>
+        <v>6927309</v>
       </c>
       <c r="C70" t="s">
         <v>29</v>
@@ -6893,13 +6893,13 @@
         <v>45198.60416666666</v>
       </c>
       <c r="E70" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6914,19 +6914,19 @@
         <v>48</v>
       </c>
       <c r="L70">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M70">
         <v>3.1</v>
       </c>
       <c r="N70">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O70">
         <v>2</v>
       </c>
       <c r="P70">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -6935,20 +6935,20 @@
         <v>-0.25</v>
       </c>
       <c r="S70">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T70">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U70">
         <v>2.25</v>
       </c>
       <c r="V70">
+        <v>1.825</v>
+      </c>
+      <c r="W70">
         <v>1.975</v>
       </c>
-      <c r="W70">
-        <v>1.825</v>
-      </c>
       <c r="X70">
         <v>1</v>
       </c>
@@ -6959,16 +6959,16 @@
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.7250000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AD70">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:30">
@@ -7436,7 +7436,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6927073</v>
+        <v>6927277</v>
       </c>
       <c r="C76" t="s">
         <v>29</v>
@@ -7445,10 +7445,10 @@
         <v>45205.60416666666</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7457,7 +7457,7 @@
         <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -7466,61 +7466,61 @@
         <v>50</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N76">
+        <v>2.5</v>
+      </c>
+      <c r="O76">
+        <v>2.8</v>
+      </c>
+      <c r="P76">
+        <v>3.2</v>
+      </c>
+      <c r="Q76">
         <v>2.25</v>
-      </c>
-      <c r="O76">
-        <v>3.25</v>
-      </c>
-      <c r="P76">
-        <v>3.1</v>
-      </c>
-      <c r="Q76">
-        <v>2.1</v>
       </c>
       <c r="R76">
         <v>0.25</v>
       </c>
       <c r="S76">
+        <v>1.75</v>
+      </c>
+      <c r="T76">
+        <v>2.05</v>
+      </c>
+      <c r="U76">
+        <v>2</v>
+      </c>
+      <c r="V76">
+        <v>1.85</v>
+      </c>
+      <c r="W76">
         <v>1.95</v>
       </c>
-      <c r="T76">
-        <v>1.85</v>
-      </c>
-      <c r="U76">
-        <v>2.25</v>
-      </c>
-      <c r="V76">
-        <v>2</v>
-      </c>
-      <c r="W76">
-        <v>1.8</v>
-      </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.475</v>
+        <v>0.375</v>
       </c>
       <c r="AB76">
         <v>-0.5</v>
       </c>
       <c r="AC76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AD76">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:30">
@@ -7528,7 +7528,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6927277</v>
+        <v>6927073</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
@@ -7537,10 +7537,10 @@
         <v>45205.60416666666</v>
       </c>
       <c r="E77" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7549,7 +7549,7 @@
         <v>1</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -7558,61 +7558,61 @@
         <v>50</v>
       </c>
       <c r="L77">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="M77">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O77">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="P77">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q77">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="R77">
         <v>0.25</v>
       </c>
       <c r="S77">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T77">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W77">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.375</v>
+        <v>0.475</v>
       </c>
       <c r="AB77">
         <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AD77">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="78" spans="1:30">
@@ -10656,7 +10656,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6927321</v>
+        <v>7101736</v>
       </c>
       <c r="C111" t="s">
         <v>29</v>
@@ -10665,19 +10665,19 @@
         <v>45240.64583333334</v>
       </c>
       <c r="E111" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -10686,31 +10686,31 @@
         <v>48</v>
       </c>
       <c r="L111">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="M111">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N111">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="O111">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="P111">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q111">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="R111">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S111">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T111">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="U111">
         <v>2.5</v>
@@ -10722,7 +10722,7 @@
         <v>1.85</v>
       </c>
       <c r="X111">
-        <v>1.375</v>
+        <v>0.571</v>
       </c>
       <c r="Y111">
         <v>-1</v>
@@ -10731,16 +10731,16 @@
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD111">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:30">
@@ -10840,7 +10840,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7101736</v>
+        <v>6927090</v>
       </c>
       <c r="C113" t="s">
         <v>29</v>
@@ -10849,55 +10849,55 @@
         <v>45240.64583333334</v>
       </c>
       <c r="E113" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G113">
         <v>2</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113">
         <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L113">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="M113">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N113">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="O113">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="P113">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q113">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="R113">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S113">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T113">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U113">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V113">
         <v>1.95</v>
@@ -10906,25 +10906,25 @@
         <v>1.85</v>
       </c>
       <c r="X113">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="AA113">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD113">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:30">
@@ -10932,7 +10932,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6927092</v>
+        <v>6927091</v>
       </c>
       <c r="C114" t="s">
         <v>29</v>
@@ -10941,76 +10941,82 @@
         <v>45240.64583333334</v>
       </c>
       <c r="E114" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G114">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>2</v>
       </c>
       <c r="K114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L114">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="M114">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N114">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O114">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="P114">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q114">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="R114">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S114">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T114">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U114">
         <v>2.25</v>
       </c>
       <c r="V114">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W114">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="AA114">
         <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC114">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD114">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:30">
@@ -11018,7 +11024,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6927090</v>
+        <v>6927092</v>
       </c>
       <c r="C115" t="s">
         <v>29</v>
@@ -11027,82 +11033,76 @@
         <v>45240.64583333334</v>
       </c>
       <c r="E115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>3</v>
-      </c>
-      <c r="I115">
-        <v>2</v>
-      </c>
-      <c r="J115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L115">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="M115">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N115">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="O115">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="P115">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q115">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="R115">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S115">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U115">
         <v>2.25</v>
       </c>
       <c r="V115">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z115">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC115">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AD115">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="116" spans="1:30">
@@ -11110,7 +11110,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6927091</v>
+        <v>6927321</v>
       </c>
       <c r="C116" t="s">
         <v>29</v>
@@ -11119,79 +11119,79 @@
         <v>45240.64583333334</v>
       </c>
       <c r="E116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L116">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="M116">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N116">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O116">
+        <v>2.375</v>
+      </c>
+      <c r="P116">
+        <v>3.4</v>
+      </c>
+      <c r="Q116">
+        <v>2.7</v>
+      </c>
+      <c r="R116">
+        <v>-0.25</v>
+      </c>
+      <c r="S116">
+        <v>2.025</v>
+      </c>
+      <c r="T116">
+        <v>1.775</v>
+      </c>
+      <c r="U116">
         <v>2.5</v>
       </c>
-      <c r="P116">
-        <v>3.2</v>
-      </c>
-      <c r="Q116">
-        <v>2.625</v>
-      </c>
-      <c r="R116">
-        <v>0</v>
-      </c>
-      <c r="S116">
-        <v>1.8</v>
-      </c>
-      <c r="T116">
-        <v>2</v>
-      </c>
-      <c r="U116">
-        <v>2.25</v>
-      </c>
       <c r="V116">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W116">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB116">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AD116">
         <v>-1</v>
@@ -11294,7 +11294,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6927094</v>
+        <v>6927095</v>
       </c>
       <c r="C118" t="s">
         <v>29</v>
@@ -11303,82 +11303,82 @@
         <v>45254.64583333334</v>
       </c>
       <c r="E118" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L118">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="M118">
         <v>3.25</v>
       </c>
       <c r="N118">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="P118">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q118">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="R118">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S118">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T118">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="U118">
         <v>2.25</v>
       </c>
       <c r="V118">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W118">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB118">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AD118">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:30">
@@ -11386,7 +11386,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6927095</v>
+        <v>6927094</v>
       </c>
       <c r="C119" t="s">
         <v>29</v>
@@ -11395,82 +11395,82 @@
         <v>45254.64583333334</v>
       </c>
       <c r="E119" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F119" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L119">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="M119">
         <v>3.25</v>
       </c>
       <c r="N119">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O119">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q119">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="R119">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S119">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T119">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="U119">
         <v>2.25</v>
       </c>
       <c r="V119">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W119">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="X119">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA119">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC119">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AD119">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="120" spans="1:30">
@@ -12300,7 +12300,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6927099</v>
+        <v>6927326</v>
       </c>
       <c r="C129" t="s">
         <v>29</v>
@@ -12309,82 +12309,76 @@
         <v>45261.64583333334</v>
       </c>
       <c r="E129" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G129">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>1</v>
-      </c>
-      <c r="I129">
-        <v>3</v>
-      </c>
-      <c r="J129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K129" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L129">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="M129">
+        <v>3.2</v>
+      </c>
+      <c r="N129">
+        <v>2.6</v>
+      </c>
+      <c r="O129">
+        <v>2.375</v>
+      </c>
+      <c r="P129">
         <v>3.3</v>
       </c>
-      <c r="N129">
-        <v>4.75</v>
-      </c>
-      <c r="O129">
-        <v>1.571</v>
-      </c>
-      <c r="P129">
-        <v>3.5</v>
-      </c>
       <c r="Q129">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="R129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S129">
+        <v>1.825</v>
+      </c>
+      <c r="T129">
         <v>1.975</v>
       </c>
-      <c r="T129">
+      <c r="U129">
+        <v>2.75</v>
+      </c>
+      <c r="V129">
         <v>1.825</v>
       </c>
-      <c r="U129">
-        <v>2.25</v>
-      </c>
-      <c r="V129">
-        <v>1.75</v>
-      </c>
       <c r="W129">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X129">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="AA129">
+        <v>-1</v>
+      </c>
+      <c r="AB129">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB129">
-        <v>-1</v>
-      </c>
       <c r="AC129">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AD129">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:30">
@@ -12484,7 +12478,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6927326</v>
+        <v>6927099</v>
       </c>
       <c r="C131" t="s">
         <v>29</v>
@@ -12493,76 +12487,82 @@
         <v>45261.64583333334</v>
       </c>
       <c r="E131" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F131" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>3</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
       </c>
       <c r="K131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L131">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="M131">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N131">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="O131">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="P131">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q131">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="R131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S131">
+        <v>1.975</v>
+      </c>
+      <c r="T131">
         <v>1.825</v>
       </c>
-      <c r="T131">
-        <v>1.975</v>
-      </c>
       <c r="U131">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W131">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB131">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AD131">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:30">
@@ -12754,7 +12754,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6927101</v>
+        <v>6927102</v>
       </c>
       <c r="C134" t="s">
         <v>29</v>
@@ -12763,55 +12763,55 @@
         <v>45275.64583333334</v>
       </c>
       <c r="E134" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F134" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G134">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134">
         <v>0</v>
       </c>
       <c r="K134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L134">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="M134">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N134">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O134">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="P134">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q134">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="R134">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S134">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T134">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="U134">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V134">
         <v>2</v>
@@ -12820,25 +12820,25 @@
         <v>1.8</v>
       </c>
       <c r="X134">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="AA134">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD134">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:30">
@@ -12938,7 +12938,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6927102</v>
+        <v>6927101</v>
       </c>
       <c r="C136" t="s">
         <v>29</v>
@@ -12947,55 +12947,55 @@
         <v>45275.64583333334</v>
       </c>
       <c r="E136" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F136" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G136">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136">
         <v>0</v>
       </c>
       <c r="K136" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L136">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="M136">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N136">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O136">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="P136">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q136">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="R136">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S136">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T136">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U136">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V136">
         <v>2</v>
@@ -13004,25 +13004,25 @@
         <v>1.8</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB136">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD136">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="137" spans="1:30">
@@ -13582,7 +13582,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6927330</v>
+        <v>6927106</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
@@ -13591,19 +13591,19 @@
         <v>45303.64583333334</v>
       </c>
       <c r="E143" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F143" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -13612,34 +13612,34 @@
         <v>48</v>
       </c>
       <c r="L143">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="M143">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N143">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="O143">
-        <v>2.7</v>
+        <v>1.55</v>
       </c>
       <c r="P143">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q143">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="R143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S143">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T143">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U143">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V143">
         <v>1.8</v>
@@ -13648,7 +13648,7 @@
         <v>2</v>
       </c>
       <c r="X143">
-        <v>1.7</v>
+        <v>0.55</v>
       </c>
       <c r="Y143">
         <v>-1</v>
@@ -13657,16 +13657,16 @@
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:30">
@@ -13674,7 +13674,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6927331</v>
+        <v>6927330</v>
       </c>
       <c r="C144" t="s">
         <v>29</v>
@@ -13683,13 +13683,13 @@
         <v>45303.64583333334</v>
       </c>
       <c r="E144" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13704,44 +13704,44 @@
         <v>48</v>
       </c>
       <c r="L144">
+        <v>2.2</v>
+      </c>
+      <c r="M144">
+        <v>3.2</v>
+      </c>
+      <c r="N144">
+        <v>3.1</v>
+      </c>
+      <c r="O144">
+        <v>2.7</v>
+      </c>
+      <c r="P144">
+        <v>3.1</v>
+      </c>
+      <c r="Q144">
+        <v>2.5</v>
+      </c>
+      <c r="R144">
+        <v>0</v>
+      </c>
+      <c r="S144">
+        <v>1.975</v>
+      </c>
+      <c r="T144">
+        <v>1.825</v>
+      </c>
+      <c r="U144">
+        <v>2</v>
+      </c>
+      <c r="V144">
+        <v>1.8</v>
+      </c>
+      <c r="W144">
+        <v>2</v>
+      </c>
+      <c r="X144">
         <v>1.7</v>
       </c>
-      <c r="M144">
-        <v>3.6</v>
-      </c>
-      <c r="N144">
-        <v>4.333</v>
-      </c>
-      <c r="O144">
-        <v>1.615</v>
-      </c>
-      <c r="P144">
-        <v>3.75</v>
-      </c>
-      <c r="Q144">
-        <v>4.75</v>
-      </c>
-      <c r="R144">
-        <v>-1</v>
-      </c>
-      <c r="S144">
-        <v>1.95</v>
-      </c>
-      <c r="T144">
-        <v>1.75</v>
-      </c>
-      <c r="U144">
-        <v>2.5</v>
-      </c>
-      <c r="V144">
-        <v>1.9</v>
-      </c>
-      <c r="W144">
-        <v>1.9</v>
-      </c>
-      <c r="X144">
-        <v>0.615</v>
-      </c>
       <c r="Y144">
         <v>-1</v>
       </c>
@@ -13749,16 +13749,16 @@
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD144">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:30">
@@ -13766,7 +13766,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6927332</v>
+        <v>6927333</v>
       </c>
       <c r="C145" t="s">
         <v>29</v>
@@ -13775,10 +13775,10 @@
         <v>45303.64583333334</v>
       </c>
       <c r="E145" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -13790,49 +13790,49 @@
         <v>1</v>
       </c>
       <c r="J145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K145" t="s">
         <v>48</v>
       </c>
       <c r="L145">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="M145">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N145">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="O145">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="P145">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q145">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="R145">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S145">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T145">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U145">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V145">
+        <v>1.975</v>
+      </c>
+      <c r="W145">
         <v>1.825</v>
       </c>
-      <c r="W145">
-        <v>1.975</v>
-      </c>
       <c r="X145">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="Y145">
         <v>-1</v>
@@ -13841,13 +13841,13 @@
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD145">
         <v>-1</v>
@@ -13858,7 +13858,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6927333</v>
+        <v>6927331</v>
       </c>
       <c r="C146" t="s">
         <v>29</v>
@@ -13867,16 +13867,16 @@
         <v>45303.64583333334</v>
       </c>
       <c r="E146" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>1</v>
@@ -13897,34 +13897,34 @@
         <v>4.333</v>
       </c>
       <c r="O146">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="P146">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q146">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="R146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S146">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U146">
         <v>2.5</v>
       </c>
       <c r="V146">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W146">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X146">
-        <v>0.8</v>
+        <v>0.615</v>
       </c>
       <c r="Y146">
         <v>-1</v>
@@ -13933,16 +13933,16 @@
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC146">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD146">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:30">
@@ -13950,7 +13950,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6926929</v>
+        <v>6927105</v>
       </c>
       <c r="C147" t="s">
         <v>29</v>
@@ -13959,82 +13959,82 @@
         <v>45303.64583333334</v>
       </c>
       <c r="E147" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H147">
         <v>1</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K147" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L147">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M147">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N147">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O147">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P147">
         <v>3.1</v>
       </c>
       <c r="Q147">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="R147">
         <v>-0.25</v>
       </c>
       <c r="S147">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U147">
         <v>2</v>
       </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W147">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB147">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD147">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:30">
@@ -14042,7 +14042,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6927104</v>
+        <v>6926929</v>
       </c>
       <c r="C148" t="s">
         <v>29</v>
@@ -14051,16 +14051,16 @@
         <v>45303.64583333334</v>
       </c>
       <c r="E148" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G148">
         <v>0</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -14072,40 +14072,40 @@
         <v>49</v>
       </c>
       <c r="L148">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="M148">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N148">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="O148">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P148">
         <v>3.1</v>
       </c>
       <c r="Q148">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="R148">
         <v>-0.25</v>
       </c>
       <c r="S148">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T148">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U148">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V148">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W148">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -14114,19 +14114,19 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD148">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:30">
@@ -14134,7 +14134,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6927105</v>
+        <v>6927104</v>
       </c>
       <c r="C149" t="s">
         <v>29</v>
@@ -14143,82 +14143,82 @@
         <v>45303.64583333334</v>
       </c>
       <c r="E149" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G149">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K149" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L149">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="M149">
         <v>3.1</v>
       </c>
       <c r="N149">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O149">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P149">
         <v>3.1</v>
       </c>
       <c r="Q149">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="R149">
         <v>-0.25</v>
       </c>
       <c r="S149">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T149">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U149">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V149">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W149">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X149">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="AA149">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC149">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AD149">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="150" spans="1:30">
@@ -14226,7 +14226,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6927106</v>
+        <v>6927332</v>
       </c>
       <c r="C150" t="s">
         <v>29</v>
@@ -14235,64 +14235,64 @@
         <v>45303.64583333334</v>
       </c>
       <c r="E150" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150" t="s">
         <v>48</v>
       </c>
       <c r="L150">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="M150">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="N150">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="O150">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="P150">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q150">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="R150">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S150">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T150">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U150">
         <v>2.25</v>
       </c>
       <c r="V150">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W150">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X150">
-        <v>0.55</v>
+        <v>1.2</v>
       </c>
       <c r="Y150">
         <v>-1</v>
@@ -14301,16 +14301,16 @@
         <v>-1</v>
       </c>
       <c r="AA150">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD150">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:30">
@@ -14410,7 +14410,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6927336</v>
+        <v>6927334</v>
       </c>
       <c r="C152" t="s">
         <v>29</v>
@@ -14419,82 +14419,82 @@
         <v>45310.64583333334</v>
       </c>
       <c r="E152" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G152">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152" t="s">
+        <v>50</v>
+      </c>
+      <c r="L152">
+        <v>2.9</v>
+      </c>
+      <c r="M152">
         <v>3</v>
       </c>
-      <c r="J152">
-        <v>0</v>
-      </c>
-      <c r="K152" t="s">
-        <v>48</v>
-      </c>
-      <c r="L152">
-        <v>2.2</v>
-      </c>
-      <c r="M152">
-        <v>3.1</v>
-      </c>
       <c r="N152">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="O152">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="P152">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q152">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="R152">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S152">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T152">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U152">
         <v>2.25</v>
       </c>
       <c r="V152">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W152">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="X152">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB152">
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD152">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:30">
@@ -14502,7 +14502,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6927334</v>
+        <v>6927336</v>
       </c>
       <c r="C153" t="s">
         <v>29</v>
@@ -14511,82 +14511,82 @@
         <v>45310.64583333334</v>
       </c>
       <c r="E153" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J153">
         <v>0</v>
       </c>
       <c r="K153" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L153">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="M153">
+        <v>3.1</v>
+      </c>
+      <c r="N153">
         <v>3</v>
       </c>
-      <c r="N153">
-        <v>2.3</v>
-      </c>
       <c r="O153">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="P153">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q153">
+        <v>3.5</v>
+      </c>
+      <c r="R153">
+        <v>-0.25</v>
+      </c>
+      <c r="S153">
         <v>1.85</v>
       </c>
-      <c r="R153">
-        <v>0.5</v>
-      </c>
-      <c r="S153">
-        <v>1.8</v>
-      </c>
       <c r="T153">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U153">
         <v>2.25</v>
       </c>
       <c r="V153">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W153">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y153">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD153">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:30">
@@ -14778,7 +14778,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7695781</v>
+        <v>7679827</v>
       </c>
       <c r="C156" t="s">
         <v>29</v>
@@ -14787,64 +14787,64 @@
         <v>45317.64583333334</v>
       </c>
       <c r="E156" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F156" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G156">
         <v>2</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K156" t="s">
         <v>48</v>
       </c>
       <c r="L156">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="M156">
         <v>3.4</v>
       </c>
       <c r="N156">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="O156">
+        <v>3.2</v>
+      </c>
+      <c r="P156">
+        <v>3</v>
+      </c>
+      <c r="Q156">
         <v>2.2</v>
       </c>
-      <c r="P156">
-        <v>3.2</v>
-      </c>
-      <c r="Q156">
-        <v>3.1</v>
-      </c>
       <c r="R156">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S156">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T156">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U156">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V156">
+        <v>1.85</v>
+      </c>
+      <c r="W156">
         <v>1.95</v>
       </c>
-      <c r="W156">
-        <v>1.85</v>
-      </c>
       <c r="X156">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="Y156">
         <v>-1</v>
@@ -14853,16 +14853,16 @@
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AD156">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:30">
@@ -14870,7 +14870,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7679827</v>
+        <v>7695781</v>
       </c>
       <c r="C157" t="s">
         <v>29</v>
@@ -14879,64 +14879,64 @@
         <v>45317.64583333334</v>
       </c>
       <c r="E157" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G157">
         <v>2</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K157" t="s">
         <v>48</v>
       </c>
       <c r="L157">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="M157">
         <v>3.4</v>
       </c>
       <c r="N157">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="O157">
+        <v>2.2</v>
+      </c>
+      <c r="P157">
         <v>3.2</v>
       </c>
-      <c r="P157">
-        <v>3</v>
-      </c>
       <c r="Q157">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="R157">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S157">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T157">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U157">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V157">
+        <v>1.95</v>
+      </c>
+      <c r="W157">
         <v>1.85</v>
       </c>
-      <c r="W157">
-        <v>1.95</v>
-      </c>
       <c r="X157">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="Y157">
         <v>-1</v>
@@ -14945,16 +14945,16 @@
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AD157">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:30">
@@ -15790,7 +15790,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6927114</v>
+        <v>6927113</v>
       </c>
       <c r="C167" t="s">
         <v>29</v>
@@ -15799,82 +15799,82 @@
         <v>45324.64583333334</v>
       </c>
       <c r="E167" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K167" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L167">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="M167">
         <v>3.4</v>
       </c>
       <c r="N167">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="O167">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="P167">
         <v>3.4</v>
       </c>
       <c r="Q167">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="R167">
         <v>-0.5</v>
       </c>
       <c r="S167">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T167">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U167">
         <v>2.25</v>
       </c>
       <c r="V167">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W167">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD167">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:30">
@@ -15882,7 +15882,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6927113</v>
+        <v>6927282</v>
       </c>
       <c r="C168" t="s">
         <v>29</v>
@@ -15891,79 +15891,79 @@
         <v>45324.64583333334</v>
       </c>
       <c r="E168" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F168" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168">
         <v>1</v>
       </c>
       <c r="J168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L168">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="M168">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N168">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="O168">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="P168">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q168">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="R168">
         <v>-0.5</v>
       </c>
       <c r="S168">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T168">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U168">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V168">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W168">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB168">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AD168">
         <v>-1</v>
@@ -15974,7 +15974,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6927282</v>
+        <v>6927114</v>
       </c>
       <c r="C169" t="s">
         <v>29</v>
@@ -15983,82 +15983,82 @@
         <v>45324.64583333334</v>
       </c>
       <c r="E169" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G169">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H169">
         <v>0</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169">
         <v>0</v>
       </c>
       <c r="K169" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L169">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="M169">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N169">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="O169">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P169">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q169">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="R169">
         <v>-0.5</v>
       </c>
       <c r="S169">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T169">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U169">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V169">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W169">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="X169">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC169">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD169">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:30">
@@ -17814,7 +17814,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6927125</v>
+        <v>6927343</v>
       </c>
       <c r="C189" t="s">
         <v>29</v>
@@ -17823,79 +17823,79 @@
         <v>45345.64583333334</v>
       </c>
       <c r="E189" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F189" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G189">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H189">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K189" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L189">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="M189">
+        <v>3.4</v>
+      </c>
+      <c r="N189">
+        <v>5</v>
+      </c>
+      <c r="O189">
+        <v>1.75</v>
+      </c>
+      <c r="P189">
         <v>3.2</v>
       </c>
-      <c r="N189">
+      <c r="Q189">
+        <v>5</v>
+      </c>
+      <c r="R189">
+        <v>-0.5</v>
+      </c>
+      <c r="S189">
+        <v>1.75</v>
+      </c>
+      <c r="T189">
+        <v>1.95</v>
+      </c>
+      <c r="U189">
         <v>2.25</v>
       </c>
-      <c r="O189">
-        <v>3.25</v>
-      </c>
-      <c r="P189">
-        <v>3.3</v>
-      </c>
-      <c r="Q189">
-        <v>2.1</v>
-      </c>
-      <c r="R189">
-        <v>0.25</v>
-      </c>
-      <c r="S189">
-        <v>2</v>
-      </c>
-      <c r="T189">
-        <v>1.8</v>
-      </c>
-      <c r="U189">
-        <v>2.5</v>
-      </c>
       <c r="V189">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W189">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB189">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AD189">
         <v>-1</v>
@@ -17906,7 +17906,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6927283</v>
+        <v>6927345</v>
       </c>
       <c r="C190" t="s">
         <v>29</v>
@@ -17915,79 +17915,79 @@
         <v>45345.64583333334</v>
       </c>
       <c r="E190" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F190" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G190">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K190" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L190">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="M190">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N190">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O190">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="P190">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q190">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="R190">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S190">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T190">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U190">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V190">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W190">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB190">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD190">
         <v>-1</v>
@@ -18090,7 +18090,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6927345</v>
+        <v>6927344</v>
       </c>
       <c r="C192" t="s">
         <v>29</v>
@@ -18099,64 +18099,64 @@
         <v>45345.64583333334</v>
       </c>
       <c r="E192" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F192" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G192">
         <v>3</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K192" t="s">
         <v>48</v>
       </c>
       <c r="L192">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="M192">
         <v>3.5</v>
       </c>
       <c r="N192">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O192">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="P192">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q192">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="R192">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S192">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T192">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U192">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V192">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W192">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X192">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y192">
         <v>-1</v>
@@ -18165,13 +18165,13 @@
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD192">
         <v>-1</v>
@@ -18182,7 +18182,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6927343</v>
+        <v>6927125</v>
       </c>
       <c r="C193" t="s">
         <v>29</v>
@@ -18191,79 +18191,79 @@
         <v>45345.64583333334</v>
       </c>
       <c r="E193" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F193" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G193">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K193" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L193">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="M193">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N193">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="O193">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="P193">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q193">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="R193">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S193">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T193">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U193">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V193">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W193">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X193">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA193">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC193">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AD193">
         <v>-1</v>
@@ -18274,7 +18274,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6927344</v>
+        <v>6927283</v>
       </c>
       <c r="C194" t="s">
         <v>29</v>
@@ -18283,79 +18283,79 @@
         <v>45345.64583333334</v>
       </c>
       <c r="E194" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F194" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194">
         <v>3</v>
       </c>
-      <c r="H194">
-        <v>2</v>
-      </c>
       <c r="I194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194">
         <v>1</v>
       </c>
       <c r="K194" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L194">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="M194">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N194">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O194">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="P194">
         <v>3.1</v>
       </c>
       <c r="Q194">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="R194">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S194">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T194">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U194">
         <v>2</v>
       </c>
       <c r="V194">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W194">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X194">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="AA194">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC194">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AD194">
         <v>-1</v>
@@ -21310,7 +21310,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7101749</v>
+        <v>6927355</v>
       </c>
       <c r="C227" t="s">
         <v>29</v>
@@ -21319,13 +21319,13 @@
         <v>45373.64583333334</v>
       </c>
       <c r="E227" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F227" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227">
         <v>2</v>
@@ -21340,40 +21340,40 @@
         <v>49</v>
       </c>
       <c r="L227">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="M227">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N227">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="O227">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="P227">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q227">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="R227">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S227">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T227">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U227">
         <v>2.25</v>
       </c>
       <c r="V227">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W227">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X227">
         <v>-1</v>
@@ -21382,19 +21382,19 @@
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="AA227">
         <v>-1</v>
       </c>
       <c r="AB227">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC227">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AD227">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:30">
@@ -21494,7 +21494,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6927355</v>
+        <v>7101749</v>
       </c>
       <c r="C229" t="s">
         <v>29</v>
@@ -21503,13 +21503,13 @@
         <v>45373.64583333334</v>
       </c>
       <c r="E229" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F229" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H229">
         <v>2</v>
@@ -21524,40 +21524,40 @@
         <v>49</v>
       </c>
       <c r="L229">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="M229">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N229">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="O229">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="P229">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q229">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="R229">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S229">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T229">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U229">
         <v>2.25</v>
       </c>
       <c r="V229">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W229">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -21566,19 +21566,19 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC229">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AD229">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="230" spans="1:30">
@@ -22138,7 +22138,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7866258</v>
+        <v>7884723</v>
       </c>
       <c r="C236" t="s">
         <v>29</v>
@@ -22147,79 +22147,79 @@
         <v>45377.625</v>
       </c>
       <c r="E236" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F236" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H236">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K236" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L236">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="M236">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N236">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="O236">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="P236">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q236">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="R236">
         <v>0</v>
       </c>
       <c r="S236">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T236">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U236">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V236">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W236">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z236">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB236">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC236">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AD236">
         <v>-1</v>
@@ -22230,7 +22230,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7884723</v>
+        <v>7866258</v>
       </c>
       <c r="C237" t="s">
         <v>29</v>
@@ -22239,79 +22239,79 @@
         <v>45377.625</v>
       </c>
       <c r="E237" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F237" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K237" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L237">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="M237">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N237">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O237">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P237">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q237">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="R237">
         <v>0</v>
       </c>
       <c r="S237">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T237">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U237">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V237">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W237">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="AA237">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC237">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AD237">
         <v>-1</v>
@@ -22322,7 +22322,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6927143</v>
+        <v>6927358</v>
       </c>
       <c r="C238" t="s">
         <v>29</v>
@@ -22331,10 +22331,10 @@
         <v>45380.64583333334</v>
       </c>
       <c r="E238" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F238" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -22343,7 +22343,7 @@
         <v>0</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238">
         <v>0</v>
@@ -22352,43 +22352,43 @@
         <v>48</v>
       </c>
       <c r="L238">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="M238">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N238">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="O238">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="P238">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q238">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="R238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S238">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T238">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U238">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="V238">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W238">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X238">
-        <v>1.7</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y238">
         <v>-1</v>
@@ -22397,16 +22397,16 @@
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC238">
         <v>-1</v>
       </c>
       <c r="AD238">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="239" spans="1:30">
@@ -22414,7 +22414,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6927358</v>
+        <v>6927143</v>
       </c>
       <c r="C239" t="s">
         <v>29</v>
@@ -22423,10 +22423,10 @@
         <v>45380.64583333334</v>
       </c>
       <c r="E239" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F239" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -22435,7 +22435,7 @@
         <v>0</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239">
         <v>0</v>
@@ -22444,43 +22444,43 @@
         <v>48</v>
       </c>
       <c r="L239">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="M239">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N239">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="O239">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="P239">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q239">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="R239">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S239">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T239">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U239">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="V239">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W239">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X239">
-        <v>0.5329999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="Y239">
         <v>-1</v>
@@ -22489,16 +22489,16 @@
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB239">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
         <v>-1</v>
       </c>
       <c r="AD239">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="240" spans="1:30">
@@ -22598,7 +22598,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6927356</v>
+        <v>6927145</v>
       </c>
       <c r="C241" t="s">
         <v>29</v>
@@ -22607,82 +22607,82 @@
         <v>45380.64583333334</v>
       </c>
       <c r="E241" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F241" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241">
         <v>0</v>
       </c>
       <c r="K241" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L241">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="M241">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N241">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O241">
+        <v>2.05</v>
+      </c>
+      <c r="P241">
         <v>3.25</v>
       </c>
-      <c r="P241">
-        <v>3</v>
-      </c>
       <c r="Q241">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="R241">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S241">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T241">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U241">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V241">
+        <v>1.975</v>
+      </c>
+      <c r="W241">
         <v>1.825</v>
       </c>
-      <c r="W241">
-        <v>1.975</v>
-      </c>
       <c r="X241">
+        <v>-1</v>
+      </c>
+      <c r="Y241">
         <v>2.25</v>
       </c>
-      <c r="Y241">
-        <v>-1</v>
-      </c>
       <c r="Z241">
         <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB241">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC241">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AD241">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="242" spans="1:30">
@@ -22690,7 +22690,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6927145</v>
+        <v>6927356</v>
       </c>
       <c r="C242" t="s">
         <v>29</v>
@@ -22699,82 +22699,82 @@
         <v>45380.64583333334</v>
       </c>
       <c r="E242" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F242" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J242">
         <v>0</v>
       </c>
       <c r="K242" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L242">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="M242">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N242">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="O242">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="P242">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q242">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="R242">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S242">
+        <v>1.925</v>
+      </c>
+      <c r="T242">
+        <v>1.875</v>
+      </c>
+      <c r="U242">
+        <v>2</v>
+      </c>
+      <c r="V242">
         <v>1.825</v>
       </c>
-      <c r="T242">
+      <c r="W242">
         <v>1.975</v>
       </c>
-      <c r="U242">
+      <c r="X242">
         <v>2.25</v>
       </c>
-      <c r="V242">
-        <v>1.975</v>
-      </c>
-      <c r="W242">
-        <v>1.825</v>
-      </c>
-      <c r="X242">
-        <v>-1</v>
-      </c>
       <c r="Y242">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z242">
         <v>-1</v>
       </c>
       <c r="AA242">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB242">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC242">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AD242">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:30">
@@ -22782,7 +22782,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6927880</v>
+        <v>7101750</v>
       </c>
       <c r="C243" t="s">
         <v>29</v>
@@ -22791,10 +22791,10 @@
         <v>45381.64583333334</v>
       </c>
       <c r="E243" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F243" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G243">
         <v>2</v>
@@ -22803,67 +22803,67 @@
         <v>2</v>
       </c>
       <c r="I243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K243" t="s">
         <v>50</v>
       </c>
       <c r="L243">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="M243">
+        <v>3.2</v>
+      </c>
+      <c r="N243">
+        <v>2.55</v>
+      </c>
+      <c r="O243">
+        <v>2.45</v>
+      </c>
+      <c r="P243">
         <v>3.1</v>
       </c>
-      <c r="N243">
-        <v>3.8</v>
-      </c>
-      <c r="O243">
+      <c r="Q243">
+        <v>2.8</v>
+      </c>
+      <c r="R243">
+        <v>0</v>
+      </c>
+      <c r="S243">
+        <v>1.8</v>
+      </c>
+      <c r="T243">
+        <v>2</v>
+      </c>
+      <c r="U243">
         <v>2.25</v>
       </c>
-      <c r="P243">
-        <v>2.9</v>
-      </c>
-      <c r="Q243">
-        <v>3.25</v>
-      </c>
-      <c r="R243">
-        <v>-0.25</v>
-      </c>
-      <c r="S243">
+      <c r="V243">
         <v>1.95</v>
       </c>
-      <c r="T243">
+      <c r="W243">
         <v>1.85</v>
       </c>
-      <c r="U243">
-        <v>2</v>
-      </c>
-      <c r="V243">
-        <v>1.925</v>
-      </c>
-      <c r="W243">
-        <v>1.875</v>
-      </c>
       <c r="X243">
         <v>-1</v>
       </c>
       <c r="Y243">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Z243">
         <v>-1</v>
       </c>
       <c r="AA243">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB243">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC243">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AD243">
         <v>-1</v>
@@ -22966,7 +22966,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7101750</v>
+        <v>6927880</v>
       </c>
       <c r="C245" t="s">
         <v>29</v>
@@ -22975,10 +22975,10 @@
         <v>45381.64583333334</v>
       </c>
       <c r="E245" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F245" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G245">
         <v>2</v>
@@ -22987,67 +22987,67 @@
         <v>2</v>
       </c>
       <c r="I245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K245" t="s">
         <v>50</v>
       </c>
       <c r="L245">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="M245">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N245">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="O245">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="P245">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q245">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="R245">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S245">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T245">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U245">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V245">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W245">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X245">
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="Z245">
         <v>-1</v>
       </c>
       <c r="AA245">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB245">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC245">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AD245">
         <v>-1</v>
@@ -23150,7 +23150,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6927147</v>
+        <v>6927149</v>
       </c>
       <c r="C247" t="s">
         <v>29</v>
@@ -23159,82 +23159,82 @@
         <v>45387.60416666666</v>
       </c>
       <c r="E247" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F247" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247">
         <v>0</v>
       </c>
       <c r="J247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K247" t="s">
         <v>48</v>
       </c>
       <c r="L247">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="M247">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N247">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O247">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="P247">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q247">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="R247">
+        <v>-0.75</v>
+      </c>
+      <c r="S247">
+        <v>1.775</v>
+      </c>
+      <c r="T247">
+        <v>2.025</v>
+      </c>
+      <c r="U247">
+        <v>2.25</v>
+      </c>
+      <c r="V247">
+        <v>1.925</v>
+      </c>
+      <c r="W247">
+        <v>1.875</v>
+      </c>
+      <c r="X247">
+        <v>0.571</v>
+      </c>
+      <c r="Y247">
+        <v>-1</v>
+      </c>
+      <c r="Z247">
+        <v>-1</v>
+      </c>
+      <c r="AA247">
+        <v>0.3875</v>
+      </c>
+      <c r="AB247">
         <v>-0.5</v>
       </c>
-      <c r="S247">
-        <v>1.8</v>
-      </c>
-      <c r="T247">
-        <v>2</v>
-      </c>
-      <c r="U247">
-        <v>2.5</v>
-      </c>
-      <c r="V247">
-        <v>1.9</v>
-      </c>
-      <c r="W247">
-        <v>1.9</v>
-      </c>
-      <c r="X247">
-        <v>0.8</v>
-      </c>
-      <c r="Y247">
-        <v>-1</v>
-      </c>
-      <c r="Z247">
-        <v>-1</v>
-      </c>
-      <c r="AA247">
-        <v>0.8</v>
-      </c>
-      <c r="AB247">
-        <v>-1</v>
-      </c>
       <c r="AC247">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD247">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="248" spans="1:30">
@@ -23242,7 +23242,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6927148</v>
+        <v>6927147</v>
       </c>
       <c r="C248" t="s">
         <v>29</v>
@@ -23251,64 +23251,64 @@
         <v>45387.60416666666</v>
       </c>
       <c r="E248" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F248" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G248">
         <v>2</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K248" t="s">
         <v>48</v>
       </c>
       <c r="L248">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="M248">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="N248">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="O248">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="P248">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q248">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="R248">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S248">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T248">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="U248">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V248">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W248">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X248">
-        <v>1.375</v>
+        <v>0.8</v>
       </c>
       <c r="Y248">
         <v>-1</v>
@@ -23317,16 +23317,16 @@
         <v>-1</v>
       </c>
       <c r="AA248">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB248">
         <v>-1</v>
       </c>
       <c r="AC248">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD248">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:30">
@@ -23334,7 +23334,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6927149</v>
+        <v>6927148</v>
       </c>
       <c r="C249" t="s">
         <v>29</v>
@@ -23343,19 +23343,19 @@
         <v>45387.60416666666</v>
       </c>
       <c r="E249" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F249" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H249">
         <v>0</v>
       </c>
       <c r="I249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249">
         <v>0</v>
@@ -23364,43 +23364,43 @@
         <v>48</v>
       </c>
       <c r="L249">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="M249">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N249">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="O249">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="P249">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q249">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="R249">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S249">
+        <v>2.025</v>
+      </c>
+      <c r="T249">
         <v>1.775</v>
       </c>
-      <c r="T249">
-        <v>2.025</v>
-      </c>
       <c r="U249">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V249">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W249">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X249">
-        <v>0.571</v>
+        <v>1.375</v>
       </c>
       <c r="Y249">
         <v>-1</v>
@@ -23409,16 +23409,16 @@
         <v>-1</v>
       </c>
       <c r="AA249">
-        <v>0.3875</v>
+        <v>1.025</v>
       </c>
       <c r="AB249">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC249">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD249">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:30">
@@ -23426,7 +23426,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6927359</v>
+        <v>6927360</v>
       </c>
       <c r="C250" t="s">
         <v>29</v>
@@ -23435,82 +23435,82 @@
         <v>45387.60416666666</v>
       </c>
       <c r="E250" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F250" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G250">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I250">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K250" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L250">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="M250">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N250">
+        <v>3.8</v>
+      </c>
+      <c r="O250">
+        <v>1.666</v>
+      </c>
+      <c r="P250">
+        <v>3.3</v>
+      </c>
+      <c r="Q250">
         <v>4.75</v>
       </c>
-      <c r="O250">
-        <v>1.5</v>
-      </c>
-      <c r="P250">
-        <v>3.8</v>
-      </c>
-      <c r="Q250">
-        <v>6</v>
-      </c>
       <c r="R250">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S250">
+        <v>1.95</v>
+      </c>
+      <c r="T250">
         <v>1.85</v>
-      </c>
-      <c r="T250">
-        <v>1.95</v>
       </c>
       <c r="U250">
         <v>2.25</v>
       </c>
       <c r="V250">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W250">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X250">
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="AA250">
         <v>-1</v>
       </c>
       <c r="AB250">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC250">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD250">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251" spans="1:30">
@@ -23518,7 +23518,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6927151</v>
+        <v>6927359</v>
       </c>
       <c r="C251" t="s">
         <v>29</v>
@@ -23527,52 +23527,52 @@
         <v>45387.60416666666</v>
       </c>
       <c r="E251" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F251" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H251">
         <v>1</v>
       </c>
       <c r="I251">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J251">
         <v>0</v>
       </c>
       <c r="K251" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L251">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="M251">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N251">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="O251">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="P251">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q251">
+        <v>6</v>
+      </c>
+      <c r="R251">
+        <v>-1</v>
+      </c>
+      <c r="S251">
+        <v>1.85</v>
+      </c>
+      <c r="T251">
         <v>1.95</v>
-      </c>
-      <c r="R251">
-        <v>0.5</v>
-      </c>
-      <c r="S251">
-        <v>1.8</v>
-      </c>
-      <c r="T251">
-        <v>2</v>
       </c>
       <c r="U251">
         <v>2.25</v>
@@ -23584,25 +23584,25 @@
         <v>1.95</v>
       </c>
       <c r="X251">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y251">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC251">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AD251">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="252" spans="1:30">
@@ -23610,7 +23610,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6927360</v>
+        <v>6927151</v>
       </c>
       <c r="C252" t="s">
         <v>29</v>
@@ -23619,79 +23619,79 @@
         <v>45387.60416666666</v>
       </c>
       <c r="E252" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F252" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G252">
+        <v>2</v>
+      </c>
+      <c r="H252">
+        <v>1</v>
+      </c>
+      <c r="I252">
+        <v>2</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252" t="s">
+        <v>48</v>
+      </c>
+      <c r="L252">
+        <v>2.8</v>
+      </c>
+      <c r="M252">
+        <v>2.875</v>
+      </c>
+      <c r="N252">
+        <v>2.45</v>
+      </c>
+      <c r="O252">
+        <v>3.6</v>
+      </c>
+      <c r="P252">
         <v>3</v>
       </c>
-      <c r="H252">
-        <v>4</v>
-      </c>
-      <c r="I252">
-        <v>2</v>
-      </c>
-      <c r="J252">
-        <v>1</v>
-      </c>
-      <c r="K252" t="s">
-        <v>49</v>
-      </c>
-      <c r="L252">
+      <c r="Q252">
         <v>1.95</v>
       </c>
-      <c r="M252">
-        <v>3</v>
-      </c>
-      <c r="N252">
-        <v>3.8</v>
-      </c>
-      <c r="O252">
-        <v>1.666</v>
-      </c>
-      <c r="P252">
-        <v>3.3</v>
-      </c>
-      <c r="Q252">
-        <v>4.75</v>
-      </c>
       <c r="R252">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S252">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T252">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U252">
         <v>2.25</v>
       </c>
       <c r="V252">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W252">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X252">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y252">
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="AA252">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB252">
+        <v>-1</v>
+      </c>
+      <c r="AC252">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC252">
-        <v>0.8</v>
       </c>
       <c r="AD252">
         <v>-1</v>
@@ -24162,7 +24162,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6927154</v>
+        <v>7101752</v>
       </c>
       <c r="C258" t="s">
         <v>29</v>
@@ -24171,82 +24171,82 @@
         <v>45394.60416666666</v>
       </c>
       <c r="E258" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F258" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G258">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J258">
         <v>0</v>
       </c>
       <c r="K258" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L258">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="M258">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N258">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="O258">
+        <v>3.2</v>
+      </c>
+      <c r="P258">
+        <v>3.2</v>
+      </c>
+      <c r="Q258">
+        <v>2.15</v>
+      </c>
+      <c r="R258">
+        <v>0.25</v>
+      </c>
+      <c r="S258">
+        <v>1.9</v>
+      </c>
+      <c r="T258">
+        <v>1.9</v>
+      </c>
+      <c r="U258">
         <v>2.5</v>
       </c>
-      <c r="P258">
-        <v>2.8</v>
-      </c>
-      <c r="Q258">
-        <v>2.875</v>
-      </c>
-      <c r="R258">
-        <v>0</v>
-      </c>
-      <c r="S258">
-        <v>1.775</v>
-      </c>
-      <c r="T258">
-        <v>2.025</v>
-      </c>
-      <c r="U258">
-        <v>2</v>
-      </c>
       <c r="V258">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W258">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X258">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y258">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z258">
         <v>-1</v>
       </c>
       <c r="AA258">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB258">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC258">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD258">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="259" spans="1:30">
@@ -24254,7 +24254,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6927363</v>
+        <v>6927364</v>
       </c>
       <c r="C259" t="s">
         <v>29</v>
@@ -24263,10 +24263,10 @@
         <v>45394.60416666666</v>
       </c>
       <c r="E259" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F259" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -24284,41 +24284,41 @@
         <v>49</v>
       </c>
       <c r="L259">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="M259">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N259">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="O259">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="P259">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q259">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="R259">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S259">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T259">
+        <v>1.825</v>
+      </c>
+      <c r="U259">
+        <v>2.75</v>
+      </c>
+      <c r="V259">
+        <v>2</v>
+      </c>
+      <c r="W259">
         <v>1.8</v>
       </c>
-      <c r="U259">
-        <v>2.5</v>
-      </c>
-      <c r="V259">
-        <v>1.975</v>
-      </c>
-      <c r="W259">
-        <v>1.825</v>
-      </c>
       <c r="X259">
         <v>-1</v>
       </c>
@@ -24326,19 +24326,19 @@
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>0.75</v>
+        <v>1.9</v>
       </c>
       <c r="AA259">
         <v>-1</v>
       </c>
       <c r="AB259">
+        <v>0.825</v>
+      </c>
+      <c r="AC259">
+        <v>-1</v>
+      </c>
+      <c r="AD259">
         <v>0.8</v>
-      </c>
-      <c r="AC259">
-        <v>-1</v>
-      </c>
-      <c r="AD259">
-        <v>0.825</v>
       </c>
     </row>
     <row r="260" spans="1:30">
@@ -24346,7 +24346,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7101752</v>
+        <v>6927363</v>
       </c>
       <c r="C260" t="s">
         <v>29</v>
@@ -24355,82 +24355,82 @@
         <v>45394.60416666666</v>
       </c>
       <c r="E260" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F260" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K260" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L260">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M260">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N260">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O260">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P260">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q260">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="R260">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S260">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T260">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U260">
         <v>2.5</v>
       </c>
       <c r="V260">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W260">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X260">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA260">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB260">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC260">
         <v>-1</v>
       </c>
       <c r="AD260">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="261" spans="1:30">
@@ -24438,7 +24438,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6927364</v>
+        <v>6927153</v>
       </c>
       <c r="C261" t="s">
         <v>29</v>
@@ -24447,82 +24447,82 @@
         <v>45394.60416666666</v>
       </c>
       <c r="E261" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F261" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261">
         <v>0</v>
       </c>
       <c r="J261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K261" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L261">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="M261">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="N261">
         <v>2.875</v>
       </c>
       <c r="O261">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="P261">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="Q261">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="R261">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S261">
+        <v>1.85</v>
+      </c>
+      <c r="T261">
+        <v>1.95</v>
+      </c>
+      <c r="U261">
+        <v>2</v>
+      </c>
+      <c r="V261">
+        <v>1.825</v>
+      </c>
+      <c r="W261">
         <v>1.975</v>
       </c>
-      <c r="T261">
-        <v>1.825</v>
-      </c>
-      <c r="U261">
-        <v>2.75</v>
-      </c>
-      <c r="V261">
-        <v>2</v>
-      </c>
-      <c r="W261">
-        <v>1.8</v>
-      </c>
       <c r="X261">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y261">
         <v>-1</v>
       </c>
       <c r="Z261">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="AA261">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB261">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC261">
         <v>-1</v>
       </c>
       <c r="AD261">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="262" spans="1:30">
@@ -24622,7 +24622,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6927153</v>
+        <v>6927154</v>
       </c>
       <c r="C263" t="s">
         <v>29</v>
@@ -24631,16 +24631,16 @@
         <v>45394.60416666666</v>
       </c>
       <c r="E263" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F263" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G263">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263">
         <v>0</v>
@@ -24649,64 +24649,64 @@
         <v>0</v>
       </c>
       <c r="K263" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L263">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="M263">
         <v>2.875</v>
       </c>
       <c r="N263">
+        <v>2.625</v>
+      </c>
+      <c r="O263">
+        <v>2.5</v>
+      </c>
+      <c r="P263">
+        <v>2.8</v>
+      </c>
+      <c r="Q263">
         <v>2.875</v>
       </c>
-      <c r="O263">
-        <v>2.625</v>
-      </c>
-      <c r="P263">
-        <v>2.7</v>
-      </c>
-      <c r="Q263">
-        <v>2.75</v>
-      </c>
       <c r="R263">
         <v>0</v>
       </c>
       <c r="S263">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T263">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U263">
         <v>2</v>
       </c>
       <c r="V263">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W263">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X263">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y263">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z263">
         <v>-1</v>
       </c>
       <c r="AA263">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB263">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC263">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD263">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:30">
@@ -24806,7 +24806,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6927366</v>
+        <v>6927879</v>
       </c>
       <c r="C265" t="s">
         <v>29</v>
@@ -24815,82 +24815,82 @@
         <v>45401.60416666666</v>
       </c>
       <c r="E265" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F265" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I265">
         <v>1</v>
       </c>
       <c r="J265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K265" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L265">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="M265">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N265">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O265">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="P265">
+        <v>3.1</v>
+      </c>
+      <c r="Q265">
         <v>3.75</v>
-      </c>
-      <c r="Q265">
-        <v>3.6</v>
       </c>
       <c r="R265">
         <v>-0.5</v>
       </c>
       <c r="S265">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T265">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U265">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V265">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W265">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
+        <v>-1</v>
+      </c>
+      <c r="Z265">
         <v>2.75</v>
       </c>
-      <c r="Z265">
-        <v>-1</v>
-      </c>
       <c r="AA265">
         <v>-1</v>
       </c>
       <c r="AB265">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC265">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD265">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266" spans="1:30">
@@ -24898,7 +24898,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6927368</v>
+        <v>6927366</v>
       </c>
       <c r="C266" t="s">
         <v>29</v>
@@ -24907,31 +24907,31 @@
         <v>45401.60416666666</v>
       </c>
       <c r="E266" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F266" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G266">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I266">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K266" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L266">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="M266">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N266">
         <v>4</v>
@@ -24940,49 +24940,49 @@
         <v>1.75</v>
       </c>
       <c r="P266">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q266">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="R266">
         <v>-0.5</v>
       </c>
       <c r="S266">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T266">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U266">
         <v>2.5</v>
       </c>
       <c r="V266">
+        <v>1.75</v>
+      </c>
+      <c r="W266">
         <v>1.95</v>
       </c>
-      <c r="W266">
-        <v>1.75</v>
-      </c>
       <c r="X266">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y266">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z266">
         <v>-1</v>
       </c>
       <c r="AA266">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB266">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC266">
+        <v>-1</v>
+      </c>
+      <c r="AD266">
         <v>0.95</v>
-      </c>
-      <c r="AD266">
-        <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:30">
@@ -24990,7 +24990,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6927157</v>
+        <v>6927368</v>
       </c>
       <c r="C267" t="s">
         <v>29</v>
@@ -24999,82 +24999,82 @@
         <v>45401.60416666666</v>
       </c>
       <c r="E267" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F267" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G267">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K267" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L267">
         <v>1.8</v>
       </c>
       <c r="M267">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N267">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O267">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="P267">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q267">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="R267">
         <v>-0.5</v>
       </c>
       <c r="S267">
+        <v>1.825</v>
+      </c>
+      <c r="T267">
+        <v>1.975</v>
+      </c>
+      <c r="U267">
+        <v>2.5</v>
+      </c>
+      <c r="V267">
         <v>1.95</v>
       </c>
-      <c r="T267">
-        <v>1.85</v>
-      </c>
-      <c r="U267">
-        <v>2</v>
-      </c>
-      <c r="V267">
-        <v>1.875</v>
-      </c>
       <c r="W267">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="X267">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y267">
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="AA267">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB267">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC267">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD267">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:30">
@@ -25082,7 +25082,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6927156</v>
+        <v>6927157</v>
       </c>
       <c r="C268" t="s">
         <v>29</v>
@@ -25091,16 +25091,16 @@
         <v>45401.60416666666</v>
       </c>
       <c r="E268" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F268" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G268">
         <v>0</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268">
         <v>0</v>
@@ -25112,40 +25112,40 @@
         <v>49</v>
       </c>
       <c r="L268">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="M268">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N268">
         <v>4.2</v>
       </c>
       <c r="O268">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="P268">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q268">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="R268">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S268">
         <v>1.95</v>
       </c>
       <c r="T268">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U268">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V268">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W268">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X268">
         <v>-1</v>
@@ -25154,19 +25154,19 @@
         <v>-1</v>
       </c>
       <c r="Z268">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="AA268">
         <v>-1</v>
       </c>
       <c r="AB268">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC268">
         <v>-1</v>
       </c>
       <c r="AD268">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="269" spans="1:30">
@@ -25174,7 +25174,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6927367</v>
+        <v>6927156</v>
       </c>
       <c r="C269" t="s">
         <v>29</v>
@@ -25183,82 +25183,82 @@
         <v>45401.60416666666</v>
       </c>
       <c r="E269" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F269" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269">
         <v>0</v>
       </c>
       <c r="J269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K269" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L269">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="M269">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N269">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="O269">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="P269">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q269">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="R269">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S269">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T269">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U269">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V269">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W269">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X269">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y269">
         <v>-1</v>
       </c>
       <c r="Z269">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="AA269">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB269">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC269">
         <v>-1</v>
       </c>
       <c r="AD269">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:30">
@@ -25266,7 +25266,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6927158</v>
+        <v>6927367</v>
       </c>
       <c r="C270" t="s">
         <v>29</v>
@@ -25275,82 +25275,82 @@
         <v>45401.60416666666</v>
       </c>
       <c r="E270" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F270" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K270" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L270">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="M270">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N270">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="O270">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="P270">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q270">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="R270">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S270">
+        <v>1.975</v>
+      </c>
+      <c r="T270">
         <v>1.825</v>
       </c>
-      <c r="T270">
-        <v>1.975</v>
-      </c>
       <c r="U270">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V270">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W270">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X270">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y270">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z270">
         <v>-1</v>
       </c>
       <c r="AA270">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB270">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC270">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD270">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="271" spans="1:30">
@@ -25358,7 +25358,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6927365</v>
+        <v>6927158</v>
       </c>
       <c r="C271" t="s">
         <v>29</v>
@@ -25367,82 +25367,82 @@
         <v>45401.60416666666</v>
       </c>
       <c r="E271" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F271" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G271">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I271">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J271">
         <v>1</v>
       </c>
       <c r="K271" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L271">
-        <v>3</v>
+        <v>1.333</v>
       </c>
       <c r="M271">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="N271">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="O271">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="P271">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q271">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="R271">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S271">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T271">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U271">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V271">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W271">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X271">
         <v>-1</v>
       </c>
       <c r="Y271">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z271">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA271">
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC271">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD271">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272" spans="1:30">
@@ -25450,7 +25450,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6927879</v>
+        <v>6927365</v>
       </c>
       <c r="C272" t="s">
         <v>29</v>
@@ -25459,61 +25459,61 @@
         <v>45401.60416666666</v>
       </c>
       <c r="E272" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F272" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G272">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H272">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K272" t="s">
         <v>49</v>
       </c>
       <c r="L272">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="M272">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N272">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="O272">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="P272">
         <v>3.1</v>
       </c>
       <c r="Q272">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="R272">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S272">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T272">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U272">
         <v>2.25</v>
       </c>
       <c r="V272">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W272">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="X272">
         <v>-1</v>
@@ -25522,19 +25522,19 @@
         <v>-1</v>
       </c>
       <c r="Z272">
-        <v>2.75</v>
+        <v>1.15</v>
       </c>
       <c r="AA272">
         <v>-1</v>
       </c>
       <c r="AB272">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC272">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD272">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="273" spans="1:30">
@@ -26186,7 +26186,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6943497</v>
+        <v>7101754</v>
       </c>
       <c r="C280" t="s">
         <v>29</v>
@@ -26195,82 +26195,82 @@
         <v>45408.60416666666</v>
       </c>
       <c r="E280" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F280" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280">
         <v>0</v>
       </c>
       <c r="J280">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K280" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L280">
+        <v>2.55</v>
+      </c>
+      <c r="M280">
+        <v>3.2</v>
+      </c>
+      <c r="N280">
         <v>2.45</v>
       </c>
-      <c r="M280">
-        <v>3</v>
-      </c>
-      <c r="N280">
+      <c r="O280">
         <v>2.7</v>
       </c>
-      <c r="O280">
-        <v>2.55</v>
-      </c>
       <c r="P280">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="Q280">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="R280">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S280">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T280">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U280">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V280">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W280">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X280">
         <v>-1</v>
       </c>
       <c r="Y280">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z280">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="AA280">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB280">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC280">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD280">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="281" spans="1:30">
@@ -26278,7 +26278,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>7101754</v>
+        <v>6943497</v>
       </c>
       <c r="C281" t="s">
         <v>29</v>
@@ -26287,82 +26287,82 @@
         <v>45408.60416666666</v>
       </c>
       <c r="E281" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F281" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281">
         <v>0</v>
       </c>
       <c r="J281">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K281" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L281">
+        <v>2.45</v>
+      </c>
+      <c r="M281">
+        <v>3</v>
+      </c>
+      <c r="N281">
+        <v>2.7</v>
+      </c>
+      <c r="O281">
         <v>2.55</v>
       </c>
-      <c r="M281">
-        <v>3.2</v>
-      </c>
-      <c r="N281">
-        <v>2.45</v>
-      </c>
-      <c r="O281">
-        <v>2.7</v>
-      </c>
       <c r="P281">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q281">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="R281">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S281">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T281">
+        <v>1.9</v>
+      </c>
+      <c r="U281">
+        <v>2.25</v>
+      </c>
+      <c r="V281">
         <v>1.975</v>
       </c>
-      <c r="U281">
-        <v>2.5</v>
-      </c>
-      <c r="V281">
-        <v>2</v>
-      </c>
       <c r="W281">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X281">
         <v>-1</v>
       </c>
       <c r="Y281">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z281">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="AA281">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB281">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC281">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD281">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="282" spans="1:30">
@@ -26738,7 +26738,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6927373</v>
+        <v>6927375</v>
       </c>
       <c r="C286" t="s">
         <v>29</v>
@@ -26747,10 +26747,10 @@
         <v>45415.60416666666</v>
       </c>
       <c r="E286" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F286" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G286">
         <v>1</v>
@@ -26768,41 +26768,41 @@
         <v>49</v>
       </c>
       <c r="L286">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="M286">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N286">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="O286">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="P286">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q286">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="R286">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S286">
+        <v>2</v>
+      </c>
+      <c r="T286">
+        <v>1.8</v>
+      </c>
+      <c r="U286">
+        <v>2.25</v>
+      </c>
+      <c r="V286">
         <v>1.9</v>
       </c>
-      <c r="T286">
+      <c r="W286">
         <v>1.9</v>
       </c>
-      <c r="U286">
-        <v>2.5</v>
-      </c>
-      <c r="V286">
-        <v>1.975</v>
-      </c>
-      <c r="W286">
-        <v>1.825</v>
-      </c>
       <c r="X286">
         <v>-1</v>
       </c>
@@ -26810,16 +26810,16 @@
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="AA286">
         <v>-1</v>
       </c>
       <c r="AB286">
+        <v>0.8</v>
+      </c>
+      <c r="AC286">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC286">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AD286">
         <v>-1</v>
@@ -26830,7 +26830,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6927375</v>
+        <v>6927373</v>
       </c>
       <c r="C287" t="s">
         <v>29</v>
@@ -26839,10 +26839,10 @@
         <v>45415.60416666666</v>
       </c>
       <c r="E287" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F287" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G287">
         <v>1</v>
@@ -26860,40 +26860,40 @@
         <v>49</v>
       </c>
       <c r="L287">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="M287">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N287">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="O287">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="P287">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="Q287">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="R287">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S287">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T287">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U287">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V287">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W287">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X287">
         <v>-1</v>
@@ -26902,16 +26902,16 @@
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="AA287">
         <v>-1</v>
       </c>
       <c r="AB287">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC287">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD287">
         <v>-1</v>
@@ -28394,7 +28394,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>7089134</v>
+        <v>7089131</v>
       </c>
       <c r="C304" t="s">
         <v>29</v>
@@ -28403,79 +28403,79 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E304" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F304" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G304">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H304">
+        <v>2</v>
+      </c>
+      <c r="I304">
+        <v>3</v>
+      </c>
+      <c r="J304">
+        <v>2</v>
+      </c>
+      <c r="K304" t="s">
+        <v>48</v>
+      </c>
+      <c r="L304">
+        <v>1.5</v>
+      </c>
+      <c r="M304">
+        <v>4.2</v>
+      </c>
+      <c r="N304">
+        <v>4.75</v>
+      </c>
+      <c r="O304">
+        <v>1.38</v>
+      </c>
+      <c r="P304">
         <v>5</v>
       </c>
-      <c r="I304">
-        <v>0</v>
-      </c>
-      <c r="J304">
-        <v>2</v>
-      </c>
-      <c r="K304" t="s">
-        <v>49</v>
-      </c>
-      <c r="L304">
-        <v>2.2</v>
-      </c>
-      <c r="M304">
+      <c r="Q304">
+        <v>5.5</v>
+      </c>
+      <c r="R304">
+        <v>-1.5</v>
+      </c>
+      <c r="S304">
+        <v>1.95</v>
+      </c>
+      <c r="T304">
+        <v>1.85</v>
+      </c>
+      <c r="U304">
         <v>3.25</v>
       </c>
-      <c r="N304">
-        <v>2.9</v>
-      </c>
-      <c r="O304">
-        <v>2.45</v>
-      </c>
-      <c r="P304">
-        <v>3.3</v>
-      </c>
-      <c r="Q304">
-        <v>2.55</v>
-      </c>
-      <c r="R304">
-        <v>0</v>
-      </c>
-      <c r="S304">
-        <v>1.825</v>
-      </c>
-      <c r="T304">
-        <v>1.975</v>
-      </c>
-      <c r="U304">
-        <v>2.5</v>
-      </c>
       <c r="V304">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W304">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X304">
-        <v>-1</v>
+        <v>0.3799999999999999</v>
       </c>
       <c r="Y304">
         <v>-1</v>
       </c>
       <c r="Z304">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="AA304">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB304">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC304">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD304">
         <v>-1</v>
@@ -28854,7 +28854,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7089131</v>
+        <v>7089134</v>
       </c>
       <c r="C309" t="s">
         <v>29</v>
@@ -28863,79 +28863,79 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E309" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F309" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G309">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I309">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J309">
         <v>2</v>
       </c>
       <c r="K309" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L309">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="M309">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N309">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="O309">
-        <v>1.38</v>
+        <v>2.45</v>
       </c>
       <c r="P309">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q309">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="R309">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="S309">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T309">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U309">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V309">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W309">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X309">
-        <v>0.3799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y309">
         <v>-1</v>
       </c>
       <c r="Z309">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="AA309">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB309">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC309">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AD309">
         <v>-1</v>

--- a/France National/France National.xlsx
+++ b/France National/France National.xlsx
@@ -2100,7 +2100,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6927049</v>
+        <v>6927295</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -2109,16 +2109,16 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2127,64 +2127,64 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="M18">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N18">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O18">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="P18">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="R18">
         <v>-0.25</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T18">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U18">
         <v>2.25</v>
       </c>
       <c r="V18">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z18">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB18">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AC18">
         <v>-1</v>
       </c>
       <c r="AD18">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -2192,7 +2192,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6927295</v>
+        <v>6927049</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -2201,16 +2201,16 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2219,64 +2219,64 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L19">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="M19">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N19">
+        <v>2.5</v>
+      </c>
+      <c r="O19">
+        <v>2.3</v>
+      </c>
+      <c r="P19">
+        <v>2.9</v>
+      </c>
+      <c r="Q19">
         <v>3</v>
-      </c>
-      <c r="O19">
-        <v>2.1</v>
-      </c>
-      <c r="P19">
-        <v>3.2</v>
-      </c>
-      <c r="Q19">
-        <v>3.2</v>
       </c>
       <c r="R19">
         <v>-0.25</v>
       </c>
       <c r="S19">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T19">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U19">
         <v>2.25</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W19">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC19">
         <v>-1</v>
       </c>
       <c r="AD19">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -2376,7 +2376,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6927052</v>
+        <v>6926921</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -2385,82 +2385,82 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L21">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="M21">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N21">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="O21">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="P21">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q21">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="R21">
         <v>-0.25</v>
       </c>
       <c r="S21">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T21">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="U21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA21">
+        <v>-1</v>
+      </c>
+      <c r="AB21">
+        <v>0.7</v>
+      </c>
+      <c r="AC21">
         <v>-0.5</v>
       </c>
-      <c r="AB21">
-        <v>0.4625</v>
-      </c>
-      <c r="AC21">
-        <v>-1</v>
-      </c>
       <c r="AD21">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -2468,7 +2468,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6926921</v>
+        <v>6927053</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2477,55 +2477,55 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L22">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="M22">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N22">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O22">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="P22">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="R22">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T22">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="U22">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V22">
         <v>1.9</v>
@@ -2534,25 +2534,25 @@
         <v>1.9</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB22">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD22">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -2560,7 +2560,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6927053</v>
+        <v>6927052</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2569,82 +2569,82 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L23">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="M23">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N23">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="O23">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="P23">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q23">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="R23">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U23">
         <v>2.5</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W23">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X23">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
+        <v>-0.5</v>
+      </c>
+      <c r="AB23">
+        <v>0.4625</v>
+      </c>
+      <c r="AC23">
+        <v>-1</v>
+      </c>
+      <c r="AD23">
         <v>0.8</v>
-      </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
-      <c r="AC23">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AD23">
-        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -2928,7 +2928,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6927054</v>
+        <v>6927057</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -2937,64 +2937,64 @@
         <v>45170.60416666666</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="s">
         <v>48</v>
       </c>
       <c r="L27">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="M27">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N27">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O27">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="P27">
         <v>3.1</v>
       </c>
       <c r="Q27">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="R27">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T27">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U27">
         <v>2.25</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X27">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="Y27">
         <v>-1</v>
@@ -3003,16 +3003,16 @@
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AD27">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -3020,7 +3020,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6927057</v>
+        <v>6927054</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
@@ -3029,64 +3029,64 @@
         <v>45170.60416666666</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>2</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="s">
         <v>48</v>
       </c>
       <c r="L28">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="M28">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N28">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O28">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="P28">
         <v>3.1</v>
       </c>
       <c r="Q28">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="R28">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S28">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T28">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U28">
         <v>2.25</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W28">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X28">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="Y28">
         <v>-1</v>
@@ -3095,16 +3095,16 @@
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AD28">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -6240,7 +6240,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6926923</v>
+        <v>6927070</v>
       </c>
       <c r="C63" t="s">
         <v>29</v>
@@ -6249,82 +6249,82 @@
         <v>45198.60416666666</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F63" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L63">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="M63">
+        <v>3.25</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63">
+        <v>2.15</v>
+      </c>
+      <c r="P63">
         <v>3.1</v>
       </c>
-      <c r="N63">
-        <v>2.9</v>
-      </c>
-      <c r="O63">
-        <v>2.375</v>
-      </c>
-      <c r="P63">
-        <v>3</v>
-      </c>
       <c r="Q63">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="R63">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S63">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T63">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U63">
         <v>2.25</v>
       </c>
       <c r="V63">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z63">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB63">
-        <v>1.05</v>
+        <v>0.45</v>
       </c>
       <c r="AC63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD63">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:30">
@@ -6332,7 +6332,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6927069</v>
+        <v>6926923</v>
       </c>
       <c r="C64" t="s">
         <v>29</v>
@@ -6341,46 +6341,46 @@
         <v>45198.60416666666</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L64">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M64">
         <v>3.1</v>
       </c>
       <c r="N64">
+        <v>2.9</v>
+      </c>
+      <c r="O64">
+        <v>2.375</v>
+      </c>
+      <c r="P64">
         <v>3</v>
       </c>
-      <c r="O64">
-        <v>2.75</v>
-      </c>
-      <c r="P64">
-        <v>3.1</v>
-      </c>
       <c r="Q64">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="R64">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S64">
         <v>1.75</v>
@@ -6392,31 +6392,31 @@
         <v>2.25</v>
       </c>
       <c r="V64">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W64">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X64">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="AA64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC64">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AD64">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="65" spans="1:30">
@@ -6424,7 +6424,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6927070</v>
+        <v>6927069</v>
       </c>
       <c r="C65" t="s">
         <v>29</v>
@@ -6433,82 +6433,82 @@
         <v>45198.60416666666</v>
       </c>
       <c r="E65" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L65">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M65">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N65">
         <v>3</v>
       </c>
       <c r="O65">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="P65">
         <v>3.1</v>
       </c>
       <c r="Q65">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="R65">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S65">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T65">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U65">
         <v>2.25</v>
       </c>
       <c r="V65">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W65">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y65">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB65">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AD65">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:30">
@@ -6516,7 +6516,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7101731</v>
+        <v>6927307</v>
       </c>
       <c r="C66" t="s">
         <v>29</v>
@@ -6525,34 +6525,34 @@
         <v>45198.60416666666</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L66">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="M66">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N66">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="O66">
         <v>2</v>
@@ -6561,46 +6561,46 @@
         <v>3.2</v>
       </c>
       <c r="Q66">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="R66">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S66">
+        <v>1.725</v>
+      </c>
+      <c r="T66">
         <v>1.975</v>
-      </c>
-      <c r="T66">
-        <v>1.825</v>
       </c>
       <c r="U66">
         <v>2.25</v>
       </c>
       <c r="V66">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X66">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC66">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AD66">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="67" spans="1:30">
@@ -6608,7 +6608,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6927308</v>
+        <v>7101731</v>
       </c>
       <c r="C67" t="s">
         <v>29</v>
@@ -6617,34 +6617,34 @@
         <v>45198.60416666666</v>
       </c>
       <c r="E67" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G67">
         <v>2</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" t="s">
         <v>48</v>
       </c>
       <c r="L67">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="M67">
         <v>3.1</v>
       </c>
       <c r="N67">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O67">
         <v>2</v>
@@ -6653,25 +6653,25 @@
         <v>3.2</v>
       </c>
       <c r="Q67">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R67">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S67">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T67">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U67">
         <v>2.25</v>
       </c>
       <c r="V67">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W67">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X67">
         <v>1</v>
@@ -6683,16 +6683,16 @@
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.7250000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AD67">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:30">
@@ -6700,7 +6700,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6927307</v>
+        <v>6927071</v>
       </c>
       <c r="C68" t="s">
         <v>29</v>
@@ -6709,25 +6709,25 @@
         <v>45198.60416666666</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L68">
         <v>1.909</v>
@@ -6739,52 +6739,52 @@
         <v>3.5</v>
       </c>
       <c r="O68">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="P68">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q68">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="R68">
         <v>-0.25</v>
       </c>
       <c r="S68">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="T68">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U68">
         <v>2.25</v>
       </c>
       <c r="V68">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W68">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.4875</v>
+        <v>0.75</v>
       </c>
       <c r="AC68">
         <v>-0.5</v>
       </c>
       <c r="AD68">
-        <v>0.475</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="69" spans="1:30">
@@ -6792,7 +6792,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6927071</v>
+        <v>6927309</v>
       </c>
       <c r="C69" t="s">
         <v>29</v>
@@ -6801,82 +6801,82 @@
         <v>45198.60416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L69">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="M69">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N69">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O69">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="P69">
         <v>3.1</v>
       </c>
       <c r="Q69">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="R69">
         <v>-0.25</v>
       </c>
       <c r="S69">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T69">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="U69">
         <v>2.25</v>
       </c>
       <c r="V69">
+        <v>1.825</v>
+      </c>
+      <c r="W69">
         <v>1.975</v>
       </c>
-      <c r="W69">
-        <v>1.825</v>
-      </c>
       <c r="X69">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB69">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AD69">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:30">
@@ -6884,7 +6884,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6927309</v>
+        <v>6927308</v>
       </c>
       <c r="C70" t="s">
         <v>29</v>
@@ -6893,13 +6893,13 @@
         <v>45198.60416666666</v>
       </c>
       <c r="E70" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6914,19 +6914,19 @@
         <v>48</v>
       </c>
       <c r="L70">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M70">
         <v>3.1</v>
       </c>
       <c r="N70">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O70">
         <v>2</v>
       </c>
       <c r="P70">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -6935,20 +6935,20 @@
         <v>-0.25</v>
       </c>
       <c r="S70">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="T70">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U70">
         <v>2.25</v>
       </c>
       <c r="V70">
+        <v>1.975</v>
+      </c>
+      <c r="W70">
         <v>1.825</v>
       </c>
-      <c r="W70">
-        <v>1.975</v>
-      </c>
       <c r="X70">
         <v>1</v>
       </c>
@@ -6959,16 +6959,16 @@
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.7749999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AD70">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="71" spans="1:30">
@@ -8172,7 +8172,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6927312</v>
+        <v>6926925</v>
       </c>
       <c r="C84" t="s">
         <v>29</v>
@@ -8181,46 +8181,46 @@
         <v>45210.66666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84">
         <v>1</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L84">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="M84">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N84">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O84">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="P84">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q84">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="R84">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S84">
         <v>1.875</v>
@@ -8232,16 +8232,16 @@
         <v>2.25</v>
       </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X84">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z84">
         <v>-1</v>
@@ -8253,10 +8253,10 @@
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AD84">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="85" spans="1:30">
@@ -8264,7 +8264,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6926925</v>
+        <v>7101733</v>
       </c>
       <c r="C85" t="s">
         <v>29</v>
@@ -8273,10 +8273,10 @@
         <v>45210.66666666666</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F85" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -8294,61 +8294,61 @@
         <v>50</v>
       </c>
       <c r="L85">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="M85">
         <v>3</v>
       </c>
       <c r="N85">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O85">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="P85">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q85">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="R85">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S85">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T85">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U85">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W85">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AD85">
-        <v>0.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:30">
@@ -8448,7 +8448,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7101733</v>
+        <v>6927312</v>
       </c>
       <c r="C87" t="s">
         <v>29</v>
@@ -8457,82 +8457,82 @@
         <v>45210.66666666666</v>
       </c>
       <c r="E87" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L87">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="M87">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N87">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="O87">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="P87">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q87">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="R87">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S87">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T87">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U87">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V87">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W87">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y87">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AD87">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:30">
@@ -8540,7 +8540,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6927080</v>
+        <v>6927313</v>
       </c>
       <c r="C88" t="s">
         <v>29</v>
@@ -8549,82 +8549,82 @@
         <v>45210.66666666666</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G88">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L88">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="M88">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N88">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="O88">
-        <v>1.363</v>
+        <v>2.7</v>
       </c>
       <c r="P88">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="Q88">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="R88">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S88">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U88">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="V88">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X88">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="AA88">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC88">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:30">
@@ -8632,7 +8632,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6927313</v>
+        <v>6927080</v>
       </c>
       <c r="C89" t="s">
         <v>29</v>
@@ -8641,82 +8641,82 @@
         <v>45210.66666666666</v>
       </c>
       <c r="E89" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L89">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="M89">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N89">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="O89">
-        <v>2.7</v>
+        <v>1.363</v>
       </c>
       <c r="P89">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="Q89">
-        <v>2.55</v>
+        <v>7.5</v>
       </c>
       <c r="R89">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T89">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W89">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB89">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:30">
@@ -12116,7 +12116,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6927280</v>
+        <v>7101738</v>
       </c>
       <c r="C127" t="s">
         <v>29</v>
@@ -12125,19 +12125,19 @@
         <v>45261.64583333334</v>
       </c>
       <c r="E127" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G127">
         <v>4</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -12146,43 +12146,43 @@
         <v>48</v>
       </c>
       <c r="L127">
-        <v>2.4</v>
+        <v>1.45</v>
       </c>
       <c r="M127">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N127">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="O127">
-        <v>2.75</v>
+        <v>1.533</v>
       </c>
       <c r="P127">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q127">
+        <v>5.5</v>
+      </c>
+      <c r="R127">
+        <v>-1</v>
+      </c>
+      <c r="S127">
+        <v>1.875</v>
+      </c>
+      <c r="T127">
+        <v>1.925</v>
+      </c>
+      <c r="U127">
         <v>2.5</v>
       </c>
-      <c r="R127">
-        <v>0</v>
-      </c>
-      <c r="S127">
-        <v>2</v>
-      </c>
-      <c r="T127">
-        <v>1.8</v>
-      </c>
-      <c r="U127">
-        <v>2.25</v>
-      </c>
       <c r="V127">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="W127">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="X127">
-        <v>1.75</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y127">
         <v>-1</v>
@@ -12191,13 +12191,13 @@
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>1.075</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD127">
         <v>-1</v>
@@ -12208,7 +12208,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7101738</v>
+        <v>6927280</v>
       </c>
       <c r="C128" t="s">
         <v>29</v>
@@ -12217,19 +12217,19 @@
         <v>45261.64583333334</v>
       </c>
       <c r="E128" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G128">
         <v>4</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -12238,43 +12238,43 @@
         <v>48</v>
       </c>
       <c r="L128">
-        <v>1.45</v>
+        <v>2.4</v>
       </c>
       <c r="M128">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N128">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="O128">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="P128">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q128">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="R128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S128">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T128">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U128">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V128">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="W128">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="X128">
-        <v>0.5329999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="Y128">
         <v>-1</v>
@@ -12283,13 +12283,13 @@
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.8999999999999999</v>
+        <v>1.075</v>
       </c>
       <c r="AD128">
         <v>-1</v>
@@ -12938,7 +12938,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6927101</v>
+        <v>6926928</v>
       </c>
       <c r="C136" t="s">
         <v>29</v>
@@ -12947,10 +12947,10 @@
         <v>45275.64583333334</v>
       </c>
       <c r="E136" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F136" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -12959,7 +12959,7 @@
         <v>0</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -12968,43 +12968,43 @@
         <v>48</v>
       </c>
       <c r="L136">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="M136">
         <v>3</v>
       </c>
       <c r="N136">
+        <v>3.6</v>
+      </c>
+      <c r="O136">
         <v>1.909</v>
       </c>
-      <c r="O136">
-        <v>4.333</v>
-      </c>
       <c r="P136">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q136">
+        <v>3.6</v>
+      </c>
+      <c r="R136">
+        <v>-0.5</v>
+      </c>
+      <c r="S136">
+        <v>1.95</v>
+      </c>
+      <c r="T136">
         <v>1.85</v>
       </c>
-      <c r="R136">
-        <v>0.5</v>
-      </c>
-      <c r="S136">
-        <v>1.9</v>
-      </c>
-      <c r="T136">
-        <v>1.9</v>
-      </c>
       <c r="U136">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V136">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X136">
-        <v>3.333</v>
+        <v>0.909</v>
       </c>
       <c r="Y136">
         <v>-1</v>
@@ -13013,7 +13013,7 @@
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB136">
         <v>-1</v>
@@ -13022,7 +13022,7 @@
         <v>-1</v>
       </c>
       <c r="AD136">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="137" spans="1:30">
@@ -13030,7 +13030,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6927327</v>
+        <v>6927101</v>
       </c>
       <c r="C137" t="s">
         <v>29</v>
@@ -13039,43 +13039,43 @@
         <v>45275.64583333334</v>
       </c>
       <c r="E137" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F137" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137">
         <v>0</v>
       </c>
       <c r="K137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L137">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M137">
         <v>3</v>
       </c>
       <c r="N137">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O137">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P137">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q137">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="R137">
         <v>0.5</v>
@@ -13087,34 +13087,34 @@
         <v>1.9</v>
       </c>
       <c r="U137">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W137">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
         <v>-1</v>
       </c>
       <c r="AD137">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="138" spans="1:30">
@@ -13122,7 +13122,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6927329</v>
+        <v>6927281</v>
       </c>
       <c r="C138" t="s">
         <v>29</v>
@@ -13131,82 +13131,82 @@
         <v>45275.64583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G138">
         <v>2</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L138">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="M138">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N138">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="O138">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="P138">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q138">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="R138">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S138">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T138">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U138">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W138">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X138">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD138">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:30">
@@ -13214,7 +13214,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6926928</v>
+        <v>6927327</v>
       </c>
       <c r="C139" t="s">
         <v>29</v>
@@ -13223,16 +13223,16 @@
         <v>45275.64583333334</v>
       </c>
       <c r="E139" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -13241,64 +13241,64 @@
         <v>0</v>
       </c>
       <c r="K139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L139">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="M139">
         <v>3</v>
       </c>
       <c r="N139">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O139">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="P139">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q139">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="R139">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S139">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T139">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U139">
         <v>2.25</v>
       </c>
       <c r="V139">
+        <v>1.95</v>
+      </c>
+      <c r="W139">
         <v>1.85</v>
       </c>
-      <c r="W139">
-        <v>1.95</v>
-      </c>
       <c r="X139">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="AA139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC139">
         <v>-1</v>
       </c>
       <c r="AD139">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:30">
@@ -13306,7 +13306,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6927281</v>
+        <v>6927103</v>
       </c>
       <c r="C140" t="s">
         <v>29</v>
@@ -13315,79 +13315,79 @@
         <v>45275.64583333334</v>
       </c>
       <c r="E140" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H140">
         <v>2</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L140">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="M140">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N140">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O140">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="P140">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q140">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="R140">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S140">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U140">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V140">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W140">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="AA140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC140">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD140">
         <v>-1</v>
@@ -13398,7 +13398,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6927103</v>
+        <v>6927329</v>
       </c>
       <c r="C141" t="s">
         <v>29</v>
@@ -13407,82 +13407,82 @@
         <v>45275.64583333334</v>
       </c>
       <c r="E141" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L141">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="M141">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N141">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="O141">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="P141">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q141">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="R141">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S141">
+        <v>1.925</v>
+      </c>
+      <c r="T141">
+        <v>1.875</v>
+      </c>
+      <c r="U141">
+        <v>2.5</v>
+      </c>
+      <c r="V141">
+        <v>1.825</v>
+      </c>
+      <c r="W141">
         <v>1.975</v>
       </c>
-      <c r="T141">
-        <v>1.825</v>
-      </c>
-      <c r="U141">
-        <v>2</v>
-      </c>
-      <c r="V141">
-        <v>1.975</v>
-      </c>
-      <c r="W141">
-        <v>1.825</v>
-      </c>
       <c r="X141">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB141">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
+        <v>-1</v>
+      </c>
+      <c r="AD141">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AD141">
-        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:30">
@@ -13674,7 +13674,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6927331</v>
+        <v>6927333</v>
       </c>
       <c r="C144" t="s">
         <v>29</v>
@@ -13683,16 +13683,16 @@
         <v>45303.64583333334</v>
       </c>
       <c r="E144" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -13713,34 +13713,34 @@
         <v>4.333</v>
       </c>
       <c r="O144">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="P144">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q144">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="R144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S144">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T144">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U144">
         <v>2.5</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W144">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X144">
-        <v>0.615</v>
+        <v>0.8</v>
       </c>
       <c r="Y144">
         <v>-1</v>
@@ -13749,16 +13749,16 @@
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AB144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:30">
@@ -13858,7 +13858,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6927333</v>
+        <v>6927331</v>
       </c>
       <c r="C146" t="s">
         <v>29</v>
@@ -13867,16 +13867,16 @@
         <v>45303.64583333334</v>
       </c>
       <c r="E146" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>1</v>
@@ -13897,34 +13897,34 @@
         <v>4.333</v>
       </c>
       <c r="O146">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="P146">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q146">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="R146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S146">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U146">
         <v>2.5</v>
       </c>
       <c r="V146">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W146">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X146">
-        <v>0.8</v>
+        <v>0.615</v>
       </c>
       <c r="Y146">
         <v>-1</v>
@@ -13933,16 +13933,16 @@
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC146">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD146">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:30">
@@ -14410,7 +14410,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6927336</v>
+        <v>6927334</v>
       </c>
       <c r="C152" t="s">
         <v>29</v>
@@ -14419,82 +14419,82 @@
         <v>45310.64583333334</v>
       </c>
       <c r="E152" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G152">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152" t="s">
+        <v>50</v>
+      </c>
+      <c r="L152">
+        <v>2.9</v>
+      </c>
+      <c r="M152">
         <v>3</v>
       </c>
-      <c r="J152">
-        <v>0</v>
-      </c>
-      <c r="K152" t="s">
-        <v>48</v>
-      </c>
-      <c r="L152">
-        <v>2.2</v>
-      </c>
-      <c r="M152">
-        <v>3.1</v>
-      </c>
       <c r="N152">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="O152">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="P152">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q152">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="R152">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S152">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T152">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U152">
         <v>2.25</v>
       </c>
       <c r="V152">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W152">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="X152">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB152">
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD152">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:30">
@@ -14502,7 +14502,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6927334</v>
+        <v>6927336</v>
       </c>
       <c r="C153" t="s">
         <v>29</v>
@@ -14511,82 +14511,82 @@
         <v>45310.64583333334</v>
       </c>
       <c r="E153" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J153">
         <v>0</v>
       </c>
       <c r="K153" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L153">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="M153">
+        <v>3.1</v>
+      </c>
+      <c r="N153">
         <v>3</v>
       </c>
-      <c r="N153">
-        <v>2.3</v>
-      </c>
       <c r="O153">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="P153">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q153">
+        <v>3.5</v>
+      </c>
+      <c r="R153">
+        <v>-0.25</v>
+      </c>
+      <c r="S153">
         <v>1.85</v>
       </c>
-      <c r="R153">
-        <v>0.5</v>
-      </c>
-      <c r="S153">
-        <v>1.8</v>
-      </c>
       <c r="T153">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U153">
         <v>2.25</v>
       </c>
       <c r="V153">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W153">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y153">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD153">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:30">
@@ -14870,7 +14870,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7716254</v>
+        <v>7679827</v>
       </c>
       <c r="C157" t="s">
         <v>29</v>
@@ -14879,43 +14879,43 @@
         <v>45317.64583333334</v>
       </c>
       <c r="E157" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157">
         <v>0</v>
       </c>
       <c r="K157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L157">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="M157">
+        <v>3.4</v>
+      </c>
+      <c r="N157">
+        <v>2.3</v>
+      </c>
+      <c r="O157">
         <v>3.2</v>
       </c>
-      <c r="N157">
-        <v>2.6</v>
-      </c>
-      <c r="O157">
-        <v>2.9</v>
-      </c>
       <c r="P157">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q157">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R157">
         <v>0.25</v>
@@ -14927,34 +14927,34 @@
         <v>2</v>
       </c>
       <c r="U157">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V157">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W157">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB157">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AD157">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:30">
@@ -14962,7 +14962,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7568500</v>
+        <v>7712134</v>
       </c>
       <c r="C158" t="s">
         <v>29</v>
@@ -14971,82 +14971,82 @@
         <v>45317.64583333334</v>
       </c>
       <c r="E158" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K158" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L158">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="M158">
+        <v>3.8</v>
+      </c>
+      <c r="N158">
+        <v>5</v>
+      </c>
+      <c r="O158">
+        <v>2.1</v>
+      </c>
+      <c r="P158">
         <v>3.25</v>
       </c>
-      <c r="N158">
-        <v>2.7</v>
-      </c>
-      <c r="O158">
-        <v>2.4</v>
-      </c>
-      <c r="P158">
-        <v>3</v>
-      </c>
       <c r="Q158">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="R158">
         <v>-0.25</v>
       </c>
       <c r="S158">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T158">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="U158">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V158">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W158">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z158">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB158">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
       <c r="AC158">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD158">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:30">
@@ -15054,7 +15054,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7712134</v>
+        <v>7716254</v>
       </c>
       <c r="C159" t="s">
         <v>29</v>
@@ -15063,82 +15063,82 @@
         <v>45317.64583333334</v>
       </c>
       <c r="E159" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159">
         <v>0</v>
       </c>
       <c r="K159" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L159">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="M159">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N159">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O159">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="P159">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q159">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="R159">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S159">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T159">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U159">
         <v>2.25</v>
       </c>
       <c r="V159">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W159">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD159">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:30">
@@ -15146,7 +15146,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7679827</v>
+        <v>7568500</v>
       </c>
       <c r="C160" t="s">
         <v>29</v>
@@ -15155,82 +15155,82 @@
         <v>45317.64583333334</v>
       </c>
       <c r="E160" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F160" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160">
         <v>0</v>
       </c>
       <c r="J160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K160" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L160">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="M160">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N160">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="O160">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="P160">
         <v>3</v>
       </c>
       <c r="Q160">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="R160">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S160">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T160">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="U160">
         <v>2</v>
       </c>
       <c r="V160">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W160">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="X160">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="AA160">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AC160">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD160">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:30">
@@ -15238,7 +15238,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6926931</v>
+        <v>6927337</v>
       </c>
       <c r="C161" t="s">
         <v>29</v>
@@ -15247,16 +15247,16 @@
         <v>45324.64583333334</v>
       </c>
       <c r="E161" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -15265,28 +15265,28 @@
         <v>0</v>
       </c>
       <c r="K161" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L161">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="M161">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N161">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O161">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="P161">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q161">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R161">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S161">
         <v>1.9</v>
@@ -15298,31 +15298,31 @@
         <v>2.25</v>
       </c>
       <c r="V161">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W161">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X161">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA161">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC161">
         <v>-1</v>
       </c>
       <c r="AD161">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:30">
@@ -15330,7 +15330,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7101742</v>
+        <v>6927111</v>
       </c>
       <c r="C162" t="s">
         <v>29</v>
@@ -15339,46 +15339,46 @@
         <v>45324.64583333334</v>
       </c>
       <c r="E162" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F162" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J162">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K162" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L162">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="M162">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N162">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="O162">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="P162">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q162">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="R162">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S162">
         <v>1.95</v>
@@ -15387,7 +15387,7 @@
         <v>1.85</v>
       </c>
       <c r="U162">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V162">
         <v>1.95</v>
@@ -15399,16 +15399,16 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA162">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC162">
         <v>0.95</v>
@@ -15422,7 +15422,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6927111</v>
+        <v>7101742</v>
       </c>
       <c r="C163" t="s">
         <v>29</v>
@@ -15431,46 +15431,46 @@
         <v>45324.64583333334</v>
       </c>
       <c r="E163" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J163">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K163" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L163">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="M163">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N163">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="O163">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="P163">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q163">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="R163">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S163">
         <v>1.95</v>
@@ -15479,7 +15479,7 @@
         <v>1.85</v>
       </c>
       <c r="U163">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V163">
         <v>1.95</v>
@@ -15491,16 +15491,16 @@
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z163">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB163">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC163">
         <v>0.95</v>
@@ -15514,7 +15514,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6927337</v>
+        <v>6926931</v>
       </c>
       <c r="C164" t="s">
         <v>29</v>
@@ -15523,16 +15523,16 @@
         <v>45324.64583333334</v>
       </c>
       <c r="E164" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -15541,28 +15541,28 @@
         <v>0</v>
       </c>
       <c r="K164" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L164">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="M164">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N164">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O164">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="P164">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q164">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R164">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S164">
         <v>1.9</v>
@@ -15574,31 +15574,31 @@
         <v>2.25</v>
       </c>
       <c r="V164">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W164">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB164">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC164">
         <v>-1</v>
       </c>
       <c r="AD164">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="165" spans="1:30">
@@ -15790,7 +15790,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6927114</v>
+        <v>6927113</v>
       </c>
       <c r="C167" t="s">
         <v>29</v>
@@ -15799,82 +15799,82 @@
         <v>45324.64583333334</v>
       </c>
       <c r="E167" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K167" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L167">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="M167">
         <v>3.4</v>
       </c>
       <c r="N167">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="O167">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="P167">
         <v>3.4</v>
       </c>
       <c r="Q167">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="R167">
         <v>-0.5</v>
       </c>
       <c r="S167">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T167">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U167">
         <v>2.25</v>
       </c>
       <c r="V167">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W167">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA167">
         <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD167">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:30">
@@ -15882,7 +15882,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6927113</v>
+        <v>6927282</v>
       </c>
       <c r="C168" t="s">
         <v>29</v>
@@ -15891,79 +15891,79 @@
         <v>45324.64583333334</v>
       </c>
       <c r="E168" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F168" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168">
         <v>1</v>
       </c>
       <c r="J168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L168">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="M168">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N168">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="O168">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="P168">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q168">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="R168">
         <v>-0.5</v>
       </c>
       <c r="S168">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T168">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U168">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V168">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W168">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB168">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AD168">
         <v>-1</v>
@@ -15974,7 +15974,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6927282</v>
+        <v>6927114</v>
       </c>
       <c r="C169" t="s">
         <v>29</v>
@@ -15983,82 +15983,82 @@
         <v>45324.64583333334</v>
       </c>
       <c r="E169" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G169">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H169">
         <v>0</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169">
         <v>0</v>
       </c>
       <c r="K169" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L169">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="M169">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N169">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="O169">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P169">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q169">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="R169">
         <v>-0.5</v>
       </c>
       <c r="S169">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T169">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U169">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V169">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W169">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="X169">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC169">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD169">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:30">
@@ -16066,7 +16066,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6927118</v>
+        <v>6927116</v>
       </c>
       <c r="C170" t="s">
         <v>29</v>
@@ -16075,16 +16075,16 @@
         <v>45331.64583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F170" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
         <v>1</v>
@@ -16093,64 +16093,64 @@
         <v>0</v>
       </c>
       <c r="K170" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L170">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="M170">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N170">
+        <v>5</v>
+      </c>
+      <c r="O170">
+        <v>1.8</v>
+      </c>
+      <c r="P170">
+        <v>3.3</v>
+      </c>
+      <c r="Q170">
         <v>3.8</v>
       </c>
-      <c r="O170">
+      <c r="R170">
+        <v>-0.5</v>
+      </c>
+      <c r="S170">
+        <v>1.85</v>
+      </c>
+      <c r="T170">
         <v>1.95</v>
-      </c>
-      <c r="P170">
-        <v>3.2</v>
-      </c>
-      <c r="Q170">
-        <v>3.4</v>
-      </c>
-      <c r="R170">
-        <v>-0.25</v>
-      </c>
-      <c r="S170">
-        <v>1.725</v>
-      </c>
-      <c r="T170">
-        <v>1.975</v>
       </c>
       <c r="U170">
         <v>2.25</v>
       </c>
       <c r="V170">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W170">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y170">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB170">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
         <v>-0.5</v>
       </c>
       <c r="AD170">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="171" spans="1:30">
@@ -16158,7 +16158,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6927116</v>
+        <v>6927118</v>
       </c>
       <c r="C171" t="s">
         <v>29</v>
@@ -16167,16 +16167,16 @@
         <v>45331.64583333334</v>
       </c>
       <c r="E171" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F171" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171">
         <v>1</v>
@@ -16185,64 +16185,64 @@
         <v>0</v>
       </c>
       <c r="K171" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L171">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="M171">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N171">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="O171">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="P171">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q171">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="R171">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S171">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T171">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U171">
         <v>2.25</v>
       </c>
       <c r="V171">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W171">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X171">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC171">
         <v>-0.5</v>
       </c>
       <c r="AD171">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="172" spans="1:30">
@@ -16802,7 +16802,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6927341</v>
+        <v>6927342</v>
       </c>
       <c r="C178" t="s">
         <v>29</v>
@@ -16811,46 +16811,46 @@
         <v>45338.64583333334</v>
       </c>
       <c r="E178" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F178" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178">
         <v>0</v>
       </c>
       <c r="K178" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L178">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="M178">
         <v>3</v>
       </c>
       <c r="N178">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="O178">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="P178">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q178">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="R178">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S178">
         <v>1.9</v>
@@ -16859,34 +16859,34 @@
         <v>1.9</v>
       </c>
       <c r="U178">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V178">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W178">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X178">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="AA178">
+        <v>-1</v>
+      </c>
+      <c r="AB178">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB178">
-        <v>-1</v>
-      </c>
       <c r="AC178">
         <v>-1</v>
       </c>
       <c r="AD178">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="179" spans="1:30">
@@ -16894,7 +16894,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6927342</v>
+        <v>7101744</v>
       </c>
       <c r="C179" t="s">
         <v>29</v>
@@ -16903,10 +16903,10 @@
         <v>45338.64583333334</v>
       </c>
       <c r="E179" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -16918,47 +16918,47 @@
         <v>0</v>
       </c>
       <c r="J179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K179" t="s">
         <v>49</v>
       </c>
       <c r="L179">
+        <v>1.5</v>
+      </c>
+      <c r="M179">
+        <v>3.75</v>
+      </c>
+      <c r="N179">
+        <v>5.5</v>
+      </c>
+      <c r="O179">
+        <v>1.533</v>
+      </c>
+      <c r="P179">
+        <v>3.75</v>
+      </c>
+      <c r="Q179">
+        <v>5.25</v>
+      </c>
+      <c r="R179">
+        <v>-1</v>
+      </c>
+      <c r="S179">
+        <v>1.875</v>
+      </c>
+      <c r="T179">
+        <v>1.925</v>
+      </c>
+      <c r="U179">
+        <v>2.75</v>
+      </c>
+      <c r="V179">
         <v>1.95</v>
       </c>
-      <c r="M179">
-        <v>3</v>
-      </c>
-      <c r="N179">
-        <v>3.75</v>
-      </c>
-      <c r="O179">
-        <v>2.55</v>
-      </c>
-      <c r="P179">
-        <v>3</v>
-      </c>
-      <c r="Q179">
-        <v>2.625</v>
-      </c>
-      <c r="R179">
-        <v>0</v>
-      </c>
-      <c r="S179">
-        <v>1.9</v>
-      </c>
-      <c r="T179">
-        <v>1.9</v>
-      </c>
-      <c r="U179">
-        <v>2</v>
-      </c>
-      <c r="V179">
+      <c r="W179">
         <v>1.85</v>
       </c>
-      <c r="W179">
-        <v>1.95</v>
-      </c>
       <c r="X179">
         <v>-1</v>
       </c>
@@ -16966,19 +16966,19 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>1.625</v>
+        <v>4.25</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC179">
         <v>-1</v>
       </c>
       <c r="AD179">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:30">
@@ -16986,7 +16986,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7101744</v>
+        <v>6927341</v>
       </c>
       <c r="C180" t="s">
         <v>29</v>
@@ -16995,82 +16995,82 @@
         <v>45338.64583333334</v>
       </c>
       <c r="E180" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F180" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K180" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L180">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="M180">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N180">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="O180">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="P180">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q180">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="R180">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S180">
+        <v>1.9</v>
+      </c>
+      <c r="T180">
+        <v>1.9</v>
+      </c>
+      <c r="U180">
+        <v>2.25</v>
+      </c>
+      <c r="V180">
+        <v>1.925</v>
+      </c>
+      <c r="W180">
         <v>1.875</v>
       </c>
-      <c r="T180">
-        <v>1.925</v>
-      </c>
-      <c r="U180">
-        <v>2.75</v>
-      </c>
-      <c r="V180">
-        <v>1.95</v>
-      </c>
-      <c r="W180">
-        <v>1.85</v>
-      </c>
       <c r="X180">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB180">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
         <v>-1</v>
       </c>
       <c r="AD180">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="181" spans="1:30">
@@ -17078,7 +17078,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6926932</v>
+        <v>6927122</v>
       </c>
       <c r="C181" t="s">
         <v>29</v>
@@ -17087,19 +17087,19 @@
         <v>45338.64583333334</v>
       </c>
       <c r="E181" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G181">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J181">
         <v>0</v>
@@ -17108,43 +17108,43 @@
         <v>48</v>
       </c>
       <c r="L181">
+        <v>1.909</v>
+      </c>
+      <c r="M181">
+        <v>3.1</v>
+      </c>
+      <c r="N181">
+        <v>3.8</v>
+      </c>
+      <c r="O181">
         <v>1.8</v>
       </c>
-      <c r="M181">
+      <c r="P181">
         <v>3.2</v>
       </c>
-      <c r="N181">
-        <v>4</v>
-      </c>
-      <c r="O181">
-        <v>1.833</v>
-      </c>
-      <c r="P181">
-        <v>3.1</v>
-      </c>
       <c r="Q181">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="R181">
         <v>-0.5</v>
       </c>
       <c r="S181">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T181">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U181">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V181">
+        <v>1.775</v>
+      </c>
+      <c r="W181">
         <v>2.025</v>
       </c>
-      <c r="W181">
-        <v>1.775</v>
-      </c>
       <c r="X181">
-        <v>0.833</v>
+        <v>0.8</v>
       </c>
       <c r="Y181">
         <v>-1</v>
@@ -17153,13 +17153,13 @@
         <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB181">
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD181">
         <v>-1</v>
@@ -17262,7 +17262,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6927122</v>
+        <v>6926932</v>
       </c>
       <c r="C183" t="s">
         <v>29</v>
@@ -17271,19 +17271,19 @@
         <v>45338.64583333334</v>
       </c>
       <c r="E183" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F183" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G183">
+        <v>4</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="I183">
         <v>3</v>
-      </c>
-      <c r="H183">
-        <v>0</v>
-      </c>
-      <c r="I183">
-        <v>1</v>
       </c>
       <c r="J183">
         <v>0</v>
@@ -17292,43 +17292,43 @@
         <v>48</v>
       </c>
       <c r="L183">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="M183">
+        <v>3.2</v>
+      </c>
+      <c r="N183">
+        <v>4</v>
+      </c>
+      <c r="O183">
+        <v>1.833</v>
+      </c>
+      <c r="P183">
         <v>3.1</v>
       </c>
-      <c r="N183">
-        <v>3.8</v>
-      </c>
-      <c r="O183">
-        <v>1.8</v>
-      </c>
-      <c r="P183">
-        <v>3.2</v>
-      </c>
       <c r="Q183">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="R183">
         <v>-0.5</v>
       </c>
       <c r="S183">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T183">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U183">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V183">
+        <v>2.025</v>
+      </c>
+      <c r="W183">
         <v>1.775</v>
       </c>
-      <c r="W183">
-        <v>2.025</v>
-      </c>
       <c r="X183">
-        <v>0.8</v>
+        <v>0.833</v>
       </c>
       <c r="Y183">
         <v>-1</v>
@@ -17337,13 +17337,13 @@
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AD183">
         <v>-1</v>
@@ -17354,7 +17354,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6927120</v>
+        <v>6927121</v>
       </c>
       <c r="C184" t="s">
         <v>29</v>
@@ -17363,82 +17363,82 @@
         <v>45338.64583333334</v>
       </c>
       <c r="E184" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F184" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G184">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K184" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L184">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="M184">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N184">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O184">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="P184">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q184">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="R184">
+        <v>0</v>
+      </c>
+      <c r="S184">
+        <v>1.95</v>
+      </c>
+      <c r="T184">
+        <v>1.85</v>
+      </c>
+      <c r="U184">
+        <v>2</v>
+      </c>
+      <c r="V184">
+        <v>1.75</v>
+      </c>
+      <c r="W184">
+        <v>2.05</v>
+      </c>
+      <c r="X184">
+        <v>1.625</v>
+      </c>
+      <c r="Y184">
+        <v>-1</v>
+      </c>
+      <c r="Z184">
+        <v>-1</v>
+      </c>
+      <c r="AA184">
+        <v>0.95</v>
+      </c>
+      <c r="AB184">
+        <v>-1</v>
+      </c>
+      <c r="AC184">
         <v>0.75</v>
       </c>
-      <c r="S184">
-        <v>1.8</v>
-      </c>
-      <c r="T184">
-        <v>2</v>
-      </c>
-      <c r="U184">
-        <v>2.25</v>
-      </c>
-      <c r="V184">
-        <v>1.875</v>
-      </c>
-      <c r="W184">
-        <v>1.925</v>
-      </c>
-      <c r="X184">
-        <v>-1</v>
-      </c>
-      <c r="Y184">
-        <v>2.4</v>
-      </c>
-      <c r="Z184">
-        <v>-1</v>
-      </c>
-      <c r="AA184">
-        <v>0.8</v>
-      </c>
-      <c r="AB184">
-        <v>-1</v>
-      </c>
-      <c r="AC184">
-        <v>-0.5</v>
-      </c>
       <c r="AD184">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:30">
@@ -17446,7 +17446,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6927121</v>
+        <v>6927120</v>
       </c>
       <c r="C185" t="s">
         <v>29</v>
@@ -17455,82 +17455,82 @@
         <v>45338.64583333334</v>
       </c>
       <c r="E185" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G185">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K185" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L185">
+        <v>3.75</v>
+      </c>
+      <c r="M185">
+        <v>3.3</v>
+      </c>
+      <c r="N185">
+        <v>1.833</v>
+      </c>
+      <c r="O185">
+        <v>4.5</v>
+      </c>
+      <c r="P185">
+        <v>3.4</v>
+      </c>
+      <c r="Q185">
+        <v>1.727</v>
+      </c>
+      <c r="R185">
+        <v>0.75</v>
+      </c>
+      <c r="S185">
+        <v>1.8</v>
+      </c>
+      <c r="T185">
+        <v>2</v>
+      </c>
+      <c r="U185">
+        <v>2.25</v>
+      </c>
+      <c r="V185">
+        <v>1.875</v>
+      </c>
+      <c r="W185">
+        <v>1.925</v>
+      </c>
+      <c r="X185">
+        <v>-1</v>
+      </c>
+      <c r="Y185">
         <v>2.4</v>
       </c>
-      <c r="M185">
-        <v>3.1</v>
-      </c>
-      <c r="N185">
-        <v>2.7</v>
-      </c>
-      <c r="O185">
-        <v>2.625</v>
-      </c>
-      <c r="P185">
-        <v>2.9</v>
-      </c>
-      <c r="Q185">
-        <v>2.6</v>
-      </c>
-      <c r="R185">
-        <v>0</v>
-      </c>
-      <c r="S185">
-        <v>1.95</v>
-      </c>
-      <c r="T185">
-        <v>1.85</v>
-      </c>
-      <c r="U185">
-        <v>2</v>
-      </c>
-      <c r="V185">
-        <v>1.75</v>
-      </c>
-      <c r="W185">
-        <v>2.05</v>
-      </c>
-      <c r="X185">
-        <v>1.625</v>
-      </c>
-      <c r="Y185">
-        <v>-1</v>
-      </c>
       <c r="Z185">
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AD185">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="186" spans="1:30">
@@ -18458,7 +18458,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7864324</v>
+        <v>7864325</v>
       </c>
       <c r="C196" t="s">
         <v>29</v>
@@ -18467,79 +18467,79 @@
         <v>45349.64583333334</v>
       </c>
       <c r="E196" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F196" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J196">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K196" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L196">
-        <v>1.444</v>
+        <v>2.45</v>
       </c>
       <c r="M196">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N196">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="O196">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="P196">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q196">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="R196">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S196">
+        <v>1.975</v>
+      </c>
+      <c r="T196">
+        <v>1.725</v>
+      </c>
+      <c r="U196">
+        <v>2.25</v>
+      </c>
+      <c r="V196">
+        <v>1.975</v>
+      </c>
+      <c r="W196">
         <v>1.825</v>
       </c>
-      <c r="T196">
-        <v>1.975</v>
-      </c>
-      <c r="U196">
-        <v>2.5</v>
-      </c>
-      <c r="V196">
-        <v>1.95</v>
-      </c>
-      <c r="W196">
-        <v>1.85</v>
-      </c>
       <c r="X196">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="AA196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC196">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD196">
         <v>-1</v>
@@ -18642,7 +18642,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7864325</v>
+        <v>7864324</v>
       </c>
       <c r="C198" t="s">
         <v>29</v>
@@ -18651,79 +18651,79 @@
         <v>45349.64583333334</v>
       </c>
       <c r="E198" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F198" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H198">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J198">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K198" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L198">
-        <v>2.45</v>
+        <v>1.444</v>
       </c>
       <c r="M198">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N198">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="O198">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="P198">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q198">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="R198">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S198">
+        <v>1.825</v>
+      </c>
+      <c r="T198">
         <v>1.975</v>
       </c>
-      <c r="T198">
-        <v>1.725</v>
-      </c>
       <c r="U198">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V198">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W198">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB198">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC198">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AD198">
         <v>-1</v>
@@ -19654,7 +19654,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6927132</v>
+        <v>6927285</v>
       </c>
       <c r="C209" t="s">
         <v>29</v>
@@ -19663,55 +19663,55 @@
         <v>45359.64583333334</v>
       </c>
       <c r="E209" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F209" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G209">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K209" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L209">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="M209">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="N209">
         <v>4.75</v>
       </c>
       <c r="O209">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="P209">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q209">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="R209">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S209">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T209">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U209">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="V209">
         <v>1.8</v>
@@ -19720,25 +19720,25 @@
         <v>2</v>
       </c>
       <c r="X209">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z209">
         <v>-1</v>
       </c>
       <c r="AA209">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC209">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD209">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:30">
@@ -19838,7 +19838,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6927285</v>
+        <v>6927132</v>
       </c>
       <c r="C211" t="s">
         <v>29</v>
@@ -19847,55 +19847,55 @@
         <v>45359.64583333334</v>
       </c>
       <c r="E211" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F211" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G211">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K211" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L211">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="M211">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="N211">
         <v>4.75</v>
       </c>
       <c r="O211">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="P211">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q211">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="R211">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S211">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T211">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U211">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="V211">
         <v>1.8</v>
@@ -19904,25 +19904,25 @@
         <v>2</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y211">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
         <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB211">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD211">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:30">
@@ -22322,7 +22322,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6927143</v>
+        <v>6927358</v>
       </c>
       <c r="C238" t="s">
         <v>29</v>
@@ -22331,10 +22331,10 @@
         <v>45380.64583333334</v>
       </c>
       <c r="E238" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F238" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -22343,7 +22343,7 @@
         <v>0</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238">
         <v>0</v>
@@ -22352,43 +22352,43 @@
         <v>48</v>
       </c>
       <c r="L238">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="M238">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N238">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="O238">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="P238">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q238">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="R238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S238">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T238">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U238">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="V238">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W238">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X238">
-        <v>1.7</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y238">
         <v>-1</v>
@@ -22397,16 +22397,16 @@
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC238">
         <v>-1</v>
       </c>
       <c r="AD238">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="239" spans="1:30">
@@ -22414,7 +22414,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6927358</v>
+        <v>6927143</v>
       </c>
       <c r="C239" t="s">
         <v>29</v>
@@ -22423,10 +22423,10 @@
         <v>45380.64583333334</v>
       </c>
       <c r="E239" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F239" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -22435,7 +22435,7 @@
         <v>0</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239">
         <v>0</v>
@@ -22444,43 +22444,43 @@
         <v>48</v>
       </c>
       <c r="L239">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="M239">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N239">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="O239">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="P239">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q239">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="R239">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S239">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T239">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U239">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="V239">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W239">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X239">
-        <v>0.5329999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="Y239">
         <v>-1</v>
@@ -22489,16 +22489,16 @@
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB239">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
         <v>-1</v>
       </c>
       <c r="AD239">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="240" spans="1:30">
@@ -22506,7 +22506,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6927357</v>
+        <v>6927145</v>
       </c>
       <c r="C240" t="s">
         <v>29</v>
@@ -22515,10 +22515,10 @@
         <v>45380.64583333334</v>
       </c>
       <c r="E240" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F240" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G240">
         <v>1</v>
@@ -22527,7 +22527,7 @@
         <v>1</v>
       </c>
       <c r="I240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240">
         <v>0</v>
@@ -22536,25 +22536,25 @@
         <v>50</v>
       </c>
       <c r="L240">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="M240">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N240">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="O240">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="P240">
+        <v>3.25</v>
+      </c>
+      <c r="Q240">
         <v>3.5</v>
       </c>
-      <c r="Q240">
-        <v>1.909</v>
-      </c>
       <c r="R240">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S240">
         <v>1.825</v>
@@ -22563,34 +22563,34 @@
         <v>1.975</v>
       </c>
       <c r="U240">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V240">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W240">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Z240">
         <v>-1</v>
       </c>
       <c r="AA240">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB240">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC240">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD240">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="241" spans="1:30">
@@ -22690,7 +22690,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6927145</v>
+        <v>6927357</v>
       </c>
       <c r="C242" t="s">
         <v>29</v>
@@ -22699,10 +22699,10 @@
         <v>45380.64583333334</v>
       </c>
       <c r="E242" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F242" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -22711,7 +22711,7 @@
         <v>1</v>
       </c>
       <c r="I242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J242">
         <v>0</v>
@@ -22720,25 +22720,25 @@
         <v>50</v>
       </c>
       <c r="L242">
+        <v>5.5</v>
+      </c>
+      <c r="M242">
+        <v>3.75</v>
+      </c>
+      <c r="N242">
+        <v>1.571</v>
+      </c>
+      <c r="O242">
+        <v>3.8</v>
+      </c>
+      <c r="P242">
+        <v>3.5</v>
+      </c>
+      <c r="Q242">
         <v>1.909</v>
       </c>
-      <c r="M242">
-        <v>3.4</v>
-      </c>
-      <c r="N242">
-        <v>4</v>
-      </c>
-      <c r="O242">
-        <v>2.05</v>
-      </c>
-      <c r="P242">
-        <v>3.25</v>
-      </c>
-      <c r="Q242">
-        <v>3.5</v>
-      </c>
       <c r="R242">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S242">
         <v>1.825</v>
@@ -22747,34 +22747,34 @@
         <v>1.975</v>
       </c>
       <c r="U242">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V242">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W242">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X242">
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z242">
         <v>-1</v>
       </c>
       <c r="AA242">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB242">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC242">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD242">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="243" spans="1:30">
@@ -22782,7 +22782,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7101750</v>
+        <v>6927880</v>
       </c>
       <c r="C243" t="s">
         <v>29</v>
@@ -22791,10 +22791,10 @@
         <v>45381.64583333334</v>
       </c>
       <c r="E243" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F243" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G243">
         <v>2</v>
@@ -22803,67 +22803,67 @@
         <v>2</v>
       </c>
       <c r="I243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K243" t="s">
         <v>50</v>
       </c>
       <c r="L243">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="M243">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N243">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="O243">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="P243">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q243">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="R243">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S243">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T243">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U243">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V243">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W243">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X243">
         <v>-1</v>
       </c>
       <c r="Y243">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="Z243">
         <v>-1</v>
       </c>
       <c r="AA243">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB243">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC243">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AD243">
         <v>-1</v>
@@ -22966,7 +22966,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6927880</v>
+        <v>7101750</v>
       </c>
       <c r="C245" t="s">
         <v>29</v>
@@ -22975,10 +22975,10 @@
         <v>45381.64583333334</v>
       </c>
       <c r="E245" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F245" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G245">
         <v>2</v>
@@ -22987,67 +22987,67 @@
         <v>2</v>
       </c>
       <c r="I245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K245" t="s">
         <v>50</v>
       </c>
       <c r="L245">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="M245">
+        <v>3.2</v>
+      </c>
+      <c r="N245">
+        <v>2.55</v>
+      </c>
+      <c r="O245">
+        <v>2.45</v>
+      </c>
+      <c r="P245">
         <v>3.1</v>
       </c>
-      <c r="N245">
-        <v>3.8</v>
-      </c>
-      <c r="O245">
+      <c r="Q245">
+        <v>2.8</v>
+      </c>
+      <c r="R245">
+        <v>0</v>
+      </c>
+      <c r="S245">
+        <v>1.8</v>
+      </c>
+      <c r="T245">
+        <v>2</v>
+      </c>
+      <c r="U245">
         <v>2.25</v>
       </c>
-      <c r="P245">
-        <v>2.9</v>
-      </c>
-      <c r="Q245">
-        <v>3.25</v>
-      </c>
-      <c r="R245">
-        <v>-0.25</v>
-      </c>
-      <c r="S245">
+      <c r="V245">
         <v>1.95</v>
       </c>
-      <c r="T245">
+      <c r="W245">
         <v>1.85</v>
       </c>
-      <c r="U245">
-        <v>2</v>
-      </c>
-      <c r="V245">
-        <v>1.925</v>
-      </c>
-      <c r="W245">
-        <v>1.875</v>
-      </c>
       <c r="X245">
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Z245">
         <v>-1</v>
       </c>
       <c r="AA245">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB245">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC245">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AD245">
         <v>-1</v>
@@ -23150,7 +23150,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6927149</v>
+        <v>6927147</v>
       </c>
       <c r="C247" t="s">
         <v>29</v>
@@ -23159,64 +23159,64 @@
         <v>45387.60416666666</v>
       </c>
       <c r="E247" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F247" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I247">
         <v>0</v>
       </c>
       <c r="J247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K247" t="s">
         <v>48</v>
       </c>
       <c r="L247">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="M247">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N247">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O247">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="P247">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q247">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="R247">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S247">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T247">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U247">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V247">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W247">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X247">
-        <v>0.571</v>
+        <v>0.8</v>
       </c>
       <c r="Y247">
         <v>-1</v>
@@ -23225,16 +23225,16 @@
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="AB247">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC247">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD247">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:30">
@@ -23334,7 +23334,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>6927147</v>
+        <v>6927149</v>
       </c>
       <c r="C249" t="s">
         <v>29</v>
@@ -23343,82 +23343,82 @@
         <v>45387.60416666666</v>
       </c>
       <c r="E249" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F249" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249">
         <v>0</v>
       </c>
       <c r="J249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K249" t="s">
         <v>48</v>
       </c>
       <c r="L249">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="M249">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N249">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O249">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="P249">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q249">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="R249">
+        <v>-0.75</v>
+      </c>
+      <c r="S249">
+        <v>1.775</v>
+      </c>
+      <c r="T249">
+        <v>2.025</v>
+      </c>
+      <c r="U249">
+        <v>2.25</v>
+      </c>
+      <c r="V249">
+        <v>1.925</v>
+      </c>
+      <c r="W249">
+        <v>1.875</v>
+      </c>
+      <c r="X249">
+        <v>0.571</v>
+      </c>
+      <c r="Y249">
+        <v>-1</v>
+      </c>
+      <c r="Z249">
+        <v>-1</v>
+      </c>
+      <c r="AA249">
+        <v>0.3875</v>
+      </c>
+      <c r="AB249">
         <v>-0.5</v>
       </c>
-      <c r="S249">
-        <v>1.8</v>
-      </c>
-      <c r="T249">
-        <v>2</v>
-      </c>
-      <c r="U249">
-        <v>2.5</v>
-      </c>
-      <c r="V249">
-        <v>1.9</v>
-      </c>
-      <c r="W249">
-        <v>1.9</v>
-      </c>
-      <c r="X249">
-        <v>0.8</v>
-      </c>
-      <c r="Y249">
-        <v>-1</v>
-      </c>
-      <c r="Z249">
-        <v>-1</v>
-      </c>
-      <c r="AA249">
-        <v>0.8</v>
-      </c>
-      <c r="AB249">
-        <v>-1</v>
-      </c>
       <c r="AC249">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD249">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="250" spans="1:30">
@@ -24070,7 +24070,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7101752</v>
+        <v>6927155</v>
       </c>
       <c r="C257" t="s">
         <v>29</v>
@@ -24079,82 +24079,82 @@
         <v>45394.60416666666</v>
       </c>
       <c r="E257" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F257" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257">
         <v>0</v>
       </c>
       <c r="K257" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L257">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="M257">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N257">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="O257">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="P257">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q257">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="R257">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S257">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T257">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U257">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V257">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W257">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X257">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="AA257">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB257">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC257">
         <v>-1</v>
       </c>
       <c r="AD257">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="258" spans="1:30">
@@ -24162,7 +24162,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6927364</v>
+        <v>7101752</v>
       </c>
       <c r="C258" t="s">
         <v>29</v>
@@ -24171,82 +24171,82 @@
         <v>45394.60416666666</v>
       </c>
       <c r="E258" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F258" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K258" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L258">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="M258">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N258">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="O258">
+        <v>3.2</v>
+      </c>
+      <c r="P258">
+        <v>3.2</v>
+      </c>
+      <c r="Q258">
+        <v>2.15</v>
+      </c>
+      <c r="R258">
+        <v>0.25</v>
+      </c>
+      <c r="S258">
+        <v>1.9</v>
+      </c>
+      <c r="T258">
+        <v>1.9</v>
+      </c>
+      <c r="U258">
+        <v>2.5</v>
+      </c>
+      <c r="V258">
+        <v>1.95</v>
+      </c>
+      <c r="W258">
+        <v>1.85</v>
+      </c>
+      <c r="X258">
         <v>2.2</v>
       </c>
-      <c r="P258">
-        <v>3.3</v>
-      </c>
-      <c r="Q258">
-        <v>2.9</v>
-      </c>
-      <c r="R258">
-        <v>-0.25</v>
-      </c>
-      <c r="S258">
-        <v>1.975</v>
-      </c>
-      <c r="T258">
-        <v>1.825</v>
-      </c>
-      <c r="U258">
-        <v>2.75</v>
-      </c>
-      <c r="V258">
-        <v>2</v>
-      </c>
-      <c r="W258">
-        <v>1.8</v>
-      </c>
-      <c r="X258">
-        <v>-1</v>
-      </c>
       <c r="Y258">
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="AA258">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB258">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC258">
         <v>-1</v>
       </c>
       <c r="AD258">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="259" spans="1:30">
@@ -24254,7 +24254,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6927363</v>
+        <v>6927364</v>
       </c>
       <c r="C259" t="s">
         <v>29</v>
@@ -24263,10 +24263,10 @@
         <v>45394.60416666666</v>
       </c>
       <c r="E259" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F259" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -24284,41 +24284,41 @@
         <v>49</v>
       </c>
       <c r="L259">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="M259">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N259">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="O259">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="P259">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q259">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="R259">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S259">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T259">
+        <v>1.825</v>
+      </c>
+      <c r="U259">
+        <v>2.75</v>
+      </c>
+      <c r="V259">
+        <v>2</v>
+      </c>
+      <c r="W259">
         <v>1.8</v>
       </c>
-      <c r="U259">
-        <v>2.5</v>
-      </c>
-      <c r="V259">
-        <v>1.975</v>
-      </c>
-      <c r="W259">
-        <v>1.825</v>
-      </c>
       <c r="X259">
         <v>-1</v>
       </c>
@@ -24326,19 +24326,19 @@
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>0.75</v>
+        <v>1.9</v>
       </c>
       <c r="AA259">
         <v>-1</v>
       </c>
       <c r="AB259">
+        <v>0.825</v>
+      </c>
+      <c r="AC259">
+        <v>-1</v>
+      </c>
+      <c r="AD259">
         <v>0.8</v>
-      </c>
-      <c r="AC259">
-        <v>-1</v>
-      </c>
-      <c r="AD259">
-        <v>0.825</v>
       </c>
     </row>
     <row r="260" spans="1:30">
@@ -24346,7 +24346,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6927155</v>
+        <v>6927153</v>
       </c>
       <c r="C260" t="s">
         <v>29</v>
@@ -24355,16 +24355,16 @@
         <v>45394.60416666666</v>
       </c>
       <c r="E260" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F260" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260">
         <v>0</v>
@@ -24373,64 +24373,64 @@
         <v>0</v>
       </c>
       <c r="K260" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L260">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="M260">
         <v>2.875</v>
       </c>
       <c r="N260">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="O260">
         <v>2.625</v>
       </c>
       <c r="P260">
+        <v>2.7</v>
+      </c>
+      <c r="Q260">
         <v>2.75</v>
       </c>
-      <c r="Q260">
-        <v>2.8</v>
-      </c>
       <c r="R260">
         <v>0</v>
       </c>
       <c r="S260">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T260">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U260">
         <v>2</v>
       </c>
       <c r="V260">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W260">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X260">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="AA260">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB260">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC260">
         <v>-1</v>
       </c>
       <c r="AD260">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="261" spans="1:30">
@@ -24438,7 +24438,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6927154</v>
+        <v>6927362</v>
       </c>
       <c r="C261" t="s">
         <v>29</v>
@@ -24447,82 +24447,82 @@
         <v>45394.60416666666</v>
       </c>
       <c r="E261" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F261" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G261">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K261" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L261">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="M261">
         <v>2.875</v>
       </c>
       <c r="N261">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="O261">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="P261">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q261">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="R261">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S261">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T261">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U261">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V261">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W261">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X261">
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z261">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA261">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB261">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC261">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AD261">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:30">
@@ -24530,7 +24530,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6927153</v>
+        <v>6927154</v>
       </c>
       <c r="C262" t="s">
         <v>29</v>
@@ -24539,16 +24539,16 @@
         <v>45394.60416666666</v>
       </c>
       <c r="E262" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F262" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G262">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I262">
         <v>0</v>
@@ -24557,64 +24557,64 @@
         <v>0</v>
       </c>
       <c r="K262" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L262">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="M262">
         <v>2.875</v>
       </c>
       <c r="N262">
+        <v>2.625</v>
+      </c>
+      <c r="O262">
+        <v>2.5</v>
+      </c>
+      <c r="P262">
+        <v>2.8</v>
+      </c>
+      <c r="Q262">
         <v>2.875</v>
       </c>
-      <c r="O262">
-        <v>2.625</v>
-      </c>
-      <c r="P262">
-        <v>2.7</v>
-      </c>
-      <c r="Q262">
-        <v>2.75</v>
-      </c>
       <c r="R262">
         <v>0</v>
       </c>
       <c r="S262">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T262">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U262">
         <v>2</v>
       </c>
       <c r="V262">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W262">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X262">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y262">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z262">
         <v>-1</v>
       </c>
       <c r="AA262">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB262">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC262">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD262">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:30">
@@ -24622,7 +24622,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6927362</v>
+        <v>6927363</v>
       </c>
       <c r="C263" t="s">
         <v>29</v>
@@ -24631,19 +24631,19 @@
         <v>45394.60416666666</v>
       </c>
       <c r="E263" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F263" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H263">
         <v>2</v>
       </c>
       <c r="I263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J263">
         <v>1</v>
@@ -24652,41 +24652,41 @@
         <v>49</v>
       </c>
       <c r="L263">
+        <v>4.5</v>
+      </c>
+      <c r="M263">
+        <v>3.6</v>
+      </c>
+      <c r="N263">
+        <v>1.65</v>
+      </c>
+      <c r="O263">
+        <v>4</v>
+      </c>
+      <c r="P263">
+        <v>3.4</v>
+      </c>
+      <c r="Q263">
+        <v>1.75</v>
+      </c>
+      <c r="R263">
+        <v>0.5</v>
+      </c>
+      <c r="S263">
+        <v>2</v>
+      </c>
+      <c r="T263">
+        <v>1.8</v>
+      </c>
+      <c r="U263">
         <v>2.5</v>
       </c>
-      <c r="M263">
-        <v>2.875</v>
-      </c>
-      <c r="N263">
-        <v>2.75</v>
-      </c>
-      <c r="O263">
-        <v>2.2</v>
-      </c>
-      <c r="P263">
-        <v>3</v>
-      </c>
-      <c r="Q263">
-        <v>3.1</v>
-      </c>
-      <c r="R263">
-        <v>-0.25</v>
-      </c>
-      <c r="S263">
+      <c r="V263">
         <v>1.975</v>
       </c>
-      <c r="T263">
+      <c r="W263">
         <v>1.825</v>
       </c>
-      <c r="U263">
-        <v>2.25</v>
-      </c>
-      <c r="V263">
-        <v>1.95</v>
-      </c>
-      <c r="W263">
-        <v>1.85</v>
-      </c>
       <c r="X263">
         <v>-1</v>
       </c>
@@ -24694,19 +24694,19 @@
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>2.1</v>
+        <v>0.75</v>
       </c>
       <c r="AA263">
         <v>-1</v>
       </c>
       <c r="AB263">
+        <v>0.8</v>
+      </c>
+      <c r="AC263">
+        <v>-1</v>
+      </c>
+      <c r="AD263">
         <v>0.825</v>
-      </c>
-      <c r="AC263">
-        <v>0.95</v>
-      </c>
-      <c r="AD263">
-        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:30">
@@ -26646,7 +26646,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6927373</v>
+        <v>6926938</v>
       </c>
       <c r="C285" t="s">
         <v>29</v>
@@ -26655,82 +26655,82 @@
         <v>45415.60416666666</v>
       </c>
       <c r="E285" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F285" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K285" t="s">
         <v>49</v>
       </c>
       <c r="L285">
-        <v>1.65</v>
+        <v>2.7</v>
       </c>
       <c r="M285">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N285">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="O285">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="P285">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q285">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="R285">
+        <v>0</v>
+      </c>
+      <c r="S285">
+        <v>1.975</v>
+      </c>
+      <c r="T285">
+        <v>1.825</v>
+      </c>
+      <c r="U285">
+        <v>2.75</v>
+      </c>
+      <c r="V285">
+        <v>1.925</v>
+      </c>
+      <c r="W285">
+        <v>1.775</v>
+      </c>
+      <c r="X285">
+        <v>-1</v>
+      </c>
+      <c r="Y285">
+        <v>-1</v>
+      </c>
+      <c r="Z285">
+        <v>1.45</v>
+      </c>
+      <c r="AA285">
+        <v>-1</v>
+      </c>
+      <c r="AB285">
+        <v>0.825</v>
+      </c>
+      <c r="AC285">
+        <v>0.4625</v>
+      </c>
+      <c r="AD285">
         <v>-0.5</v>
-      </c>
-      <c r="S285">
-        <v>1.9</v>
-      </c>
-      <c r="T285">
-        <v>1.9</v>
-      </c>
-      <c r="U285">
-        <v>2.5</v>
-      </c>
-      <c r="V285">
-        <v>1.975</v>
-      </c>
-      <c r="W285">
-        <v>1.825</v>
-      </c>
-      <c r="X285">
-        <v>-1</v>
-      </c>
-      <c r="Y285">
-        <v>-1</v>
-      </c>
-      <c r="Z285">
-        <v>2.8</v>
-      </c>
-      <c r="AA285">
-        <v>-1</v>
-      </c>
-      <c r="AB285">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC285">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AD285">
-        <v>-1</v>
       </c>
     </row>
     <row r="286" spans="1:30">
@@ -26738,7 +26738,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6926938</v>
+        <v>6927373</v>
       </c>
       <c r="C286" t="s">
         <v>29</v>
@@ -26747,62 +26747,62 @@
         <v>45415.60416666666</v>
       </c>
       <c r="E286" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F286" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H286">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K286" t="s">
         <v>49</v>
       </c>
       <c r="L286">
-        <v>2.7</v>
+        <v>1.65</v>
       </c>
       <c r="M286">
+        <v>3.6</v>
+      </c>
+      <c r="N286">
+        <v>4.75</v>
+      </c>
+      <c r="O286">
+        <v>1.85</v>
+      </c>
+      <c r="P286">
         <v>3.25</v>
       </c>
-      <c r="N286">
-        <v>2.4</v>
-      </c>
-      <c r="O286">
-        <v>2.6</v>
-      </c>
-      <c r="P286">
-        <v>3.2</v>
-      </c>
       <c r="Q286">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="R286">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S286">
+        <v>1.9</v>
+      </c>
+      <c r="T286">
+        <v>1.9</v>
+      </c>
+      <c r="U286">
+        <v>2.5</v>
+      </c>
+      <c r="V286">
         <v>1.975</v>
       </c>
-      <c r="T286">
+      <c r="W286">
         <v>1.825</v>
       </c>
-      <c r="U286">
-        <v>2.75</v>
-      </c>
-      <c r="V286">
-        <v>1.925</v>
-      </c>
-      <c r="W286">
-        <v>1.775</v>
-      </c>
       <c r="X286">
         <v>-1</v>
       </c>
@@ -26810,19 +26810,19 @@
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="AA286">
         <v>-1</v>
       </c>
       <c r="AB286">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC286">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD286">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:30">
@@ -26830,7 +26830,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6927376</v>
+        <v>6927375</v>
       </c>
       <c r="C287" t="s">
         <v>29</v>
@@ -26839,46 +26839,46 @@
         <v>45415.60416666666</v>
       </c>
       <c r="E287" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F287" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K287" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L287">
+        <v>2.1</v>
+      </c>
+      <c r="M287">
+        <v>3</v>
+      </c>
+      <c r="N287">
         <v>3.5</v>
       </c>
-      <c r="M287">
-        <v>3.25</v>
-      </c>
-      <c r="N287">
-        <v>2</v>
-      </c>
       <c r="O287">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="P287">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="Q287">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="R287">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S287">
         <v>2</v>
@@ -26890,31 +26890,31 @@
         <v>2.25</v>
       </c>
       <c r="V287">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W287">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X287">
         <v>-1</v>
       </c>
       <c r="Y287">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z287">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA287">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB287">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC287">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD287">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288" spans="1:30">
@@ -27014,7 +27014,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6927375</v>
+        <v>6927376</v>
       </c>
       <c r="C289" t="s">
         <v>29</v>
@@ -27023,46 +27023,46 @@
         <v>45415.60416666666</v>
       </c>
       <c r="E289" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F289" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K289" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L289">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="M289">
+        <v>3.25</v>
+      </c>
+      <c r="N289">
+        <v>2</v>
+      </c>
+      <c r="O289">
+        <v>2.7</v>
+      </c>
+      <c r="P289">
         <v>3</v>
       </c>
-      <c r="N289">
-        <v>3.5</v>
-      </c>
-      <c r="O289">
-        <v>2.3</v>
-      </c>
-      <c r="P289">
-        <v>2.875</v>
-      </c>
       <c r="Q289">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="R289">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S289">
         <v>2</v>
@@ -27074,31 +27074,31 @@
         <v>2.25</v>
       </c>
       <c r="V289">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W289">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X289">
         <v>-1</v>
       </c>
       <c r="Y289">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z289">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA289">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB289">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC289">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD289">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="290" spans="1:30">
@@ -27566,7 +27566,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7054884</v>
+        <v>7054878</v>
       </c>
       <c r="C295" t="s">
         <v>29</v>
@@ -27575,82 +27575,82 @@
         <v>45422.66666666666</v>
       </c>
       <c r="E295" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F295" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G295">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J295">
         <v>0</v>
       </c>
       <c r="K295" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L295">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M295">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N295">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O295">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="P295">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q295">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="R295">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S295">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T295">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U295">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V295">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W295">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X295">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y295">
         <v>-1</v>
       </c>
       <c r="Z295">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="AA295">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB295">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC295">
         <v>-1</v>
       </c>
       <c r="AD295">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="296" spans="1:30">
@@ -27658,7 +27658,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7054878</v>
+        <v>7054884</v>
       </c>
       <c r="C296" t="s">
         <v>29</v>
@@ -27667,82 +27667,82 @@
         <v>45422.66666666666</v>
       </c>
       <c r="E296" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F296" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G296">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J296">
         <v>0</v>
       </c>
       <c r="K296" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L296">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="M296">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N296">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O296">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="P296">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q296">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="R296">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S296">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T296">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U296">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V296">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W296">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X296">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y296">
         <v>-1</v>
       </c>
       <c r="Z296">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="AA296">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB296">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC296">
         <v>-1</v>
       </c>
       <c r="AD296">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="297" spans="1:30">
@@ -28394,7 +28394,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>7089134</v>
+        <v>7089131</v>
       </c>
       <c r="C304" t="s">
         <v>29</v>
@@ -28403,79 +28403,79 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E304" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F304" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G304">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H304">
+        <v>2</v>
+      </c>
+      <c r="I304">
+        <v>3</v>
+      </c>
+      <c r="J304">
+        <v>2</v>
+      </c>
+      <c r="K304" t="s">
+        <v>48</v>
+      </c>
+      <c r="L304">
+        <v>1.5</v>
+      </c>
+      <c r="M304">
+        <v>4.2</v>
+      </c>
+      <c r="N304">
+        <v>4.75</v>
+      </c>
+      <c r="O304">
+        <v>1.38</v>
+      </c>
+      <c r="P304">
         <v>5</v>
       </c>
-      <c r="I304">
-        <v>0</v>
-      </c>
-      <c r="J304">
-        <v>2</v>
-      </c>
-      <c r="K304" t="s">
-        <v>49</v>
-      </c>
-      <c r="L304">
-        <v>2.2</v>
-      </c>
-      <c r="M304">
+      <c r="Q304">
+        <v>5.5</v>
+      </c>
+      <c r="R304">
+        <v>-1.5</v>
+      </c>
+      <c r="S304">
+        <v>1.95</v>
+      </c>
+      <c r="T304">
+        <v>1.85</v>
+      </c>
+      <c r="U304">
         <v>3.25</v>
       </c>
-      <c r="N304">
-        <v>2.9</v>
-      </c>
-      <c r="O304">
-        <v>2.45</v>
-      </c>
-      <c r="P304">
-        <v>3.3</v>
-      </c>
-      <c r="Q304">
-        <v>2.55</v>
-      </c>
-      <c r="R304">
-        <v>0</v>
-      </c>
-      <c r="S304">
-        <v>1.825</v>
-      </c>
-      <c r="T304">
-        <v>1.975</v>
-      </c>
-      <c r="U304">
-        <v>2.5</v>
-      </c>
       <c r="V304">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W304">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X304">
-        <v>-1</v>
+        <v>0.3799999999999999</v>
       </c>
       <c r="Y304">
         <v>-1</v>
       </c>
       <c r="Z304">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="AA304">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB304">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC304">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD304">
         <v>-1</v>
@@ -28486,7 +28486,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>8213862</v>
+        <v>7089134</v>
       </c>
       <c r="C305" t="s">
         <v>29</v>
@@ -28495,28 +28495,28 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E305" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F305" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J305">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K305" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L305">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="M305">
         <v>3.25</v>
@@ -28525,28 +28525,28 @@
         <v>2.9</v>
       </c>
       <c r="O305">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="P305">
         <v>3.3</v>
       </c>
       <c r="Q305">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="R305">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S305">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T305">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U305">
         <v>2.5</v>
       </c>
       <c r="V305">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W305">
         <v>1.925</v>
@@ -28555,22 +28555,22 @@
         <v>-1</v>
       </c>
       <c r="Y305">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z305">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="AA305">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB305">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC305">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD305">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306" spans="1:30">
@@ -28578,7 +28578,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>8213863</v>
+        <v>8213862</v>
       </c>
       <c r="C306" t="s">
         <v>29</v>
@@ -28587,10 +28587,10 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E306" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F306" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G306">
         <v>1</v>
@@ -28608,46 +28608,46 @@
         <v>50</v>
       </c>
       <c r="L306">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="M306">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N306">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="O306">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P306">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q306">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="R306">
         <v>-0.25</v>
       </c>
       <c r="S306">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T306">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U306">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V306">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W306">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X306">
         <v>-1</v>
       </c>
       <c r="Y306">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Z306">
         <v>-1</v>
@@ -28656,13 +28656,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB306">
-        <v>0.4125</v>
+        <v>0.4375</v>
       </c>
       <c r="AC306">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD306">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="307" spans="1:30">
@@ -28670,7 +28670,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>8213864</v>
+        <v>8213863</v>
       </c>
       <c r="C307" t="s">
         <v>29</v>
@@ -28679,82 +28679,82 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E307" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F307" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G307">
         <v>1</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307">
         <v>1</v>
       </c>
       <c r="J307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K307" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L307">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="M307">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N307">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="O307">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="P307">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q307">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="R307">
+        <v>-0.25</v>
+      </c>
+      <c r="S307">
+        <v>1.975</v>
+      </c>
+      <c r="T307">
+        <v>1.825</v>
+      </c>
+      <c r="U307">
+        <v>2.25</v>
+      </c>
+      <c r="V307">
+        <v>1.8</v>
+      </c>
+      <c r="W307">
+        <v>2</v>
+      </c>
+      <c r="X307">
+        <v>-1</v>
+      </c>
+      <c r="Y307">
+        <v>2.1</v>
+      </c>
+      <c r="Z307">
+        <v>-1</v>
+      </c>
+      <c r="AA307">
         <v>-0.5</v>
       </c>
-      <c r="S307">
-        <v>1.95</v>
-      </c>
-      <c r="T307">
-        <v>1.85</v>
-      </c>
-      <c r="U307">
-        <v>2.75</v>
-      </c>
-      <c r="V307">
-        <v>1.825</v>
-      </c>
-      <c r="W307">
-        <v>1.975</v>
-      </c>
-      <c r="X307">
-        <v>-1</v>
-      </c>
-      <c r="Y307">
-        <v>-1</v>
-      </c>
-      <c r="Z307">
-        <v>2.2</v>
-      </c>
-      <c r="AA307">
-        <v>-1</v>
-      </c>
       <c r="AB307">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC307">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AD307">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="308" spans="1:30">
@@ -28762,7 +28762,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7089127</v>
+        <v>8213864</v>
       </c>
       <c r="C308" t="s">
         <v>29</v>
@@ -28771,52 +28771,52 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E308" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F308" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G308">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K308" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L308">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="M308">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N308">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="O308">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="P308">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q308">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="R308">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S308">
+        <v>1.95</v>
+      </c>
+      <c r="T308">
         <v>1.85</v>
-      </c>
-      <c r="T308">
-        <v>1.95</v>
       </c>
       <c r="U308">
         <v>2.75</v>
@@ -28828,19 +28828,19 @@
         <v>1.975</v>
       </c>
       <c r="X308">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y308">
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA308">
+        <v>-1</v>
+      </c>
+      <c r="AB308">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB308">
-        <v>-1</v>
       </c>
       <c r="AC308">
         <v>0.4125</v>
@@ -28854,7 +28854,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7089131</v>
+        <v>7089127</v>
       </c>
       <c r="C309" t="s">
         <v>29</v>
@@ -28863,64 +28863,64 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E309" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F309" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G309">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J309">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K309" t="s">
         <v>48</v>
       </c>
       <c r="L309">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="M309">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="N309">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="O309">
-        <v>1.38</v>
+        <v>2.1</v>
       </c>
       <c r="P309">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q309">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="R309">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S309">
+        <v>1.85</v>
+      </c>
+      <c r="T309">
         <v>1.95</v>
       </c>
-      <c r="T309">
-        <v>1.85</v>
-      </c>
       <c r="U309">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V309">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W309">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X309">
-        <v>0.3799999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="Y309">
         <v>-1</v>
@@ -28929,16 +28929,16 @@
         <v>-1</v>
       </c>
       <c r="AA309">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB309">
         <v>-1</v>
       </c>
       <c r="AC309">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AD309">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/France National/France National.xlsx
+++ b/France National/France National.xlsx
@@ -2100,7 +2100,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6927295</v>
+        <v>6927049</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -2109,16 +2109,16 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2127,64 +2127,64 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="M18">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N18">
+        <v>2.5</v>
+      </c>
+      <c r="O18">
+        <v>2.3</v>
+      </c>
+      <c r="P18">
+        <v>2.9</v>
+      </c>
+      <c r="Q18">
         <v>3</v>
-      </c>
-      <c r="O18">
-        <v>2.1</v>
-      </c>
-      <c r="P18">
-        <v>3.2</v>
-      </c>
-      <c r="Q18">
-        <v>3.2</v>
       </c>
       <c r="R18">
         <v>-0.25</v>
       </c>
       <c r="S18">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T18">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U18">
         <v>2.25</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W18">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC18">
         <v>-1</v>
       </c>
       <c r="AD18">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -2192,7 +2192,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6927049</v>
+        <v>6927295</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -2201,16 +2201,16 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2219,64 +2219,64 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L19">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="M19">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N19">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O19">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="P19">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="R19">
         <v>-0.25</v>
       </c>
       <c r="S19">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T19">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U19">
         <v>2.25</v>
       </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z19">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB19">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AC19">
         <v>-1</v>
       </c>
       <c r="AD19">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -2376,7 +2376,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6926921</v>
+        <v>6927052</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -2385,82 +2385,82 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L21">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="M21">
+        <v>3.3</v>
+      </c>
+      <c r="N21">
+        <v>4.1</v>
+      </c>
+      <c r="O21">
+        <v>2.1</v>
+      </c>
+      <c r="P21">
         <v>3.1</v>
       </c>
-      <c r="N21">
+      <c r="Q21">
         <v>3.1</v>
-      </c>
-      <c r="O21">
-        <v>2.375</v>
-      </c>
-      <c r="P21">
-        <v>2.9</v>
-      </c>
-      <c r="Q21">
-        <v>3</v>
       </c>
       <c r="R21">
         <v>-0.25</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="U21">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z21">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB21">
-        <v>0.7</v>
+        <v>0.4625</v>
       </c>
       <c r="AC21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD21">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -2468,7 +2468,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6927053</v>
+        <v>6926921</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2477,55 +2477,55 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22">
+        <v>2.15</v>
+      </c>
+      <c r="M22">
+        <v>3.1</v>
+      </c>
+      <c r="N22">
+        <v>3.1</v>
+      </c>
+      <c r="O22">
+        <v>2.375</v>
+      </c>
+      <c r="P22">
+        <v>2.9</v>
+      </c>
+      <c r="Q22">
         <v>3</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22" t="s">
-        <v>48</v>
-      </c>
-      <c r="L22">
-        <v>1.85</v>
-      </c>
-      <c r="M22">
-        <v>3.4</v>
-      </c>
-      <c r="N22">
-        <v>3.6</v>
-      </c>
-      <c r="O22">
-        <v>1.615</v>
-      </c>
-      <c r="P22">
-        <v>3.6</v>
-      </c>
-      <c r="Q22">
-        <v>4.5</v>
-      </c>
       <c r="R22">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S22">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="U22">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V22">
         <v>1.9</v>
@@ -2534,25 +2534,25 @@
         <v>1.9</v>
       </c>
       <c r="X22">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AC22">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD22">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -2560,7 +2560,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6927052</v>
+        <v>6927053</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2569,82 +2569,82 @@
         <v>45163.60416666666</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L23">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="M23">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N23">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="O23">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="P23">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q23">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="R23">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S23">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T23">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U23">
         <v>2.5</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y23">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD23">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -24070,7 +24070,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6927155</v>
+        <v>7101752</v>
       </c>
       <c r="C257" t="s">
         <v>29</v>
@@ -24079,82 +24079,82 @@
         <v>45394.60416666666</v>
       </c>
       <c r="E257" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F257" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257">
         <v>0</v>
       </c>
       <c r="K257" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L257">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="M257">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N257">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O257">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="P257">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q257">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="R257">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S257">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T257">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U257">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V257">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W257">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X257">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="AA257">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB257">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC257">
         <v>-1</v>
       </c>
       <c r="AD257">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="258" spans="1:30">
@@ -24162,7 +24162,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7101752</v>
+        <v>6927364</v>
       </c>
       <c r="C258" t="s">
         <v>29</v>
@@ -24171,82 +24171,82 @@
         <v>45394.60416666666</v>
       </c>
       <c r="E258" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F258" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K258" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L258">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="M258">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N258">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="O258">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="P258">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q258">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="R258">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S258">
+        <v>1.975</v>
+      </c>
+      <c r="T258">
+        <v>1.825</v>
+      </c>
+      <c r="U258">
+        <v>2.75</v>
+      </c>
+      <c r="V258">
+        <v>2</v>
+      </c>
+      <c r="W258">
+        <v>1.8</v>
+      </c>
+      <c r="X258">
+        <v>-1</v>
+      </c>
+      <c r="Y258">
+        <v>-1</v>
+      </c>
+      <c r="Z258">
         <v>1.9</v>
       </c>
-      <c r="T258">
-        <v>1.9</v>
-      </c>
-      <c r="U258">
-        <v>2.5</v>
-      </c>
-      <c r="V258">
-        <v>1.95</v>
-      </c>
-      <c r="W258">
-        <v>1.85</v>
-      </c>
-      <c r="X258">
-        <v>2.2</v>
-      </c>
-      <c r="Y258">
-        <v>-1</v>
-      </c>
-      <c r="Z258">
-        <v>-1</v>
-      </c>
       <c r="AA258">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB258">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC258">
         <v>-1</v>
       </c>
       <c r="AD258">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="259" spans="1:30">
@@ -24254,7 +24254,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6927364</v>
+        <v>6927155</v>
       </c>
       <c r="C259" t="s">
         <v>29</v>
@@ -24263,82 +24263,82 @@
         <v>45394.60416666666</v>
       </c>
       <c r="E259" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F259" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G259">
         <v>0</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259">
         <v>0</v>
       </c>
       <c r="J259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K259" t="s">
         <v>49</v>
       </c>
       <c r="L259">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="M259">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="N259">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="O259">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="P259">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q259">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="R259">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S259">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T259">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U259">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="V259">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W259">
+        <v>1.875</v>
+      </c>
+      <c r="X259">
+        <v>-1</v>
+      </c>
+      <c r="Y259">
+        <v>-1</v>
+      </c>
+      <c r="Z259">
         <v>1.8</v>
       </c>
-      <c r="X259">
-        <v>-1</v>
-      </c>
-      <c r="Y259">
-        <v>-1</v>
-      </c>
-      <c r="Z259">
-        <v>1.9</v>
-      </c>
       <c r="AA259">
         <v>-1</v>
       </c>
       <c r="AB259">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC259">
         <v>-1</v>
       </c>
       <c r="AD259">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="260" spans="1:30">
@@ -24346,7 +24346,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6927153</v>
+        <v>6927362</v>
       </c>
       <c r="C260" t="s">
         <v>29</v>
@@ -24355,82 +24355,82 @@
         <v>45394.60416666666</v>
       </c>
       <c r="E260" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F260" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G260">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K260" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L260">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M260">
         <v>2.875</v>
       </c>
       <c r="N260">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="O260">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="P260">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q260">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="R260">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S260">
+        <v>1.975</v>
+      </c>
+      <c r="T260">
+        <v>1.825</v>
+      </c>
+      <c r="U260">
+        <v>2.25</v>
+      </c>
+      <c r="V260">
+        <v>1.95</v>
+      </c>
+      <c r="W260">
         <v>1.85</v>
       </c>
-      <c r="T260">
-        <v>1.95</v>
-      </c>
-      <c r="U260">
-        <v>2</v>
-      </c>
-      <c r="V260">
-        <v>1.825</v>
-      </c>
-      <c r="W260">
-        <v>1.975</v>
-      </c>
       <c r="X260">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA260">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB260">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC260">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD260">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261" spans="1:30">
@@ -24438,7 +24438,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6927362</v>
+        <v>6927154</v>
       </c>
       <c r="C261" t="s">
         <v>29</v>
@@ -24447,82 +24447,82 @@
         <v>45394.60416666666</v>
       </c>
       <c r="E261" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F261" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G261">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K261" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L261">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="M261">
         <v>2.875</v>
       </c>
       <c r="N261">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="O261">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="P261">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q261">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="R261">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S261">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T261">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U261">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V261">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W261">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X261">
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z261">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA261">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB261">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC261">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AD261">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:30">
@@ -24530,7 +24530,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6927154</v>
+        <v>6927153</v>
       </c>
       <c r="C262" t="s">
         <v>29</v>
@@ -24539,16 +24539,16 @@
         <v>45394.60416666666</v>
       </c>
       <c r="E262" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F262" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G262">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262">
         <v>0</v>
@@ -24557,64 +24557,64 @@
         <v>0</v>
       </c>
       <c r="K262" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L262">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="M262">
         <v>2.875</v>
       </c>
       <c r="N262">
+        <v>2.875</v>
+      </c>
+      <c r="O262">
         <v>2.625</v>
       </c>
-      <c r="O262">
-        <v>2.5</v>
-      </c>
       <c r="P262">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q262">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="R262">
         <v>0</v>
       </c>
       <c r="S262">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T262">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U262">
         <v>2</v>
       </c>
       <c r="V262">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W262">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X262">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y262">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z262">
         <v>-1</v>
       </c>
       <c r="AA262">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB262">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC262">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD262">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="263" spans="1:30">
@@ -28394,7 +28394,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>7089131</v>
+        <v>7089134</v>
       </c>
       <c r="C304" t="s">
         <v>29</v>
@@ -28403,79 +28403,79 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E304" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F304" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G304">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I304">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J304">
         <v>2</v>
       </c>
       <c r="K304" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L304">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="M304">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N304">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="O304">
-        <v>1.38</v>
+        <v>2.45</v>
       </c>
       <c r="P304">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q304">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="R304">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="S304">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T304">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U304">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V304">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W304">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X304">
-        <v>0.3799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y304">
         <v>-1</v>
       </c>
       <c r="Z304">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="AA304">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB304">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC304">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AD304">
         <v>-1</v>
@@ -28486,7 +28486,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7089134</v>
+        <v>8213862</v>
       </c>
       <c r="C305" t="s">
         <v>29</v>
@@ -28495,28 +28495,28 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E305" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F305" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H305">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J305">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K305" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L305">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="M305">
         <v>3.25</v>
@@ -28525,28 +28525,28 @@
         <v>2.9</v>
       </c>
       <c r="O305">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="P305">
         <v>3.3</v>
       </c>
       <c r="Q305">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="R305">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S305">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T305">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U305">
         <v>2.5</v>
       </c>
       <c r="V305">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W305">
         <v>1.925</v>
@@ -28555,22 +28555,22 @@
         <v>-1</v>
       </c>
       <c r="Y305">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z305">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="AA305">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB305">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC305">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD305">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="306" spans="1:30">
@@ -28578,7 +28578,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>8213862</v>
+        <v>8213863</v>
       </c>
       <c r="C306" t="s">
         <v>29</v>
@@ -28587,10 +28587,10 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E306" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F306" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G306">
         <v>1</v>
@@ -28608,46 +28608,46 @@
         <v>50</v>
       </c>
       <c r="L306">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="M306">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N306">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="O306">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P306">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q306">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="R306">
         <v>-0.25</v>
       </c>
       <c r="S306">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T306">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U306">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V306">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W306">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X306">
         <v>-1</v>
       </c>
       <c r="Y306">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z306">
         <v>-1</v>
@@ -28656,13 +28656,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB306">
-        <v>0.4375</v>
+        <v>0.4125</v>
       </c>
       <c r="AC306">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD306">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="307" spans="1:30">
@@ -28670,7 +28670,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>8213863</v>
+        <v>8213864</v>
       </c>
       <c r="C307" t="s">
         <v>29</v>
@@ -28679,82 +28679,82 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E307" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F307" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G307">
         <v>1</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I307">
         <v>1</v>
       </c>
       <c r="J307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K307" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L307">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="M307">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N307">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="O307">
+        <v>1.909</v>
+      </c>
+      <c r="P307">
+        <v>3.6</v>
+      </c>
+      <c r="Q307">
+        <v>3.2</v>
+      </c>
+      <c r="R307">
+        <v>-0.5</v>
+      </c>
+      <c r="S307">
+        <v>1.95</v>
+      </c>
+      <c r="T307">
+        <v>1.85</v>
+      </c>
+      <c r="U307">
+        <v>2.75</v>
+      </c>
+      <c r="V307">
+        <v>1.825</v>
+      </c>
+      <c r="W307">
+        <v>1.975</v>
+      </c>
+      <c r="X307">
+        <v>-1</v>
+      </c>
+      <c r="Y307">
+        <v>-1</v>
+      </c>
+      <c r="Z307">
         <v>2.2</v>
       </c>
-      <c r="P307">
-        <v>3.1</v>
-      </c>
-      <c r="Q307">
-        <v>3</v>
-      </c>
-      <c r="R307">
-        <v>-0.25</v>
-      </c>
-      <c r="S307">
-        <v>1.975</v>
-      </c>
-      <c r="T307">
-        <v>1.825</v>
-      </c>
-      <c r="U307">
-        <v>2.25</v>
-      </c>
-      <c r="V307">
-        <v>1.8</v>
-      </c>
-      <c r="W307">
-        <v>2</v>
-      </c>
-      <c r="X307">
-        <v>-1</v>
-      </c>
-      <c r="Y307">
-        <v>2.1</v>
-      </c>
-      <c r="Z307">
-        <v>-1</v>
-      </c>
       <c r="AA307">
+        <v>-1</v>
+      </c>
+      <c r="AB307">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC307">
+        <v>0.4125</v>
+      </c>
+      <c r="AD307">
         <v>-0.5</v>
-      </c>
-      <c r="AB307">
-        <v>0.4125</v>
-      </c>
-      <c r="AC307">
-        <v>-0.5</v>
-      </c>
-      <c r="AD307">
-        <v>0.5</v>
       </c>
     </row>
     <row r="308" spans="1:30">
@@ -28762,7 +28762,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>8213864</v>
+        <v>7089127</v>
       </c>
       <c r="C308" t="s">
         <v>29</v>
@@ -28771,52 +28771,52 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E308" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F308" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G308">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K308" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L308">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="M308">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N308">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="O308">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="P308">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q308">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="R308">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S308">
+        <v>1.85</v>
+      </c>
+      <c r="T308">
         <v>1.95</v>
-      </c>
-      <c r="T308">
-        <v>1.85</v>
       </c>
       <c r="U308">
         <v>2.75</v>
@@ -28828,19 +28828,19 @@
         <v>1.975</v>
       </c>
       <c r="X308">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y308">
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB308">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC308">
         <v>0.4125</v>
@@ -28854,7 +28854,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7089127</v>
+        <v>7089131</v>
       </c>
       <c r="C309" t="s">
         <v>29</v>
@@ -28863,64 +28863,64 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E309" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F309" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G309">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I309">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J309">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K309" t="s">
         <v>48</v>
       </c>
       <c r="L309">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="M309">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="N309">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="O309">
-        <v>2.1</v>
+        <v>1.38</v>
       </c>
       <c r="P309">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Q309">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="R309">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S309">
+        <v>1.95</v>
+      </c>
+      <c r="T309">
         <v>1.85</v>
       </c>
-      <c r="T309">
+      <c r="U309">
+        <v>3.25</v>
+      </c>
+      <c r="V309">
+        <v>1.85</v>
+      </c>
+      <c r="W309">
         <v>1.95</v>
       </c>
-      <c r="U309">
-        <v>2.75</v>
-      </c>
-      <c r="V309">
-        <v>1.825</v>
-      </c>
-      <c r="W309">
-        <v>1.975</v>
-      </c>
       <c r="X309">
-        <v>1.1</v>
+        <v>0.3799999999999999</v>
       </c>
       <c r="Y309">
         <v>-1</v>
@@ -28929,16 +28929,16 @@
         <v>-1</v>
       </c>
       <c r="AA309">
+        <v>0.95</v>
+      </c>
+      <c r="AB309">
+        <v>-1</v>
+      </c>
+      <c r="AC309">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB309">
-        <v>-1</v>
-      </c>
-      <c r="AC309">
-        <v>0.4125</v>
-      </c>
       <c r="AD309">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
